--- a/dashboards/Infrastructure.xlsx
+++ b/dashboards/Infrastructure.xlsx
@@ -531,16 +531,16 @@
         <v>519.970703125</v>
       </c>
       <c r="F2" t="n">
-        <v>372.306640625</v>
+        <v>372.3066101074219</v>
       </c>
       <c r="G2" t="n">
         <v>1702.263793945312</v>
       </c>
       <c r="I2" t="n">
-        <v>2030.88916015625</v>
+        <v>2030.889038085938</v>
       </c>
       <c r="J2" t="n">
-        <v>1638.2431640625</v>
+        <v>1638.243286132812</v>
       </c>
       <c r="K2" t="n">
         <v>6901.09228515625</v>
@@ -551,13 +551,13 @@
         <v>44929</v>
       </c>
       <c r="B3" t="n">
-        <v>2647.22021484375</v>
+        <v>2647.2197265625</v>
       </c>
       <c r="C3" t="n">
         <v>2413.62939453125</v>
       </c>
       <c r="D3" t="n">
-        <v>807.5606079101562</v>
+        <v>807.560546875</v>
       </c>
       <c r="E3" t="n">
         <v>524.365478515625</v>
@@ -566,7 +566,7 @@
         <v>372.2087097167969</v>
       </c>
       <c r="G3" t="n">
-        <v>1688.252807617188</v>
+        <v>1688.252685546875</v>
       </c>
       <c r="I3" t="n">
         <v>2030.403442382812</v>
@@ -583,10 +583,10 @@
         <v>44930</v>
       </c>
       <c r="B4" t="n">
-        <v>2662.77197265625</v>
+        <v>2662.772216796875</v>
       </c>
       <c r="C4" t="n">
-        <v>2380.626953125</v>
+        <v>2380.627197265625</v>
       </c>
       <c r="D4" t="n">
         <v>797.2747802734375</v>
@@ -595,13 +595,13 @@
         <v>512.41552734375</v>
       </c>
       <c r="F4" t="n">
-        <v>364.1778869628906</v>
+        <v>364.1779174804688</v>
       </c>
       <c r="G4" t="n">
         <v>1661.951293945312</v>
       </c>
       <c r="I4" t="n">
-        <v>2012.51904296875</v>
+        <v>2012.519165039062</v>
       </c>
       <c r="J4" t="n">
         <v>1630.771362304688</v>
@@ -615,7 +615,7 @@
         <v>44931</v>
       </c>
       <c r="B5" t="n">
-        <v>2761.991455078125</v>
+        <v>2761.9912109375</v>
       </c>
       <c r="C5" t="n">
         <v>2411.1591796875</v>
@@ -627,16 +627,16 @@
         <v>518.2423706054688</v>
       </c>
       <c r="F5" t="n">
-        <v>365.059326171875</v>
+        <v>365.0592956542969</v>
       </c>
       <c r="G5" t="n">
         <v>1669.817260742188</v>
       </c>
       <c r="I5" t="n">
-        <v>2028.848266601562</v>
+        <v>2028.84814453125</v>
       </c>
       <c r="J5" t="n">
-        <v>1676.96435546875</v>
+        <v>1676.964233398438</v>
       </c>
       <c r="K5" t="n">
         <v>6890.32421875</v>
@@ -659,10 +659,10 @@
         <v>513.353759765625</v>
       </c>
       <c r="F6" t="n">
-        <v>362.1212158203125</v>
+        <v>362.1212463378906</v>
       </c>
       <c r="G6" t="n">
-        <v>1652.414184570312</v>
+        <v>1652.4140625</v>
       </c>
       <c r="I6" t="n">
         <v>2028.070678710938</v>
@@ -671,7 +671,7 @@
         <v>1674.936889648438</v>
       </c>
       <c r="K6" t="n">
-        <v>6865.93798828125</v>
+        <v>6865.9375</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>44935</v>
       </c>
       <c r="B7" t="n">
-        <v>2817.211669921875</v>
+        <v>2817.21142578125</v>
       </c>
       <c r="C7" t="n">
         <v>2435.318359375</v>
@@ -691,10 +691,10 @@
         <v>518.2423706054688</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2345581054688</v>
+        <v>366.2345886230469</v>
       </c>
       <c r="G7" t="n">
-        <v>1645.531616210938</v>
+        <v>1645.531494140625</v>
       </c>
       <c r="I7" t="n">
         <v>2062.2353515625</v>
@@ -711,28 +711,28 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>2797.08203125</v>
+        <v>2797.082275390625</v>
       </c>
       <c r="C8" t="n">
         <v>2390.162109375</v>
       </c>
       <c r="D8" t="n">
-        <v>783.8883666992188</v>
+        <v>783.888427734375</v>
       </c>
       <c r="E8" t="n">
-        <v>508.0701293945312</v>
+        <v>508.0700988769531</v>
       </c>
       <c r="F8" t="n">
         <v>365.3531188964844</v>
       </c>
       <c r="G8" t="n">
-        <v>1623.310668945312</v>
+        <v>1623.310546875</v>
       </c>
       <c r="I8" t="n">
         <v>2047.607177734375</v>
       </c>
       <c r="J8" t="n">
-        <v>1662.454711914062</v>
+        <v>1662.454833984375</v>
       </c>
       <c r="K8" t="n">
         <v>6805.06787109375</v>
@@ -743,16 +743,16 @@
         <v>44937</v>
       </c>
       <c r="B9" t="n">
-        <v>2854.71337890625</v>
+        <v>2854.713623046875</v>
       </c>
       <c r="C9" t="n">
-        <v>2366.44775390625</v>
+        <v>2366.447509765625</v>
       </c>
       <c r="D9" t="n">
         <v>783.9376220703125</v>
       </c>
       <c r="E9" t="n">
-        <v>501.7988586425781</v>
+        <v>501.7988891601562</v>
       </c>
       <c r="F9" t="n">
         <v>364.4227294921875</v>
@@ -775,10 +775,10 @@
         <v>44938</v>
       </c>
       <c r="B10" t="n">
-        <v>2868.445068359375</v>
+        <v>2868.444580078125</v>
       </c>
       <c r="C10" t="n">
-        <v>2336.261474609375</v>
+        <v>2336.26123046875</v>
       </c>
       <c r="D10" t="n">
         <v>780.4926147460938</v>
@@ -787,19 +787,19 @@
         <v>504.0703125</v>
       </c>
       <c r="F10" t="n">
-        <v>367.1649169921875</v>
+        <v>367.1649475097656</v>
       </c>
       <c r="G10" t="n">
-        <v>1614.854858398438</v>
+        <v>1614.85498046875</v>
       </c>
       <c r="I10" t="n">
         <v>2099.218994140625</v>
       </c>
       <c r="J10" t="n">
-        <v>1726.835327148438</v>
+        <v>1726.83544921875</v>
       </c>
       <c r="K10" t="n">
-        <v>7034.23779296875</v>
+        <v>7034.2373046875</v>
       </c>
     </row>
     <row r="11">
@@ -807,16 +807,16 @@
         <v>44939</v>
       </c>
       <c r="B11" t="n">
-        <v>2854.467529296875</v>
+        <v>2854.4677734375</v>
       </c>
       <c r="C11" t="n">
-        <v>2339.02783203125</v>
+        <v>2339.028076171875</v>
       </c>
       <c r="D11" t="n">
         <v>782.1658935546875</v>
       </c>
       <c r="E11" t="n">
-        <v>512.2180786132812</v>
+        <v>512.218017578125</v>
       </c>
       <c r="F11" t="n">
         <v>369.2705688476562</v>
@@ -825,7 +825,7 @@
         <v>1627.341796875</v>
       </c>
       <c r="I11" t="n">
-        <v>2093.047119140625</v>
+        <v>2093.046875</v>
       </c>
       <c r="J11" t="n">
         <v>1718.32080078125</v>
@@ -839,13 +839,13 @@
         <v>44942</v>
       </c>
       <c r="B12" t="n">
-        <v>2827.349609375</v>
+        <v>2827.349853515625</v>
       </c>
       <c r="C12" t="n">
         <v>2333.296875</v>
       </c>
       <c r="D12" t="n">
-        <v>774.6852416992188</v>
+        <v>774.685302734375</v>
       </c>
       <c r="E12" t="n">
         <v>510.5884704589844</v>
@@ -854,13 +854,13 @@
         <v>366.0386962890625</v>
       </c>
       <c r="G12" t="n">
-        <v>1620.852416992188</v>
+        <v>1620.8525390625</v>
       </c>
       <c r="I12" t="n">
         <v>2077.301025390625</v>
       </c>
       <c r="J12" t="n">
-        <v>1705.056640625</v>
+        <v>1705.056518554688</v>
       </c>
       <c r="K12" t="n">
         <v>7163.54833984375</v>
@@ -877,7 +877,7 @@
         <v>2318.080322265625</v>
       </c>
       <c r="D13" t="n">
-        <v>772.4214477539062</v>
+        <v>772.42138671875</v>
       </c>
       <c r="E13" t="n">
         <v>511.082275390625</v>
@@ -892,7 +892,7 @@
         <v>2151.073974609375</v>
       </c>
       <c r="J13" t="n">
-        <v>1706.070068359375</v>
+        <v>1706.070190429688</v>
       </c>
       <c r="K13" t="n">
         <v>7254.802734375</v>
@@ -903,7 +903,7 @@
         <v>44944</v>
       </c>
       <c r="B14" t="n">
-        <v>2874.547607421875</v>
+        <v>2874.5478515625</v>
       </c>
       <c r="C14" t="n">
         <v>2336.854248046875</v>
@@ -912,16 +912,16 @@
         <v>774.1439208984375</v>
       </c>
       <c r="E14" t="n">
-        <v>513.9957275390625</v>
+        <v>513.9956665039062</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6339721679688</v>
+        <v>368.6340026855469</v>
       </c>
       <c r="G14" t="n">
-        <v>1648.382934570312</v>
+        <v>1648.3828125</v>
       </c>
       <c r="I14" t="n">
-        <v>2202.97705078125</v>
+        <v>2202.977294921875</v>
       </c>
       <c r="J14" t="n">
         <v>1775.113525390625</v>
@@ -935,7 +935,7 @@
         <v>44945</v>
       </c>
       <c r="B15" t="n">
-        <v>2872.87451171875</v>
+        <v>2872.874267578125</v>
       </c>
       <c r="C15" t="n">
         <v>2362.693115234375</v>
@@ -944,7 +944,7 @@
         <v>763.8580932617188</v>
       </c>
       <c r="E15" t="n">
-        <v>512.8106079101562</v>
+        <v>512.810546875</v>
       </c>
       <c r="F15" t="n">
         <v>367.6546325683594</v>
@@ -956,10 +956,10 @@
         <v>2209.392333984375</v>
       </c>
       <c r="J15" t="n">
-        <v>1765.2666015625</v>
+        <v>1765.266723632812</v>
       </c>
       <c r="K15" t="n">
-        <v>7092.25537109375</v>
+        <v>7092.2548828125</v>
       </c>
     </row>
     <row r="16">
@@ -967,7 +967,7 @@
         <v>44946</v>
       </c>
       <c r="B16" t="n">
-        <v>2887.73779296875</v>
+        <v>2887.737548828125</v>
       </c>
       <c r="C16" t="n">
         <v>2327.566162109375</v>
@@ -985,10 +985,10 @@
         <v>1627.587646484375</v>
       </c>
       <c r="I16" t="n">
-        <v>2186.89111328125</v>
+        <v>2186.890869140625</v>
       </c>
       <c r="J16" t="n">
-        <v>1772.94140625</v>
+        <v>1772.941284179688</v>
       </c>
       <c r="K16" t="n">
         <v>7057.64111328125</v>
@@ -1002,7 +1002,7 @@
         <v>2901.46875</v>
       </c>
       <c r="C17" t="n">
-        <v>2295.798828125</v>
+        <v>2295.798583984375</v>
       </c>
       <c r="D17" t="n">
         <v>756.9680786132812</v>
@@ -1020,7 +1020,7 @@
         <v>2170.902099609375</v>
       </c>
       <c r="J17" t="n">
-        <v>1771.55126953125</v>
+        <v>1771.551147460938</v>
       </c>
       <c r="K17" t="n">
         <v>6735.69287109375</v>
@@ -1031,7 +1031,7 @@
         <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>2898.8603515625</v>
+        <v>2898.860595703125</v>
       </c>
       <c r="C18" t="n">
         <v>2307.90283203125</v>
@@ -1043,7 +1043,7 @@
         <v>492.7623596191406</v>
       </c>
       <c r="F18" t="n">
-        <v>357.3712463378906</v>
+        <v>357.3712768554688</v>
       </c>
       <c r="G18" t="n">
         <v>1576.312133789062</v>
@@ -1066,7 +1066,7 @@
         <v>2828.284912109375</v>
       </c>
       <c r="C19" t="n">
-        <v>2139.92578125</v>
+        <v>2139.926025390625</v>
       </c>
       <c r="D19" t="n">
         <v>701.9462890625</v>
@@ -1081,7 +1081,7 @@
         <v>1567.020629882812</v>
       </c>
       <c r="I19" t="n">
-        <v>2113.75</v>
+        <v>2113.749755859375</v>
       </c>
       <c r="J19" t="n">
         <v>1734.944458007812</v>
@@ -1095,10 +1095,10 @@
         <v>44953</v>
       </c>
       <c r="B20" t="n">
-        <v>2759.235107421875</v>
+        <v>2759.23486328125</v>
       </c>
       <c r="C20" t="n">
-        <v>1857.379272460938</v>
+        <v>1857.379150390625</v>
       </c>
       <c r="D20" t="n">
         <v>587.57177734375</v>
@@ -1107,7 +1107,7 @@
         <v>375.7319030761719</v>
       </c>
       <c r="F20" t="n">
-        <v>348.6059265136719</v>
+        <v>348.60595703125</v>
       </c>
       <c r="G20" t="n">
         <v>1551.977294921875</v>
@@ -1116,7 +1116,7 @@
         <v>2099.316162109375</v>
       </c>
       <c r="J20" t="n">
-        <v>1713.281494140625</v>
+        <v>1713.281616210938</v>
       </c>
       <c r="K20" t="n">
         <v>6603.7763671875</v>
@@ -1142,16 +1142,16 @@
         <v>345.8636779785156</v>
       </c>
       <c r="G21" t="n">
-        <v>1571.789306640625</v>
+        <v>1571.789428710938</v>
       </c>
       <c r="I21" t="n">
-        <v>2053.681884765625</v>
+        <v>2053.68212890625</v>
       </c>
       <c r="J21" t="n">
         <v>1689.620361328125</v>
       </c>
       <c r="K21" t="n">
-        <v>6773.01123046875</v>
+        <v>6773.0107421875</v>
       </c>
     </row>
     <row r="22">
@@ -1159,7 +1159,7 @@
         <v>44957</v>
       </c>
       <c r="B22" t="n">
-        <v>2794.9658203125</v>
+        <v>2794.966064453125</v>
       </c>
       <c r="C22" t="n">
         <v>1944.875366210938</v>
@@ -1168,7 +1168,7 @@
         <v>603.025146484375</v>
       </c>
       <c r="E22" t="n">
-        <v>396.2245483398438</v>
+        <v>396.224609375</v>
       </c>
       <c r="F22" t="n">
         <v>348.703857421875</v>
@@ -1180,7 +1180,7 @@
         <v>2064.859619140625</v>
       </c>
       <c r="J22" t="n">
-        <v>1705.0224609375</v>
+        <v>1705.022338867188</v>
       </c>
       <c r="K22" t="n">
         <v>6967.56640625</v>
@@ -1200,10 +1200,10 @@
         <v>487.37109375</v>
       </c>
       <c r="E23" t="n">
-        <v>329.9567260742188</v>
+        <v>329.9566955566406</v>
       </c>
       <c r="F23" t="n">
-        <v>341.7993469238281</v>
+        <v>341.79931640625</v>
       </c>
       <c r="G23" t="n">
         <v>1561.170532226562</v>
@@ -1212,10 +1212,10 @@
         <v>2085.4169921875</v>
       </c>
       <c r="J23" t="n">
-        <v>1715.888305664062</v>
+        <v>1715.888427734375</v>
       </c>
       <c r="K23" t="n">
-        <v>7022.486328125</v>
+        <v>7022.48681640625</v>
       </c>
     </row>
     <row r="24">
@@ -1226,7 +1226,7 @@
         <v>2787.189697265625</v>
       </c>
       <c r="C24" t="n">
-        <v>1819.337280273438</v>
+        <v>1819.33740234375</v>
       </c>
       <c r="D24" t="n">
         <v>455.184814453125</v>
@@ -1235,7 +1235,7 @@
         <v>348.1778869628906</v>
       </c>
       <c r="F24" t="n">
-        <v>347.1858215332031</v>
+        <v>347.1858520507812</v>
       </c>
       <c r="G24" t="n">
         <v>1571.936889648438</v>
@@ -1244,7 +1244,7 @@
         <v>2084.78515625</v>
       </c>
       <c r="J24" t="n">
-        <v>1704.468872070312</v>
+        <v>1704.46875</v>
       </c>
       <c r="K24" t="n">
         <v>7048.29931640625</v>
@@ -1276,7 +1276,7 @@
         <v>2105.82861328125</v>
       </c>
       <c r="J25" t="n">
-        <v>1764.01318359375</v>
+        <v>1764.013061523438</v>
       </c>
       <c r="K25" t="n">
         <v>7069.49072265625</v>
@@ -1287,7 +1287,7 @@
         <v>44963</v>
       </c>
       <c r="B26" t="n">
-        <v>2886.01513671875</v>
+        <v>2886.014892578125</v>
       </c>
       <c r="C26" t="n">
         <v>1946.110595703125</v>
@@ -1299,7 +1299,7 @@
         <v>375.0405883789062</v>
       </c>
       <c r="F26" t="n">
-        <v>346.5982055664062</v>
+        <v>346.5982360839844</v>
       </c>
       <c r="G26" t="n">
         <v>1590.962280273438</v>
@@ -1308,7 +1308,7 @@
         <v>2095.67138671875</v>
       </c>
       <c r="J26" t="n">
-        <v>1793.552124023438</v>
+        <v>1793.55224609375</v>
       </c>
       <c r="K26" t="n">
         <v>7008.57177734375</v>
@@ -1319,7 +1319,7 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>2976.080078125</v>
+        <v>2976.079833984375</v>
       </c>
       <c r="C27" t="n">
         <v>1970.319091796875</v>
@@ -1331,10 +1331,10 @@
         <v>379.2872314453125</v>
       </c>
       <c r="F27" t="n">
-        <v>349.7811889648438</v>
+        <v>349.7811584472656</v>
       </c>
       <c r="G27" t="n">
-        <v>1589.192504882812</v>
+        <v>1589.1923828125</v>
       </c>
       <c r="I27" t="n">
         <v>2104.61328125</v>
@@ -1351,13 +1351,13 @@
         <v>44965</v>
       </c>
       <c r="B28" t="n">
-        <v>3031.15234375</v>
+        <v>3031.152587890625</v>
       </c>
       <c r="C28" t="n">
-        <v>1950.260620117188</v>
+        <v>1950.260498046875</v>
       </c>
       <c r="D28" t="n">
-        <v>589.8356323242188</v>
+        <v>589.835693359375</v>
       </c>
       <c r="E28" t="n">
         <v>379.8797912597656</v>
@@ -1366,16 +1366,16 @@
         <v>352.8661499023438</v>
       </c>
       <c r="G28" t="n">
-        <v>1609.102905273438</v>
+        <v>1609.102783203125</v>
       </c>
       <c r="I28" t="n">
-        <v>2071.129150390625</v>
+        <v>2071.12939453125</v>
       </c>
       <c r="J28" t="n">
-        <v>1818.371948242188</v>
+        <v>1818.3720703125</v>
       </c>
       <c r="K28" t="n">
-        <v>7129.62255859375</v>
+        <v>7129.6220703125</v>
       </c>
     </row>
     <row r="29">
@@ -1398,7 +1398,7 @@
         <v>349.3404541015625</v>
       </c>
       <c r="G29" t="n">
-        <v>1615.887084960938</v>
+        <v>1615.88720703125</v>
       </c>
       <c r="I29" t="n">
         <v>2087.215087890625</v>
@@ -1418,7 +1418,7 @@
         <v>3116.640380859375</v>
       </c>
       <c r="C30" t="n">
-        <v>1858.021606445312</v>
+        <v>1858.021484375</v>
       </c>
       <c r="D30" t="n">
         <v>574.7760620117188</v>
@@ -1427,13 +1427,13 @@
         <v>356.3255615234375</v>
       </c>
       <c r="F30" t="n">
-        <v>354.0414123535156</v>
+        <v>354.0414428710938</v>
       </c>
       <c r="G30" t="n">
-        <v>1607.873779296875</v>
+        <v>1607.873901367188</v>
       </c>
       <c r="I30" t="n">
-        <v>2103.204345703125</v>
+        <v>2103.2041015625</v>
       </c>
       <c r="J30" t="n">
         <v>1824.052612304688</v>
@@ -1447,10 +1447,10 @@
         <v>44970</v>
       </c>
       <c r="B31" t="n">
-        <v>3031.34912109375</v>
+        <v>3031.349365234375</v>
       </c>
       <c r="C31" t="n">
-        <v>1801.452880859375</v>
+        <v>1801.452758789062</v>
       </c>
       <c r="D31" t="n">
         <v>545.0012817382812</v>
@@ -1479,13 +1479,13 @@
         <v>44971</v>
       </c>
       <c r="B32" t="n">
-        <v>3029.036376953125</v>
+        <v>3029.0361328125</v>
       </c>
       <c r="C32" t="n">
-        <v>1808.517700195312</v>
+        <v>1808.517578125</v>
       </c>
       <c r="D32" t="n">
-        <v>556.2221069335938</v>
+        <v>556.22216796875</v>
       </c>
       <c r="E32" t="n">
         <v>332.3269348144531</v>
@@ -1494,7 +1494,7 @@
         <v>346.647216796875</v>
       </c>
       <c r="G32" t="n">
-        <v>1577.787109375</v>
+        <v>1577.786987304688</v>
       </c>
       <c r="I32" t="n">
         <v>2130.224853515625</v>
@@ -1520,16 +1520,16 @@
         <v>560.110107421875</v>
       </c>
       <c r="E33" t="n">
-        <v>340.5733947753906</v>
+        <v>340.5733642578125</v>
       </c>
       <c r="F33" t="n">
-        <v>353.5517578125</v>
+        <v>353.5517272949219</v>
       </c>
       <c r="G33" t="n">
         <v>1598.877319335938</v>
       </c>
       <c r="I33" t="n">
-        <v>2114.09033203125</v>
+        <v>2114.090087890625</v>
       </c>
       <c r="J33" t="n">
         <v>1881.528564453125</v>
@@ -1543,7 +1543,7 @@
         <v>44973</v>
       </c>
       <c r="B34" t="n">
-        <v>3138.393310546875</v>
+        <v>3138.3935546875</v>
       </c>
       <c r="C34" t="n">
         <v>1819.732666015625</v>
@@ -1552,22 +1552,22 @@
         <v>568.132080078125</v>
       </c>
       <c r="E34" t="n">
-        <v>343.4867553710938</v>
+        <v>343.4867858886719</v>
       </c>
       <c r="F34" t="n">
         <v>364.0309753417969</v>
       </c>
       <c r="G34" t="n">
-        <v>1602.318481445312</v>
+        <v>1602.318603515625</v>
       </c>
       <c r="I34" t="n">
-        <v>2117.2490234375</v>
+        <v>2117.249267578125</v>
       </c>
       <c r="J34" t="n">
         <v>1877.625</v>
       </c>
       <c r="K34" t="n">
-        <v>7052.3310546875</v>
+        <v>7052.33154296875</v>
       </c>
     </row>
     <row r="35">
@@ -1575,7 +1575,7 @@
         <v>44974</v>
       </c>
       <c r="B35" t="n">
-        <v>3086.963134765625</v>
+        <v>3086.962646484375</v>
       </c>
       <c r="C35" t="n">
         <v>1817.509399414062</v>
@@ -1587,16 +1587,16 @@
         <v>348.9185791015625</v>
       </c>
       <c r="F35" t="n">
-        <v>357.0285034179688</v>
+        <v>357.0284729003906</v>
       </c>
       <c r="G35" t="n">
-        <v>1615.3955078125</v>
+        <v>1615.395385742188</v>
       </c>
       <c r="I35" t="n">
         <v>2163.95263671875</v>
       </c>
       <c r="J35" t="n">
-        <v>1861.45703125</v>
+        <v>1861.457153320312</v>
       </c>
       <c r="K35" t="n">
         <v>7176.33154296875</v>
@@ -1607,13 +1607,13 @@
         <v>44977</v>
       </c>
       <c r="B36" t="n">
-        <v>3124.3671875</v>
+        <v>3124.366943359375</v>
       </c>
       <c r="C36" t="n">
         <v>1828.62548828125</v>
       </c>
       <c r="D36" t="n">
-        <v>570.5928344726562</v>
+        <v>570.5927734375</v>
       </c>
       <c r="E36" t="n">
         <v>348.0791625976562</v>
@@ -1622,16 +1622,16 @@
         <v>357.0774536132812</v>
       </c>
       <c r="G36" t="n">
-        <v>1604.629272460938</v>
+        <v>1604.629150390625</v>
       </c>
       <c r="I36" t="n">
         <v>2163.126220703125</v>
       </c>
       <c r="J36" t="n">
-        <v>1862.622314453125</v>
+        <v>1862.622436523438</v>
       </c>
       <c r="K36" t="n">
-        <v>7303.18310546875</v>
+        <v>7303.18359375</v>
       </c>
     </row>
     <row r="37">
@@ -1639,7 +1639,7 @@
         <v>44978</v>
       </c>
       <c r="B37" t="n">
-        <v>3119.691162109375</v>
+        <v>3119.691650390625</v>
       </c>
       <c r="C37" t="n">
         <v>1806.640380859375</v>
@@ -1648,7 +1648,7 @@
         <v>574.037841796875</v>
       </c>
       <c r="E37" t="n">
-        <v>348.4741821289062</v>
+        <v>348.4741516113281</v>
       </c>
       <c r="F37" t="n">
         <v>350.1239624023438</v>
@@ -1686,16 +1686,16 @@
         <v>341.4075927734375</v>
       </c>
       <c r="G38" t="n">
-        <v>1547.74951171875</v>
+        <v>1547.749389648438</v>
       </c>
       <c r="I38" t="n">
         <v>2133.238037109375</v>
       </c>
       <c r="J38" t="n">
-        <v>1894.404418945312</v>
+        <v>1894.404541015625</v>
       </c>
       <c r="K38" t="n">
-        <v>7085.76513671875</v>
+        <v>7085.765625</v>
       </c>
     </row>
     <row r="39">
@@ -1703,28 +1703,28 @@
         <v>44980</v>
       </c>
       <c r="B39" t="n">
-        <v>3089.12890625</v>
+        <v>3089.128662109375</v>
       </c>
       <c r="C39" t="n">
-        <v>1706.990478515625</v>
+        <v>1706.990600585938</v>
       </c>
       <c r="D39" t="n">
-        <v>543.1802978515625</v>
+        <v>543.1803588867188</v>
       </c>
       <c r="E39" t="n">
         <v>332.7219543457031</v>
       </c>
       <c r="F39" t="n">
-        <v>335.8251953125</v>
+        <v>335.8251647949219</v>
       </c>
       <c r="G39" t="n">
-        <v>1553.845336914062</v>
+        <v>1553.845458984375</v>
       </c>
       <c r="I39" t="n">
         <v>2098.635986328125</v>
       </c>
       <c r="J39" t="n">
-        <v>1897.609008789062</v>
+        <v>1897.60888671875</v>
       </c>
       <c r="K39" t="n">
         <v>7057.44482421875</v>
@@ -1735,16 +1735,16 @@
         <v>44981</v>
       </c>
       <c r="B40" t="n">
-        <v>3092.721435546875</v>
+        <v>3092.72119140625</v>
       </c>
       <c r="C40" t="n">
-        <v>1709.411376953125</v>
+        <v>1709.411254882812</v>
       </c>
       <c r="D40" t="n">
         <v>550.1195678710938</v>
       </c>
       <c r="E40" t="n">
-        <v>340.9683837890625</v>
+        <v>340.9684448242188</v>
       </c>
       <c r="F40" t="n">
         <v>338.9101867675781</v>
@@ -1770,7 +1770,7 @@
         <v>3059.303955078125</v>
       </c>
       <c r="C41" t="n">
-        <v>1674.63037109375</v>
+        <v>1674.630249023438</v>
       </c>
       <c r="D41" t="n">
         <v>553.1708984375</v>
@@ -1779,7 +1779,7 @@
         <v>325.8087768554688</v>
       </c>
       <c r="F41" t="n">
-        <v>342.729736328125</v>
+        <v>342.7297058105469</v>
       </c>
       <c r="G41" t="n">
         <v>1545.242065429688</v>
@@ -1791,7 +1791,7 @@
         <v>1865.50634765625</v>
       </c>
       <c r="K41" t="n">
-        <v>7066.98291015625</v>
+        <v>7066.9833984375</v>
       </c>
     </row>
     <row r="42">
@@ -1802,28 +1802,28 @@
         <v>3166.889892578125</v>
       </c>
       <c r="C42" t="n">
-        <v>1711.091064453125</v>
+        <v>1711.091186523438</v>
       </c>
       <c r="D42" t="n">
-        <v>583.1425170898438</v>
+        <v>583.142578125</v>
       </c>
       <c r="E42" t="n">
         <v>337.8574829101562</v>
       </c>
       <c r="F42" t="n">
-        <v>344.3946533203125</v>
+        <v>344.3946228027344</v>
       </c>
       <c r="G42" t="n">
-        <v>1552.075561523438</v>
+        <v>1552.07568359375</v>
       </c>
       <c r="I42" t="n">
-        <v>2050.037353515625</v>
+        <v>2050.037109375</v>
       </c>
       <c r="J42" t="n">
-        <v>1891.5498046875</v>
+        <v>1891.549682617188</v>
       </c>
       <c r="K42" t="n">
-        <v>7140.39013671875</v>
+        <v>7140.3896484375</v>
       </c>
     </row>
     <row r="43">
@@ -1834,7 +1834,7 @@
         <v>3259.513671875</v>
       </c>
       <c r="C43" t="n">
-        <v>1748.391723632812</v>
+        <v>1748.391845703125</v>
       </c>
       <c r="D43" t="n">
         <v>592.640869140625</v>
@@ -1846,7 +1846,7 @@
         <v>348.3121032714844</v>
       </c>
       <c r="G43" t="n">
-        <v>1566.922241210938</v>
+        <v>1566.92236328125</v>
       </c>
       <c r="I43" t="n">
         <v>2056.014892578125</v>
@@ -1855,7 +1855,7 @@
         <v>1897.696411132812</v>
       </c>
       <c r="K43" t="n">
-        <v>7153.0263671875</v>
+        <v>7153.02587890625</v>
       </c>
     </row>
     <row r="44">
@@ -1863,19 +1863,19 @@
         <v>44987</v>
       </c>
       <c r="B44" t="n">
-        <v>3271.276611328125</v>
+        <v>3271.2763671875</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.912231445312</v>
+        <v>1779.912109375</v>
       </c>
       <c r="D44" t="n">
         <v>613.1141357421875</v>
       </c>
       <c r="E44" t="n">
-        <v>366.1028137207031</v>
+        <v>366.1028442382812</v>
       </c>
       <c r="F44" t="n">
-        <v>347.9693298339844</v>
+        <v>347.9692993164062</v>
       </c>
       <c r="G44" t="n">
         <v>1571.691040039062</v>
@@ -1898,19 +1898,19 @@
         <v>3276.54248046875</v>
       </c>
       <c r="C45" t="n">
-        <v>1871.508911132812</v>
+        <v>1871.509155273438</v>
       </c>
       <c r="D45" t="n">
         <v>673.89404296875</v>
       </c>
       <c r="E45" t="n">
-        <v>386.9905395507812</v>
+        <v>386.9905090332031</v>
       </c>
       <c r="F45" t="n">
-        <v>352.8171997070312</v>
+        <v>352.8172302246094</v>
       </c>
       <c r="G45" t="n">
-        <v>1569.478637695312</v>
+        <v>1569.478759765625</v>
       </c>
       <c r="I45" t="n">
         <v>2091.73486328125</v>
@@ -1927,10 +1927,10 @@
         <v>44991</v>
       </c>
       <c r="B46" t="n">
-        <v>3266.40380859375</v>
+        <v>3266.404052734375</v>
       </c>
       <c r="C46" t="n">
-        <v>1843.59521484375</v>
+        <v>1843.595336914062</v>
       </c>
       <c r="D46" t="n">
         <v>679.898193359375</v>
@@ -1942,7 +1942,7 @@
         <v>352.4254760742188</v>
       </c>
       <c r="G46" t="n">
-        <v>1571.740234375</v>
+        <v>1571.740112304688</v>
       </c>
       <c r="I46" t="n">
         <v>2081.14013671875</v>
@@ -1951,7 +1951,7 @@
         <v>1877.304565429688</v>
       </c>
       <c r="K46" t="n">
-        <v>7080.701171875</v>
+        <v>7080.70068359375</v>
       </c>
     </row>
     <row r="47">
@@ -1959,19 +1959,19 @@
         <v>44993</v>
       </c>
       <c r="B47" t="n">
-        <v>3326.841064453125</v>
+        <v>3326.84130859375</v>
       </c>
       <c r="C47" t="n">
-        <v>1864.048950195312</v>
+        <v>1864.048828125</v>
       </c>
       <c r="D47" t="n">
-        <v>700.8634643554688</v>
+        <v>700.863525390625</v>
       </c>
       <c r="E47" t="n">
-        <v>387.2373962402344</v>
+        <v>387.2374267578125</v>
       </c>
       <c r="F47" t="n">
-        <v>355.5594482421875</v>
+        <v>355.5594177246094</v>
       </c>
       <c r="G47" t="n">
         <v>1574.247436523438</v>
@@ -1980,7 +1980,7 @@
         <v>2109.95947265625</v>
       </c>
       <c r="J47" t="n">
-        <v>1915.349853515625</v>
+        <v>1915.349975585938</v>
       </c>
       <c r="K47" t="n">
         <v>7146.2412109375</v>
@@ -1994,16 +1994,16 @@
         <v>3334.86328125</v>
       </c>
       <c r="C48" t="n">
-        <v>1837.963134765625</v>
+        <v>1837.963012695312</v>
       </c>
       <c r="D48" t="n">
-        <v>686.296142578125</v>
+        <v>686.2960815429688</v>
       </c>
       <c r="E48" t="n">
-        <v>379.9291687011719</v>
+        <v>379.92919921875</v>
       </c>
       <c r="F48" t="n">
-        <v>349.7322082519531</v>
+        <v>349.7322387695312</v>
       </c>
       <c r="G48" t="n">
         <v>1574.394897460938</v>
@@ -2023,7 +2023,7 @@
         <v>44995</v>
       </c>
       <c r="B49" t="n">
-        <v>3324.429443359375</v>
+        <v>3324.42919921875</v>
       </c>
       <c r="C49" t="n">
         <v>1824.920166015625</v>
@@ -2032,22 +2032,22 @@
         <v>686.83740234375</v>
       </c>
       <c r="E49" t="n">
-        <v>373.6579284667969</v>
+        <v>373.657958984375</v>
       </c>
       <c r="F49" t="n">
         <v>342.8276672363281</v>
       </c>
       <c r="G49" t="n">
-        <v>1569.134521484375</v>
+        <v>1569.134643554688</v>
       </c>
       <c r="I49" t="n">
-        <v>2097.372314453125</v>
+        <v>2097.37255859375</v>
       </c>
       <c r="J49" t="n">
         <v>1927.9345703125</v>
       </c>
       <c r="K49" t="n">
-        <v>7106.07080078125</v>
+        <v>7106.0712890625</v>
       </c>
     </row>
     <row r="50">
@@ -2064,10 +2064,10 @@
         <v>670.4982299804688</v>
       </c>
       <c r="E50" t="n">
-        <v>363.436279296875</v>
+        <v>363.4363098144531</v>
       </c>
       <c r="F50" t="n">
-        <v>335.6293029785156</v>
+        <v>335.6293334960938</v>
       </c>
       <c r="G50" t="n">
         <v>1535.852294921875</v>
@@ -2076,7 +2076,7 @@
         <v>2074.044921875</v>
       </c>
       <c r="J50" t="n">
-        <v>1905.153930664062</v>
+        <v>1905.154052734375</v>
       </c>
       <c r="K50" t="n">
         <v>6957.7822265625</v>
@@ -2087,7 +2087,7 @@
         <v>44999</v>
       </c>
       <c r="B51" t="n">
-        <v>3259.218505859375</v>
+        <v>3259.21826171875</v>
       </c>
       <c r="C51" t="n">
         <v>1717.711547851562</v>
@@ -2102,7 +2102,7 @@
         <v>339.9385375976562</v>
       </c>
       <c r="G51" t="n">
-        <v>1535.0166015625</v>
+        <v>1535.016723632812</v>
       </c>
       <c r="I51" t="n">
         <v>2084.10498046875</v>
@@ -2119,7 +2119,7 @@
         <v>45000</v>
       </c>
       <c r="B52" t="n">
-        <v>3250.4580078125</v>
+        <v>3250.458251953125</v>
       </c>
       <c r="C52" t="n">
         <v>1719.292358398438</v>
@@ -2151,7 +2151,7 @@
         <v>45001</v>
       </c>
       <c r="B53" t="n">
-        <v>3275.755126953125</v>
+        <v>3275.7548828125</v>
       </c>
       <c r="C53" t="n">
         <v>1729.469848632812</v>
@@ -2169,7 +2169,7 @@
         <v>1534.279174804688</v>
       </c>
       <c r="I53" t="n">
-        <v>2112.68115234375</v>
+        <v>2112.680908203125</v>
       </c>
       <c r="J53" t="n">
         <v>1901.57080078125</v>
@@ -2183,16 +2183,16 @@
         <v>45002</v>
       </c>
       <c r="B54" t="n">
-        <v>3260.5966796875</v>
+        <v>3260.596435546875</v>
       </c>
       <c r="C54" t="n">
-        <v>1709.806640625</v>
+        <v>1709.806518554688</v>
       </c>
       <c r="D54" t="n">
         <v>669.6615600585938</v>
       </c>
       <c r="E54" t="n">
-        <v>373.7566833496094</v>
+        <v>373.7567138671875</v>
       </c>
       <c r="F54" t="n">
         <v>367.5077209472656</v>
@@ -2204,7 +2204,7 @@
         <v>2134.2099609375</v>
       </c>
       <c r="J54" t="n">
-        <v>1917.068603515625</v>
+        <v>1917.068725585938</v>
       </c>
       <c r="K54" t="n">
         <v>7168.56298828125</v>
@@ -2221,7 +2221,7 @@
         <v>1675.420654296875</v>
       </c>
       <c r="D55" t="n">
-        <v>656.2752685546875</v>
+        <v>656.2752075195312</v>
       </c>
       <c r="E55" t="n">
         <v>360.8685302734375</v>
@@ -2247,7 +2247,7 @@
         <v>45006</v>
       </c>
       <c r="B56" t="n">
-        <v>3358.8310546875</v>
+        <v>3358.83154296875</v>
       </c>
       <c r="C56" t="n">
         <v>1704.075561523438</v>
@@ -2256,19 +2256,19 @@
         <v>654.3558959960938</v>
       </c>
       <c r="E56" t="n">
-        <v>366.3003540039062</v>
+        <v>366.3003234863281</v>
       </c>
       <c r="F56" t="n">
-        <v>359.8686828613281</v>
+        <v>359.86865234375</v>
       </c>
       <c r="G56" t="n">
-        <v>1579.261962890625</v>
+        <v>1579.261840820312</v>
       </c>
       <c r="I56" t="n">
-        <v>2146.55419921875</v>
+        <v>2146.553955078125</v>
       </c>
       <c r="J56" t="n">
-        <v>1930.323364257812</v>
+        <v>1930.323486328125</v>
       </c>
       <c r="K56" t="n">
         <v>7230.3173828125</v>
@@ -2285,16 +2285,16 @@
         <v>1717.661987304688</v>
       </c>
       <c r="D57" t="n">
-        <v>646.8260498046875</v>
+        <v>646.8261108398438</v>
       </c>
       <c r="E57" t="n">
         <v>370.8926391601562</v>
       </c>
       <c r="F57" t="n">
-        <v>361.141845703125</v>
+        <v>361.1418151855469</v>
       </c>
       <c r="G57" t="n">
-        <v>1585.849487304688</v>
+        <v>1585.849609375</v>
       </c>
       <c r="I57" t="n">
         <v>2151.89990234375</v>
@@ -2311,7 +2311,7 @@
         <v>45008</v>
       </c>
       <c r="B58" t="n">
-        <v>3307.744873046875</v>
+        <v>3307.7451171875</v>
       </c>
       <c r="C58" t="n">
         <v>1717.612670898438</v>
@@ -2320,13 +2320,13 @@
         <v>644.6605834960938</v>
       </c>
       <c r="E58" t="n">
-        <v>367.5347900390625</v>
+        <v>367.5348205566406</v>
       </c>
       <c r="F58" t="n">
-        <v>360.0645141601562</v>
+        <v>360.0645446777344</v>
       </c>
       <c r="G58" t="n">
-        <v>1579.01611328125</v>
+        <v>1579.015991210938</v>
       </c>
       <c r="I58" t="n">
         <v>2144.804443359375</v>
@@ -2335,7 +2335,7 @@
         <v>1937.198364257812</v>
       </c>
       <c r="K58" t="n">
-        <v>7284.59814453125</v>
+        <v>7284.5986328125</v>
       </c>
     </row>
     <row r="59">
@@ -2343,25 +2343,25 @@
         <v>45009</v>
       </c>
       <c r="B59" t="n">
-        <v>3294.2109375</v>
+        <v>3294.210693359375</v>
       </c>
       <c r="C59" t="n">
         <v>1680.608276367188</v>
       </c>
       <c r="D59" t="n">
-        <v>627.9769287109375</v>
+        <v>627.9768676757812</v>
       </c>
       <c r="E59" t="n">
         <v>367.1891479492188</v>
       </c>
       <c r="F59" t="n">
-        <v>346.9410400390625</v>
+        <v>346.9410095214844</v>
       </c>
       <c r="G59" t="n">
-        <v>1567.561401367188</v>
+        <v>1567.5615234375</v>
       </c>
       <c r="I59" t="n">
-        <v>2105.439697265625</v>
+        <v>2105.439453125</v>
       </c>
       <c r="J59" t="n">
         <v>1942.150634765625</v>
@@ -2375,7 +2375,7 @@
         <v>45012</v>
       </c>
       <c r="B60" t="n">
-        <v>3272.457763671875</v>
+        <v>3272.45751953125</v>
       </c>
       <c r="C60" t="n">
         <v>1664.8974609375</v>
@@ -2384,7 +2384,7 @@
         <v>619.2167358398438</v>
       </c>
       <c r="E60" t="n">
-        <v>365.4114685058594</v>
+        <v>365.4114990234375</v>
       </c>
       <c r="F60" t="n">
         <v>341.6034240722656</v>
@@ -2399,7 +2399,7 @@
         <v>1916.68994140625</v>
       </c>
       <c r="K60" t="n">
-        <v>7326.14453125</v>
+        <v>7326.14501953125</v>
       </c>
     </row>
     <row r="61">
@@ -2410,19 +2410,19 @@
         <v>3286.287109375</v>
       </c>
       <c r="C61" t="n">
-        <v>1594.742431640625</v>
+        <v>1594.742553710938</v>
       </c>
       <c r="D61" t="n">
-        <v>584.0775756835938</v>
+        <v>584.07763671875</v>
       </c>
       <c r="E61" t="n">
-        <v>354.49853515625</v>
+        <v>354.4985656738281</v>
       </c>
       <c r="F61" t="n">
-        <v>341.4565124511719</v>
+        <v>341.45654296875</v>
       </c>
       <c r="G61" t="n">
-        <v>1584.07958984375</v>
+        <v>1584.079711914062</v>
       </c>
       <c r="I61" t="n">
         <v>2073.802001953125</v>
@@ -2454,16 +2454,16 @@
         <v>345.2760620117188</v>
       </c>
       <c r="G62" t="n">
-        <v>1604.334106445312</v>
+        <v>1604.334228515625</v>
       </c>
       <c r="I62" t="n">
         <v>2087.263671875</v>
       </c>
       <c r="J62" t="n">
-        <v>1937.722778320312</v>
+        <v>1937.72265625</v>
       </c>
       <c r="K62" t="n">
-        <v>7444.6875</v>
+        <v>7444.68701171875</v>
       </c>
     </row>
     <row r="63">
@@ -2471,10 +2471,10 @@
         <v>45016</v>
       </c>
       <c r="B63" t="n">
-        <v>3312.371337890625</v>
+        <v>3312.37158203125</v>
       </c>
       <c r="C63" t="n">
-        <v>1647.358764648438</v>
+        <v>1647.358642578125</v>
       </c>
       <c r="D63" t="n">
         <v>621.9727172851562</v>
@@ -2486,16 +2486,16 @@
         <v>349.3404541015625</v>
       </c>
       <c r="G63" t="n">
-        <v>1605.3173828125</v>
+        <v>1605.317504882812</v>
       </c>
       <c r="I63" t="n">
-        <v>2103.54443359375</v>
+        <v>2103.544189453125</v>
       </c>
       <c r="J63" t="n">
-        <v>1938.480224609375</v>
+        <v>1938.480102539062</v>
       </c>
       <c r="K63" t="n">
-        <v>7495.23095703125</v>
+        <v>7495.2314453125</v>
       </c>
     </row>
     <row r="64">
@@ -2503,25 +2503,25 @@
         <v>45019</v>
       </c>
       <c r="B64" t="n">
-        <v>3320.836669921875</v>
+        <v>3320.83642578125</v>
       </c>
       <c r="C64" t="n">
-        <v>1688.661376953125</v>
+        <v>1688.661254882812</v>
       </c>
       <c r="D64" t="n">
         <v>617.9371337890625</v>
       </c>
       <c r="E64" t="n">
-        <v>370.1519775390625</v>
+        <v>370.1519470214844</v>
       </c>
       <c r="F64" t="n">
-        <v>354.0903930664062</v>
+        <v>354.0903625488281</v>
       </c>
       <c r="G64" t="n">
         <v>1600.647094726562</v>
       </c>
       <c r="I64" t="n">
-        <v>2109.32763671875</v>
+        <v>2109.327392578125</v>
       </c>
       <c r="J64" t="n">
         <v>1953.395263671875</v>
@@ -2538,7 +2538,7 @@
         <v>3321.230224609375</v>
       </c>
       <c r="C65" t="n">
-        <v>1667.86181640625</v>
+        <v>1667.861694335938</v>
       </c>
       <c r="D65" t="n">
         <v>626.74658203125</v>
@@ -2547,7 +2547,7 @@
         <v>375.2380981445312</v>
       </c>
       <c r="F65" t="n">
-        <v>359.4768981933594</v>
+        <v>359.4768676757812</v>
       </c>
       <c r="G65" t="n">
         <v>1631.422119140625</v>
@@ -2559,7 +2559,7 @@
         <v>1952.463012695312</v>
       </c>
       <c r="K65" t="n">
-        <v>7563.869140625</v>
+        <v>7563.86962890625</v>
       </c>
     </row>
     <row r="66">
@@ -2567,7 +2567,7 @@
         <v>45022</v>
       </c>
       <c r="B66" t="n">
-        <v>3343.82080078125</v>
+        <v>3343.820556640625</v>
       </c>
       <c r="C66" t="n">
         <v>1691.625610351562</v>
@@ -2582,7 +2582,7 @@
         <v>374.9998779296875</v>
       </c>
       <c r="G66" t="n">
-        <v>1641.057861328125</v>
+        <v>1641.057739257812</v>
       </c>
       <c r="I66" t="n">
         <v>2210.510009765625</v>
@@ -2599,19 +2599,19 @@
         <v>45026</v>
       </c>
       <c r="B67" t="n">
-        <v>3344.362060546875</v>
+        <v>3344.36181640625</v>
       </c>
       <c r="C67" t="n">
-        <v>1720.231079101562</v>
+        <v>1720.23095703125</v>
       </c>
       <c r="D67" t="n">
-        <v>641.7569580078125</v>
+        <v>641.7568969726562</v>
       </c>
       <c r="E67" t="n">
         <v>379.5835266113281</v>
       </c>
       <c r="F67" t="n">
-        <v>397.1336364746094</v>
+        <v>397.1336059570312</v>
       </c>
       <c r="G67" t="n">
         <v>1681.566772460938</v>
@@ -2623,7 +2623,7 @@
         <v>1971.369384765625</v>
       </c>
       <c r="K67" t="n">
-        <v>7568.09716796875</v>
+        <v>7568.09765625</v>
       </c>
     </row>
     <row r="68">
@@ -2631,13 +2631,13 @@
         <v>45027</v>
       </c>
       <c r="B68" t="n">
-        <v>3226.046630859375</v>
+        <v>3226.047119140625</v>
       </c>
       <c r="C68" t="n">
         <v>1716.723266601562</v>
       </c>
       <c r="D68" t="n">
-        <v>643.67626953125</v>
+        <v>643.6763305664062</v>
       </c>
       <c r="E68" t="n">
         <v>379.6329040527344</v>
@@ -2649,7 +2649,7 @@
         <v>1682.402587890625</v>
       </c>
       <c r="I68" t="n">
-        <v>2236.996337890625</v>
+        <v>2236.99609375</v>
       </c>
       <c r="J68" t="n">
         <v>1949.812255859375</v>
@@ -2669,7 +2669,7 @@
         <v>1737.078125</v>
       </c>
       <c r="D69" t="n">
-        <v>647.4166870117188</v>
+        <v>647.4166259765625</v>
       </c>
       <c r="E69" t="n">
         <v>391.138427734375</v>
@@ -2695,16 +2695,16 @@
         <v>45029</v>
       </c>
       <c r="B70" t="n">
-        <v>3179.341064453125</v>
+        <v>3179.34130859375</v>
       </c>
       <c r="C70" t="n">
-        <v>1746.514404296875</v>
+        <v>1746.514526367188</v>
       </c>
       <c r="D70" t="n">
         <v>651.25537109375</v>
       </c>
       <c r="E70" t="n">
-        <v>387.7805786132812</v>
+        <v>387.7806091308594</v>
       </c>
       <c r="F70" t="n">
         <v>404.6257629394531</v>
@@ -2719,7 +2719,7 @@
         <v>1938.101440429688</v>
       </c>
       <c r="K70" t="n">
-        <v>7527.78076171875</v>
+        <v>7527.7802734375</v>
       </c>
     </row>
     <row r="71">
@@ -2730,13 +2730,13 @@
         <v>3178.35693359375</v>
       </c>
       <c r="C71" t="n">
-        <v>1763.114501953125</v>
+        <v>1763.114624023438</v>
       </c>
       <c r="D71" t="n">
         <v>654.2575073242188</v>
       </c>
       <c r="E71" t="n">
-        <v>386.6942443847656</v>
+        <v>386.6942138671875</v>
       </c>
       <c r="F71" t="n">
         <v>406.7803955078125</v>
@@ -2748,10 +2748,10 @@
         <v>2151.948486328125</v>
       </c>
       <c r="J71" t="n">
-        <v>1945.762939453125</v>
+        <v>1945.762817382812</v>
       </c>
       <c r="K71" t="n">
-        <v>7613.52880859375</v>
+        <v>7613.5283203125</v>
       </c>
     </row>
     <row r="72">
@@ -2759,13 +2759,13 @@
         <v>45034</v>
       </c>
       <c r="B72" t="n">
-        <v>3157.390869140625</v>
+        <v>3157.39111328125</v>
       </c>
       <c r="C72" t="n">
-        <v>1739.153076171875</v>
+        <v>1739.153198242188</v>
       </c>
       <c r="D72" t="n">
-        <v>648.2039794921875</v>
+        <v>648.2040405273438</v>
       </c>
       <c r="E72" t="n">
         <v>378.2996520996094</v>
@@ -2774,7 +2774,7 @@
         <v>415.1050109863281</v>
       </c>
       <c r="G72" t="n">
-        <v>1676.355712890625</v>
+        <v>1676.355834960938</v>
       </c>
       <c r="I72" t="n">
         <v>2154.475830078125</v>
@@ -2794,7 +2794,7 @@
         <v>3150.84521484375</v>
       </c>
       <c r="C73" t="n">
-        <v>1728.481689453125</v>
+        <v>1728.481811523438</v>
       </c>
       <c r="D73" t="n">
         <v>648.0564575195312</v>
@@ -2806,7 +2806,7 @@
         <v>412.9993591308594</v>
       </c>
       <c r="G73" t="n">
-        <v>1661.754638671875</v>
+        <v>1661.754760742188</v>
       </c>
       <c r="I73" t="n">
         <v>2157.3916015625</v>
@@ -2815,7 +2815,7 @@
         <v>1900.37646484375</v>
       </c>
       <c r="K73" t="n">
-        <v>7390.75048828125</v>
+        <v>7390.7509765625</v>
       </c>
     </row>
     <row r="74">
@@ -2823,28 +2823,28 @@
         <v>45036</v>
       </c>
       <c r="B74" t="n">
-        <v>3134.3583984375</v>
+        <v>3134.35791015625</v>
       </c>
       <c r="C74" t="n">
         <v>1717.414916992188</v>
       </c>
       <c r="D74" t="n">
-        <v>655.6353759765625</v>
+        <v>655.6354370117188</v>
       </c>
       <c r="E74" t="n">
         <v>375.9787902832031</v>
       </c>
       <c r="F74" t="n">
-        <v>405.8989562988281</v>
+        <v>405.89892578125</v>
       </c>
       <c r="G74" t="n">
-        <v>1659.149291992188</v>
+        <v>1659.149169921875</v>
       </c>
       <c r="I74" t="n">
-        <v>2170.1728515625</v>
+        <v>2170.173095703125</v>
       </c>
       <c r="J74" t="n">
-        <v>1905.940673828125</v>
+        <v>1905.940551757812</v>
       </c>
       <c r="K74" t="n">
         <v>7351.318359375</v>
@@ -2855,19 +2855,19 @@
         <v>45037</v>
       </c>
       <c r="B75" t="n">
-        <v>3103.84423828125</v>
+        <v>3103.843994140625</v>
       </c>
       <c r="C75" t="n">
-        <v>1697.504760742188</v>
+        <v>1697.504638671875</v>
       </c>
       <c r="D75" t="n">
-        <v>651.2060546875</v>
+        <v>651.2061157226562</v>
       </c>
       <c r="E75" t="n">
-        <v>370.4482421875</v>
+        <v>370.4482727050781</v>
       </c>
       <c r="F75" t="n">
-        <v>397.6722106933594</v>
+        <v>397.6722412109375</v>
       </c>
       <c r="G75" t="n">
         <v>1634.076904296875</v>
@@ -2879,7 +2879,7 @@
         <v>1893.210205078125</v>
       </c>
       <c r="K75" t="n">
-        <v>7235.97119140625</v>
+        <v>7235.9716796875</v>
       </c>
     </row>
     <row r="76">
@@ -2887,16 +2887,16 @@
         <v>45040</v>
       </c>
       <c r="B76" t="n">
-        <v>3166.9384765625</v>
+        <v>3166.938720703125</v>
       </c>
       <c r="C76" t="n">
         <v>1714.006103515625</v>
       </c>
       <c r="D76" t="n">
-        <v>660.7537231445312</v>
+        <v>660.7537841796875</v>
       </c>
       <c r="E76" t="n">
-        <v>375.583740234375</v>
+        <v>375.5837707519531</v>
       </c>
       <c r="F76" t="n">
         <v>402.6670227050781</v>
@@ -2911,7 +2911,7 @@
         <v>1904.367431640625</v>
       </c>
       <c r="K76" t="n">
-        <v>7316.6552734375</v>
+        <v>7316.65576171875</v>
       </c>
     </row>
     <row r="77">
@@ -2919,7 +2919,7 @@
         <v>45041</v>
       </c>
       <c r="B77" t="n">
-        <v>3283.77734375</v>
+        <v>3283.777099609375</v>
       </c>
       <c r="C77" t="n">
         <v>1715.488159179688</v>
@@ -2928,19 +2928,19 @@
         <v>660.9014282226562</v>
       </c>
       <c r="E77" t="n">
-        <v>377.7564392089844</v>
+        <v>377.7564697265625</v>
       </c>
       <c r="F77" t="n">
         <v>401.6876525878906</v>
       </c>
       <c r="G77" t="n">
-        <v>1658.559204101562</v>
+        <v>1658.559326171875</v>
       </c>
       <c r="I77" t="n">
         <v>2184.947265625</v>
       </c>
       <c r="J77" t="n">
-        <v>1940.927124023438</v>
+        <v>1940.92724609375</v>
       </c>
       <c r="K77" t="n">
         <v>7315.328125</v>
@@ -2951,7 +2951,7 @@
         <v>45042</v>
       </c>
       <c r="B78" t="n">
-        <v>3346.822265625</v>
+        <v>3346.822509765625</v>
       </c>
       <c r="C78" t="n">
         <v>1718.0078125</v>
@@ -2963,16 +2963,16 @@
         <v>381.657470703125</v>
       </c>
       <c r="F78" t="n">
-        <v>408.0046081542969</v>
+        <v>408.0045776367188</v>
       </c>
       <c r="G78" t="n">
         <v>1670.652954101562</v>
       </c>
       <c r="I78" t="n">
-        <v>2212.3564453125</v>
+        <v>2212.356689453125</v>
       </c>
       <c r="J78" t="n">
-        <v>2008.686401367188</v>
+        <v>2008.6865234375</v>
       </c>
       <c r="K78" t="n">
         <v>7332.73291015625</v>
@@ -2983,7 +2983,7 @@
         <v>45043</v>
       </c>
       <c r="B79" t="n">
-        <v>3363.53369140625</v>
+        <v>3363.533935546875</v>
       </c>
       <c r="C79" t="n">
         <v>1730.01318359375</v>
@@ -2992,7 +2992,7 @@
         <v>649.3851928710938</v>
       </c>
       <c r="E79" t="n">
-        <v>383.9783325195312</v>
+        <v>383.9783630371094</v>
       </c>
       <c r="F79" t="n">
         <v>412.9503784179688</v>
@@ -3007,7 +3007,7 @@
         <v>2003.908935546875</v>
       </c>
       <c r="K79" t="n">
-        <v>7376</v>
+        <v>7376.00048828125</v>
       </c>
     </row>
     <row r="80">
@@ -3018,16 +3018,16 @@
         <v>3369.794189453125</v>
       </c>
       <c r="C80" t="n">
-        <v>1741.870361328125</v>
+        <v>1741.870483398438</v>
       </c>
       <c r="D80" t="n">
-        <v>670.5966186523438</v>
+        <v>670.5966796875</v>
       </c>
       <c r="E80" t="n">
-        <v>391.5828552246094</v>
+        <v>391.5828247070312</v>
       </c>
       <c r="F80" t="n">
-        <v>417.406494140625</v>
+        <v>417.4065246582031</v>
       </c>
       <c r="G80" t="n">
         <v>1691.4482421875</v>
@@ -3036,10 +3036,10 @@
         <v>2298.13330078125</v>
       </c>
       <c r="J80" t="n">
-        <v>2009.822509765625</v>
+        <v>2009.822631835938</v>
       </c>
       <c r="K80" t="n">
-        <v>7430.37939453125</v>
+        <v>7430.3798828125</v>
       </c>
     </row>
     <row r="81">
@@ -3050,7 +3050,7 @@
         <v>3393.653076171875</v>
       </c>
       <c r="C81" t="n">
-        <v>1743.155029296875</v>
+        <v>1743.154907226562</v>
       </c>
       <c r="D81" t="n">
         <v>670.7935180664062</v>
@@ -3059,7 +3059,7 @@
         <v>389.5088806152344</v>
       </c>
       <c r="F81" t="n">
-        <v>415.4967346191406</v>
+        <v>415.4967651367188</v>
       </c>
       <c r="G81" t="n">
         <v>1710.375366210938</v>
@@ -3079,7 +3079,7 @@
         <v>45049</v>
       </c>
       <c r="B82" t="n">
-        <v>3404.94189453125</v>
+        <v>3404.942138671875</v>
       </c>
       <c r="C82" t="n">
         <v>1722.849487304688</v>
@@ -3091,7 +3091,7 @@
         <v>378.8922119140625</v>
       </c>
       <c r="F82" t="n">
-        <v>418.7286682128906</v>
+        <v>418.7286376953125</v>
       </c>
       <c r="G82" t="n">
         <v>1706.78662109375</v>
@@ -3111,7 +3111,7 @@
         <v>45050</v>
       </c>
       <c r="B83" t="n">
-        <v>3593.99072265625</v>
+        <v>3593.990478515625</v>
       </c>
       <c r="C83" t="n">
         <v>1745.279296875</v>
@@ -3126,13 +3126,13 @@
         <v>416.035400390625</v>
       </c>
       <c r="G83" t="n">
-        <v>1730.334838867188</v>
+        <v>1730.3349609375</v>
       </c>
       <c r="I83" t="n">
         <v>2290.84326171875</v>
       </c>
       <c r="J83" t="n">
-        <v>2084.835205078125</v>
+        <v>2084.83544921875</v>
       </c>
       <c r="K83" t="n">
         <v>7377.328125</v>
@@ -3143,28 +3143,28 @@
         <v>45051</v>
       </c>
       <c r="B84" t="n">
-        <v>3666.455322265625</v>
+        <v>3666.455078125</v>
       </c>
       <c r="C84" t="n">
-        <v>1743.64892578125</v>
+        <v>1743.649047851562</v>
       </c>
       <c r="D84" t="n">
-        <v>673.15576171875</v>
+        <v>673.1558227539062</v>
       </c>
       <c r="E84" t="n">
-        <v>395.5826110839844</v>
+        <v>395.5826416015625</v>
       </c>
       <c r="F84" t="n">
         <v>418.3858947753906</v>
       </c>
       <c r="G84" t="n">
-        <v>1723.1083984375</v>
+        <v>1723.108276367188</v>
       </c>
       <c r="I84" t="n">
-        <v>2310.8662109375</v>
+        <v>2310.865966796875</v>
       </c>
       <c r="J84" t="n">
-        <v>2117.520751953125</v>
+        <v>2117.5205078125</v>
       </c>
       <c r="K84" t="n">
         <v>7501.7705078125</v>
@@ -3175,7 +3175,7 @@
         <v>45054</v>
       </c>
       <c r="B85" t="n">
-        <v>3749.025146484375</v>
+        <v>3749.02490234375</v>
       </c>
       <c r="C85" t="n">
         <v>1745.625244140625</v>
@@ -3184,7 +3184,7 @@
         <v>674.3369140625</v>
       </c>
       <c r="E85" t="n">
-        <v>400.4712219238281</v>
+        <v>400.4712524414062</v>
       </c>
       <c r="F85" t="n">
         <v>427.3471069335938</v>
@@ -3193,13 +3193,13 @@
         <v>1748.524658203125</v>
       </c>
       <c r="I85" t="n">
-        <v>2299.105224609375</v>
+        <v>2299.10546875</v>
       </c>
       <c r="J85" t="n">
         <v>2149.739990234375</v>
       </c>
       <c r="K85" t="n">
-        <v>7606.64501953125</v>
+        <v>7606.64453125</v>
       </c>
     </row>
     <row r="86">
@@ -3207,10 +3207,10 @@
         <v>45055</v>
       </c>
       <c r="B86" t="n">
-        <v>3753.412109375</v>
+        <v>3753.41259765625</v>
       </c>
       <c r="C86" t="n">
-        <v>1738.36279296875</v>
+        <v>1738.362670898438</v>
       </c>
       <c r="D86" t="n">
         <v>679.6521606445312</v>
@@ -3222,7 +3222,7 @@
         <v>423.0868225097656</v>
       </c>
       <c r="G86" t="n">
-        <v>1735.30029296875</v>
+        <v>1735.300170898438</v>
       </c>
       <c r="I86" t="n">
         <v>2307.804443359375</v>
@@ -3239,7 +3239,7 @@
         <v>45056</v>
       </c>
       <c r="B87" t="n">
-        <v>3761.69384765625</v>
+        <v>3761.693603515625</v>
       </c>
       <c r="C87" t="n">
         <v>1730.309692382812</v>
@@ -3254,7 +3254,7 @@
         <v>425.2904052734375</v>
       </c>
       <c r="G87" t="n">
-        <v>1744.640869140625</v>
+        <v>1744.640991210938</v>
       </c>
       <c r="I87" t="n">
         <v>2298.181884765625</v>
@@ -3263,7 +3263,7 @@
         <v>2164.130615234375</v>
       </c>
       <c r="K87" t="n">
-        <v>7614.26611328125</v>
+        <v>7614.265625</v>
       </c>
     </row>
     <row r="88">
@@ -3271,13 +3271,13 @@
         <v>45057</v>
       </c>
       <c r="B88" t="n">
-        <v>3806.059814453125</v>
+        <v>3806.06005859375</v>
       </c>
       <c r="C88" t="n">
         <v>1764.893188476562</v>
       </c>
       <c r="D88" t="n">
-        <v>697.66455078125</v>
+        <v>697.6646118164062</v>
       </c>
       <c r="E88" t="n">
         <v>407.0881652832031</v>
@@ -3286,7 +3286,7 @@
         <v>423.8703308105469</v>
       </c>
       <c r="G88" t="n">
-        <v>1744.39501953125</v>
+        <v>1744.395141601562</v>
       </c>
       <c r="I88" t="n">
         <v>2179.3095703125</v>
@@ -3303,31 +3303,31 @@
         <v>45058</v>
       </c>
       <c r="B89" t="n">
-        <v>3887.00341796875</v>
+        <v>3887.003173828125</v>
       </c>
       <c r="C89" t="n">
-        <v>1776.602172851562</v>
+        <v>1776.60205078125</v>
       </c>
       <c r="D89" t="n">
-        <v>689.0028076171875</v>
+        <v>689.0028686523438</v>
       </c>
       <c r="E89" t="n">
-        <v>404.9154663085938</v>
+        <v>404.9154357910156</v>
       </c>
       <c r="F89" t="n">
-        <v>426.9553833007812</v>
+        <v>426.9553527832031</v>
       </c>
       <c r="G89" t="n">
         <v>1724.435546875</v>
       </c>
       <c r="I89" t="n">
-        <v>2158.849609375</v>
+        <v>2158.849853515625</v>
       </c>
       <c r="J89" t="n">
-        <v>2267.0224609375</v>
+        <v>2267.022216796875</v>
       </c>
       <c r="K89" t="n">
-        <v>7574.6865234375</v>
+        <v>7574.68603515625</v>
       </c>
     </row>
     <row r="90">
@@ -3341,19 +3341,19 @@
         <v>1778.4794921875</v>
       </c>
       <c r="D90" t="n">
-        <v>683.1463012695312</v>
+        <v>683.1463623046875</v>
       </c>
       <c r="E90" t="n">
-        <v>401.5576171875</v>
+        <v>401.5575866699219</v>
       </c>
       <c r="F90" t="n">
         <v>458.4909973144531</v>
       </c>
       <c r="G90" t="n">
-        <v>1704.279296875</v>
+        <v>1704.279418945312</v>
       </c>
       <c r="I90" t="n">
-        <v>2183.8779296875</v>
+        <v>2183.877685546875</v>
       </c>
       <c r="J90" t="n">
         <v>2233.43408203125</v>
@@ -3367,22 +3367,22 @@
         <v>45062</v>
       </c>
       <c r="B91" t="n">
-        <v>3855.40478515625</v>
+        <v>3855.404541015625</v>
       </c>
       <c r="C91" t="n">
-        <v>1762.274658203125</v>
+        <v>1762.274536132812</v>
       </c>
       <c r="D91" t="n">
         <v>676.2071533203125</v>
       </c>
       <c r="E91" t="n">
-        <v>395.9282836914062</v>
+        <v>395.9282531738281</v>
       </c>
       <c r="F91" t="n">
         <v>462.0167236328125</v>
       </c>
       <c r="G91" t="n">
-        <v>1698.183471679688</v>
+        <v>1698.183349609375</v>
       </c>
       <c r="I91" t="n">
         <v>2164.778564453125</v>
@@ -3411,10 +3411,10 @@
         <v>401.2612915039062</v>
       </c>
       <c r="F92" t="n">
-        <v>460.1558837890625</v>
+        <v>460.1559448242188</v>
       </c>
       <c r="G92" t="n">
-        <v>1695.921997070312</v>
+        <v>1695.921875</v>
       </c>
       <c r="I92" t="n">
         <v>2157.3916015625</v>
@@ -3423,7 +3423,7 @@
         <v>2267.109619140625</v>
       </c>
       <c r="K92" t="n">
-        <v>7572.22802734375</v>
+        <v>7572.2275390625</v>
       </c>
     </row>
     <row r="93">
@@ -3431,22 +3431,22 @@
         <v>45064</v>
       </c>
       <c r="B93" t="n">
-        <v>3842.588134765625</v>
+        <v>3842.587890625</v>
       </c>
       <c r="C93" t="n">
-        <v>1692.070190429688</v>
+        <v>1692.0703125</v>
       </c>
       <c r="D93" t="n">
-        <v>654.5035400390625</v>
+        <v>654.5034790039062</v>
       </c>
       <c r="E93" t="n">
-        <v>394.1011962890625</v>
+        <v>394.1012268066406</v>
       </c>
       <c r="F93" t="n">
         <v>450.460205078125</v>
       </c>
       <c r="G93" t="n">
-        <v>1677.093017578125</v>
+        <v>1677.093139648438</v>
       </c>
       <c r="I93" t="n">
         <v>2126.87158203125</v>
@@ -3455,7 +3455,7 @@
         <v>2232.763916015625</v>
       </c>
       <c r="K93" t="n">
-        <v>7477.53076171875</v>
+        <v>7477.53125</v>
       </c>
     </row>
     <row r="94">
@@ -3463,19 +3463,19 @@
         <v>45065</v>
       </c>
       <c r="B94" t="n">
-        <v>3839.876708984375</v>
+        <v>3839.87646484375</v>
       </c>
       <c r="C94" t="n">
         <v>1708.472778320312</v>
       </c>
       <c r="D94" t="n">
-        <v>677.289794921875</v>
+        <v>677.2898559570312</v>
       </c>
       <c r="E94" t="n">
         <v>398.1503601074219</v>
       </c>
       <c r="F94" t="n">
-        <v>462.1636047363281</v>
+        <v>462.1636352539062</v>
       </c>
       <c r="G94" t="n">
         <v>1687.318603515625</v>
@@ -3487,7 +3487,7 @@
         <v>2168.937255859375</v>
       </c>
       <c r="K94" t="n">
-        <v>7553.39599609375</v>
+        <v>7553.396484375</v>
       </c>
     </row>
     <row r="95">
@@ -3510,7 +3510,7 @@
         <v>468.28466796875</v>
       </c>
       <c r="G95" t="n">
-        <v>1689.530883789062</v>
+        <v>1689.531005859375</v>
       </c>
       <c r="I95" t="n">
         <v>2154.475830078125</v>
@@ -3527,10 +3527,10 @@
         <v>45069</v>
       </c>
       <c r="B96" t="n">
-        <v>3857.622802734375</v>
+        <v>3857.623046875</v>
       </c>
       <c r="C96" t="n">
-        <v>1797.796875</v>
+        <v>1797.796752929688</v>
       </c>
       <c r="D96" t="n">
         <v>722.5178833007812</v>
@@ -3539,13 +3539,13 @@
         <v>422.0008850097656</v>
       </c>
       <c r="F96" t="n">
-        <v>458.1972045898438</v>
+        <v>458.1971740722656</v>
       </c>
       <c r="G96" t="n">
-        <v>1669.473022460938</v>
+        <v>1669.47314453125</v>
       </c>
       <c r="I96" t="n">
-        <v>2136.056884765625</v>
+        <v>2136.056640625</v>
       </c>
       <c r="J96" t="n">
         <v>1987.100219726562</v>
@@ -3571,19 +3571,19 @@
         <v>417.0628967285156</v>
       </c>
       <c r="F97" t="n">
-        <v>455.8956298828125</v>
+        <v>455.8956604003906</v>
       </c>
       <c r="G97" t="n">
-        <v>1671.832885742188</v>
+        <v>1671.832763671875</v>
       </c>
       <c r="I97" t="n">
-        <v>2123.9072265625</v>
+        <v>2123.906982421875</v>
       </c>
       <c r="J97" t="n">
         <v>1998.985717773438</v>
       </c>
       <c r="K97" t="n">
-        <v>7526.35400390625</v>
+        <v>7526.3544921875</v>
       </c>
     </row>
     <row r="98">
@@ -3591,7 +3591,7 @@
         <v>45071</v>
       </c>
       <c r="B98" t="n">
-        <v>3886.41162109375</v>
+        <v>3886.411376953125</v>
       </c>
       <c r="C98" t="n">
         <v>1756.98828125</v>
@@ -3603,19 +3603,19 @@
         <v>414.0013427734375</v>
       </c>
       <c r="F98" t="n">
-        <v>467.4032592773438</v>
+        <v>467.4032287597656</v>
       </c>
       <c r="G98" t="n">
-        <v>1672.816162109375</v>
+        <v>1672.816040039062</v>
       </c>
       <c r="I98" t="n">
-        <v>2142.9091796875</v>
+        <v>2142.909423828125</v>
       </c>
       <c r="J98" t="n">
         <v>2031.75830078125</v>
       </c>
       <c r="K98" t="n">
-        <v>7494.837890625</v>
+        <v>7494.83837890625</v>
       </c>
     </row>
     <row r="99">
@@ -3623,19 +3623,19 @@
         <v>45072</v>
       </c>
       <c r="B99" t="n">
-        <v>3948.3271484375</v>
+        <v>3948.326904296875</v>
       </c>
       <c r="C99" t="n">
-        <v>1763.7568359375</v>
+        <v>1763.756713867188</v>
       </c>
       <c r="D99" t="n">
-        <v>715.4309692382812</v>
+        <v>715.4310302734375</v>
       </c>
       <c r="E99" t="n">
         <v>419.2849731445312</v>
       </c>
       <c r="F99" t="n">
-        <v>468.2357177734375</v>
+        <v>468.2356872558594</v>
       </c>
       <c r="G99" t="n">
         <v>1659.984985351562</v>
@@ -3658,19 +3658,19 @@
         <v>3974.35498046875</v>
       </c>
       <c r="C100" t="n">
-        <v>1773.045043945312</v>
+        <v>1773.044921875</v>
       </c>
       <c r="D100" t="n">
         <v>725.9137573242188</v>
       </c>
       <c r="E100" t="n">
-        <v>421.7046203613281</v>
+        <v>421.70458984375</v>
       </c>
       <c r="F100" t="n">
         <v>472.6918029785156</v>
       </c>
       <c r="G100" t="n">
-        <v>1684.565551757812</v>
+        <v>1684.565673828125</v>
       </c>
       <c r="I100" t="n">
         <v>2162.202880859375</v>
@@ -3679,7 +3679,7 @@
         <v>2046.586181640625</v>
       </c>
       <c r="K100" t="n">
-        <v>7709.994140625</v>
+        <v>7709.9951171875</v>
       </c>
     </row>
     <row r="101">
@@ -3687,22 +3687,22 @@
         <v>45076</v>
       </c>
       <c r="B101" t="n">
-        <v>3972.826904296875</v>
+        <v>3972.82666015625</v>
       </c>
       <c r="C101" t="n">
-        <v>1776.997436523438</v>
+        <v>1776.997314453125</v>
       </c>
       <c r="D101" t="n">
         <v>722.5178833007812</v>
       </c>
       <c r="E101" t="n">
-        <v>425.5562438964844</v>
+        <v>425.5562133789062</v>
       </c>
       <c r="F101" t="n">
         <v>464.8079223632812</v>
       </c>
       <c r="G101" t="n">
-        <v>1696.216918945312</v>
+        <v>1696.217041015625</v>
       </c>
       <c r="I101" t="n">
         <v>2148.83837890625</v>
@@ -3734,7 +3734,7 @@
         <v>465.1017150878906</v>
       </c>
       <c r="G102" t="n">
-        <v>1689.530883789062</v>
+        <v>1689.531005859375</v>
       </c>
       <c r="I102" t="n">
         <v>2143.83251953125</v>
@@ -3751,10 +3751,10 @@
         <v>45078</v>
       </c>
       <c r="B103" t="n">
-        <v>3889.07373046875</v>
+        <v>3889.073486328125</v>
       </c>
       <c r="C103" t="n">
-        <v>1778.874755859375</v>
+        <v>1778.874877929688</v>
       </c>
       <c r="D103" t="n">
         <v>720.5493774414062</v>
@@ -3763,7 +3763,7 @@
         <v>423.9266967773438</v>
       </c>
       <c r="F103" t="n">
-        <v>467.3542785644531</v>
+        <v>467.3543090820312</v>
       </c>
       <c r="G103" t="n">
         <v>1673.897583007812</v>
@@ -3795,7 +3795,7 @@
         <v>432.6175537109375</v>
       </c>
       <c r="F104" t="n">
-        <v>479.2046203613281</v>
+        <v>479.20458984375</v>
       </c>
       <c r="G104" t="n">
         <v>1681.86181640625</v>
@@ -3815,19 +3815,19 @@
         <v>45082</v>
       </c>
       <c r="B105" t="n">
-        <v>3976.178466796875</v>
+        <v>3976.178955078125</v>
       </c>
       <c r="C105" t="n">
         <v>1788.90380859375</v>
       </c>
       <c r="D105" t="n">
-        <v>727.193359375</v>
+        <v>727.1932983398438</v>
       </c>
       <c r="E105" t="n">
-        <v>433.6051940917969</v>
+        <v>433.6051635742188</v>
       </c>
       <c r="F105" t="n">
-        <v>479.1556396484375</v>
+        <v>479.1556701660156</v>
       </c>
       <c r="G105" t="n">
         <v>1705.41015625</v>
@@ -3847,22 +3847,22 @@
         <v>45083</v>
       </c>
       <c r="B106" t="n">
-        <v>4000.4814453125</v>
+        <v>4000.481201171875</v>
       </c>
       <c r="C106" t="n">
-        <v>1834.208251953125</v>
+        <v>1834.208374023438</v>
       </c>
       <c r="D106" t="n">
         <v>733.6896362304688</v>
       </c>
       <c r="E106" t="n">
-        <v>453.4558715820312</v>
+        <v>453.4559020996094</v>
       </c>
       <c r="F106" t="n">
-        <v>484.4442443847656</v>
+        <v>484.4442138671875</v>
       </c>
       <c r="G106" t="n">
-        <v>1736.775268554688</v>
+        <v>1736.775146484375</v>
       </c>
       <c r="I106" t="n">
         <v>2214.106201171875</v>
@@ -3871,7 +3871,7 @@
         <v>2089.438232421875</v>
       </c>
       <c r="K106" t="n">
-        <v>7974.51513671875</v>
+        <v>7974.515625</v>
       </c>
     </row>
     <row r="107">
@@ -3882,13 +3882,13 @@
         <v>4092.614990234375</v>
       </c>
       <c r="C107" t="n">
-        <v>1829.712280273438</v>
+        <v>1829.712524414062</v>
       </c>
       <c r="D107" t="n">
         <v>732.0655517578125</v>
       </c>
       <c r="E107" t="n">
-        <v>450.0980834960938</v>
+        <v>450.0980529785156</v>
       </c>
       <c r="F107" t="n">
         <v>485.4725952148438</v>
@@ -3903,7 +3903,7 @@
         <v>2128.852783203125</v>
       </c>
       <c r="K107" t="n">
-        <v>8021.765625</v>
+        <v>8021.76611328125</v>
       </c>
     </row>
     <row r="108">
@@ -3911,7 +3911,7 @@
         <v>45085</v>
       </c>
       <c r="B108" t="n">
-        <v>4054.36181640625</v>
+        <v>4054.361328125</v>
       </c>
       <c r="C108" t="n">
         <v>1811.729125976562</v>
@@ -3920,7 +3920,7 @@
         <v>724.8310546875</v>
       </c>
       <c r="E108" t="n">
-        <v>446.0983276367188</v>
+        <v>446.0982971191406</v>
       </c>
       <c r="F108" t="n">
         <v>474.7484741210938</v>
@@ -3943,7 +3943,7 @@
         <v>45086</v>
       </c>
       <c r="B109" t="n">
-        <v>4092.713623046875</v>
+        <v>4092.71337890625</v>
       </c>
       <c r="C109" t="n">
         <v>1815.434448242188</v>
@@ -3955,16 +3955,16 @@
         <v>450.0487060546875</v>
       </c>
       <c r="F109" t="n">
-        <v>475.189208984375</v>
+        <v>475.1892395019531</v>
       </c>
       <c r="G109" t="n">
-        <v>1686.974609375</v>
+        <v>1686.974487304688</v>
       </c>
       <c r="I109" t="n">
         <v>2296.7724609375</v>
       </c>
       <c r="J109" t="n">
-        <v>2131.561767578125</v>
+        <v>2131.56201171875</v>
       </c>
       <c r="K109" t="n">
         <v>8017.48828125</v>
@@ -3975,19 +3975,19 @@
         <v>45089</v>
       </c>
       <c r="B110" t="n">
-        <v>4092.960693359375</v>
+        <v>4092.960205078125</v>
       </c>
       <c r="C110" t="n">
         <v>1816.669555664062</v>
       </c>
       <c r="D110" t="n">
-        <v>730.4414672851562</v>
+        <v>730.44140625</v>
       </c>
       <c r="E110" t="n">
-        <v>450.6412353515625</v>
+        <v>450.6412048339844</v>
       </c>
       <c r="F110" t="n">
-        <v>480.4778137207031</v>
+        <v>480.477783203125</v>
       </c>
       <c r="G110" t="n">
         <v>1702.362060546875</v>
@@ -3996,7 +3996,7 @@
         <v>2274.36865234375</v>
       </c>
       <c r="J110" t="n">
-        <v>2131.474853515625</v>
+        <v>2131.474609375</v>
       </c>
       <c r="K110" t="n">
         <v>8062.08251953125</v>
@@ -4016,10 +4016,10 @@
         <v>726.2581787109375</v>
       </c>
       <c r="E111" t="n">
-        <v>453.2583618164062</v>
+        <v>453.2583923339844</v>
       </c>
       <c r="F111" t="n">
-        <v>493.2095947265625</v>
+        <v>493.2095642089844</v>
       </c>
       <c r="G111" t="n">
         <v>1708.80224609375</v>
@@ -4028,10 +4028,10 @@
         <v>2288.413330078125</v>
       </c>
       <c r="J111" t="n">
-        <v>2175.754150390625</v>
+        <v>2175.75390625</v>
       </c>
       <c r="K111" t="n">
-        <v>8138.4892578125</v>
+        <v>8138.48876953125</v>
       </c>
     </row>
     <row r="112">
@@ -4042,7 +4042,7 @@
         <v>4288.56494140625</v>
       </c>
       <c r="C112" t="n">
-        <v>1832.775512695312</v>
+        <v>1832.775390625</v>
       </c>
       <c r="D112" t="n">
         <v>727.7346801757812</v>
@@ -4051,19 +4051,19 @@
         <v>458.8383178710938</v>
       </c>
       <c r="F112" t="n">
-        <v>493.3074951171875</v>
+        <v>493.3075256347656</v>
       </c>
       <c r="G112" t="n">
-        <v>1749.507934570312</v>
+        <v>1749.508056640625</v>
       </c>
       <c r="I112" t="n">
         <v>2289.045654296875</v>
       </c>
       <c r="J112" t="n">
-        <v>2192.533935546875</v>
+        <v>2192.53369140625</v>
       </c>
       <c r="K112" t="n">
-        <v>8219.1240234375</v>
+        <v>8219.123046875</v>
       </c>
     </row>
     <row r="113">
@@ -4080,13 +4080,13 @@
         <v>727.88232421875</v>
       </c>
       <c r="E113" t="n">
-        <v>452.6658325195312</v>
+        <v>452.6658020019531</v>
       </c>
       <c r="F113" t="n">
         <v>480.2329406738281</v>
       </c>
       <c r="G113" t="n">
-        <v>1742.772827148438</v>
+        <v>1742.77294921875</v>
       </c>
       <c r="I113" t="n">
         <v>2295.120361328125</v>
@@ -4103,16 +4103,16 @@
         <v>45093</v>
       </c>
       <c r="B114" t="n">
-        <v>4275.796875</v>
+        <v>4275.79736328125</v>
       </c>
       <c r="C114" t="n">
-        <v>1833.368286132812</v>
+        <v>1833.368408203125</v>
       </c>
       <c r="D114" t="n">
-        <v>735.658203125</v>
+        <v>735.6582641601562</v>
       </c>
       <c r="E114" t="n">
-        <v>455.1841735839844</v>
+        <v>455.1842041015625</v>
       </c>
       <c r="F114" t="n">
         <v>485.7663879394531</v>
@@ -4124,7 +4124,7 @@
         <v>2300.466064453125</v>
       </c>
       <c r="J114" t="n">
-        <v>2209.9541015625</v>
+        <v>2209.954345703125</v>
       </c>
       <c r="K114" t="n">
         <v>8194.4912109375</v>
@@ -4135,7 +4135,7 @@
         <v>45096</v>
       </c>
       <c r="B115" t="n">
-        <v>4266.677734375</v>
+        <v>4266.67724609375</v>
       </c>
       <c r="C115" t="n">
         <v>1803.676025390625</v>
@@ -4144,7 +4144,7 @@
         <v>724.0928344726562</v>
       </c>
       <c r="E115" t="n">
-        <v>447.2340087890625</v>
+        <v>447.2340393066406</v>
       </c>
       <c r="F115" t="n">
         <v>475.3360900878906</v>
@@ -4159,7 +4159,7 @@
         <v>2218.46044921875</v>
       </c>
       <c r="K115" t="n">
-        <v>8130.91650390625</v>
+        <v>8130.9169921875</v>
       </c>
     </row>
     <row r="116">
@@ -4167,25 +4167,25 @@
         <v>45097</v>
       </c>
       <c r="B116" t="n">
-        <v>4314.34619140625</v>
+        <v>4314.345703125</v>
       </c>
       <c r="C116" t="n">
-        <v>1816.323486328125</v>
+        <v>1816.323608398438</v>
       </c>
       <c r="D116" t="n">
         <v>726.2090454101562</v>
       </c>
       <c r="E116" t="n">
-        <v>443.3823852539062</v>
+        <v>443.3824157714844</v>
       </c>
       <c r="F116" t="n">
-        <v>479.1066589355469</v>
+        <v>479.1067199707031</v>
       </c>
       <c r="G116" t="n">
         <v>1739.429809570312</v>
       </c>
       <c r="I116" t="n">
-        <v>2315.240234375</v>
+        <v>2315.239990234375</v>
       </c>
       <c r="J116" t="n">
         <v>2231.103515625</v>
@@ -4211,10 +4211,10 @@
         <v>442.5429382324219</v>
       </c>
       <c r="F117" t="n">
-        <v>472.8877258300781</v>
+        <v>472.8876953125</v>
       </c>
       <c r="G117" t="n">
-        <v>1748.082275390625</v>
+        <v>1748.082153320312</v>
       </c>
       <c r="I117" t="n">
         <v>2327.341064453125</v>
@@ -4223,7 +4223,7 @@
         <v>2215.284912109375</v>
       </c>
       <c r="K117" t="n">
-        <v>8104.31689453125</v>
+        <v>8104.31787109375</v>
       </c>
     </row>
     <row r="118">
@@ -4237,13 +4237,13 @@
         <v>1809.950439453125</v>
       </c>
       <c r="D118" t="n">
-        <v>733.8864135742188</v>
+        <v>733.886474609375</v>
       </c>
       <c r="E118" t="n">
-        <v>439.3332214355469</v>
+        <v>439.3332824707031</v>
       </c>
       <c r="F118" t="n">
-        <v>471.3207092285156</v>
+        <v>471.3206787109375</v>
       </c>
       <c r="G118" t="n">
         <v>1720.945190429688</v>
@@ -4252,7 +4252,7 @@
         <v>2348.530029296875</v>
       </c>
       <c r="J118" t="n">
-        <v>2149.215576171875</v>
+        <v>2149.21533203125</v>
       </c>
       <c r="K118" t="n">
         <v>8026.82958984375</v>
@@ -4272,10 +4272,10 @@
         <v>703.0781860351562</v>
       </c>
       <c r="E119" t="n">
-        <v>420.5194702148438</v>
+        <v>420.5194396972656</v>
       </c>
       <c r="F119" t="n">
-        <v>467.8439636230469</v>
+        <v>467.8439331054688</v>
       </c>
       <c r="G119" t="n">
         <v>1687.318603515625</v>
@@ -4287,7 +4287,7 @@
         <v>2141.553955078125</v>
       </c>
       <c r="K119" t="n">
-        <v>7945.65478515625</v>
+        <v>7945.654296875</v>
       </c>
     </row>
     <row r="120">
@@ -4295,10 +4295,10 @@
         <v>45103</v>
       </c>
       <c r="B120" t="n">
-        <v>4224.97314453125</v>
+        <v>4224.9736328125</v>
       </c>
       <c r="C120" t="n">
-        <v>1770.969970703125</v>
+        <v>1770.969848632812</v>
       </c>
       <c r="D120" t="n">
         <v>713.0195922851562</v>
@@ -4307,7 +4307,7 @@
         <v>426.6919555664062</v>
       </c>
       <c r="F120" t="n">
-        <v>467.3052673339844</v>
+        <v>467.3052978515625</v>
       </c>
       <c r="G120" t="n">
         <v>1697.839233398438</v>
@@ -4316,10 +4316,10 @@
         <v>2310.9150390625</v>
       </c>
       <c r="J120" t="n">
-        <v>2155.3330078125</v>
+        <v>2155.333251953125</v>
       </c>
       <c r="K120" t="n">
-        <v>8031.10791015625</v>
+        <v>8031.107421875</v>
       </c>
     </row>
     <row r="121">
@@ -4327,7 +4327,7 @@
         <v>45104</v>
       </c>
       <c r="B121" t="n">
-        <v>4233.9951171875</v>
+        <v>4233.99462890625</v>
       </c>
       <c r="C121" t="n">
         <v>1767.31396484375</v>
@@ -4336,7 +4336,7 @@
         <v>708.9347534179688</v>
       </c>
       <c r="E121" t="n">
-        <v>428.4696655273438</v>
+        <v>428.4696960449219</v>
       </c>
       <c r="F121" t="n">
         <v>473.8670654296875</v>
@@ -4359,19 +4359,19 @@
         <v>45105</v>
       </c>
       <c r="B122" t="n">
-        <v>4348.9521484375</v>
+        <v>4348.95166015625</v>
       </c>
       <c r="C122" t="n">
-        <v>1790.78125</v>
+        <v>1790.781372070312</v>
       </c>
       <c r="D122" t="n">
         <v>744.615234375</v>
       </c>
       <c r="E122" t="n">
-        <v>428.8647155761719</v>
+        <v>428.8646850585938</v>
       </c>
       <c r="F122" t="n">
-        <v>475.874755859375</v>
+        <v>475.8747253417969</v>
       </c>
       <c r="G122" t="n">
         <v>1713.865966796875</v>
@@ -4383,7 +4383,7 @@
         <v>2193.436767578125</v>
       </c>
       <c r="K122" t="n">
-        <v>8123.10009765625</v>
+        <v>8123.099609375</v>
       </c>
     </row>
     <row r="123">
@@ -4391,31 +4391,31 @@
         <v>45107</v>
       </c>
       <c r="B123" t="n">
-        <v>4360.68408203125</v>
+        <v>4360.6845703125</v>
       </c>
       <c r="C123" t="n">
-        <v>1792.115112304688</v>
+        <v>1792.115234375</v>
       </c>
       <c r="D123" t="n">
-        <v>727.63623046875</v>
+        <v>727.6361694335938</v>
       </c>
       <c r="E123" t="n">
-        <v>420.6182250976562</v>
+        <v>420.6182556152344</v>
       </c>
       <c r="F123" t="n">
         <v>480.4288024902344</v>
       </c>
       <c r="G123" t="n">
-        <v>1705.5576171875</v>
+        <v>1705.557739257812</v>
       </c>
       <c r="I123" t="n">
         <v>2406.168212890625</v>
       </c>
       <c r="J123" t="n">
-        <v>2194.42724609375</v>
+        <v>2194.427490234375</v>
       </c>
       <c r="K123" t="n">
-        <v>8156.63134765625</v>
+        <v>8156.6318359375</v>
       </c>
     </row>
     <row r="124">
@@ -4426,7 +4426,7 @@
         <v>4349.099609375</v>
       </c>
       <c r="C124" t="n">
-        <v>1803.379638671875</v>
+        <v>1803.379516601562</v>
       </c>
       <c r="D124" t="n">
         <v>725.8153076171875</v>
@@ -4441,7 +4441,7 @@
         <v>1763.617309570312</v>
       </c>
       <c r="I124" t="n">
-        <v>2385.27099609375</v>
+        <v>2385.270751953125</v>
       </c>
       <c r="J124" t="n">
         <v>2171.704833984375</v>
@@ -4455,19 +4455,19 @@
         <v>45111</v>
       </c>
       <c r="B125" t="n">
-        <v>4299.26171875</v>
+        <v>4299.26220703125</v>
       </c>
       <c r="C125" t="n">
-        <v>1798.784790039062</v>
+        <v>1798.784912109375</v>
       </c>
       <c r="D125" t="n">
-        <v>730.0477905273438</v>
+        <v>730.0477294921875</v>
       </c>
       <c r="E125" t="n">
-        <v>427.3339538574219</v>
+        <v>427.3339233398438</v>
       </c>
       <c r="F125" t="n">
-        <v>479.6942749023438</v>
+        <v>479.6943054199219</v>
       </c>
       <c r="G125" t="n">
         <v>1739.872192382812</v>
@@ -4476,10 +4476,10 @@
         <v>2392.852294921875</v>
       </c>
       <c r="J125" t="n">
-        <v>2157.576416015625</v>
+        <v>2157.576171875</v>
       </c>
       <c r="K125" t="n">
-        <v>8271.6337890625</v>
+        <v>8271.634765625</v>
       </c>
     </row>
     <row r="126">
@@ -4490,19 +4490,19 @@
         <v>4328.74072265625</v>
       </c>
       <c r="C126" t="n">
-        <v>1799.130859375</v>
+        <v>1799.130737304688</v>
       </c>
       <c r="D126" t="n">
         <v>731.0812377929688</v>
       </c>
       <c r="E126" t="n">
-        <v>427.03759765625</v>
+        <v>427.0376281738281</v>
       </c>
       <c r="F126" t="n">
         <v>489.3900451660156</v>
       </c>
       <c r="G126" t="n">
-        <v>1748.082275390625</v>
+        <v>1748.082153320312</v>
       </c>
       <c r="I126" t="n">
         <v>2401.55126953125</v>
@@ -4511,7 +4511,7 @@
         <v>2161.5380859375</v>
       </c>
       <c r="K126" t="n">
-        <v>8237.7080078125</v>
+        <v>8237.708984375</v>
       </c>
     </row>
     <row r="127">
@@ -4528,13 +4528,13 @@
         <v>728.4236450195312</v>
       </c>
       <c r="E127" t="n">
-        <v>426.1488037109375</v>
+        <v>426.1487731933594</v>
       </c>
       <c r="F127" t="n">
-        <v>503.0032348632812</v>
+        <v>503.0032043457031</v>
       </c>
       <c r="G127" t="n">
-        <v>1738.3974609375</v>
+        <v>1738.397583007812</v>
       </c>
       <c r="I127" t="n">
         <v>2418.8525390625</v>
@@ -4543,7 +4543,7 @@
         <v>2173.62744140625</v>
       </c>
       <c r="K127" t="n">
-        <v>8270.1591796875</v>
+        <v>8270.16015625</v>
       </c>
     </row>
     <row r="128">
@@ -4551,22 +4551,22 @@
         <v>45114</v>
       </c>
       <c r="B128" t="n">
-        <v>4337.76171875</v>
+        <v>4337.76220703125</v>
       </c>
       <c r="C128" t="n">
         <v>1779.220458984375</v>
       </c>
       <c r="D128" t="n">
-        <v>707.4090576171875</v>
+        <v>707.4091186523438</v>
       </c>
       <c r="E128" t="n">
-        <v>415.12255859375</v>
+        <v>415.1225891113281</v>
       </c>
       <c r="F128" t="n">
         <v>492.4750671386719</v>
       </c>
       <c r="G128" t="n">
-        <v>1714.0625</v>
+        <v>1714.062622070312</v>
       </c>
       <c r="I128" t="n">
         <v>2380.70263671875</v>
@@ -4589,13 +4589,13 @@
         <v>1782.3984375</v>
       </c>
       <c r="D129" t="n">
-        <v>708.787109375</v>
+        <v>708.7870483398438</v>
       </c>
       <c r="E129" t="n">
         <v>416.7119445800781</v>
       </c>
       <c r="F129" t="n">
-        <v>491.2018737792969</v>
+        <v>491.2018432617188</v>
       </c>
       <c r="G129" t="n">
         <v>1713.767578125</v>
@@ -4615,13 +4615,13 @@
         <v>45118</v>
       </c>
       <c r="B130" t="n">
-        <v>4435.859375</v>
+        <v>4435.85986328125</v>
       </c>
       <c r="C130" t="n">
         <v>1771.026977539062</v>
       </c>
       <c r="D130" t="n">
-        <v>718.4331665039062</v>
+        <v>718.43310546875</v>
       </c>
       <c r="E130" t="n">
         <v>416.9602661132812</v>
@@ -4630,7 +4630,7 @@
         <v>489.341064453125</v>
       </c>
       <c r="G130" t="n">
-        <v>1738.05322265625</v>
+        <v>1738.053344726562</v>
       </c>
       <c r="I130" t="n">
         <v>2405.1962890625</v>
@@ -4639,7 +4639,7 @@
         <v>2194.514404296875</v>
       </c>
       <c r="K130" t="n">
-        <v>8187.263671875</v>
+        <v>8187.26318359375</v>
       </c>
     </row>
     <row r="131">
@@ -4647,22 +4647,22 @@
         <v>45119</v>
       </c>
       <c r="B131" t="n">
-        <v>4464.64892578125</v>
+        <v>4464.6484375</v>
       </c>
       <c r="C131" t="n">
-        <v>1777.383178710938</v>
+        <v>1777.383056640625</v>
       </c>
       <c r="D131" t="n">
         <v>712.8226928710938</v>
       </c>
       <c r="E131" t="n">
-        <v>418.748291015625</v>
+        <v>418.7483215332031</v>
       </c>
       <c r="F131" t="n">
         <v>482.2406616210938</v>
       </c>
       <c r="G131" t="n">
-        <v>1748.032958984375</v>
+        <v>1748.033081054688</v>
       </c>
       <c r="I131" t="n">
         <v>2386.1455078125</v>
@@ -4703,7 +4703,7 @@
         <v>2172.229248046875</v>
       </c>
       <c r="K132" t="n">
-        <v>8096.8935546875</v>
+        <v>8096.89306640625</v>
       </c>
     </row>
     <row r="133">
@@ -4726,16 +4726,16 @@
         <v>482.9751892089844</v>
       </c>
       <c r="G133" t="n">
-        <v>1723.79638671875</v>
+        <v>1723.796508789062</v>
       </c>
       <c r="I133" t="n">
         <v>2402.960693359375</v>
       </c>
       <c r="J133" t="n">
-        <v>2149.76904296875</v>
+        <v>2149.768798828125</v>
       </c>
       <c r="K133" t="n">
-        <v>8046.30029296875</v>
+        <v>8046.2998046875</v>
       </c>
     </row>
     <row r="134">
@@ -4743,10 +4743,10 @@
         <v>45124</v>
       </c>
       <c r="B134" t="n">
-        <v>4356.69091796875</v>
+        <v>4356.69140625</v>
       </c>
       <c r="C134" t="n">
-        <v>1799.083251953125</v>
+        <v>1799.083374023438</v>
       </c>
       <c r="D134" t="n">
         <v>719.5650634765625</v>
@@ -4755,16 +4755,16 @@
         <v>413.8312377929688</v>
       </c>
       <c r="F134" t="n">
-        <v>487.7741088867188</v>
+        <v>487.7740783691406</v>
       </c>
       <c r="G134" t="n">
-        <v>1762.978271484375</v>
+        <v>1762.978149414062</v>
       </c>
       <c r="I134" t="n">
-        <v>2399.607421875</v>
+        <v>2399.607177734375</v>
       </c>
       <c r="J134" t="n">
-        <v>2156.935302734375</v>
+        <v>2156.935546875</v>
       </c>
       <c r="K134" t="n">
         <v>8113.60986328125</v>
@@ -4778,16 +4778,16 @@
         <v>4427.578125</v>
       </c>
       <c r="C135" t="n">
-        <v>1782.795654296875</v>
+        <v>1782.795776367188</v>
       </c>
       <c r="D135" t="n">
-        <v>716.7106323242188</v>
+        <v>716.710693359375</v>
       </c>
       <c r="E135" t="n">
-        <v>413.4338989257812</v>
+        <v>413.4338684082031</v>
       </c>
       <c r="F135" t="n">
-        <v>484.5911560058594</v>
+        <v>484.5911254882812</v>
       </c>
       <c r="G135" t="n">
         <v>1745.280029296875</v>
@@ -4810,16 +4810,16 @@
         <v>4430.19091796875</v>
       </c>
       <c r="C136" t="n">
-        <v>1787.711791992188</v>
+        <v>1787.7119140625</v>
       </c>
       <c r="D136" t="n">
-        <v>719.90966796875</v>
+        <v>719.9096069335938</v>
       </c>
       <c r="E136" t="n">
-        <v>416.5132446289062</v>
+        <v>416.5132751464844</v>
       </c>
       <c r="F136" t="n">
-        <v>490.6632080078125</v>
+        <v>490.6632385253906</v>
       </c>
       <c r="G136" t="n">
         <v>1754.276611328125</v>
@@ -4828,10 +4828,10 @@
         <v>2424.246826171875</v>
       </c>
       <c r="J136" t="n">
-        <v>2161.7421875</v>
+        <v>2161.741943359375</v>
       </c>
       <c r="K136" t="n">
-        <v>8190.5087890625</v>
+        <v>8190.50830078125</v>
       </c>
     </row>
     <row r="137">
@@ -4854,16 +4854,16 @@
         <v>494.4827270507812</v>
       </c>
       <c r="G137" t="n">
-        <v>1788.935424804688</v>
+        <v>1788.935302734375</v>
       </c>
       <c r="I137" t="n">
-        <v>2419.921630859375</v>
+        <v>2419.92138671875</v>
       </c>
       <c r="J137" t="n">
-        <v>2118.074462890625</v>
+        <v>2118.07421875</v>
       </c>
       <c r="K137" t="n">
-        <v>8087.2080078125</v>
+        <v>8087.20751953125</v>
       </c>
     </row>
     <row r="138">
@@ -4871,16 +4871,16 @@
         <v>45128</v>
       </c>
       <c r="B138" t="n">
-        <v>4166.26171875</v>
+        <v>4166.2626953125</v>
       </c>
       <c r="C138" t="n">
-        <v>1754.590454101562</v>
+        <v>1754.59033203125</v>
       </c>
       <c r="D138" t="n">
-        <v>717.0059814453125</v>
+        <v>717.0059204101562</v>
       </c>
       <c r="E138" t="n">
-        <v>413.3345642089844</v>
+        <v>413.3345336914062</v>
       </c>
       <c r="F138" t="n">
         <v>490.271484375</v>
@@ -4889,10 +4889,10 @@
         <v>1774.33447265625</v>
       </c>
       <c r="I138" t="n">
-        <v>2513.765625</v>
+        <v>2513.765869140625</v>
       </c>
       <c r="J138" t="n">
-        <v>2105.576904296875</v>
+        <v>2105.57666015625</v>
       </c>
       <c r="K138" t="n">
         <v>7984.0048828125</v>
@@ -4903,10 +4903,10 @@
         <v>45131</v>
       </c>
       <c r="B139" t="n">
-        <v>4261.15673828125</v>
+        <v>4261.15625</v>
       </c>
       <c r="C139" t="n">
-        <v>1792.230590820312</v>
+        <v>1792.230712890625</v>
       </c>
       <c r="D139" t="n">
         <v>723.748291015625</v>
@@ -4918,16 +4918,16 @@
         <v>483.6117553710938</v>
       </c>
       <c r="G139" t="n">
-        <v>1782.642822265625</v>
+        <v>1782.642700195312</v>
       </c>
       <c r="I139" t="n">
-        <v>2532.233154296875</v>
+        <v>2532.23291015625</v>
       </c>
       <c r="J139" t="n">
-        <v>2152.740478515625</v>
+        <v>2152.740234375</v>
       </c>
       <c r="K139" t="n">
-        <v>8082.978515625</v>
+        <v>8082.97900390625</v>
       </c>
     </row>
     <row r="140">
@@ -4935,13 +4935,13 @@
         <v>45132</v>
       </c>
       <c r="B140" t="n">
-        <v>4272.05078125</v>
+        <v>4272.05029296875</v>
       </c>
       <c r="C140" t="n">
         <v>1878.783203125</v>
       </c>
       <c r="D140" t="n">
-        <v>737.4791870117188</v>
+        <v>737.4791259765625</v>
       </c>
       <c r="E140" t="n">
         <v>437.1750183105469</v>
@@ -4950,13 +4950,13 @@
         <v>470.0964660644531</v>
       </c>
       <c r="G140" t="n">
-        <v>1798.37451171875</v>
+        <v>1798.374389648438</v>
       </c>
       <c r="I140" t="n">
         <v>2489.1259765625</v>
       </c>
       <c r="J140" t="n">
-        <v>2151.48779296875</v>
+        <v>2151.487548828125</v>
       </c>
       <c r="K140" t="n">
         <v>8253.541015625</v>
@@ -4967,7 +4967,7 @@
         <v>45133</v>
       </c>
       <c r="B141" t="n">
-        <v>4336.529296875</v>
+        <v>4336.52880859375</v>
       </c>
       <c r="C141" t="n">
         <v>1909.322509765625</v>
@@ -5002,7 +5002,7 @@
         <v>4338.10693359375</v>
       </c>
       <c r="C142" t="n">
-        <v>1927.19921875</v>
+        <v>1927.199096679688</v>
       </c>
       <c r="D142" t="n">
         <v>736.9869995117188</v>
@@ -5011,13 +5011,13 @@
         <v>446.7608947753906</v>
       </c>
       <c r="F142" t="n">
-        <v>500.260986328125</v>
+        <v>500.2610168457031</v>
       </c>
       <c r="G142" t="n">
-        <v>1791.934326171875</v>
+        <v>1791.934204101562</v>
       </c>
       <c r="I142" t="n">
-        <v>2585.642822265625</v>
+        <v>2585.64306640625</v>
       </c>
       <c r="J142" t="n">
         <v>2186.00830078125</v>
@@ -5031,7 +5031,7 @@
         <v>45135</v>
       </c>
       <c r="B143" t="n">
-        <v>4452.57177734375</v>
+        <v>4452.57080078125</v>
       </c>
       <c r="C143" t="n">
         <v>1935.541625976562</v>
@@ -5046,13 +5046,13 @@
         <v>508.9474792480469</v>
       </c>
       <c r="G143" t="n">
-        <v>1793.212524414062</v>
+        <v>1793.21240234375</v>
       </c>
       <c r="I143" t="n">
         <v>2575.29150390625</v>
       </c>
       <c r="J143" t="n">
-        <v>2247.591796875</v>
+        <v>2247.592041015625</v>
       </c>
       <c r="K143" t="n">
         <v>8205.765625</v>
@@ -5072,7 +5072,7 @@
         <v>770.7769165039062</v>
       </c>
       <c r="E144" t="n">
-        <v>459.9228210449219</v>
+        <v>459.9228515625</v>
       </c>
       <c r="F144" t="n">
         <v>512.056884765625</v>
@@ -5087,7 +5087,7 @@
         <v>2320.5947265625</v>
       </c>
       <c r="K144" t="n">
-        <v>8217.02734375</v>
+        <v>8217.0263671875</v>
       </c>
     </row>
     <row r="145">
@@ -5095,7 +5095,7 @@
         <v>45139</v>
       </c>
       <c r="B145" t="n">
-        <v>4455.9716796875</v>
+        <v>4455.97216796875</v>
       </c>
       <c r="C145" t="n">
         <v>1996.818603515625</v>
@@ -5110,7 +5110,7 @@
         <v>493.2526245117188</v>
       </c>
       <c r="G145" t="n">
-        <v>1806.879272460938</v>
+        <v>1806.87939453125</v>
       </c>
       <c r="I145" t="n">
         <v>2591.912109375</v>
@@ -5119,7 +5119,7 @@
         <v>2266.9638671875</v>
       </c>
       <c r="K145" t="n">
-        <v>8181.11767578125</v>
+        <v>8181.11865234375</v>
       </c>
     </row>
     <row r="146">
@@ -5127,10 +5127,10 @@
         <v>45140</v>
       </c>
       <c r="B146" t="n">
-        <v>4345.89599609375</v>
+        <v>4345.8955078125</v>
       </c>
       <c r="C146" t="n">
-        <v>1957.738403320312</v>
+        <v>1957.73828125</v>
       </c>
       <c r="D146" t="n">
         <v>754.5260620117188</v>
@@ -5148,7 +5148,7 @@
         <v>2577.658203125</v>
       </c>
       <c r="J146" t="n">
-        <v>2225.044189453125</v>
+        <v>2225.0439453125</v>
       </c>
       <c r="K146" t="n">
         <v>8186.947265625</v>
@@ -5168,7 +5168,7 @@
         <v>766.3178100585938</v>
       </c>
       <c r="E147" t="n">
-        <v>471.1974182128906</v>
+        <v>471.1973876953125</v>
       </c>
       <c r="F147" t="n">
         <v>482.0491027832031</v>
@@ -5180,7 +5180,7 @@
         <v>2554.016357421875</v>
       </c>
       <c r="J147" t="n">
-        <v>2211.0322265625</v>
+        <v>2211.031982421875</v>
       </c>
       <c r="K147" t="n">
         <v>8037.23876953125</v>
@@ -5194,7 +5194,7 @@
         <v>4375.52197265625</v>
       </c>
       <c r="C148" t="n">
-        <v>2028.748291015625</v>
+        <v>2028.748168945312</v>
       </c>
       <c r="D148" t="n">
         <v>768.2005615234375</v>
@@ -5206,10 +5206,10 @@
         <v>483.3323059082031</v>
       </c>
       <c r="G148" t="n">
-        <v>1794.834594726562</v>
+        <v>1794.834716796875</v>
       </c>
       <c r="I148" t="n">
-        <v>2582.32763671875</v>
+        <v>2582.327392578125</v>
       </c>
       <c r="J148" t="n">
         <v>2199.9912109375</v>
@@ -5223,10 +5223,10 @@
         <v>45145</v>
       </c>
       <c r="B149" t="n">
-        <v>4462.18359375</v>
+        <v>4462.18408203125</v>
       </c>
       <c r="C149" t="n">
-        <v>2017.12841796875</v>
+        <v>2017.128540039062</v>
       </c>
       <c r="D149" t="n">
         <v>784.2037353515625</v>
@@ -5255,7 +5255,7 @@
         <v>45146</v>
       </c>
       <c r="B150" t="n">
-        <v>4413.578125</v>
+        <v>4413.57861328125</v>
       </c>
       <c r="C150" t="n">
         <v>1987.234741210938</v>
@@ -5290,7 +5290,7 @@
         <v>4457.25439453125</v>
       </c>
       <c r="C151" t="n">
-        <v>1973.529418945312</v>
+        <v>1973.529296875</v>
       </c>
       <c r="D151" t="n">
         <v>783.9064331054688</v>
@@ -5308,7 +5308,7 @@
         <v>2606.608642578125</v>
       </c>
       <c r="J151" t="n">
-        <v>2174.4140625</v>
+        <v>2174.413818359375</v>
       </c>
       <c r="K151" t="n">
         <v>8012.64208984375</v>
@@ -5319,7 +5319,7 @@
         <v>45148</v>
       </c>
       <c r="B152" t="n">
-        <v>4441.62744140625</v>
+        <v>4441.6279296875</v>
       </c>
       <c r="C152" t="n">
         <v>1947.508911132812</v>
@@ -5328,7 +5328,7 @@
         <v>795.5000610351562</v>
       </c>
       <c r="E152" t="n">
-        <v>454.161376953125</v>
+        <v>454.1614074707031</v>
       </c>
       <c r="F152" t="n">
         <v>484.3193664550781</v>
@@ -5340,10 +5340,10 @@
         <v>2598.64599609375</v>
       </c>
       <c r="J152" t="n">
-        <v>2137.329833984375</v>
+        <v>2137.330078125</v>
       </c>
       <c r="K152" t="n">
-        <v>8003.7021484375</v>
+        <v>8003.70166015625</v>
       </c>
     </row>
     <row r="153">
@@ -5351,10 +5351,10 @@
         <v>45149</v>
       </c>
       <c r="B153" t="n">
-        <v>4462.873046875</v>
+        <v>4462.8740234375</v>
       </c>
       <c r="C153" t="n">
-        <v>1940.258911132812</v>
+        <v>1940.259033203125</v>
       </c>
       <c r="D153" t="n">
         <v>793.7659912109375</v>
@@ -5392,7 +5392,7 @@
         <v>779.9923706054688</v>
       </c>
       <c r="E154" t="n">
-        <v>438.0194091796875</v>
+        <v>438.0193786621094</v>
       </c>
       <c r="F154" t="n">
         <v>464.8735961914062</v>
@@ -5404,10 +5404,10 @@
         <v>2614.767578125</v>
       </c>
       <c r="J154" t="n">
-        <v>2098.96435546875</v>
+        <v>2098.964111328125</v>
       </c>
       <c r="K154" t="n">
-        <v>7956.38427734375</v>
+        <v>7956.3837890625</v>
       </c>
     </row>
     <row r="155">
@@ -5450,13 +5450,13 @@
         <v>4252.92431640625</v>
       </c>
       <c r="C156" t="n">
-        <v>1887.82080078125</v>
+        <v>1887.820922851562</v>
       </c>
       <c r="D156" t="n">
         <v>802.2877807617188</v>
       </c>
       <c r="E156" t="n">
-        <v>443.0358276367188</v>
+        <v>443.0357971191406</v>
       </c>
       <c r="F156" t="n">
         <v>471.5364990234375</v>
@@ -5482,7 +5482,7 @@
         <v>4219.2060546875</v>
       </c>
       <c r="C157" t="n">
-        <v>1920.842895507812</v>
+        <v>1920.843017578125</v>
       </c>
       <c r="D157" t="n">
         <v>828.299072265625</v>
@@ -5497,10 +5497,10 @@
         <v>1770.587158203125</v>
       </c>
       <c r="I157" t="n">
-        <v>2597.1220703125</v>
+        <v>2597.122314453125</v>
       </c>
       <c r="J157" t="n">
-        <v>2101.003173828125</v>
+        <v>2101.00341796875</v>
       </c>
       <c r="K157" t="n">
         <v>8114.98193359375</v>
@@ -5511,16 +5511,16 @@
         <v>45159</v>
       </c>
       <c r="B158" t="n">
-        <v>4256.37451171875</v>
+        <v>4256.375</v>
       </c>
       <c r="C158" t="n">
-        <v>1958.433471679688</v>
+        <v>1958.43359375</v>
       </c>
       <c r="D158" t="n">
         <v>850.3468017578125</v>
       </c>
       <c r="E158" t="n">
-        <v>462.1578674316406</v>
+        <v>462.1578979492188</v>
       </c>
       <c r="F158" t="n">
         <v>475.6329345703125</v>
@@ -5546,13 +5546,13 @@
         <v>4263.37451171875</v>
       </c>
       <c r="C159" t="n">
-        <v>1965.534423828125</v>
+        <v>1965.534545898438</v>
       </c>
       <c r="D159" t="n">
         <v>846.72998046875</v>
       </c>
       <c r="E159" t="n">
-        <v>460.717529296875</v>
+        <v>460.7174987792969</v>
       </c>
       <c r="F159" t="n">
         <v>474.1522827148438</v>
@@ -5561,7 +5561,7 @@
         <v>1785.268310546875</v>
       </c>
       <c r="I159" t="n">
-        <v>2633.34716796875</v>
+        <v>2633.346923828125</v>
       </c>
       <c r="J159" t="n">
         <v>2134.533447265625</v>
@@ -5575,10 +5575,10 @@
         <v>45161</v>
       </c>
       <c r="B160" t="n">
-        <v>4241.98095703125</v>
+        <v>4241.98046875</v>
       </c>
       <c r="C160" t="n">
-        <v>1951.779418945312</v>
+        <v>1951.779541015625</v>
       </c>
       <c r="D160" t="n">
         <v>818.1918334960938</v>
@@ -5607,7 +5607,7 @@
         <v>45162</v>
       </c>
       <c r="B161" t="n">
-        <v>4275.84619140625</v>
+        <v>4275.8466796875</v>
       </c>
       <c r="C161" t="n">
         <v>1976.707397460938</v>
@@ -5671,7 +5671,7 @@
         <v>45166</v>
       </c>
       <c r="B163" t="n">
-        <v>4209.3603515625</v>
+        <v>4209.361328125</v>
       </c>
       <c r="C163" t="n">
         <v>1971.642456054688</v>
@@ -5680,7 +5680,7 @@
         <v>800.1077880859375</v>
       </c>
       <c r="E163" t="n">
-        <v>435.933349609375</v>
+        <v>435.9333190917969</v>
       </c>
       <c r="F163" t="n">
         <v>476.1758422851562</v>
@@ -5689,7 +5689,7 @@
         <v>1764.358764648438</v>
       </c>
       <c r="I163" t="n">
-        <v>2649.6162109375</v>
+        <v>2649.616455078125</v>
       </c>
       <c r="J163" t="n">
         <v>2241.357666015625</v>
@@ -5703,7 +5703,7 @@
         <v>45167</v>
       </c>
       <c r="B164" t="n">
-        <v>4263.40869140625</v>
+        <v>4263.408203125</v>
       </c>
       <c r="C164" t="n">
         <v>1968.216064453125</v>
@@ -5721,13 +5721,13 @@
         <v>1781.313842773438</v>
       </c>
       <c r="I164" t="n">
-        <v>2672.815673828125</v>
+        <v>2672.81591796875</v>
       </c>
       <c r="J164" t="n">
         <v>2252.048828125</v>
       </c>
       <c r="K164" t="n">
-        <v>8100.0166015625</v>
+        <v>8100.01708984375</v>
       </c>
     </row>
     <row r="165">
@@ -5735,16 +5735,16 @@
         <v>45168</v>
       </c>
       <c r="B165" t="n">
-        <v>4290.16015625</v>
+        <v>4290.16064453125</v>
       </c>
       <c r="C165" t="n">
-        <v>1986.837646484375</v>
+        <v>1986.837524414062</v>
       </c>
       <c r="D165" t="n">
         <v>811.2554321289062</v>
       </c>
       <c r="E165" t="n">
-        <v>441.0987548828125</v>
+        <v>441.0987854003906</v>
       </c>
       <c r="F165" t="n">
         <v>493.5980834960938</v>
@@ -5767,10 +5767,10 @@
         <v>45169</v>
       </c>
       <c r="B166" t="n">
-        <v>4325.302734375</v>
+        <v>4325.30322265625</v>
       </c>
       <c r="C166" t="n">
-        <v>1992.001953125</v>
+        <v>1992.001831054688</v>
       </c>
       <c r="D166" t="n">
         <v>784.9964599609375</v>
@@ -5802,7 +5802,7 @@
         <v>4236.3603515625</v>
       </c>
       <c r="C167" t="n">
-        <v>1997.464111328125</v>
+        <v>1997.464233398438</v>
       </c>
       <c r="D167" t="n">
         <v>792.2301025390625</v>
@@ -5817,13 +5817,13 @@
         <v>1790.903442382812</v>
       </c>
       <c r="I167" t="n">
-        <v>2656.251953125</v>
+        <v>2656.251708984375</v>
       </c>
       <c r="J167" t="n">
-        <v>2264.69189453125</v>
+        <v>2264.691650390625</v>
       </c>
       <c r="K167" t="n">
-        <v>8161.955078125</v>
+        <v>8161.95458984375</v>
       </c>
     </row>
     <row r="168">
@@ -5866,7 +5866,7 @@
         <v>4383.79248046875</v>
       </c>
       <c r="C169" t="n">
-        <v>2070.3115234375</v>
+        <v>2070.311279296875</v>
       </c>
       <c r="D169" t="n">
         <v>797.6304931640625</v>
@@ -5898,13 +5898,13 @@
         <v>4442.52880859375</v>
       </c>
       <c r="C170" t="n">
-        <v>2029.493041992188</v>
+        <v>2029.4931640625</v>
       </c>
       <c r="D170" t="n">
         <v>799.71142578125</v>
       </c>
       <c r="E170" t="n">
-        <v>434.8406372070312</v>
+        <v>434.8406677246094</v>
       </c>
       <c r="F170" t="n">
         <v>512.3035888671875</v>
@@ -5945,7 +5945,7 @@
         <v>1826.395385742188</v>
       </c>
       <c r="I171" t="n">
-        <v>2798.10302734375</v>
+        <v>2798.103271484375</v>
       </c>
       <c r="J171" t="n">
         <v>2295.512451171875</v>
@@ -5959,10 +5959,10 @@
         <v>45177</v>
       </c>
       <c r="B172" t="n">
-        <v>4401.314453125</v>
+        <v>4401.31494140625</v>
       </c>
       <c r="C172" t="n">
-        <v>2010.375</v>
+        <v>2010.375122070312</v>
       </c>
       <c r="D172" t="n">
         <v>817.4982299804688</v>
@@ -5977,7 +5977,7 @@
         <v>1828.718627929688</v>
       </c>
       <c r="I172" t="n">
-        <v>2852.36669921875</v>
+        <v>2852.366943359375</v>
       </c>
       <c r="J172" t="n">
         <v>2298.804443359375</v>
@@ -6000,7 +6000,7 @@
         <v>874.42578125</v>
       </c>
       <c r="E173" t="n">
-        <v>447.9032287597656</v>
+        <v>447.9032592773438</v>
       </c>
       <c r="F173" t="n">
         <v>533.8716430664062</v>
@@ -6009,7 +6009,7 @@
         <v>1841.17529296875</v>
       </c>
       <c r="I173" t="n">
-        <v>2845.092041015625</v>
+        <v>2845.09228515625</v>
       </c>
       <c r="J173" t="n">
         <v>2304.1357421875</v>
@@ -6026,7 +6026,7 @@
         <v>4345.3916015625</v>
       </c>
       <c r="C174" t="n">
-        <v>1997.166137695312</v>
+        <v>1997.166259765625</v>
       </c>
       <c r="D174" t="n">
         <v>850.9412841796875</v>
@@ -6055,7 +6055,7 @@
         <v>45182</v>
       </c>
       <c r="B175" t="n">
-        <v>4285.373046875</v>
+        <v>4285.37255859375</v>
       </c>
       <c r="C175" t="n">
         <v>2048.9091796875</v>
@@ -6076,7 +6076,7 @@
         <v>2857.42919921875</v>
       </c>
       <c r="J175" t="n">
-        <v>2230.666259765625</v>
+        <v>2230.66650390625</v>
       </c>
       <c r="K175" t="n">
         <v>8531.357421875</v>
@@ -6105,7 +6105,7 @@
         <v>1909.637939453125</v>
       </c>
       <c r="I176" t="n">
-        <v>2869.078369140625</v>
+        <v>2869.078125</v>
       </c>
       <c r="J176" t="n">
         <v>2230.375244140625</v>
@@ -6119,7 +6119,7 @@
         <v>45184</v>
       </c>
       <c r="B177" t="n">
-        <v>4323.1806640625</v>
+        <v>4323.18017578125</v>
       </c>
       <c r="C177" t="n">
         <v>2012.957275390625</v>
@@ -6140,10 +6140,10 @@
         <v>2859.19873046875</v>
       </c>
       <c r="J177" t="n">
-        <v>2220.295654296875</v>
+        <v>2220.2958984375</v>
       </c>
       <c r="K177" t="n">
-        <v>8622.2392578125</v>
+        <v>8622.240234375</v>
       </c>
     </row>
     <row r="178">
@@ -6169,13 +6169,13 @@
         <v>1935.194091796875</v>
       </c>
       <c r="I178" t="n">
-        <v>2870.30712890625</v>
+        <v>2870.306884765625</v>
       </c>
       <c r="J178" t="n">
         <v>2201.593505859375</v>
       </c>
       <c r="K178" t="n">
-        <v>8523.109375</v>
+        <v>8523.1103515625</v>
       </c>
     </row>
     <row r="179">
@@ -6186,7 +6186,7 @@
         <v>4273.47705078125</v>
       </c>
       <c r="C179" t="n">
-        <v>1966.229736328125</v>
+        <v>1966.229858398438</v>
       </c>
       <c r="D179" t="n">
         <v>810.6113891601562</v>
@@ -6207,7 +6207,7 @@
         <v>2198.88427734375</v>
       </c>
       <c r="K179" t="n">
-        <v>8355.3251953125</v>
+        <v>8355.32421875</v>
       </c>
     </row>
     <row r="180">
@@ -6215,7 +6215,7 @@
         <v>45190</v>
       </c>
       <c r="B180" t="n">
-        <v>4221.30615234375</v>
+        <v>4221.306640625</v>
       </c>
       <c r="C180" t="n">
         <v>1980.1337890625</v>
@@ -6224,7 +6224,7 @@
         <v>823.542724609375</v>
       </c>
       <c r="E180" t="n">
-        <v>423.26806640625</v>
+        <v>423.2680969238281</v>
       </c>
       <c r="F180" t="n">
         <v>510.2307434082031</v>
@@ -6236,7 +6236,7 @@
         <v>2850.15478515625</v>
       </c>
       <c r="J180" t="n">
-        <v>2179.01708984375</v>
+        <v>2179.016845703125</v>
       </c>
       <c r="K180" t="n">
         <v>8212.482421875</v>
@@ -6271,7 +6271,7 @@
         <v>2149.33203125</v>
       </c>
       <c r="K181" t="n">
-        <v>8087.8662109375</v>
+        <v>8087.86572265625</v>
       </c>
     </row>
     <row r="182">
@@ -6288,7 +6288,7 @@
         <v>818.1422729492188</v>
       </c>
       <c r="E182" t="n">
-        <v>420.08935546875</v>
+        <v>420.0893249511719</v>
       </c>
       <c r="F182" t="n">
         <v>515.3635864257812</v>
@@ -6300,7 +6300,7 @@
         <v>2853.25146484375</v>
       </c>
       <c r="J182" t="n">
-        <v>2152.5654296875</v>
+        <v>2152.565673828125</v>
       </c>
       <c r="K182" t="n">
         <v>8106.43798828125</v>
@@ -6311,7 +6311,7 @@
         <v>45195</v>
       </c>
       <c r="B183" t="n">
-        <v>4151.216796875</v>
+        <v>4151.21728515625</v>
       </c>
       <c r="C183" t="n">
         <v>2001.238159179688</v>
@@ -6320,7 +6320,7 @@
         <v>813.88134765625</v>
       </c>
       <c r="E183" t="n">
-        <v>426.893798828125</v>
+        <v>426.8938293457031</v>
       </c>
       <c r="F183" t="n">
         <v>513.5867919921875</v>
@@ -6329,10 +6329,10 @@
         <v>1935.73779296875</v>
       </c>
       <c r="I183" t="n">
-        <v>2863.130859375</v>
+        <v>2863.131103515625</v>
       </c>
       <c r="J183" t="n">
-        <v>2144.23388671875</v>
+        <v>2144.234130859375</v>
       </c>
       <c r="K183" t="n">
         <v>8128.86181640625</v>
@@ -6361,7 +6361,7 @@
         <v>1909.143676757812</v>
       </c>
       <c r="I184" t="n">
-        <v>2914.740234375</v>
+        <v>2914.739990234375</v>
       </c>
       <c r="J184" t="n">
         <v>2170.597900390625</v>
@@ -6375,7 +6375,7 @@
         <v>45197</v>
       </c>
       <c r="B185" t="n">
-        <v>4049.0458984375</v>
+        <v>4049.045654296875</v>
       </c>
       <c r="C185" t="n">
         <v>1982.666259765625</v>
@@ -6393,7 +6393,7 @@
         <v>1884.823364257812</v>
       </c>
       <c r="I185" t="n">
-        <v>2958.927490234375</v>
+        <v>2958.92724609375</v>
       </c>
       <c r="J185" t="n">
         <v>2112.91796875</v>
@@ -6407,7 +6407,7 @@
         <v>45198</v>
       </c>
       <c r="B186" t="n">
-        <v>4045.639892578125</v>
+        <v>4045.6396484375</v>
       </c>
       <c r="C186" t="n">
         <v>1998.457275390625</v>
@@ -6428,10 +6428,10 @@
         <v>2972.24755859375</v>
       </c>
       <c r="J186" t="n">
-        <v>2139.689697265625</v>
+        <v>2139.689453125</v>
       </c>
       <c r="K186" t="n">
-        <v>8154.49560546875</v>
+        <v>8154.49609375</v>
       </c>
     </row>
     <row r="187">
@@ -6463,7 +6463,7 @@
         <v>3021.104248046875</v>
       </c>
       <c r="J187" t="n">
-        <v>2079.766845703125</v>
+        <v>2079.7666015625</v>
       </c>
       <c r="K187" t="n">
         <v>8203.9384765625</v>
@@ -6483,7 +6483,7 @@
         <v>817.1017456054688</v>
       </c>
       <c r="E188" t="n">
-        <v>426.7944641113281</v>
+        <v>426.7944946289062</v>
       </c>
       <c r="F188" t="n">
         <v>518.966552734375</v>
@@ -6501,7 +6501,7 @@
         <v>2040.002563476562</v>
       </c>
       <c r="K188" t="n">
-        <v>8022.125</v>
+        <v>8022.12548828125</v>
       </c>
     </row>
     <row r="189">
@@ -6509,16 +6509,16 @@
         <v>45204</v>
       </c>
       <c r="B189" t="n">
-        <v>4015.5810546875</v>
+        <v>4015.580810546875</v>
       </c>
       <c r="C189" t="n">
-        <v>1983.56005859375</v>
+        <v>1983.560180664062</v>
       </c>
       <c r="D189" t="n">
         <v>817.6964111328125</v>
       </c>
       <c r="E189" t="n">
-        <v>429.9732360839844</v>
+        <v>429.9732055664062</v>
       </c>
       <c r="F189" t="n">
         <v>518.2261962890625</v>
@@ -6533,7 +6533,7 @@
         <v>3043.517333984375</v>
       </c>
       <c r="J189" t="n">
-        <v>2050.664306640625</v>
+        <v>2050.66455078125</v>
       </c>
       <c r="K189" t="n">
         <v>8078.03759765625</v>
@@ -6544,10 +6544,10 @@
         <v>45205</v>
       </c>
       <c r="B190" t="n">
-        <v>4080.042724609375</v>
+        <v>4080.04248046875</v>
       </c>
       <c r="C190" t="n">
-        <v>1996.172973632812</v>
+        <v>1996.173095703125</v>
       </c>
       <c r="D190" t="n">
         <v>823.1959228515625</v>
@@ -6588,7 +6588,7 @@
         <v>782.865966796875</v>
       </c>
       <c r="E191" t="n">
-        <v>427.3408203125</v>
+        <v>427.3408508300781</v>
       </c>
       <c r="F191" t="n">
         <v>533.8716430664062</v>
@@ -6600,13 +6600,13 @@
         <v>162.1681060791016</v>
       </c>
       <c r="I191" t="n">
-        <v>3022.529541015625</v>
+        <v>3022.529296875</v>
       </c>
       <c r="J191" t="n">
         <v>2063.6279296875</v>
       </c>
       <c r="K191" t="n">
-        <v>8011.505859375</v>
+        <v>8011.50634765625</v>
       </c>
     </row>
     <row r="192">
@@ -6614,10 +6614,10 @@
         <v>45209</v>
       </c>
       <c r="B192" t="n">
-        <v>4138.87744140625</v>
+        <v>4138.8779296875</v>
       </c>
       <c r="C192" t="n">
-        <v>1972.635620117188</v>
+        <v>1972.635498046875</v>
       </c>
       <c r="D192" t="n">
         <v>812.0482177734375</v>
@@ -6638,7 +6638,7 @@
         <v>3023.8076171875</v>
       </c>
       <c r="J192" t="n">
-        <v>2092.235107421875</v>
+        <v>2092.23486328125</v>
       </c>
       <c r="K192" t="n">
         <v>8059.11962890625</v>
@@ -6684,7 +6684,7 @@
         <v>45211</v>
       </c>
       <c r="B194" t="n">
-        <v>4161.927734375</v>
+        <v>4161.92822265625</v>
       </c>
       <c r="C194" t="n">
         <v>2015.638793945312</v>
@@ -6711,7 +6711,7 @@
         <v>2098.031982421875</v>
       </c>
       <c r="K194" t="n">
-        <v>8250.2177734375</v>
+        <v>8250.21875</v>
       </c>
     </row>
     <row r="195">
@@ -6719,10 +6719,10 @@
         <v>45212</v>
       </c>
       <c r="B195" t="n">
-        <v>4174.90869140625</v>
+        <v>4174.9091796875</v>
       </c>
       <c r="C195" t="n">
-        <v>1996.669677734375</v>
+        <v>1996.669555664062</v>
       </c>
       <c r="D195" t="n">
         <v>806.3504638671875</v>
@@ -6740,13 +6740,13 @@
         <v>169.5370941162109</v>
       </c>
       <c r="I195" t="n">
-        <v>3037.177001953125</v>
+        <v>3037.1767578125</v>
       </c>
       <c r="J195" t="n">
         <v>2092.905029296875</v>
       </c>
       <c r="K195" t="n">
-        <v>8267.2587890625</v>
+        <v>8267.2578125</v>
       </c>
     </row>
     <row r="196">
@@ -6754,7 +6754,7 @@
         <v>45215</v>
       </c>
       <c r="B196" t="n">
-        <v>4226.48876953125</v>
+        <v>4226.48828125</v>
       </c>
       <c r="C196" t="n">
         <v>2016.929809570312</v>
@@ -6763,7 +6763,7 @@
         <v>798.3241577148438</v>
       </c>
       <c r="E196" t="n">
-        <v>440.3041076660156</v>
+        <v>440.3040771484375</v>
       </c>
       <c r="F196" t="n">
         <v>559.782958984375</v>
@@ -6775,7 +6775,7 @@
         <v>167.1471710205078</v>
       </c>
       <c r="I196" t="n">
-        <v>3049.267822265625</v>
+        <v>3049.26806640625</v>
       </c>
       <c r="J196" t="n">
         <v>2098.643798828125</v>
@@ -6798,7 +6798,7 @@
         <v>797.7791137695312</v>
       </c>
       <c r="E197" t="n">
-        <v>439.7080688476562</v>
+        <v>439.7080993652344</v>
       </c>
       <c r="F197" t="n">
         <v>559.8323364257812</v>
@@ -6833,7 +6833,7 @@
         <v>791.3382568359375</v>
       </c>
       <c r="E198" t="n">
-        <v>430.1222229003906</v>
+        <v>430.1221923828125</v>
       </c>
       <c r="F198" t="n">
         <v>560.02978515625</v>
@@ -6851,7 +6851,7 @@
         <v>2034.729614257812</v>
       </c>
       <c r="K198" t="n">
-        <v>8177.6611328125</v>
+        <v>8177.66064453125</v>
       </c>
     </row>
     <row r="199">
@@ -6868,7 +6868,7 @@
         <v>785.6405029296875</v>
       </c>
       <c r="E199" t="n">
-        <v>434.5426635742188</v>
+        <v>434.5426330566406</v>
       </c>
       <c r="F199" t="n">
         <v>552.873291015625</v>
@@ -6915,13 +6915,13 @@
         <v>175.3626098632812</v>
       </c>
       <c r="I200" t="n">
-        <v>2961.23779296875</v>
+        <v>2961.237548828125</v>
       </c>
       <c r="J200" t="n">
         <v>2005.278076171875</v>
       </c>
       <c r="K200" t="n">
-        <v>8358.1884765625</v>
+        <v>8358.189453125</v>
       </c>
     </row>
     <row r="201">
@@ -6950,13 +6950,13 @@
         <v>166.6492462158203</v>
       </c>
       <c r="I201" t="n">
-        <v>2908.1044921875</v>
+        <v>2908.104736328125</v>
       </c>
       <c r="J201" t="n">
         <v>1989.51806640625</v>
       </c>
       <c r="K201" t="n">
-        <v>8224.0400390625</v>
+        <v>8224.041015625</v>
       </c>
     </row>
     <row r="202">
@@ -6964,7 +6964,7 @@
         <v>45224</v>
       </c>
       <c r="B202" t="n">
-        <v>3880.043212890625</v>
+        <v>3880.04345703125</v>
       </c>
       <c r="C202" t="n">
         <v>1878.1376953125</v>
@@ -6973,7 +6973,7 @@
         <v>762.1064453125</v>
       </c>
       <c r="E202" t="n">
-        <v>415.1722412109375</v>
+        <v>415.1722717285156</v>
       </c>
       <c r="F202" t="n">
         <v>523.3097534179688</v>
@@ -6988,7 +6988,7 @@
         <v>2866.62060546875</v>
       </c>
       <c r="J202" t="n">
-        <v>2000.063598632812</v>
+        <v>2000.0634765625</v>
       </c>
       <c r="K202" t="n">
         <v>8155.9775390625</v>
@@ -7008,7 +7008,7 @@
         <v>763.3450927734375</v>
       </c>
       <c r="E203" t="n">
-        <v>413.533203125</v>
+        <v>413.5331726074219</v>
       </c>
       <c r="F203" t="n">
         <v>515.56103515625</v>
@@ -7023,7 +7023,7 @@
         <v>2815.99462890625</v>
       </c>
       <c r="J203" t="n">
-        <v>1984.857177734375</v>
+        <v>1984.857055664062</v>
       </c>
       <c r="K203" t="n">
         <v>8105.5478515625</v>
@@ -7069,10 +7069,10 @@
         <v>45229</v>
       </c>
       <c r="B205" t="n">
-        <v>4017.949951171875</v>
+        <v>4017.9501953125</v>
       </c>
       <c r="C205" t="n">
-        <v>1874.06591796875</v>
+        <v>1874.065795898438</v>
       </c>
       <c r="D205" t="n">
         <v>777.8619384765625</v>
@@ -7090,10 +7090,10 @@
         <v>169.0391998291016</v>
       </c>
       <c r="I205" t="n">
-        <v>2876.697021484375</v>
+        <v>2876.69677734375</v>
       </c>
       <c r="J205" t="n">
-        <v>1998.752807617188</v>
+        <v>1998.752685546875</v>
       </c>
       <c r="K205" t="n">
         <v>8299.4619140625</v>
@@ -7125,10 +7125,10 @@
         <v>168.8400268554688</v>
       </c>
       <c r="I206" t="n">
-        <v>2879.350830078125</v>
+        <v>2879.35107421875</v>
       </c>
       <c r="J206" t="n">
-        <v>1940.694213867188</v>
+        <v>1940.694091796875</v>
       </c>
       <c r="K206" t="n">
         <v>8319.861328125</v>
@@ -7195,13 +7195,13 @@
         <v>171.0308227539062</v>
       </c>
       <c r="I208" t="n">
-        <v>2868.5869140625</v>
+        <v>2868.586669921875</v>
       </c>
       <c r="J208" t="n">
         <v>1963.969970703125</v>
       </c>
       <c r="K208" t="n">
-        <v>8356.1650390625</v>
+        <v>8356.1640625</v>
       </c>
     </row>
     <row r="209">
@@ -7230,10 +7230,10 @@
         <v>170.7320861816406</v>
       </c>
       <c r="I209" t="n">
-        <v>2861.85302734375</v>
+        <v>2861.852783203125</v>
       </c>
       <c r="J209" t="n">
-        <v>1962.01806640625</v>
+        <v>1962.018188476562</v>
       </c>
       <c r="K209" t="n">
         <v>8418.9912109375</v>
@@ -7244,7 +7244,7 @@
         <v>45236</v>
       </c>
       <c r="B210" t="n">
-        <v>4149.73681640625</v>
+        <v>4149.736328125</v>
       </c>
       <c r="C210" t="n">
         <v>1851.521484375</v>
@@ -7268,7 +7268,7 @@
         <v>2924.963623046875</v>
       </c>
       <c r="J210" t="n">
-        <v>1961.814208984375</v>
+        <v>1961.814331054688</v>
       </c>
       <c r="K210" t="n">
         <v>8535.90234375</v>
@@ -7282,7 +7282,7 @@
         <v>4154.7705078125</v>
       </c>
       <c r="C211" t="n">
-        <v>1847.846801757812</v>
+        <v>1847.8466796875</v>
       </c>
       <c r="D211" t="n">
         <v>790.2977905273438</v>
@@ -7306,7 +7306,7 @@
         <v>1950.394775390625</v>
       </c>
       <c r="K211" t="n">
-        <v>8580.158203125</v>
+        <v>8580.1572265625</v>
       </c>
     </row>
     <row r="212">
@@ -7314,10 +7314,10 @@
         <v>45238</v>
       </c>
       <c r="B212" t="n">
-        <v>4220.6640625</v>
+        <v>4220.66357421875</v>
       </c>
       <c r="C212" t="n">
-        <v>1841.44091796875</v>
+        <v>1841.441040039062</v>
       </c>
       <c r="D212" t="n">
         <v>811.2554321289062</v>
@@ -7338,7 +7338,7 @@
         <v>2945.607177734375</v>
       </c>
       <c r="J212" t="n">
-        <v>1994.848999023438</v>
+        <v>1994.84912109375</v>
       </c>
       <c r="K212" t="n">
         <v>8593.0986328125</v>
@@ -7349,7 +7349,7 @@
         <v>45239</v>
       </c>
       <c r="B213" t="n">
-        <v>4255.16552734375</v>
+        <v>4255.1650390625</v>
       </c>
       <c r="C213" t="n">
         <v>1832.303955078125</v>
@@ -7358,7 +7358,7 @@
         <v>798.869140625</v>
       </c>
       <c r="E213" t="n">
-        <v>415.5199279785156</v>
+        <v>415.5198974609375</v>
       </c>
       <c r="F213" t="n">
         <v>592.9495239257812</v>
@@ -7370,7 +7370,7 @@
         <v>198.5650329589844</v>
       </c>
       <c r="I213" t="n">
-        <v>2973.525634765625</v>
+        <v>2973.525390625</v>
       </c>
       <c r="J213" t="n">
         <v>1974.719482421875</v>
@@ -7408,7 +7408,7 @@
         <v>2981.782958984375</v>
       </c>
       <c r="J214" t="n">
-        <v>1985.20654296875</v>
+        <v>1985.206665039062</v>
       </c>
       <c r="K214" t="n">
         <v>8604.9521484375</v>
@@ -7440,7 +7440,7 @@
         <v>199.5608520507812</v>
       </c>
       <c r="I215" t="n">
-        <v>2996.77392578125</v>
+        <v>2996.774169921875</v>
       </c>
       <c r="J215" t="n">
         <v>1991.41162109375</v>
@@ -7457,7 +7457,7 @@
         <v>4204.12890625</v>
       </c>
       <c r="C216" t="n">
-        <v>1823.763061523438</v>
+        <v>1823.762939453125</v>
       </c>
       <c r="D216" t="n">
         <v>803.3777465820312</v>
@@ -7478,7 +7478,7 @@
         <v>3012.945068359375</v>
       </c>
       <c r="J216" t="n">
-        <v>2036.565063476562</v>
+        <v>2036.56494140625</v>
       </c>
       <c r="K216" t="n">
         <v>8660.3212890625</v>
@@ -7489,7 +7489,7 @@
         <v>45246</v>
       </c>
       <c r="B217" t="n">
-        <v>4178.41357421875</v>
+        <v>4178.4130859375</v>
       </c>
       <c r="C217" t="n">
         <v>1832.204711914062</v>
@@ -7516,7 +7516,7 @@
         <v>2053.75244140625</v>
       </c>
       <c r="K217" t="n">
-        <v>8668.3720703125</v>
+        <v>8668.37109375</v>
       </c>
     </row>
     <row r="218">
@@ -7524,7 +7524,7 @@
         <v>45247</v>
       </c>
       <c r="B218" t="n">
-        <v>4230.0419921875</v>
+        <v>4230.04150390625</v>
       </c>
       <c r="C218" t="n">
         <v>1835.581420898438</v>
@@ -7568,7 +7568,7 @@
         <v>796.292724609375</v>
       </c>
       <c r="E219" t="n">
-        <v>418.6986389160156</v>
+        <v>418.6986694335938</v>
       </c>
       <c r="F219" t="n">
         <v>618.1697998046875</v>
@@ -7586,7 +7586,7 @@
         <v>2089.4091796875</v>
       </c>
       <c r="K219" t="n">
-        <v>8556.2021484375</v>
+        <v>8556.203125</v>
       </c>
     </row>
     <row r="220">
@@ -7594,10 +7594,10 @@
         <v>45251</v>
       </c>
       <c r="B220" t="n">
-        <v>4289.51806640625</v>
+        <v>4289.5185546875</v>
       </c>
       <c r="C220" t="n">
-        <v>1826.941040039062</v>
+        <v>1826.941162109375</v>
       </c>
       <c r="D220" t="n">
         <v>794.063232421875</v>
@@ -7615,13 +7615,13 @@
         <v>206.3821716308594</v>
       </c>
       <c r="I220" t="n">
-        <v>3022.677001953125</v>
+        <v>3022.67724609375</v>
       </c>
       <c r="J220" t="n">
         <v>2091.069580078125</v>
       </c>
       <c r="K220" t="n">
-        <v>8602.482421875</v>
+        <v>8602.4833984375</v>
       </c>
     </row>
     <row r="221">
@@ -7664,10 +7664,10 @@
         <v>45253</v>
       </c>
       <c r="B222" t="n">
-        <v>4205.85595703125</v>
+        <v>4205.8564453125</v>
       </c>
       <c r="C222" t="n">
-        <v>1807.22705078125</v>
+        <v>1807.227172851562</v>
       </c>
       <c r="D222" t="n">
         <v>785.8882446289062</v>
@@ -7699,10 +7699,10 @@
         <v>45254</v>
       </c>
       <c r="B223" t="n">
-        <v>4207.63330078125</v>
+        <v>4207.6337890625</v>
       </c>
       <c r="C223" t="n">
-        <v>1808.021728515625</v>
+        <v>1808.021606445312</v>
       </c>
       <c r="D223" t="n">
         <v>788.3159790039062</v>
@@ -7734,7 +7734,7 @@
         <v>45258</v>
       </c>
       <c r="B224" t="n">
-        <v>4200.625</v>
+        <v>4200.6240234375</v>
       </c>
       <c r="C224" t="n">
         <v>1856.189208984375</v>
@@ -7761,7 +7761,7 @@
         <v>2124.54150390625</v>
       </c>
       <c r="K224" t="n">
-        <v>8620.412109375</v>
+        <v>8620.4130859375</v>
       </c>
     </row>
     <row r="225">
@@ -7769,7 +7769,7 @@
         <v>45259</v>
       </c>
       <c r="B225" t="n">
-        <v>4189.56884765625</v>
+        <v>4189.568359375</v>
       </c>
       <c r="C225" t="n">
         <v>1858.970092773438</v>
@@ -7793,7 +7793,7 @@
         <v>3031.426025390625</v>
       </c>
       <c r="J225" t="n">
-        <v>2118.278076171875</v>
+        <v>2118.2783203125</v>
       </c>
       <c r="K225" t="n">
         <v>8626.5859375</v>
@@ -7804,7 +7804,7 @@
         <v>45260</v>
       </c>
       <c r="B226" t="n">
-        <v>4363.01318359375</v>
+        <v>4363.0126953125</v>
       </c>
       <c r="C226" t="n">
         <v>1862.6943359375</v>
@@ -7828,7 +7828,7 @@
         <v>3056.444091796875</v>
       </c>
       <c r="J226" t="n">
-        <v>2131.00830078125</v>
+        <v>2131.008544921875</v>
       </c>
       <c r="K226" t="n">
         <v>8894.193359375</v>
@@ -7839,7 +7839,7 @@
         <v>45261</v>
       </c>
       <c r="B227" t="n">
-        <v>4330.93017578125</v>
+        <v>4330.9296875</v>
       </c>
       <c r="C227" t="n">
         <v>1887.224975585938</v>
@@ -7863,7 +7863,7 @@
         <v>3136.511962890625</v>
       </c>
       <c r="J227" t="n">
-        <v>2186.6494140625</v>
+        <v>2186.649169921875</v>
       </c>
       <c r="K227" t="n">
         <v>8924.025390625</v>
@@ -7874,16 +7874,16 @@
         <v>45264</v>
       </c>
       <c r="B228" t="n">
-        <v>4571.3046875</v>
+        <v>4571.30419921875</v>
       </c>
       <c r="C228" t="n">
-        <v>2005.65771484375</v>
+        <v>2005.657592773438</v>
       </c>
       <c r="D228" t="n">
         <v>870.660400390625</v>
       </c>
       <c r="E228" t="n">
-        <v>471.3960571289062</v>
+        <v>471.3960876464844</v>
       </c>
       <c r="F228" t="n">
         <v>640.873046875</v>
@@ -7933,10 +7933,10 @@
         <v>3259.194580078125</v>
       </c>
       <c r="J229" t="n">
-        <v>2239.318603515625</v>
+        <v>2239.318359375</v>
       </c>
       <c r="K229" t="n">
-        <v>9216.328125</v>
+        <v>9216.3291015625</v>
       </c>
     </row>
     <row r="230">
@@ -7944,10 +7944,10 @@
         <v>45266</v>
       </c>
       <c r="B230" t="n">
-        <v>4677.57275390625</v>
+        <v>4677.572265625</v>
       </c>
       <c r="C230" t="n">
-        <v>2113.662109375</v>
+        <v>2113.662353515625</v>
       </c>
       <c r="D230" t="n">
         <v>1008.693664550781</v>
@@ -7968,7 +7968,7 @@
         <v>3334.74072265625</v>
       </c>
       <c r="J230" t="n">
-        <v>2244.241943359375</v>
+        <v>2244.24169921875</v>
       </c>
       <c r="K230" t="n">
         <v>9100.998046875</v>
@@ -8000,13 +8000,13 @@
         <v>235.2109375</v>
       </c>
       <c r="I231" t="n">
-        <v>3298.663330078125</v>
+        <v>3298.66357421875</v>
       </c>
       <c r="J231" t="n">
         <v>2232.763916015625</v>
       </c>
       <c r="K231" t="n">
-        <v>9240.826171875</v>
+        <v>9240.8271484375</v>
       </c>
     </row>
     <row r="232">
@@ -8017,7 +8017,7 @@
         <v>4685.8642578125</v>
       </c>
       <c r="C232" t="n">
-        <v>2123.14697265625</v>
+        <v>2123.146728515625</v>
       </c>
       <c r="D232" t="n">
         <v>1013.648193359375</v>
@@ -8070,13 +8070,13 @@
         <v>230.1820831298828</v>
       </c>
       <c r="I233" t="n">
-        <v>3328.350830078125</v>
+        <v>3328.35107421875</v>
       </c>
       <c r="J233" t="n">
-        <v>2264.2255859375</v>
+        <v>2264.225830078125</v>
       </c>
       <c r="K233" t="n">
-        <v>9553.33203125</v>
+        <v>9553.3310546875</v>
       </c>
     </row>
     <row r="234">
@@ -8084,7 +8084,7 @@
         <v>45272</v>
       </c>
       <c r="B234" t="n">
-        <v>4660.6923828125</v>
+        <v>4660.69140625</v>
       </c>
       <c r="C234" t="n">
         <v>2160.538818359375</v>
@@ -8093,7 +8093,7 @@
         <v>1032.475463867188</v>
       </c>
       <c r="E234" t="n">
-        <v>498.0179748535156</v>
+        <v>498.0179443359375</v>
       </c>
       <c r="F234" t="n">
         <v>654.05078125</v>
@@ -8108,7 +8108,7 @@
         <v>3285.687255859375</v>
       </c>
       <c r="J234" t="n">
-        <v>2246.863525390625</v>
+        <v>2246.86328125</v>
       </c>
       <c r="K234" t="n">
         <v>9743.58984375</v>
@@ -8119,7 +8119,7 @@
         <v>45273</v>
       </c>
       <c r="B235" t="n">
-        <v>4706.1513671875</v>
+        <v>4706.15087890625</v>
       </c>
       <c r="C235" t="n">
         <v>2169.228759765625</v>
@@ -8154,7 +8154,7 @@
         <v>45274</v>
       </c>
       <c r="B236" t="n">
-        <v>4730.87890625</v>
+        <v>4730.87939453125</v>
       </c>
       <c r="C236" t="n">
         <v>2218.9853515625</v>
@@ -8175,13 +8175,13 @@
         <v>235.2109375</v>
       </c>
       <c r="I236" t="n">
-        <v>3374.848388671875</v>
+        <v>3374.8486328125</v>
       </c>
       <c r="J236" t="n">
         <v>2282.753173828125</v>
       </c>
       <c r="K236" t="n">
-        <v>9842.1767578125</v>
+        <v>9842.17578125</v>
       </c>
     </row>
     <row r="237">
@@ -8192,13 +8192,13 @@
         <v>4773.03125</v>
       </c>
       <c r="C237" t="n">
-        <v>2197.185791015625</v>
+        <v>2197.18603515625</v>
       </c>
       <c r="D237" t="n">
         <v>1068.74267578125</v>
       </c>
       <c r="E237" t="n">
-        <v>518.9281005859375</v>
+        <v>518.9280395507812</v>
       </c>
       <c r="F237" t="n">
         <v>696.1998291015625</v>
@@ -8210,13 +8210,13 @@
         <v>230.6302185058594</v>
       </c>
       <c r="I237" t="n">
-        <v>3428.816650390625</v>
+        <v>3428.81689453125</v>
       </c>
       <c r="J237" t="n">
         <v>2276.48974609375</v>
       </c>
       <c r="K237" t="n">
-        <v>9907.5224609375</v>
+        <v>9907.5234375</v>
       </c>
     </row>
     <row r="238">
@@ -8233,7 +8233,7 @@
         <v>1084.349487304688</v>
       </c>
       <c r="E238" t="n">
-        <v>522.1564331054688</v>
+        <v>522.156494140625</v>
       </c>
       <c r="F238" t="n">
         <v>688.1056518554688</v>
@@ -8245,10 +8245,10 @@
         <v>231.0285339355469</v>
       </c>
       <c r="I238" t="n">
-        <v>3432.355712890625</v>
+        <v>3432.35595703125</v>
       </c>
       <c r="J238" t="n">
-        <v>2411.629638671875</v>
+        <v>2411.6298828125</v>
       </c>
       <c r="K238" t="n">
         <v>9849.140625</v>
@@ -8259,16 +8259,16 @@
         <v>45279</v>
       </c>
       <c r="B239" t="n">
-        <v>4776.83154296875</v>
+        <v>4776.83203125</v>
       </c>
       <c r="C239" t="n">
-        <v>2187.651611328125</v>
+        <v>2187.6513671875</v>
       </c>
       <c r="D239" t="n">
         <v>1064.234008789062</v>
       </c>
       <c r="E239" t="n">
-        <v>518.87841796875</v>
+        <v>518.8783569335938</v>
       </c>
       <c r="F239" t="n">
         <v>689.0433959960938</v>
@@ -8297,13 +8297,13 @@
         <v>4555.115234375</v>
       </c>
       <c r="C240" t="n">
-        <v>2072.34716796875</v>
+        <v>2072.347412109375</v>
       </c>
       <c r="D240" t="n">
         <v>1002.946411132812</v>
       </c>
       <c r="E240" t="n">
-        <v>487.1904296875</v>
+        <v>487.1903991699219</v>
       </c>
       <c r="F240" t="n">
         <v>666.6362915039062</v>
@@ -8329,10 +8329,10 @@
         <v>45281</v>
       </c>
       <c r="B241" t="n">
-        <v>4624.3642578125</v>
+        <v>4624.36376953125</v>
       </c>
       <c r="C241" t="n">
-        <v>2092.954833984375</v>
+        <v>2092.955078125</v>
       </c>
       <c r="D241" t="n">
         <v>1009.684631347656</v>
@@ -8350,13 +8350,13 @@
         <v>213.4026489257812</v>
       </c>
       <c r="I241" t="n">
-        <v>3366.050048828125</v>
+        <v>3366.05029296875</v>
       </c>
       <c r="J241" t="n">
-        <v>2311.243408203125</v>
+        <v>2311.24365234375</v>
       </c>
       <c r="K241" t="n">
-        <v>9833.4345703125</v>
+        <v>9833.43359375</v>
       </c>
     </row>
     <row r="242">
@@ -8364,10 +8364,10 @@
         <v>45282</v>
       </c>
       <c r="B242" t="n">
-        <v>4697.908203125</v>
+        <v>4697.90771484375</v>
       </c>
       <c r="C242" t="n">
-        <v>2076.41943359375</v>
+        <v>2076.419189453125</v>
       </c>
       <c r="D242" t="n">
         <v>1018.156799316406</v>
@@ -8385,13 +8385,13 @@
         <v>219.5766906738281</v>
       </c>
       <c r="I242" t="n">
-        <v>3418.9375</v>
+        <v>3418.937255859375</v>
       </c>
       <c r="J242" t="n">
         <v>2304.6015625</v>
       </c>
       <c r="K242" t="n">
-        <v>9847.8076171875</v>
+        <v>9847.806640625</v>
       </c>
     </row>
     <row r="243">
@@ -8399,7 +8399,7 @@
         <v>45286</v>
       </c>
       <c r="B243" t="n">
-        <v>4710.09912109375</v>
+        <v>4710.099609375</v>
       </c>
       <c r="C243" t="n">
         <v>2099.06298828125</v>
@@ -8420,10 +8420,10 @@
         <v>219.9750061035156</v>
       </c>
       <c r="I243" t="n">
-        <v>3430.832275390625</v>
+        <v>3430.83203125</v>
       </c>
       <c r="J243" t="n">
-        <v>2333.033935546875</v>
+        <v>2333.03369140625</v>
       </c>
       <c r="K243" t="n">
         <v>9896.853515625</v>
@@ -8434,7 +8434,7 @@
         <v>45287</v>
       </c>
       <c r="B244" t="n">
-        <v>4672.833984375</v>
+        <v>4672.83447265625</v>
       </c>
       <c r="C244" t="n">
         <v>2153.68603515625</v>
@@ -8461,7 +8461,7 @@
         <v>2317.4775390625</v>
       </c>
       <c r="K244" t="n">
-        <v>10309.2275390625</v>
+        <v>10309.228515625</v>
       </c>
     </row>
     <row r="245">
@@ -8478,7 +8478,7 @@
         <v>1007.702758789062</v>
       </c>
       <c r="E245" t="n">
-        <v>510.8322448730469</v>
+        <v>510.8322143554688</v>
       </c>
       <c r="F245" t="n">
         <v>719.2486572265625</v>
@@ -8490,13 +8490,13 @@
         <v>209.9671020507812</v>
       </c>
       <c r="I245" t="n">
-        <v>3458.35693359375</v>
+        <v>3458.357177734375</v>
       </c>
       <c r="J245" t="n">
-        <v>2307.10693359375</v>
+        <v>2307.106689453125</v>
       </c>
       <c r="K245" t="n">
-        <v>10299.546875</v>
+        <v>10299.5478515625</v>
       </c>
     </row>
     <row r="246">
@@ -8528,10 +8528,10 @@
         <v>3466.172119140625</v>
       </c>
       <c r="J246" t="n">
-        <v>2344.89013671875</v>
+        <v>2344.889892578125</v>
       </c>
       <c r="K246" t="n">
-        <v>10375.3642578125</v>
+        <v>10375.365234375</v>
       </c>
     </row>
     <row r="247">
@@ -8539,16 +8539,16 @@
         <v>45292</v>
       </c>
       <c r="B247" t="n">
-        <v>4622.09423828125</v>
+        <v>4622.09375</v>
       </c>
       <c r="C247" t="n">
-        <v>2227.923583984375</v>
+        <v>2227.923828125</v>
       </c>
       <c r="D247" t="n">
         <v>1038.32177734375</v>
       </c>
       <c r="E247" t="n">
-        <v>530.7489013671875</v>
+        <v>530.7489624023438</v>
       </c>
       <c r="F247" t="n">
         <v>714.2637329101562</v>
@@ -8574,7 +8574,7 @@
         <v>45293</v>
       </c>
       <c r="B248" t="n">
-        <v>4641.24462890625</v>
+        <v>4641.2451171875</v>
       </c>
       <c r="C248" t="n">
         <v>2251.759033203125</v>
@@ -8630,7 +8630,7 @@
         <v>212.75537109375</v>
       </c>
       <c r="I249" t="n">
-        <v>3381.9755859375</v>
+        <v>3381.975341796875</v>
       </c>
       <c r="J249" t="n">
         <v>2380.109619140625</v>
@@ -8644,10 +8644,10 @@
         <v>45295</v>
       </c>
       <c r="B250" t="n">
-        <v>4762.81396484375</v>
+        <v>4762.8134765625</v>
       </c>
       <c r="C250" t="n">
-        <v>2342.035888671875</v>
+        <v>2342.0361328125</v>
       </c>
       <c r="D250" t="n">
         <v>1112.986572265625</v>
@@ -8671,7 +8671,7 @@
         <v>2382.14892578125</v>
       </c>
       <c r="K250" t="n">
-        <v>9893.05078125</v>
+        <v>9893.0498046875</v>
       </c>
     </row>
     <row r="251">
@@ -8679,7 +8679,7 @@
         <v>45296</v>
       </c>
       <c r="B251" t="n">
-        <v>4770.31640625</v>
+        <v>4770.31591796875</v>
       </c>
       <c r="C251" t="n">
         <v>2361.154052734375</v>
@@ -8700,7 +8700,7 @@
         <v>217.9833831787109</v>
       </c>
       <c r="I251" t="n">
-        <v>3462.141357421875</v>
+        <v>3462.1416015625</v>
       </c>
       <c r="J251" t="n">
         <v>2375.477783203125</v>
@@ -8714,7 +8714,7 @@
         <v>45299</v>
       </c>
       <c r="B252" t="n">
-        <v>4691.93603515625</v>
+        <v>4691.935546875</v>
       </c>
       <c r="C252" t="n">
         <v>2338.609619140625</v>
@@ -8723,7 +8723,7 @@
         <v>1158.221435546875</v>
       </c>
       <c r="E252" t="n">
-        <v>526.6762084960938</v>
+        <v>526.67626953125</v>
       </c>
       <c r="F252" t="n">
         <v>749.5031127929688</v>
@@ -8735,7 +8735,7 @@
         <v>215.394287109375</v>
       </c>
       <c r="I252" t="n">
-        <v>3441.69482421875</v>
+        <v>3441.694580078125</v>
       </c>
       <c r="J252" t="n">
         <v>2339.530029296875</v>
@@ -8770,13 +8770,13 @@
         <v>216.5892486572266</v>
       </c>
       <c r="I253" t="n">
-        <v>3495.614013671875</v>
+        <v>3495.61376953125</v>
       </c>
       <c r="J253" t="n">
         <v>2443.178955078125</v>
       </c>
       <c r="K253" t="n">
-        <v>9778.7568359375</v>
+        <v>9778.755859375</v>
       </c>
     </row>
     <row r="254">
@@ -8784,7 +8784,7 @@
         <v>45301</v>
       </c>
       <c r="B254" t="n">
-        <v>4872.34033203125</v>
+        <v>4872.33935546875</v>
       </c>
       <c r="C254" t="n">
         <v>2290.789794921875</v>
@@ -8805,10 +8805,10 @@
         <v>214.2988891601562</v>
       </c>
       <c r="I254" t="n">
-        <v>3485.341064453125</v>
+        <v>3485.34130859375</v>
       </c>
       <c r="J254" t="n">
-        <v>2435.808837890625</v>
+        <v>2435.80859375</v>
       </c>
       <c r="K254" t="n">
         <v>9657.3515625</v>
@@ -8828,7 +8828,7 @@
         <v>1192.011474609375</v>
       </c>
       <c r="E255" t="n">
-        <v>534.6726684570312</v>
+        <v>534.6727294921875</v>
       </c>
       <c r="F255" t="n">
         <v>787.160888671875</v>
@@ -8840,7 +8840,7 @@
         <v>211.3612365722656</v>
       </c>
       <c r="I255" t="n">
-        <v>3445.381103515625</v>
+        <v>3445.380859375</v>
       </c>
       <c r="J255" t="n">
         <v>2423.602783203125</v>
@@ -8857,7 +8857,7 @@
         <v>4722.53759765625</v>
       </c>
       <c r="C256" t="n">
-        <v>2316.412841796875</v>
+        <v>2316.41259765625</v>
       </c>
       <c r="D256" t="n">
         <v>1196.123657226562</v>
@@ -8889,10 +8889,10 @@
         <v>45306</v>
       </c>
       <c r="B257" t="n">
-        <v>4691.8857421875</v>
+        <v>4691.88623046875</v>
       </c>
       <c r="C257" t="n">
-        <v>2304.4951171875</v>
+        <v>2304.494873046875</v>
       </c>
       <c r="D257" t="n">
         <v>1192.160034179688</v>
@@ -8913,10 +8913,10 @@
         <v>3482.932861328125</v>
       </c>
       <c r="J257" t="n">
-        <v>2425.78759765625</v>
+        <v>2425.787353515625</v>
       </c>
       <c r="K257" t="n">
-        <v>9833.5322265625</v>
+        <v>9833.533203125</v>
       </c>
     </row>
     <row r="258">
@@ -8924,16 +8924,16 @@
         <v>45307</v>
       </c>
       <c r="B258" t="n">
-        <v>4747.5615234375</v>
+        <v>4747.5625</v>
       </c>
       <c r="C258" t="n">
-        <v>2278.722900390625</v>
+        <v>2278.72314453125</v>
       </c>
       <c r="D258" t="n">
         <v>1182.498779296875</v>
       </c>
       <c r="E258" t="n">
-        <v>525.1862182617188</v>
+        <v>525.1861572265625</v>
       </c>
       <c r="F258" t="n">
         <v>776.6976318359375</v>
@@ -8951,7 +8951,7 @@
         <v>2390.77197265625</v>
       </c>
       <c r="K258" t="n">
-        <v>9848.3994140625</v>
+        <v>9848.400390625</v>
       </c>
     </row>
     <row r="259">
@@ -8962,7 +8962,7 @@
         <v>4711.77734375</v>
       </c>
       <c r="C259" t="n">
-        <v>2236.365234375</v>
+        <v>2236.365478515625</v>
       </c>
       <c r="D259" t="n">
         <v>1156.23974609375</v>
@@ -8983,7 +8983,7 @@
         <v>3510.359375</v>
       </c>
       <c r="J259" t="n">
-        <v>2392.7236328125</v>
+        <v>2392.723388671875</v>
       </c>
       <c r="K259" t="n">
         <v>9734.84765625</v>
@@ -8994,7 +8994,7 @@
         <v>45309</v>
       </c>
       <c r="B260" t="n">
-        <v>4649.88232421875</v>
+        <v>4649.8818359375</v>
       </c>
       <c r="C260" t="n">
         <v>2244.608642578125</v>
@@ -9032,7 +9032,7 @@
         <v>4758.56884765625</v>
       </c>
       <c r="C261" t="n">
-        <v>2261.4921875</v>
+        <v>2261.491943359375</v>
       </c>
       <c r="D261" t="n">
         <v>1141.970581054688</v>
@@ -9050,7 +9050,7 @@
         <v>210.8633422851562</v>
       </c>
       <c r="I261" t="n">
-        <v>3584.1357421875</v>
+        <v>3584.135986328125</v>
       </c>
       <c r="J261" t="n">
         <v>2412.940673828125</v>
@@ -9064,7 +9064,7 @@
         <v>45314</v>
       </c>
       <c r="B262" t="n">
-        <v>4709.30908203125</v>
+        <v>4709.3095703125</v>
       </c>
       <c r="C262" t="n">
         <v>2192.81591796875</v>
@@ -9091,7 +9091,7 @@
         <v>2379.381591796875</v>
       </c>
       <c r="K262" t="n">
-        <v>9711.484375</v>
+        <v>9711.4853515625</v>
       </c>
     </row>
     <row r="263">
@@ -9099,7 +9099,7 @@
         <v>45315</v>
       </c>
       <c r="B263" t="n">
-        <v>4670.513671875</v>
+        <v>4670.51416015625</v>
       </c>
       <c r="C263" t="n">
         <v>2225.2421875</v>
@@ -9120,10 +9120,10 @@
         <v>206.8302917480469</v>
       </c>
       <c r="I263" t="n">
-        <v>3528.299560546875</v>
+        <v>3528.2998046875</v>
       </c>
       <c r="J263" t="n">
-        <v>2446.441650390625</v>
+        <v>2446.44140625</v>
       </c>
       <c r="K263" t="n">
         <v>9869.0458984375</v>
@@ -9158,7 +9158,7 @@
         <v>3532.4775390625</v>
       </c>
       <c r="J264" t="n">
-        <v>2450.17041015625</v>
+        <v>2450.170166015625</v>
       </c>
       <c r="K264" t="n">
         <v>9848.15234375</v>
@@ -9190,13 +9190,13 @@
         <v>210.9629211425781</v>
       </c>
       <c r="I265" t="n">
-        <v>3645.083984375</v>
+        <v>3645.083740234375</v>
       </c>
       <c r="J265" t="n">
         <v>2508.520263671875</v>
       </c>
       <c r="K265" t="n">
-        <v>10149.1494140625</v>
+        <v>10149.1484375</v>
       </c>
     </row>
     <row r="266">
@@ -9204,10 +9204,10 @@
         <v>45321</v>
       </c>
       <c r="B266" t="n">
-        <v>4669.033203125</v>
+        <v>4669.03369140625</v>
       </c>
       <c r="C266" t="n">
-        <v>2495.924072265625</v>
+        <v>2495.923828125</v>
       </c>
       <c r="D266" t="n">
         <v>1176.553344726562</v>
@@ -9225,7 +9225,7 @@
         <v>212.5064239501953</v>
       </c>
       <c r="I266" t="n">
-        <v>3571.6513671875</v>
+        <v>3571.651611328125</v>
       </c>
       <c r="J266" t="n">
         <v>2423.724853515625</v>
@@ -9248,7 +9248,7 @@
         <v>1196.668701171875</v>
       </c>
       <c r="E267" t="n">
-        <v>556.576171875</v>
+        <v>556.5761108398438</v>
       </c>
       <c r="F267" t="n">
         <v>792.2444458007812</v>
@@ -9260,13 +9260,13 @@
         <v>214.0997161865234</v>
       </c>
       <c r="I267" t="n">
-        <v>3420.70703125</v>
+        <v>3420.706787109375</v>
       </c>
       <c r="J267" t="n">
         <v>2421.88232421875</v>
       </c>
       <c r="K267" t="n">
-        <v>10043.74609375</v>
+        <v>10043.7451171875</v>
       </c>
     </row>
     <row r="268">
@@ -9283,7 +9283,7 @@
         <v>1207.766845703125</v>
       </c>
       <c r="E268" t="n">
-        <v>561.2946166992188</v>
+        <v>561.2945556640625</v>
       </c>
       <c r="F268" t="n">
         <v>789.7273559570312</v>
@@ -9309,10 +9309,10 @@
         <v>45324</v>
       </c>
       <c r="B269" t="n">
-        <v>4422.93359375</v>
+        <v>4422.93408203125</v>
       </c>
       <c r="C269" t="n">
-        <v>2482.31787109375</v>
+        <v>2482.317626953125</v>
       </c>
       <c r="D269" t="n">
         <v>1249.9794921875</v>
@@ -9347,13 +9347,13 @@
         <v>4312.125</v>
       </c>
       <c r="C270" t="n">
-        <v>2469.158447265625</v>
+        <v>2469.15869140625</v>
       </c>
       <c r="D270" t="n">
         <v>1247.10595703125</v>
       </c>
       <c r="E270" t="n">
-        <v>551.3113403320312</v>
+        <v>551.3114013671875</v>
       </c>
       <c r="F270" t="n">
         <v>776.4508666992188</v>
@@ -9365,7 +9365,7 @@
         <v>220.8214569091797</v>
       </c>
       <c r="I270" t="n">
-        <v>3285.048583984375</v>
+        <v>3285.04833984375</v>
       </c>
       <c r="J270" t="n">
         <v>2426.298583984375</v>
@@ -9379,7 +9379,7 @@
         <v>45328</v>
       </c>
       <c r="B271" t="n">
-        <v>4346.4775390625</v>
+        <v>4346.47802734375</v>
       </c>
       <c r="C271" t="n">
         <v>2510.92041015625</v>
@@ -9388,7 +9388,7 @@
         <v>1261.523559570312</v>
       </c>
       <c r="E271" t="n">
-        <v>562.834228515625</v>
+        <v>562.8342895507812</v>
       </c>
       <c r="F271" t="n">
         <v>787.0621337890625</v>
@@ -9414,10 +9414,10 @@
         <v>45329</v>
       </c>
       <c r="B272" t="n">
-        <v>4516.36865234375</v>
+        <v>4516.369140625</v>
       </c>
       <c r="C272" t="n">
-        <v>2488.376220703125</v>
+        <v>2488.3759765625</v>
       </c>
       <c r="D272" t="n">
         <v>1244.232299804688</v>
@@ -9435,7 +9435,7 @@
         <v>217.1867523193359</v>
       </c>
       <c r="I272" t="n">
-        <v>3337.10009765625</v>
+        <v>3337.099853515625</v>
       </c>
       <c r="J272" t="n">
         <v>2485.52392578125</v>
@@ -9458,7 +9458,7 @@
         <v>1233.877197265625</v>
       </c>
       <c r="E273" t="n">
-        <v>559.6058349609375</v>
+        <v>559.6058959960938</v>
       </c>
       <c r="F273" t="n">
         <v>820.1299438476562</v>
@@ -9470,7 +9470,7 @@
         <v>210.7637329101562</v>
       </c>
       <c r="I273" t="n">
-        <v>3278.904296875</v>
+        <v>3278.904541015625</v>
       </c>
       <c r="J273" t="n">
         <v>2472.27490234375</v>
@@ -9493,7 +9493,7 @@
         <v>1259.938110351562</v>
       </c>
       <c r="E274" t="n">
-        <v>572.3705444335938</v>
+        <v>572.3704833984375</v>
       </c>
       <c r="F274" t="n">
         <v>823.6342163085938</v>
@@ -9519,7 +9519,7 @@
         <v>45334</v>
       </c>
       <c r="B275" t="n">
-        <v>4371.55126953125</v>
+        <v>4371.55224609375</v>
       </c>
       <c r="C275" t="n">
         <v>2618.279541015625</v>
@@ -9554,7 +9554,7 @@
         <v>45335</v>
       </c>
       <c r="B276" t="n">
-        <v>4407.53369140625</v>
+        <v>4407.5341796875</v>
       </c>
       <c r="C276" t="n">
         <v>2596.6787109375</v>
@@ -9575,7 +9575,7 @@
         <v>215.5934448242188</v>
       </c>
       <c r="I276" t="n">
-        <v>3265.141845703125</v>
+        <v>3265.14208984375</v>
       </c>
       <c r="J276" t="n">
         <v>2522.9599609375</v>
@@ -9589,10 +9589,10 @@
         <v>45336</v>
       </c>
       <c r="B277" t="n">
-        <v>4499.88330078125</v>
+        <v>4499.8828125</v>
       </c>
       <c r="C277" t="n">
-        <v>2601.64453125</v>
+        <v>2601.644287109375</v>
       </c>
       <c r="D277" t="n">
         <v>1256.3212890625</v>
@@ -9624,10 +9624,10 @@
         <v>45337</v>
       </c>
       <c r="B278" t="n">
-        <v>4411.236328125</v>
+        <v>4411.2353515625</v>
       </c>
       <c r="C278" t="n">
-        <v>2619.5703125</v>
+        <v>2619.570556640625</v>
       </c>
       <c r="D278" t="n">
         <v>1255.528686523438</v>
@@ -9645,7 +9645,7 @@
         <v>221.0206146240234</v>
       </c>
       <c r="I278" t="n">
-        <v>3244.301513671875</v>
+        <v>3244.3017578125</v>
       </c>
       <c r="J278" t="n">
         <v>2542.58447265625</v>
@@ -9662,7 +9662,7 @@
         <v>4466.07275390625</v>
       </c>
       <c r="C279" t="n">
-        <v>2701.75341796875</v>
+        <v>2701.753173828125</v>
       </c>
       <c r="D279" t="n">
         <v>1294.966674804688</v>
@@ -9694,10 +9694,10 @@
         <v>45341</v>
       </c>
       <c r="B280" t="n">
-        <v>4431.2255859375</v>
+        <v>4431.22607421875</v>
       </c>
       <c r="C280" t="n">
-        <v>2652.1953125</v>
+        <v>2652.195556640625</v>
       </c>
       <c r="D280" t="n">
         <v>1295.115356445312</v>
@@ -9715,7 +9715,7 @@
         <v>232.1239318847656</v>
       </c>
       <c r="I280" t="n">
-        <v>3283.180908203125</v>
+        <v>3283.1806640625</v>
       </c>
       <c r="J280" t="n">
         <v>2583.442626953125</v>
@@ -9756,7 +9756,7 @@
         <v>2594.64404296875</v>
       </c>
       <c r="K281" t="n">
-        <v>9857.63671875</v>
+        <v>9857.6357421875</v>
       </c>
     </row>
     <row r="282">
@@ -9764,7 +9764,7 @@
         <v>45343</v>
       </c>
       <c r="B282" t="n">
-        <v>4920.71044921875</v>
+        <v>4920.7109375</v>
       </c>
       <c r="C282" t="n">
         <v>2648.47119140625</v>
@@ -9808,7 +9808,7 @@
         <v>1299.029296875</v>
       </c>
       <c r="E283" t="n">
-        <v>588.810546875</v>
+        <v>588.8104858398438</v>
       </c>
       <c r="F283" t="n">
         <v>880.7377319335938</v>
@@ -9834,7 +9834,7 @@
         <v>45345</v>
       </c>
       <c r="B284" t="n">
-        <v>5322.83056640625</v>
+        <v>5322.83154296875</v>
       </c>
       <c r="C284" t="n">
         <v>2661.183349609375</v>
@@ -9896,7 +9896,7 @@
         <v>2670.686279296875</v>
       </c>
       <c r="K285" t="n">
-        <v>9809.330078125</v>
+        <v>9809.3310546875</v>
       </c>
     </row>
     <row r="286">
@@ -9931,7 +9931,7 @@
         <v>2682.121826171875</v>
       </c>
       <c r="K286" t="n">
-        <v>9830.1240234375</v>
+        <v>9830.125</v>
       </c>
     </row>
     <row r="287">
@@ -9960,13 +9960,13 @@
         <v>245.8661346435547</v>
       </c>
       <c r="I287" t="n">
-        <v>3411.31884765625</v>
+        <v>3411.318603515625</v>
       </c>
       <c r="J287" t="n">
         <v>2677.14990234375</v>
       </c>
       <c r="K287" t="n">
-        <v>9685.7509765625</v>
+        <v>9685.751953125</v>
       </c>
     </row>
     <row r="288">
@@ -10009,7 +10009,7 @@
         <v>45352</v>
       </c>
       <c r="B289" t="n">
-        <v>5419.3759765625</v>
+        <v>5419.37548828125</v>
       </c>
       <c r="C289" t="n">
         <v>2676.974365234375</v>
@@ -10030,7 +10030,7 @@
         <v>256.1727905273438</v>
       </c>
       <c r="I289" t="n">
-        <v>3571.84814453125</v>
+        <v>3571.847900390625</v>
       </c>
       <c r="J289" t="n">
         <v>2749.653076171875</v>
@@ -10044,10 +10044,10 @@
         <v>45355</v>
       </c>
       <c r="B290" t="n">
-        <v>5559.25634765625</v>
+        <v>5559.2568359375</v>
       </c>
       <c r="C290" t="n">
-        <v>2677.1728515625</v>
+        <v>2677.173095703125</v>
       </c>
       <c r="D290" t="n">
         <v>1330.3916015625</v>
@@ -10071,7 +10071,7 @@
         <v>2742.897216796875</v>
       </c>
       <c r="K290" t="n">
-        <v>9857.0927734375</v>
+        <v>9857.09375</v>
       </c>
     </row>
     <row r="291">
@@ -10079,7 +10079,7 @@
         <v>45356</v>
       </c>
       <c r="B291" t="n">
-        <v>5607.923828125</v>
+        <v>5607.92431640625</v>
       </c>
       <c r="C291" t="n">
         <v>2650.457275390625</v>
@@ -10088,7 +10088,7 @@
         <v>1326.130859375</v>
       </c>
       <c r="E291" t="n">
-        <v>609.0252075195312</v>
+        <v>609.0252685546875</v>
       </c>
       <c r="F291" t="n">
         <v>920.0242309570312</v>
@@ -10100,7 +10100,7 @@
         <v>255.2267761230469</v>
       </c>
       <c r="I291" t="n">
-        <v>3551.302978515625</v>
+        <v>3551.302734375</v>
       </c>
       <c r="J291" t="n">
         <v>2766.850341796875</v>
@@ -10170,13 +10170,13 @@
         <v>249.1523284912109</v>
       </c>
       <c r="I293" t="n">
-        <v>3614.560791015625</v>
+        <v>3614.560546875</v>
       </c>
       <c r="J293" t="n">
         <v>2730.87646484375</v>
       </c>
       <c r="K293" t="n">
-        <v>9555.5537109375</v>
+        <v>9555.5546875</v>
       </c>
     </row>
     <row r="294">
@@ -10193,7 +10193,7 @@
         <v>1314.883911132812</v>
       </c>
       <c r="E294" t="n">
-        <v>598.0487060546875</v>
+        <v>598.0486450195312</v>
       </c>
       <c r="F294" t="n">
         <v>899.4926147460938</v>
@@ -10205,13 +10205,13 @@
         <v>252.1397552490234</v>
       </c>
       <c r="I294" t="n">
-        <v>3578.82763671875</v>
+        <v>3578.827880859375</v>
       </c>
       <c r="J294" t="n">
         <v>2767.259765625</v>
       </c>
       <c r="K294" t="n">
-        <v>9580.00390625</v>
+        <v>9580.0029296875</v>
       </c>
     </row>
     <row r="295">
@@ -10219,7 +10219,7 @@
         <v>45363</v>
       </c>
       <c r="B295" t="n">
-        <v>5644.59716796875</v>
+        <v>5644.5966796875</v>
       </c>
       <c r="C295" t="n">
         <v>2544.0419921875</v>
@@ -10254,10 +10254,10 @@
         <v>45364</v>
       </c>
       <c r="B296" t="n">
-        <v>5525.39697265625</v>
+        <v>5525.396484375</v>
       </c>
       <c r="C296" t="n">
-        <v>2372.72412109375</v>
+        <v>2372.724365234375</v>
       </c>
       <c r="D296" t="n">
         <v>1198.551513671875</v>
@@ -10275,13 +10275,13 @@
         <v>214.5976257324219</v>
       </c>
       <c r="I296" t="n">
-        <v>3478.509033203125</v>
+        <v>3478.50927734375</v>
       </c>
       <c r="J296" t="n">
         <v>2720.02587890625</v>
       </c>
       <c r="K296" t="n">
-        <v>9476.921875</v>
+        <v>9476.9208984375</v>
       </c>
     </row>
     <row r="297">
@@ -10333,7 +10333,7 @@
         <v>1271.333618164062</v>
       </c>
       <c r="E298" t="n">
-        <v>596.75732421875</v>
+        <v>596.7573852539062</v>
       </c>
       <c r="F298" t="n">
         <v>813.0722045898438</v>
@@ -10359,16 +10359,16 @@
         <v>45369</v>
       </c>
       <c r="B299" t="n">
-        <v>5692.7216796875</v>
+        <v>5692.72119140625</v>
       </c>
       <c r="C299" t="n">
-        <v>2424.81494140625</v>
+        <v>2424.814697265625</v>
       </c>
       <c r="D299" t="n">
         <v>1255.082641601562</v>
       </c>
       <c r="E299" t="n">
-        <v>580.764404296875</v>
+        <v>580.7643432617188</v>
       </c>
       <c r="F299" t="n">
         <v>825.4603271484375</v>
@@ -10380,7 +10380,7 @@
         <v>245.9159393310547</v>
       </c>
       <c r="I299" t="n">
-        <v>3500.77490234375</v>
+        <v>3500.774658203125</v>
       </c>
       <c r="J299" t="n">
         <v>2827.830078125</v>
@@ -10394,7 +10394,7 @@
         <v>45370</v>
       </c>
       <c r="B300" t="n">
-        <v>5556.34521484375</v>
+        <v>5556.3447265625</v>
       </c>
       <c r="C300" t="n">
         <v>2386.92626953125</v>
@@ -10429,10 +10429,10 @@
         <v>45371</v>
       </c>
       <c r="B301" t="n">
-        <v>5660.09521484375</v>
+        <v>5660.095703125</v>
       </c>
       <c r="C301" t="n">
-        <v>2381.265380859375</v>
+        <v>2381.26513671875</v>
       </c>
       <c r="D301" t="n">
         <v>1234.075439453125</v>
@@ -10456,7 +10456,7 @@
         <v>2754.800537109375</v>
       </c>
       <c r="K301" t="n">
-        <v>9369.2470703125</v>
+        <v>9369.24609375</v>
       </c>
     </row>
     <row r="302">
@@ -10464,7 +10464,7 @@
         <v>45372</v>
       </c>
       <c r="B302" t="n">
-        <v>5789.611328125</v>
+        <v>5789.61083984375</v>
       </c>
       <c r="C302" t="n">
         <v>2422.13330078125</v>
@@ -10473,7 +10473,7 @@
         <v>1250.970336914062</v>
       </c>
       <c r="E302" t="n">
-        <v>583.29736328125</v>
+        <v>583.2974243164062</v>
       </c>
       <c r="F302" t="n">
         <v>846.633544921875</v>
@@ -10499,10 +10499,10 @@
         <v>45373</v>
       </c>
       <c r="B303" t="n">
-        <v>5890.79541015625</v>
+        <v>5890.794921875</v>
       </c>
       <c r="C303" t="n">
-        <v>2426.503173828125</v>
+        <v>2426.5029296875</v>
       </c>
       <c r="D303" t="n">
         <v>1269.946166992188</v>
@@ -10537,7 +10537,7 @@
         <v>5853.677734375</v>
       </c>
       <c r="C304" t="n">
-        <v>2433.20703125</v>
+        <v>2433.206787109375</v>
       </c>
       <c r="D304" t="n">
         <v>1292.340698242188</v>
@@ -10561,7 +10561,7 @@
         <v>2982.400390625</v>
       </c>
       <c r="K304" t="n">
-        <v>9483.984375</v>
+        <v>9483.9853515625</v>
       </c>
     </row>
     <row r="305">
@@ -10590,7 +10590,7 @@
         <v>246.513427734375</v>
       </c>
       <c r="I305" t="n">
-        <v>3643.510986328125</v>
+        <v>3643.51123046875</v>
       </c>
       <c r="J305" t="n">
         <v>3093.538818359375</v>
@@ -10613,7 +10613,7 @@
         <v>1329.6484375</v>
       </c>
       <c r="E306" t="n">
-        <v>608.2802124023438</v>
+        <v>608.2801513671875</v>
       </c>
       <c r="F306" t="n">
         <v>885.4264526367188</v>
@@ -10639,7 +10639,7 @@
         <v>45383</v>
       </c>
       <c r="B307" t="n">
-        <v>6421.14892578125</v>
+        <v>6421.1484375</v>
       </c>
       <c r="C307" t="n">
         <v>2527.10888671875</v>
@@ -10648,7 +10648,7 @@
         <v>1363.388793945312</v>
       </c>
       <c r="E307" t="n">
-        <v>617.3694458007812</v>
+        <v>617.369384765625</v>
       </c>
       <c r="F307" t="n">
         <v>936.0151977539062</v>
@@ -10666,7 +10666,7 @@
         <v>3195.46435546875</v>
       </c>
       <c r="K307" t="n">
-        <v>9833.384765625</v>
+        <v>9833.3857421875</v>
       </c>
     </row>
     <row r="308">
@@ -10674,7 +10674,7 @@
         <v>45384</v>
       </c>
       <c r="B308" t="n">
-        <v>6347.30859375</v>
+        <v>6347.30908203125</v>
       </c>
       <c r="C308" t="n">
         <v>2630.4951171875</v>
@@ -10683,7 +10683,7 @@
         <v>1391.381958007812</v>
       </c>
       <c r="E308" t="n">
-        <v>630.4817504882812</v>
+        <v>630.481689453125</v>
       </c>
       <c r="F308" t="n">
         <v>922.7880859375</v>
@@ -10701,7 +10701,7 @@
         <v>3262.118408203125</v>
       </c>
       <c r="K308" t="n">
-        <v>9916.1171875</v>
+        <v>9916.1162109375</v>
       </c>
     </row>
     <row r="309">
@@ -10712,7 +10712,7 @@
         <v>6420.55615234375</v>
       </c>
       <c r="C309" t="n">
-        <v>2615.895751953125</v>
+        <v>2615.89599609375</v>
       </c>
       <c r="D309" t="n">
         <v>1384.494995117188</v>
@@ -10747,7 +10747,7 @@
         <v>6418.3349609375</v>
       </c>
       <c r="C310" t="n">
-        <v>2598.3173828125</v>
+        <v>2598.317138671875</v>
       </c>
       <c r="D310" t="n">
         <v>1354.421020507812</v>
@@ -10771,7 +10771,7 @@
         <v>3291.482177734375</v>
       </c>
       <c r="K310" t="n">
-        <v>9883.4677734375</v>
+        <v>9883.46875</v>
       </c>
     </row>
     <row r="311">
@@ -10782,7 +10782,7 @@
         <v>6584.22802734375</v>
       </c>
       <c r="C311" t="n">
-        <v>2557.44921875</v>
+        <v>2557.449462890625</v>
       </c>
       <c r="D311" t="n">
         <v>1363.0419921875</v>
@@ -10806,7 +10806,7 @@
         <v>3295.693603515625</v>
       </c>
       <c r="K311" t="n">
-        <v>9704.1748046875</v>
+        <v>9704.173828125</v>
       </c>
     </row>
     <row r="312">
@@ -10814,7 +10814,7 @@
         <v>45390</v>
       </c>
       <c r="B312" t="n">
-        <v>6613.744140625</v>
+        <v>6613.74365234375</v>
       </c>
       <c r="C312" t="n">
         <v>2564.748779296875</v>
@@ -10841,7 +10841,7 @@
         <v>3315.435546875</v>
       </c>
       <c r="K312" t="n">
-        <v>9743.8359375</v>
+        <v>9743.8369140625</v>
       </c>
     </row>
     <row r="313">
@@ -10849,7 +10849,7 @@
         <v>45391</v>
       </c>
       <c r="B313" t="n">
-        <v>6445.97509765625</v>
+        <v>6445.9755859375</v>
       </c>
       <c r="C313" t="n">
         <v>2506.99755859375</v>
@@ -10870,13 +10870,13 @@
         <v>240.6879272460938</v>
       </c>
       <c r="I313" t="n">
-        <v>3721.023193359375</v>
+        <v>3721.0234375</v>
       </c>
       <c r="J313" t="n">
         <v>3278.73046875</v>
       </c>
       <c r="K313" t="n">
-        <v>9650.3876953125</v>
+        <v>9650.38671875</v>
       </c>
     </row>
     <row r="314">
@@ -10884,10 +10884,10 @@
         <v>45392</v>
       </c>
       <c r="B314" t="n">
-        <v>6556.291015625</v>
+        <v>6556.29150390625</v>
       </c>
       <c r="C314" t="n">
-        <v>2507.39453125</v>
+        <v>2507.394775390625</v>
       </c>
       <c r="D314" t="n">
         <v>1340.00341796875</v>
@@ -10911,7 +10911,7 @@
         <v>3265.598876953125</v>
       </c>
       <c r="K314" t="n">
-        <v>9698.4951171875</v>
+        <v>9698.494140625</v>
       </c>
     </row>
     <row r="315">
@@ -10954,7 +10954,7 @@
         <v>45397</v>
       </c>
       <c r="B316" t="n">
-        <v>6476.82421875</v>
+        <v>6476.82470703125</v>
       </c>
       <c r="C316" t="n">
         <v>2425.70849609375</v>
@@ -10981,7 +10981,7 @@
         <v>3182.566650390625</v>
       </c>
       <c r="K316" t="n">
-        <v>9390.68359375</v>
+        <v>9390.6826171875</v>
       </c>
     </row>
     <row r="317">
@@ -10992,7 +10992,7 @@
         <v>6559.54931640625</v>
       </c>
       <c r="C317" t="n">
-        <v>2425.9072265625</v>
+        <v>2425.906982421875</v>
       </c>
       <c r="D317" t="n">
         <v>1292.489379882812</v>
@@ -11024,7 +11024,7 @@
         <v>45400</v>
       </c>
       <c r="B318" t="n">
-        <v>6287.73291015625</v>
+        <v>6287.7333984375</v>
       </c>
       <c r="C318" t="n">
         <v>2395.46728515625</v>
@@ -11051,7 +11051,7 @@
         <v>3263.697509765625</v>
       </c>
       <c r="K318" t="n">
-        <v>9268.68359375</v>
+        <v>9268.6845703125</v>
       </c>
     </row>
     <row r="319">
@@ -11059,7 +11059,7 @@
         <v>45401</v>
       </c>
       <c r="B319" t="n">
-        <v>6211.8203125</v>
+        <v>6211.82080078125</v>
       </c>
       <c r="C319" t="n">
         <v>2388.6640625</v>
@@ -11080,7 +11080,7 @@
         <v>238.1983947753906</v>
       </c>
       <c r="I319" t="n">
-        <v>3458.652099609375</v>
+        <v>3458.65185546875</v>
       </c>
       <c r="J319" t="n">
         <v>3269.517822265625</v>
@@ -11094,7 +11094,7 @@
         <v>45404</v>
       </c>
       <c r="B320" t="n">
-        <v>6441.53369140625</v>
+        <v>6441.533203125</v>
       </c>
       <c r="C320" t="n">
         <v>2387.0751953125</v>
@@ -11121,7 +11121,7 @@
         <v>3374.163330078125</v>
       </c>
       <c r="K320" t="n">
-        <v>9448.96484375</v>
+        <v>9448.9658203125</v>
       </c>
     </row>
     <row r="321">
@@ -11129,7 +11129,7 @@
         <v>45405</v>
       </c>
       <c r="B321" t="n">
-        <v>6226.47998046875</v>
+        <v>6226.48046875</v>
       </c>
       <c r="C321" t="n">
         <v>2435.7890625</v>
@@ -11156,7 +11156,7 @@
         <v>3331.638427734375</v>
       </c>
       <c r="K321" t="n">
-        <v>9417.6513671875</v>
+        <v>9417.650390625</v>
       </c>
     </row>
     <row r="322">
@@ -11167,13 +11167,13 @@
         <v>6262.4130859375</v>
       </c>
       <c r="C322" t="n">
-        <v>2538.877197265625</v>
+        <v>2538.87744140625</v>
       </c>
       <c r="D322" t="n">
         <v>1308.492553710938</v>
       </c>
       <c r="E322" t="n">
-        <v>640.1668701171875</v>
+        <v>640.1669311523438</v>
       </c>
       <c r="F322" t="n">
         <v>881.9716186523438</v>
@@ -11191,7 +11191,7 @@
         <v>3315.9912109375</v>
       </c>
       <c r="K322" t="n">
-        <v>9541.4267578125</v>
+        <v>9541.427734375</v>
       </c>
     </row>
     <row r="323">
@@ -11199,7 +11199,7 @@
         <v>45407</v>
       </c>
       <c r="B323" t="n">
-        <v>6349.13525390625</v>
+        <v>6349.134765625</v>
       </c>
       <c r="C323" t="n">
         <v>2561.91845703125</v>
@@ -11208,7 +11208,7 @@
         <v>1318.451171875</v>
       </c>
       <c r="E323" t="n">
-        <v>634.107421875</v>
+        <v>634.1073608398438</v>
       </c>
       <c r="F323" t="n">
         <v>882.2677612304688</v>
@@ -11226,7 +11226,7 @@
         <v>3351.4384765625</v>
       </c>
       <c r="K323" t="n">
-        <v>9566.025390625</v>
+        <v>9566.0244140625</v>
       </c>
     </row>
     <row r="324">
@@ -11234,7 +11234,7 @@
         <v>45408</v>
       </c>
       <c r="B324" t="n">
-        <v>6328.158203125</v>
+        <v>6328.15771484375</v>
       </c>
       <c r="C324" t="n">
         <v>2515.687744140625</v>
@@ -11261,7 +11261,7 @@
         <v>3362.52294921875</v>
       </c>
       <c r="K324" t="n">
-        <v>9582.9677734375</v>
+        <v>9582.966796875</v>
       </c>
     </row>
     <row r="325">
@@ -11296,7 +11296,7 @@
         <v>3378.9892578125</v>
       </c>
       <c r="K325" t="n">
-        <v>9843.3134765625</v>
+        <v>9843.3125</v>
       </c>
     </row>
     <row r="326">
@@ -11304,10 +11304,10 @@
         <v>45412</v>
       </c>
       <c r="B326" t="n">
-        <v>6456.78466796875</v>
+        <v>6456.78515625</v>
       </c>
       <c r="C326" t="n">
-        <v>2514.4462890625</v>
+        <v>2514.446044921875</v>
       </c>
       <c r="D326" t="n">
         <v>1312.8525390625</v>
@@ -11342,13 +11342,13 @@
         <v>6596.71533203125</v>
       </c>
       <c r="C327" t="n">
-        <v>2512.112060546875</v>
+        <v>2512.1123046875</v>
       </c>
       <c r="D327" t="n">
         <v>1326.626220703125</v>
       </c>
       <c r="E327" t="n">
-        <v>621.5415649414062</v>
+        <v>621.54150390625</v>
       </c>
       <c r="F327" t="n">
         <v>884.883544921875</v>
@@ -11360,13 +11360,13 @@
         <v>256.2225952148438</v>
       </c>
       <c r="I327" t="n">
-        <v>3538.4248046875</v>
+        <v>3538.425048828125</v>
       </c>
       <c r="J327" t="n">
         <v>3434.470458984375</v>
       </c>
       <c r="K327" t="n">
-        <v>9862.08203125</v>
+        <v>9862.0810546875</v>
       </c>
     </row>
     <row r="328">
@@ -11401,7 +11401,7 @@
         <v>3467.548828125</v>
       </c>
       <c r="K328" t="n">
-        <v>9696.9638671875</v>
+        <v>9696.962890625</v>
       </c>
     </row>
     <row r="329">
@@ -11409,7 +11409,7 @@
         <v>45418</v>
       </c>
       <c r="B329" t="n">
-        <v>6875.744140625</v>
+        <v>6875.74365234375</v>
       </c>
       <c r="C329" t="n">
         <v>2472.43603515625</v>
@@ -11430,7 +11430,7 @@
         <v>250.2477264404297</v>
       </c>
       <c r="I329" t="n">
-        <v>3404.535888671875</v>
+        <v>3404.5361328125</v>
       </c>
       <c r="J329" t="n">
         <v>3572.604248046875</v>
@@ -11444,7 +11444,7 @@
         <v>45419</v>
       </c>
       <c r="B330" t="n">
-        <v>6824.32666015625</v>
+        <v>6824.3271484375</v>
       </c>
       <c r="C330" t="n">
         <v>2419.749755859375</v>
@@ -11465,7 +11465,7 @@
         <v>241.7833251953125</v>
       </c>
       <c r="I330" t="n">
-        <v>3369.589111328125</v>
+        <v>3369.58935546875</v>
       </c>
       <c r="J330" t="n">
         <v>3564.970703125</v>
@@ -11517,7 +11517,7 @@
         <v>6920.0771484375</v>
       </c>
       <c r="C332" t="n">
-        <v>2399.5888671875</v>
+        <v>2399.588623046875</v>
       </c>
       <c r="D332" t="n">
         <v>1233.233276367188</v>
@@ -11549,7 +11549,7 @@
         <v>45422</v>
       </c>
       <c r="B333" t="n">
-        <v>7111.52880859375</v>
+        <v>7111.5283203125</v>
       </c>
       <c r="C333" t="n">
         <v>2343.97265625</v>
@@ -11584,7 +11584,7 @@
         <v>45425</v>
       </c>
       <c r="B334" t="n">
-        <v>7909.9267578125</v>
+        <v>7909.92626953125</v>
       </c>
       <c r="C334" t="n">
         <v>2347.548095703125</v>
@@ -11611,7 +11611,7 @@
         <v>3872.356201171875</v>
       </c>
       <c r="K334" t="n">
-        <v>9435.3818359375</v>
+        <v>9435.3828125</v>
       </c>
     </row>
     <row r="335">
@@ -11619,7 +11619,7 @@
         <v>45426</v>
       </c>
       <c r="B335" t="n">
-        <v>8005.62744140625</v>
+        <v>8005.626953125</v>
       </c>
       <c r="C335" t="n">
         <v>2446.6142578125</v>
@@ -11628,7 +11628,7 @@
         <v>1319.144775390625</v>
       </c>
       <c r="E335" t="n">
-        <v>606.14453125</v>
+        <v>606.1445922851562</v>
       </c>
       <c r="F335" t="n">
         <v>828.2241821289062</v>
@@ -11646,7 +11646,7 @@
         <v>3895.95849609375</v>
       </c>
       <c r="K335" t="n">
-        <v>9543.20703125</v>
+        <v>9543.2060546875</v>
       </c>
     </row>
     <row r="336">
@@ -11654,10 +11654,10 @@
         <v>45427</v>
       </c>
       <c r="B336" t="n">
-        <v>8009.04443359375</v>
+        <v>8009.044921875</v>
       </c>
       <c r="C336" t="n">
-        <v>2472.08837890625</v>
+        <v>2472.088134765625</v>
       </c>
       <c r="D336" t="n">
         <v>1325.684692382812</v>
@@ -11689,7 +11689,7 @@
         <v>45428</v>
       </c>
       <c r="B337" t="n">
-        <v>8227.8388671875</v>
+        <v>8227.83984375</v>
       </c>
       <c r="C337" t="n">
         <v>2469.0595703125</v>
@@ -11724,7 +11724,7 @@
         <v>45429</v>
       </c>
       <c r="B338" t="n">
-        <v>8293.4228515625</v>
+        <v>8293.421875</v>
       </c>
       <c r="C338" t="n">
         <v>2504.66357421875</v>
@@ -11733,7 +11733,7 @@
         <v>1323.554321289062</v>
       </c>
       <c r="E338" t="n">
-        <v>616.57470703125</v>
+        <v>616.5747680664062</v>
       </c>
       <c r="F338" t="n">
         <v>837.7990112304688</v>
@@ -11745,7 +11745,7 @@
         <v>270.5124816894531</v>
       </c>
       <c r="I338" t="n">
-        <v>3392.19873046875</v>
+        <v>3392.198974609375</v>
       </c>
       <c r="J338" t="n">
         <v>4202.9931640625</v>
@@ -11762,7 +11762,7 @@
         <v>8469.716796875</v>
       </c>
       <c r="C339" t="n">
-        <v>2510.5234375</v>
+        <v>2510.523193359375</v>
       </c>
       <c r="D339" t="n">
         <v>1372.901489257812</v>
@@ -11786,7 +11786,7 @@
         <v>4260.84375</v>
       </c>
       <c r="K339" t="n">
-        <v>9670.390625</v>
+        <v>9670.3916015625</v>
       </c>
     </row>
     <row r="340">
@@ -11838,7 +11838,7 @@
         <v>1430.225463867188</v>
       </c>
       <c r="E341" t="n">
-        <v>642.2033081054688</v>
+        <v>642.2032470703125</v>
       </c>
       <c r="F341" t="n">
         <v>836.1209106445312</v>
@@ -11850,7 +11850,7 @@
         <v>277.8317260742188</v>
       </c>
       <c r="I341" t="n">
-        <v>3524.564208984375</v>
+        <v>3524.56396484375</v>
       </c>
       <c r="J341" t="n">
         <v>4311.96728515625</v>
@@ -11899,7 +11899,7 @@
         <v>45439</v>
       </c>
       <c r="B343" t="n">
-        <v>8320.1708984375</v>
+        <v>8320.171875</v>
       </c>
       <c r="C343" t="n">
         <v>2567.380859375</v>
@@ -11920,13 +11920,13 @@
         <v>282.01416015625</v>
       </c>
       <c r="I343" t="n">
-        <v>3590.0341796875</v>
+        <v>3590.033935546875</v>
       </c>
       <c r="J343" t="n">
         <v>4220.42431640625</v>
       </c>
       <c r="K343" t="n">
-        <v>10101.189453125</v>
+        <v>10101.1884765625</v>
       </c>
     </row>
     <row r="344">
@@ -11937,7 +11937,7 @@
         <v>8157.00537109375</v>
       </c>
       <c r="C344" t="n">
-        <v>2552.930419921875</v>
+        <v>2552.9306640625</v>
       </c>
       <c r="D344" t="n">
         <v>1387.76513671875</v>
@@ -11972,13 +11972,13 @@
         <v>8122.033203125</v>
       </c>
       <c r="C345" t="n">
-        <v>2519.11376953125</v>
+        <v>2519.114013671875</v>
       </c>
       <c r="D345" t="n">
         <v>1397.1787109375</v>
       </c>
       <c r="E345" t="n">
-        <v>625.9122924804688</v>
+        <v>625.9122314453125</v>
       </c>
       <c r="F345" t="n">
         <v>807.7418823242188</v>
@@ -12013,7 +12013,7 @@
         <v>1370.919677734375</v>
       </c>
       <c r="E346" t="n">
-        <v>615.0350952148438</v>
+        <v>615.0350341796875</v>
       </c>
       <c r="F346" t="n">
         <v>791.7015380859375</v>
@@ -12031,7 +12031,7 @@
         <v>4085.595703125</v>
       </c>
       <c r="K346" t="n">
-        <v>9748.875</v>
+        <v>9748.8740234375</v>
       </c>
     </row>
     <row r="347">
@@ -12042,7 +12042,7 @@
         <v>8240.5205078125</v>
       </c>
       <c r="C347" t="n">
-        <v>2528.946044921875</v>
+        <v>2528.94580078125</v>
       </c>
       <c r="D347" t="n">
         <v>1424.32958984375</v>
@@ -12074,10 +12074,10 @@
         <v>45446</v>
       </c>
       <c r="B348" t="n">
-        <v>8646.75390625</v>
+        <v>8646.7529296875</v>
       </c>
       <c r="C348" t="n">
-        <v>2664.4111328125</v>
+        <v>2664.411376953125</v>
       </c>
       <c r="D348" t="n">
         <v>1569.546875</v>
@@ -12130,13 +12130,13 @@
         <v>265.0355224609375</v>
       </c>
       <c r="I349" t="n">
-        <v>3345.455810546875</v>
+        <v>3345.45556640625</v>
       </c>
       <c r="J349" t="n">
         <v>3727.3203125</v>
       </c>
       <c r="K349" t="n">
-        <v>9797.7236328125</v>
+        <v>9797.72265625</v>
       </c>
     </row>
     <row r="350">
@@ -12153,7 +12153,7 @@
         <v>1342.282470703125</v>
       </c>
       <c r="E350" t="n">
-        <v>594.9196166992188</v>
+        <v>594.919677734375</v>
       </c>
       <c r="F350" t="n">
         <v>785.7789916992188</v>
@@ -12165,13 +12165,13 @@
         <v>270.1639709472656</v>
       </c>
       <c r="I350" t="n">
-        <v>3351.1572265625</v>
+        <v>3351.157470703125</v>
       </c>
       <c r="J350" t="n">
         <v>3818.600341796875</v>
       </c>
       <c r="K350" t="n">
-        <v>9916.06640625</v>
+        <v>9916.0673828125</v>
       </c>
     </row>
     <row r="351">
@@ -12179,7 +12179,7 @@
         <v>45449</v>
       </c>
       <c r="B351" t="n">
-        <v>7913.146484375</v>
+        <v>7913.14599609375</v>
       </c>
       <c r="C351" t="n">
         <v>2436.732421875</v>
@@ -12188,7 +12188,7 @@
         <v>1340.647338867188</v>
       </c>
       <c r="E351" t="n">
-        <v>605.9955444335938</v>
+        <v>605.9954833984375</v>
       </c>
       <c r="F351" t="n">
         <v>818.4519653320312</v>
@@ -12206,7 +12206,7 @@
         <v>3974.0478515625</v>
       </c>
       <c r="K351" t="n">
-        <v>9932.7119140625</v>
+        <v>9932.712890625</v>
       </c>
     </row>
     <row r="352">
@@ -12252,7 +12252,7 @@
         <v>7986.9033203125</v>
       </c>
       <c r="C353" t="n">
-        <v>2525.668701171875</v>
+        <v>2525.6689453125</v>
       </c>
       <c r="D353" t="n">
         <v>1371.464721679688</v>
@@ -12305,7 +12305,7 @@
         <v>282.1137390136719</v>
       </c>
       <c r="I354" t="n">
-        <v>3537.638671875</v>
+        <v>3537.638427734375</v>
       </c>
       <c r="J354" t="n">
         <v>4036.69482421875</v>
@@ -12319,7 +12319,7 @@
         <v>45455</v>
       </c>
       <c r="B355" t="n">
-        <v>8203.9140625</v>
+        <v>8203.9130859375</v>
       </c>
       <c r="C355" t="n">
         <v>2606.411376953125</v>
@@ -12354,10 +12354,10 @@
         <v>45456</v>
       </c>
       <c r="B356" t="n">
-        <v>8367.97265625</v>
+        <v>8367.9716796875</v>
       </c>
       <c r="C356" t="n">
-        <v>2617.7333984375</v>
+        <v>2617.733154296875</v>
       </c>
       <c r="D356" t="n">
         <v>1391.67919921875</v>
@@ -12375,13 +12375,13 @@
         <v>289.2337951660156</v>
       </c>
       <c r="I356" t="n">
-        <v>3640.807861328125</v>
+        <v>3640.8076171875</v>
       </c>
       <c r="J356" t="n">
         <v>4326.5615234375</v>
       </c>
       <c r="K356" t="n">
-        <v>11037.9599609375</v>
+        <v>11037.9609375</v>
       </c>
     </row>
     <row r="357">
@@ -12410,7 +12410,7 @@
         <v>299.1421203613281</v>
       </c>
       <c r="I357" t="n">
-        <v>3625.2265625</v>
+        <v>3625.226806640625</v>
       </c>
       <c r="J357" t="n">
         <v>4556.79345703125</v>
@@ -12451,7 +12451,7 @@
         <v>4520.32275390625</v>
       </c>
       <c r="K358" t="n">
-        <v>10983.875</v>
+        <v>10983.8759765625</v>
       </c>
     </row>
     <row r="359">
@@ -12556,7 +12556,7 @@
         <v>4349.78369140625</v>
       </c>
       <c r="K361" t="n">
-        <v>10532.77734375</v>
+        <v>10532.7783203125</v>
       </c>
     </row>
     <row r="362">
@@ -12564,7 +12564,7 @@
         <v>45467</v>
       </c>
       <c r="B362" t="n">
-        <v>8386.4970703125</v>
+        <v>8386.4990234375</v>
       </c>
       <c r="C362" t="n">
         <v>2577.84423828125</v>
@@ -12634,7 +12634,7 @@
         <v>45469</v>
       </c>
       <c r="B364" t="n">
-        <v>8312.7412109375</v>
+        <v>8312.740234375</v>
       </c>
       <c r="C364" t="n">
         <v>2580.4833984375</v>
@@ -12661,7 +12661,7 @@
         <v>4443.841796875</v>
       </c>
       <c r="K364" t="n">
-        <v>11007.6328125</v>
+        <v>11007.6337890625</v>
       </c>
     </row>
     <row r="365">
@@ -12731,7 +12731,7 @@
         <v>4506.66455078125</v>
       </c>
       <c r="K366" t="n">
-        <v>11526.0537109375</v>
+        <v>11526.0546875</v>
       </c>
     </row>
     <row r="367">
@@ -12739,7 +12739,7 @@
         <v>45474</v>
       </c>
       <c r="B367" t="n">
-        <v>8507.462890625</v>
+        <v>8507.4619140625</v>
       </c>
       <c r="C367" t="n">
         <v>2738.545654296875</v>
@@ -12766,7 +12766,7 @@
         <v>4604.37841796875</v>
       </c>
       <c r="K367" t="n">
-        <v>11759.92578125</v>
+        <v>11759.9267578125</v>
       </c>
     </row>
     <row r="368">
@@ -12774,7 +12774,7 @@
         <v>45475</v>
       </c>
       <c r="B368" t="n">
-        <v>8434.9443359375</v>
+        <v>8434.943359375</v>
       </c>
       <c r="C368" t="n">
         <v>2761.1044921875</v>
@@ -12801,7 +12801,7 @@
         <v>4546.2939453125</v>
       </c>
       <c r="K368" t="n">
-        <v>11709.841796875</v>
+        <v>11709.8427734375</v>
       </c>
     </row>
     <row r="369">
@@ -12809,7 +12809,7 @@
         <v>45476</v>
       </c>
       <c r="B369" t="n">
-        <v>8537.62890625</v>
+        <v>8537.6279296875</v>
       </c>
       <c r="C369" t="n">
         <v>2756.47314453125</v>
@@ -12836,7 +12836,7 @@
         <v>4564.31005859375</v>
       </c>
       <c r="K369" t="n">
-        <v>11727.7705078125</v>
+        <v>11727.771484375</v>
       </c>
     </row>
     <row r="370">
@@ -12844,7 +12844,7 @@
         <v>45477</v>
       </c>
       <c r="B370" t="n">
-        <v>8634.6650390625</v>
+        <v>8634.666015625</v>
       </c>
       <c r="C370" t="n">
         <v>2714.54248046875</v>
@@ -12906,7 +12906,7 @@
         <v>4612.56787109375</v>
       </c>
       <c r="K371" t="n">
-        <v>11548.0341796875</v>
+        <v>11548.033203125</v>
       </c>
     </row>
     <row r="372">
@@ -12941,7 +12941,7 @@
         <v>4528.21923828125</v>
       </c>
       <c r="K372" t="n">
-        <v>11442.0869140625</v>
+        <v>11442.087890625</v>
       </c>
     </row>
     <row r="373">
@@ -12949,7 +12949,7 @@
         <v>45482</v>
       </c>
       <c r="B373" t="n">
-        <v>8511.029296875</v>
+        <v>8511.02734375</v>
       </c>
       <c r="C373" t="n">
         <v>2675.002197265625</v>
@@ -13011,7 +13011,7 @@
         <v>4589.8134765625</v>
       </c>
       <c r="K374" t="n">
-        <v>11492.8125</v>
+        <v>11492.8134765625</v>
       </c>
     </row>
     <row r="375">
@@ -13046,7 +13046,7 @@
         <v>4548.4873046875</v>
       </c>
       <c r="K375" t="n">
-        <v>11414.4775390625</v>
+        <v>11414.4765625</v>
       </c>
     </row>
     <row r="376">
@@ -13089,7 +13089,7 @@
         <v>45488</v>
       </c>
       <c r="B377" t="n">
-        <v>8174.3427734375</v>
+        <v>8174.341796875</v>
       </c>
       <c r="C377" t="n">
         <v>2684.862060546875</v>
@@ -13116,7 +13116,7 @@
         <v>4468.818359375</v>
       </c>
       <c r="K377" t="n">
-        <v>11689.7890625</v>
+        <v>11689.7900390625</v>
       </c>
     </row>
     <row r="378">
@@ -13229,7 +13229,7 @@
         <v>45495</v>
       </c>
       <c r="B381" t="n">
-        <v>7645.115234375</v>
+        <v>7645.11474609375</v>
       </c>
       <c r="C381" t="n">
         <v>2624.4560546875</v>
@@ -13299,7 +13299,7 @@
         <v>45497</v>
       </c>
       <c r="B383" t="n">
-        <v>7452.57373046875</v>
+        <v>7452.57421875</v>
       </c>
       <c r="C383" t="n">
         <v>2608.8193359375</v>
@@ -13369,7 +13369,7 @@
         <v>45499</v>
       </c>
       <c r="B385" t="n">
-        <v>7778.16455078125</v>
+        <v>7778.1640625</v>
       </c>
       <c r="C385" t="n">
         <v>2603.639892578125</v>
@@ -13431,7 +13431,7 @@
         <v>4150.93359375</v>
       </c>
       <c r="K386" t="n">
-        <v>11729.4501953125</v>
+        <v>11729.451171875</v>
       </c>
     </row>
     <row r="387">
@@ -13439,7 +13439,7 @@
         <v>45503</v>
       </c>
       <c r="B387" t="n">
-        <v>7770.43701171875</v>
+        <v>7770.4375</v>
       </c>
       <c r="C387" t="n">
         <v>2580.334228515625</v>
@@ -13509,7 +13509,7 @@
         <v>45505</v>
       </c>
       <c r="B389" t="n">
-        <v>7697.47265625</v>
+        <v>7697.47216796875</v>
       </c>
       <c r="C389" t="n">
         <v>2477.8974609375</v>
@@ -13859,7 +13859,7 @@
         <v>45520</v>
       </c>
       <c r="B399" t="n">
-        <v>7837.55615234375</v>
+        <v>7837.556640625</v>
       </c>
       <c r="C399" t="n">
         <v>2328.500732421875</v>
@@ -13929,7 +13929,7 @@
         <v>45524</v>
       </c>
       <c r="B401" t="n">
-        <v>7728.134765625</v>
+        <v>7728.13427734375</v>
       </c>
       <c r="C401" t="n">
         <v>2316.399658203125</v>
@@ -13964,7 +13964,7 @@
         <v>45525</v>
       </c>
       <c r="B402" t="n">
-        <v>7847.81005859375</v>
+        <v>7847.8095703125</v>
       </c>
       <c r="C402" t="n">
         <v>2315.802001953125</v>
@@ -13999,7 +13999,7 @@
         <v>45526</v>
       </c>
       <c r="B403" t="n">
-        <v>7786.38671875</v>
+        <v>7786.38720703125</v>
       </c>
       <c r="C403" t="n">
         <v>2339.15771484375</v>
@@ -14139,7 +14139,7 @@
         <v>45532</v>
       </c>
       <c r="B407" t="n">
-        <v>7875.1845703125</v>
+        <v>7875.18408203125</v>
       </c>
       <c r="C407" t="n">
         <v>2320.981201171875</v>
@@ -14174,7 +14174,7 @@
         <v>45533</v>
       </c>
       <c r="B408" t="n">
-        <v>7813.77734375</v>
+        <v>7813.77685546875</v>
       </c>
       <c r="C408" t="n">
         <v>2300.912109375</v>
@@ -14244,7 +14244,7 @@
         <v>45537</v>
       </c>
       <c r="B410" t="n">
-        <v>7637.93896484375</v>
+        <v>7637.9384765625</v>
       </c>
       <c r="C410" t="n">
         <v>2326.757568359375</v>
@@ -14314,7 +14314,7 @@
         <v>45539</v>
       </c>
       <c r="B412" t="n">
-        <v>7578.2177734375</v>
+        <v>7578.21826171875</v>
       </c>
       <c r="C412" t="n">
         <v>2339.10791015625</v>
@@ -14419,7 +14419,7 @@
         <v>45544</v>
       </c>
       <c r="B415" t="n">
-        <v>7540.37158203125</v>
+        <v>7540.3720703125</v>
       </c>
       <c r="C415" t="n">
         <v>2448.81494140625</v>
@@ -14454,7 +14454,7 @@
         <v>45545</v>
       </c>
       <c r="B416" t="n">
-        <v>7475.69091796875</v>
+        <v>7475.69140625</v>
       </c>
       <c r="C416" t="n">
         <v>2433.52685546875</v>
@@ -14489,7 +14489,7 @@
         <v>45546</v>
       </c>
       <c r="B417" t="n">
-        <v>7508.67626953125</v>
+        <v>7508.6767578125</v>
       </c>
       <c r="C417" t="n">
         <v>2430.837646484375</v>
@@ -14559,7 +14559,7 @@
         <v>45548</v>
       </c>
       <c r="B419" t="n">
-        <v>7623.20703125</v>
+        <v>7623.20654296875</v>
       </c>
       <c r="C419" t="n">
         <v>2507.328857421875</v>
@@ -14594,7 +14594,7 @@
         <v>45551</v>
       </c>
       <c r="B420" t="n">
-        <v>7703.36376953125</v>
+        <v>7703.36328125</v>
       </c>
       <c r="C420" t="n">
         <v>2501.90087890625</v>
@@ -14734,7 +14734,7 @@
         <v>45555</v>
       </c>
       <c r="B424" t="n">
-        <v>7634.46630859375</v>
+        <v>7634.466796875</v>
       </c>
       <c r="C424" t="n">
         <v>2433.37744140625</v>
@@ -14769,7 +14769,7 @@
         <v>45558</v>
       </c>
       <c r="B425" t="n">
-        <v>7876.42431640625</v>
+        <v>7876.423828125</v>
       </c>
       <c r="C425" t="n">
         <v>2476.30419921875</v>
@@ -14874,7 +14874,7 @@
         <v>45561</v>
       </c>
       <c r="B428" t="n">
-        <v>8006.13330078125</v>
+        <v>8006.1328125</v>
       </c>
       <c r="C428" t="n">
         <v>2462.4599609375</v>
@@ -15014,7 +15014,7 @@
         <v>45568</v>
       </c>
       <c r="B432" t="n">
-        <v>8045.71533203125</v>
+        <v>8045.71484375</v>
       </c>
       <c r="C432" t="n">
         <v>2448.86474609375</v>
@@ -15154,7 +15154,7 @@
         <v>45574</v>
       </c>
       <c r="B436" t="n">
-        <v>8390.6953125</v>
+        <v>8390.6962890625</v>
       </c>
       <c r="C436" t="n">
         <v>2330.39306640625</v>
@@ -15224,7 +15224,7 @@
         <v>45576</v>
       </c>
       <c r="B438" t="n">
-        <v>8485.583984375</v>
+        <v>8485.5849609375</v>
       </c>
       <c r="C438" t="n">
         <v>2303.153076171875</v>
@@ -15294,7 +15294,7 @@
         <v>45580</v>
       </c>
       <c r="B440" t="n">
-        <v>8579.431640625</v>
+        <v>8579.4306640625</v>
       </c>
       <c r="C440" t="n">
         <v>2285.573974609375</v>
@@ -15329,7 +15329,7 @@
         <v>45581</v>
       </c>
       <c r="B441" t="n">
-        <v>8699.5166015625</v>
+        <v>8699.517578125</v>
       </c>
       <c r="C441" t="n">
         <v>2296.23095703125</v>
@@ -15469,7 +15469,7 @@
         <v>45587</v>
       </c>
       <c r="B445" t="n">
-        <v>8112.4296875</v>
+        <v>8112.42919921875</v>
       </c>
       <c r="C445" t="n">
         <v>2237.31884765625</v>
@@ -15539,7 +15539,7 @@
         <v>45589</v>
       </c>
       <c r="B447" t="n">
-        <v>7587.1962890625</v>
+        <v>7587.19580078125</v>
       </c>
       <c r="C447" t="n">
         <v>2261.07275390625</v>
@@ -15714,7 +15714,7 @@
         <v>45596</v>
       </c>
       <c r="B452" t="n">
-        <v>7370.287109375</v>
+        <v>7370.28759765625</v>
       </c>
       <c r="C452" t="n">
         <v>2311.071044921875</v>
@@ -15784,7 +15784,7 @@
         <v>45600</v>
       </c>
       <c r="B454" t="n">
-        <v>7302.23388671875</v>
+        <v>7302.2333984375</v>
       </c>
       <c r="C454" t="n">
         <v>2280.245361328125</v>
@@ -15819,7 +15819,7 @@
         <v>45601</v>
       </c>
       <c r="B455" t="n">
-        <v>7076.04931640625</v>
+        <v>7076.048828125</v>
       </c>
       <c r="C455" t="n">
         <v>2310.074951171875</v>
@@ -15854,7 +15854,7 @@
         <v>45602</v>
       </c>
       <c r="B456" t="n">
-        <v>7107.00048828125</v>
+        <v>7107</v>
       </c>
       <c r="C456" t="n">
         <v>2350.063720703125</v>
@@ -15994,7 +15994,7 @@
         <v>45608</v>
       </c>
       <c r="B460" t="n">
-        <v>6908.7919921875</v>
+        <v>6908.79150390625</v>
       </c>
       <c r="C460" t="n">
         <v>2254.798095703125</v>
@@ -16029,7 +16029,7 @@
         <v>45609</v>
       </c>
       <c r="B461" t="n">
-        <v>6747.83349609375</v>
+        <v>6747.833984375</v>
       </c>
       <c r="C461" t="n">
         <v>2188.964111328125</v>
@@ -16169,7 +16169,7 @@
         <v>45617</v>
       </c>
       <c r="B465" t="n">
-        <v>6706.96142578125</v>
+        <v>6706.9619140625</v>
       </c>
       <c r="C465" t="n">
         <v>2019.0498046875</v>
@@ -16239,7 +16239,7 @@
         <v>45621</v>
       </c>
       <c r="B467" t="n">
-        <v>7202.03759765625</v>
+        <v>7202.0380859375</v>
       </c>
       <c r="C467" t="n">
         <v>2136.376220703125</v>
@@ -16274,7 +16274,7 @@
         <v>45622</v>
       </c>
       <c r="B468" t="n">
-        <v>7271.33203125</v>
+        <v>7271.33154296875</v>
       </c>
       <c r="C468" t="n">
         <v>2107.69189453125</v>
@@ -16624,7 +16624,7 @@
         <v>45636</v>
       </c>
       <c r="B478" t="n">
-        <v>7631.986328125</v>
+        <v>7631.98681640625</v>
       </c>
       <c r="C478" t="n">
         <v>2240.40625</v>
@@ -16694,7 +16694,7 @@
         <v>45638</v>
       </c>
       <c r="B480" t="n">
-        <v>7596.07470703125</v>
+        <v>7596.07421875</v>
       </c>
       <c r="C480" t="n">
         <v>2220.486572265625</v>
@@ -16729,7 +16729,7 @@
         <v>45639</v>
       </c>
       <c r="B481" t="n">
-        <v>7641.90673828125</v>
+        <v>7641.9072265625</v>
       </c>
       <c r="C481" t="n">
         <v>2239.011962890625</v>
@@ -16764,7 +16764,7 @@
         <v>45642</v>
       </c>
       <c r="B482" t="n">
-        <v>7827.5166015625</v>
+        <v>7827.51708984375</v>
       </c>
       <c r="C482" t="n">
         <v>2238.06591796875</v>
@@ -16939,7 +16939,7 @@
         <v>45649</v>
       </c>
       <c r="B487" t="n">
-        <v>6903.78173828125</v>
+        <v>6903.7822265625</v>
       </c>
       <c r="C487" t="n">
         <v>2092.453369140625</v>
@@ -17009,7 +17009,7 @@
         <v>45652</v>
       </c>
       <c r="B489" t="n">
-        <v>6889.9921875</v>
+        <v>6889.99267578125</v>
       </c>
       <c r="C489" t="n">
         <v>2079.2568359375</v>
@@ -17044,7 +17044,7 @@
         <v>45653</v>
       </c>
       <c r="B490" t="n">
-        <v>6792.37646484375</v>
+        <v>6792.3759765625</v>
       </c>
       <c r="C490" t="n">
         <v>2057.295654296875</v>
@@ -17149,7 +17149,7 @@
         <v>45658</v>
       </c>
       <c r="B493" t="n">
-        <v>6873.27734375</v>
+        <v>6873.27685546875</v>
       </c>
       <c r="C493" t="n">
         <v>2045.044921875</v>
@@ -17184,7 +17184,7 @@
         <v>45659</v>
       </c>
       <c r="B494" t="n">
-        <v>6836.81982421875</v>
+        <v>6836.8193359375</v>
       </c>
       <c r="C494" t="n">
         <v>2061.8271484375</v>
@@ -17219,7 +17219,7 @@
         <v>45660</v>
       </c>
       <c r="B495" t="n">
-        <v>6745.998046875</v>
+        <v>6745.99853515625</v>
       </c>
       <c r="C495" t="n">
         <v>2046.688232421875</v>
@@ -17324,7 +17324,7 @@
         <v>45665</v>
       </c>
       <c r="B498" t="n">
-        <v>6603.98828125</v>
+        <v>6603.98876953125</v>
       </c>
       <c r="C498" t="n">
         <v>1999.927001953125</v>
@@ -17464,7 +17464,7 @@
         <v>45671</v>
       </c>
       <c r="B502" t="n">
-        <v>6097.6533203125</v>
+        <v>6097.65283203125</v>
       </c>
       <c r="C502" t="n">
         <v>1938.42529296875</v>
@@ -17499,7 +17499,7 @@
         <v>45672</v>
       </c>
       <c r="B503" t="n">
-        <v>6144.42724609375</v>
+        <v>6144.427734375</v>
       </c>
       <c r="C503" t="n">
         <v>1961.731201171875</v>
@@ -17569,7 +17569,7 @@
         <v>45674</v>
       </c>
       <c r="B505" t="n">
-        <v>6475.52001953125</v>
+        <v>6475.51953125</v>
       </c>
       <c r="C505" t="n">
         <v>2006.79931640625</v>
@@ -17639,7 +17639,7 @@
         <v>45678</v>
       </c>
       <c r="B507" t="n">
-        <v>6231.181640625</v>
+        <v>6231.18115234375</v>
       </c>
       <c r="C507" t="n">
         <v>2009.388916015625</v>
@@ -17744,7 +17744,7 @@
         <v>45681</v>
       </c>
       <c r="B510" t="n">
-        <v>6129.6953125</v>
+        <v>6129.69580078125</v>
       </c>
       <c r="C510" t="n">
         <v>2050.672119140625</v>
@@ -17779,7 +17779,7 @@
         <v>45684</v>
       </c>
       <c r="B511" t="n">
-        <v>6034.85693359375</v>
+        <v>6034.8564453125</v>
       </c>
       <c r="C511" t="n">
         <v>1987.377685546875</v>
@@ -17849,7 +17849,7 @@
         <v>45686</v>
       </c>
       <c r="B513" t="n">
-        <v>6062.1875</v>
+        <v>6062.18798828125</v>
       </c>
       <c r="C513" t="n">
         <v>1993.8515625</v>
@@ -17884,7 +17884,7 @@
         <v>45687</v>
       </c>
       <c r="B514" t="n">
-        <v>5673.8056640625</v>
+        <v>5673.80517578125</v>
       </c>
       <c r="C514" t="n">
         <v>1985.4853515625</v>
@@ -17919,7 +17919,7 @@
         <v>45688</v>
       </c>
       <c r="B515" t="n">
-        <v>5827.8681640625</v>
+        <v>5827.86865234375</v>
       </c>
       <c r="C515" t="n">
         <v>1999.578491210938</v>
@@ -17954,7 +17954,7 @@
         <v>45689</v>
       </c>
       <c r="B516" t="n">
-        <v>5455.7060546875</v>
+        <v>5455.70556640625</v>
       </c>
       <c r="C516" t="n">
         <v>1993.005004882812</v>
@@ -18234,7 +18234,7 @@
         <v>45700</v>
       </c>
       <c r="B524" t="n">
-        <v>5406.1533203125</v>
+        <v>5406.15380859375</v>
       </c>
       <c r="C524" t="n">
         <v>1920.995727539062</v>
@@ -18304,7 +18304,7 @@
         <v>45702</v>
       </c>
       <c r="B526" t="n">
-        <v>5221.83349609375</v>
+        <v>5221.8330078125</v>
       </c>
       <c r="C526" t="n">
         <v>1866.415893554688</v>
@@ -18339,7 +18339,7 @@
         <v>45705</v>
       </c>
       <c r="B527" t="n">
-        <v>5200.1572265625</v>
+        <v>5200.15673828125</v>
       </c>
       <c r="C527" t="n">
         <v>1903.815063476562</v>
@@ -18444,7 +18444,7 @@
         <v>45708</v>
       </c>
       <c r="B530" t="n">
-        <v>5302.08935546875</v>
+        <v>5302.0888671875</v>
       </c>
       <c r="C530" t="n">
         <v>1879.264038085938</v>
@@ -18479,7 +18479,7 @@
         <v>45709</v>
       </c>
       <c r="B531" t="n">
-        <v>5249.2626953125</v>
+        <v>5249.26318359375</v>
       </c>
       <c r="C531" t="n">
         <v>1876.425537109375</v>
@@ -18689,7 +18689,7 @@
         <v>45720</v>
       </c>
       <c r="B537" t="n">
-        <v>5150.05908203125</v>
+        <v>5150.0595703125</v>
       </c>
       <c r="C537" t="n">
         <v>1821.497314453125</v>
@@ -18794,7 +18794,7 @@
         <v>45723</v>
       </c>
       <c r="B540" t="n">
-        <v>5284.1328125</v>
+        <v>5284.13330078125</v>
       </c>
       <c r="C540" t="n">
         <v>1878.168579101562</v>
@@ -18829,7 +18829,7 @@
         <v>45726</v>
       </c>
       <c r="B541" t="n">
-        <v>5119.20703125</v>
+        <v>5119.20654296875</v>
       </c>
       <c r="C541" t="n">
         <v>1853.11962890625</v>
@@ -18864,7 +18864,7 @@
         <v>45727</v>
       </c>
       <c r="B542" t="n">
-        <v>5088.45361328125</v>
+        <v>5088.4541015625</v>
       </c>
       <c r="C542" t="n">
         <v>1870.30029296875</v>
@@ -19074,7 +19074,7 @@
         <v>45736</v>
       </c>
       <c r="B548" t="n">
-        <v>5417.21533203125</v>
+        <v>5417.21484375</v>
       </c>
       <c r="C548" t="n">
         <v>1882.003051757812</v>
@@ -19249,7 +19249,7 @@
         <v>45743</v>
       </c>
       <c r="B553" t="n">
-        <v>5496.23046875</v>
+        <v>5496.23095703125</v>
       </c>
       <c r="C553" t="n">
         <v>1956.203491210938</v>
@@ -19284,7 +19284,7 @@
         <v>45744</v>
       </c>
       <c r="B554" t="n">
-        <v>5502.08349609375</v>
+        <v>5502.083984375</v>
       </c>
       <c r="C554" t="n">
         <v>1934.83984375</v>
@@ -19459,7 +19459,7 @@
         <v>45754</v>
       </c>
       <c r="B559" t="n">
-        <v>4924.0234375</v>
+        <v>4924.02392578125</v>
       </c>
       <c r="C559" t="n">
         <v>1921.34423828125</v>
@@ -19599,7 +19599,7 @@
         <v>45762</v>
       </c>
       <c r="B563" t="n">
-        <v>5204.720703125</v>
+        <v>5204.72021484375</v>
       </c>
       <c r="C563" t="n">
         <v>2038.670654296875</v>
@@ -19774,7 +19774,7 @@
         <v>45770</v>
       </c>
       <c r="B568" t="n">
-        <v>5667.50537109375</v>
+        <v>5667.505859375</v>
       </c>
       <c r="C568" t="n">
         <v>2043.650512695312</v>
@@ -19844,7 +19844,7 @@
         <v>45772</v>
       </c>
       <c r="B570" t="n">
-        <v>5455.2099609375</v>
+        <v>5455.20947265625</v>
       </c>
       <c r="C570" t="n">
         <v>1930.20849609375</v>
@@ -19879,7 +19879,7 @@
         <v>45775</v>
       </c>
       <c r="B571" t="n">
-        <v>5491.9150390625</v>
+        <v>5491.91552734375</v>
       </c>
       <c r="C571" t="n">
         <v>1917.3603515625</v>
@@ -19914,7 +19914,7 @@
         <v>45776</v>
       </c>
       <c r="B572" t="n">
-        <v>5539.03662109375</v>
+        <v>5539.037109375</v>
       </c>
       <c r="C572" t="n">
         <v>1884.592529296875</v>
@@ -27222,31 +27222,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.30692738933175</v>
+        <v>13.30691749195789</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.02052870941945</v>
+        <v>-12.02052243290865</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.297147641428655</v>
+        <v>-3.297137519934279</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.73080496255012</v>
+        <v>-14.73081809757132</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.235777583139575</v>
+        <v>-1.235786334857536</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7326107420271954</v>
+        <v>-0.7326029346745533</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7178340594005572</v>
+        <v>-0.7178458829948942</v>
       </c>
       <c r="J3" t="n">
-        <v>10.9398760440633</v>
+        <v>10.93987682729882</v>
       </c>
       <c r="K3" t="n">
-        <v>2.480403061730785</v>
+        <v>2.480396053814071</v>
       </c>
     </row>
     <row r="4">
@@ -27256,31 +27256,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.593827074741319</v>
+        <v>4.593834783901829</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.724658560183458</v>
+        <v>-3.724672562588738</v>
       </c>
       <c r="D4" t="n">
-        <v>6.658783926285028</v>
+        <v>6.658772762744958</v>
       </c>
       <c r="E4" t="n">
         <v>6.854718589630449</v>
       </c>
       <c r="F4" t="n">
-        <v>1.436085239293772</v>
+        <v>1.436094227772267</v>
       </c>
       <c r="G4" t="n">
-        <v>3.430362709712598</v>
+        <v>3.430362439915546</v>
       </c>
       <c r="I4" t="n">
-        <v>2.610053908840504</v>
+        <v>2.610054219673996</v>
       </c>
       <c r="J4" t="n">
-        <v>2.481056528650494</v>
+        <v>2.481056688764371</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9694878503594</v>
+        <v>4.969501866787462</v>
       </c>
     </row>
     <row r="5">
@@ -27290,31 +27290,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.733587382116042</v>
+        <v>1.73357988377203</v>
       </c>
       <c r="C5" t="n">
-        <v>5.737159306634543</v>
+        <v>5.737174551887558</v>
       </c>
       <c r="D5" t="n">
-        <v>7.81769039314546</v>
+        <v>7.817700206301992</v>
       </c>
       <c r="E5" t="n">
-        <v>8.466698574801889</v>
+        <v>8.466690121569309</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48415628362179</v>
+        <v>19.48416501939165</v>
       </c>
       <c r="G5" t="n">
-        <v>5.365347706140167</v>
+        <v>5.36533969402988</v>
       </c>
       <c r="I5" t="n">
-        <v>9.250523263492916</v>
+        <v>9.250535943279313</v>
       </c>
       <c r="J5" t="n">
-        <v>3.680320503172863</v>
+        <v>3.680333329366081</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.865237680757025</v>
+        <v>-0.8652376243906135</v>
       </c>
     </row>
     <row r="6">
@@ -27327,28 +27327,28 @@
         <v>20.71270667277079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8140214985883798</v>
+        <v>0.8140144335400779</v>
       </c>
       <c r="D6" t="n">
-        <v>8.447086139097326</v>
+        <v>8.447076268656506</v>
       </c>
       <c r="E6" t="n">
-        <v>6.834802815938756</v>
+        <v>6.834811141991981</v>
       </c>
       <c r="F6" t="n">
-        <v>11.42656418067061</v>
+        <v>11.42655603401099</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.113356019452171</v>
+        <v>-0.1133488025412799</v>
       </c>
       <c r="I6" t="n">
         <v>-6.714178903266643</v>
       </c>
       <c r="J6" t="n">
-        <v>2.958310339369641</v>
+        <v>2.958304086005326</v>
       </c>
       <c r="K6" t="n">
-        <v>4.153543272159799</v>
+        <v>4.153536427796101</v>
       </c>
     </row>
     <row r="7">
@@ -27358,31 +27358,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.2008575414644</v>
+        <v>7.200869545124311</v>
       </c>
       <c r="C7" t="n">
-        <v>2.053788945830259</v>
+        <v>2.053795897246391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05414119732196632</v>
+        <v>0.05413280463906212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5429595764986805</v>
+        <v>0.5429668713029523</v>
       </c>
       <c r="F7" t="n">
         <v>3.29542697976235</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9485907332155374</v>
+        <v>0.9485906646788944</v>
       </c>
       <c r="I7" t="n">
         <v>12.23676247884955</v>
       </c>
       <c r="J7" t="n">
-        <v>6.047900320065391</v>
+        <v>6.047912118406251</v>
       </c>
       <c r="K7" t="n">
-        <v>5.396404512728781</v>
+        <v>5.396410822084441</v>
       </c>
     </row>
     <row r="8">
@@ -27392,31 +27392,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.934647424983594</v>
+        <v>2.934635899027649</v>
       </c>
       <c r="C8" t="n">
-        <v>11.82700205782887</v>
+        <v>11.82699444070869</v>
       </c>
       <c r="D8" t="n">
-        <v>5.928880974957029</v>
+        <v>5.928889860422148</v>
       </c>
       <c r="E8" t="n">
-        <v>9.344482383791174</v>
+        <v>9.344481705810681</v>
       </c>
       <c r="F8" t="n">
         <v>6.583302689483017</v>
       </c>
       <c r="G8" t="n">
-        <v>6.618048704516655</v>
+        <v>6.618041073641301</v>
       </c>
       <c r="I8" t="n">
         <v>8.313310162226495</v>
       </c>
       <c r="J8" t="n">
-        <v>5.749449232975845</v>
+        <v>5.749437467840401</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7404526883650897</v>
+        <v>0.7404346851099364</v>
       </c>
     </row>
     <row r="9">
@@ -27426,16 +27426,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.639220626220729</v>
+        <v>-3.639209748100813</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6021076508786805</v>
+        <v>-0.6021137420031186</v>
       </c>
       <c r="D9" t="n">
         <v>1.844832551748987</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.472998525421859</v>
+        <v>-7.473004664929794</v>
       </c>
       <c r="F9" t="n">
         <v>-2.824105970053181</v>
@@ -27450,7 +27450,7 @@
         <v>-1.529001733375024</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2488639491452393</v>
+        <v>-0.2488520941000605</v>
       </c>
     </row>
     <row r="10">
@@ -27460,10 +27460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.465740295454392</v>
+        <v>-6.465756498962937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3240620449943776</v>
+        <v>0.3240681928750933</v>
       </c>
       <c r="D10" t="n">
         <v>4.159304186750701</v>
@@ -27481,10 +27481,10 @@
         <v>11.87146465451674</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.363935126116715</v>
+        <v>-6.363945810080573</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.5134157070118772</v>
+        <v>-0.51340974987657</v>
       </c>
     </row>
     <row r="11">
@@ -27494,7 +27494,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2696225881197778</v>
+        <v>0.2696286390512448</v>
       </c>
       <c r="C11" t="n">
         <v>-6.164740600079577</v>
@@ -27512,13 +27512,13 @@
         <v>-2.867583967729903</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.125470765280969</v>
+        <v>-3.125462551273883</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.300202905717592</v>
+        <v>-9.300198261831582</v>
       </c>
       <c r="K11" t="n">
-        <v>2.027908661148192</v>
+        <v>2.027902551841843</v>
       </c>
     </row>
     <row r="12">
@@ -27528,7 +27528,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.554830936191359</v>
+        <v>7.554818899324856</v>
       </c>
       <c r="C12" t="n">
         <v>-0.669947032015783</v>
@@ -27549,10 +27549,10 @@
         <v>24.1521811822758</v>
       </c>
       <c r="I12" t="n">
-        <v>6.15045793894955</v>
+        <v>6.150448938435726</v>
       </c>
       <c r="J12" t="n">
-        <v>9.806495302257169</v>
+        <v>9.806514789190146</v>
       </c>
       <c r="K12" t="n">
         <v>6.903144278480822</v>
@@ -27565,7 +27565,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.77180715332668</v>
+        <v>5.771818990649602</v>
       </c>
       <c r="C13" t="n">
         <v>17.89874588379254</v>
@@ -27589,10 +27589,10 @@
         <v>13.40538269433458</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0366495925468</v>
+        <v>10.03662552953728</v>
       </c>
       <c r="K13" t="n">
-        <v>16.65323474080154</v>
+        <v>16.65324572057745</v>
       </c>
     </row>
     <row r="14">
@@ -27611,7 +27611,7 @@
         <v>17.89427528876286</v>
       </c>
       <c r="E14" t="n">
-        <v>7.56382771044759</v>
+        <v>7.563815914802419</v>
       </c>
       <c r="F14" t="n">
         <v>10.49008319102986</v>
@@ -27623,13 +27623,13 @@
         <v>3.21651035858721</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.3116800414948</v>
+        <v>-1.311687085017643</v>
       </c>
       <c r="J14" t="n">
-        <v>3.283402761365051</v>
+        <v>3.283413514822842</v>
       </c>
       <c r="K14" t="n">
-        <v>-3.196207437370657</v>
+        <v>-3.196225961171928</v>
       </c>
     </row>
     <row r="15">
@@ -27648,7 +27648,7 @@
         <v>9.34459574563582</v>
       </c>
       <c r="E15" t="n">
-        <v>8.138508143048151</v>
+        <v>8.138520001715111</v>
       </c>
       <c r="F15" t="n">
         <v>12.2850821328256</v>
@@ -27660,13 +27660,13 @@
         <v>19.30233673590764</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06322791683462947</v>
+        <v>-0.06322078420750721</v>
       </c>
       <c r="J15" t="n">
         <v>13.01444652889154</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.704234483600843</v>
+        <v>-2.704225023444806</v>
       </c>
     </row>
     <row r="16">
@@ -27685,7 +27685,7 @@
         <v>1.616813464399436</v>
       </c>
       <c r="E16" t="n">
-        <v>1.06451720854388</v>
+        <v>1.064507067677112</v>
       </c>
       <c r="F16" t="n">
         <v>-0.4660524950234168</v>
@@ -27713,16 +27713,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.828226368531195</v>
+        <v>2.82823414470732</v>
       </c>
       <c r="C17" t="n">
-        <v>1.609345180685806</v>
+        <v>1.609335314907745</v>
       </c>
       <c r="D17" t="n">
         <v>-1.263183407268131</v>
       </c>
       <c r="E17" t="n">
-        <v>1.232964310982188</v>
+        <v>1.232974468752057</v>
       </c>
       <c r="F17" t="n">
         <v>-0.5741365772129248</v>
@@ -27750,10 +27750,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27.62576005813895</v>
+        <v>27.62575040670032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5766580070708516</v>
+        <v>0.5766580630615747</v>
       </c>
       <c r="D18" t="n">
         <v>8.491208834531804</v>
@@ -27790,7 +27790,7 @@
         <v>2.079235693759385</v>
       </c>
       <c r="C19" t="n">
-        <v>3.14654648526056</v>
+        <v>3.14655644287305</v>
       </c>
       <c r="D19" t="n">
         <v>3.272698538614827</v>
@@ -27814,7 +27814,7 @@
         <v>10.57054474356931</v>
       </c>
       <c r="K19" t="n">
-        <v>17.67333460484741</v>
+        <v>17.67334457490037</v>
       </c>
     </row>
     <row r="20">
@@ -27851,7 +27851,7 @@
         <v>-7.419047029849136</v>
       </c>
       <c r="K20" t="n">
-        <v>2.48369035538456</v>
+        <v>2.483681672298155</v>
       </c>
     </row>
     <row r="21">
@@ -27935,7 +27935,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-7.765987160739696</v>
+        <v>-7.765981050239734</v>
       </c>
       <c r="C23" t="n">
         <v>-7.680680370921678</v>
@@ -27972,7 +27972,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1103724387433003</v>
+        <v>-0.1103790564270124</v>
       </c>
       <c r="C24" t="n">
         <v>-4.216942754005403</v>
@@ -28046,7 +28046,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-15.01103922524477</v>
+        <v>-15.01103210454217</v>
       </c>
       <c r="C26" t="n">
         <v>-2.185139672030201</v>
@@ -28083,7 +28083,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-15.98817943887273</v>
+        <v>-15.98818647770617</v>
       </c>
       <c r="C27" t="n">
         <v>-9.41897117355116</v>
@@ -28120,7 +28120,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.37690368276956</v>
+        <v>12.37691365563438</v>
       </c>
       <c r="C28" t="n">
         <v>6.824118183531258</v>
@@ -28157,7 +28157,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.4282113655986297</v>
+        <v>-0.4282202020754244</v>
       </c>
       <c r="C29" t="n">
         <v>-2.813168130033372</v>
@@ -28687,13 +28687,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.306640625</v>
+        <v>372.3066101074219</v>
       </c>
       <c r="C6" t="n">
         <v>629.2999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>69.02733368831346</v>
+        <v>69.0273475433048</v>
       </c>
     </row>
     <row r="7">
@@ -28729,13 +28729,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2030.88916015625</v>
+        <v>2030.889038085938</v>
       </c>
       <c r="C9" t="n">
         <v>4380.60009765625</v>
       </c>
       <c r="D9" t="n">
-        <v>115.6986301172252</v>
+        <v>115.6986430821871</v>
       </c>
     </row>
     <row r="10">
@@ -28745,13 +28745,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1638.2431640625</v>
+        <v>1638.243286132812</v>
       </c>
       <c r="C10" t="n">
         <v>3206.199951171875</v>
       </c>
       <c r="D10" t="n">
-        <v>95.70964930634416</v>
+        <v>95.70963472344414</v>
       </c>
     </row>
     <row r="11">
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.22716309722154</v>
+        <v>18.22716618859383</v>
       </c>
     </row>
     <row r="7">
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.78970235381482</v>
+        <v>27.78970480403125</v>
       </c>
     </row>
     <row r="10">
@@ -28901,7 +28901,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.88622819432813</v>
+        <v>23.88622524963908</v>
       </c>
     </row>
     <row r="11">

--- a/dashboards/Infrastructure.xlsx
+++ b/dashboards/Infrastructure.xlsx
@@ -10,8 +10,6 @@
     <sheet name="prices" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="monthly_returns" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="quarterly_returns" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="cagr" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,13 +518,13 @@
         <v>44928</v>
       </c>
       <c r="B2" t="n">
-        <v>2637.91796875</v>
+        <v>2637.918212890625</v>
       </c>
       <c r="C2" t="n">
         <v>2410.714599609375</v>
       </c>
       <c r="D2" t="n">
-        <v>809.3815307617188</v>
+        <v>809.3814697265625</v>
       </c>
       <c r="E2" t="n">
         <v>519.970703125</v>
@@ -552,22 +550,22 @@
         <v>44929</v>
       </c>
       <c r="B3" t="n">
-        <v>2647.2197265625</v>
+        <v>2647.219970703125</v>
       </c>
       <c r="C3" t="n">
         <v>2413.629638671875</v>
       </c>
       <c r="D3" t="n">
-        <v>807.5606079101562</v>
+        <v>807.560546875</v>
       </c>
       <c r="E3" t="n">
-        <v>524.365478515625</v>
+        <v>524.3655395507812</v>
       </c>
       <c r="F3" t="n">
         <v>372.2086791992188</v>
       </c>
       <c r="G3" t="n">
-        <v>1688.252807617188</v>
+        <v>1688.252685546875</v>
       </c>
       <c r="I3" t="n">
         <v>2030.4033203125</v>
@@ -576,7 +574,7 @@
         <v>1643.514038085938</v>
       </c>
       <c r="K3" t="n">
-        <v>6877.1474609375</v>
+        <v>6877.14794921875</v>
       </c>
     </row>
     <row r="4">
@@ -590,16 +588,16 @@
         <v>2380.627197265625</v>
       </c>
       <c r="D4" t="n">
-        <v>797.2747192382812</v>
+        <v>797.2747802734375</v>
       </c>
       <c r="E4" t="n">
-        <v>512.41552734375</v>
+        <v>512.4155883789062</v>
       </c>
       <c r="F4" t="n">
         <v>364.1778869628906</v>
       </c>
       <c r="G4" t="n">
-        <v>1661.951293945312</v>
+        <v>1661.951416015625</v>
       </c>
       <c r="I4" t="n">
         <v>2012.519165039062</v>
@@ -608,7 +606,7 @@
         <v>1630.771362304688</v>
       </c>
       <c r="K4" t="n">
-        <v>6888.70166015625</v>
+        <v>6888.7021484375</v>
       </c>
     </row>
     <row r="5">
@@ -619,10 +617,10 @@
         <v>2761.9912109375</v>
       </c>
       <c r="C5" t="n">
-        <v>2411.159423828125</v>
+        <v>2411.1591796875</v>
       </c>
       <c r="D5" t="n">
-        <v>806.7239379882812</v>
+        <v>806.723876953125</v>
       </c>
       <c r="E5" t="n">
         <v>518.2423706054688</v>
@@ -640,7 +638,7 @@
         <v>1676.964233398438</v>
       </c>
       <c r="K5" t="n">
-        <v>6890.32421875</v>
+        <v>6890.32470703125</v>
       </c>
     </row>
     <row r="6">
@@ -680,13 +678,13 @@
         <v>44935</v>
       </c>
       <c r="B7" t="n">
-        <v>2817.211181640625</v>
+        <v>2817.21142578125</v>
       </c>
       <c r="C7" t="n">
         <v>2435.318115234375</v>
       </c>
       <c r="D7" t="n">
-        <v>803.8202514648438</v>
+        <v>803.8203125</v>
       </c>
       <c r="E7" t="n">
         <v>518.2423706054688</v>
@@ -695,7 +693,7 @@
         <v>366.2345581054688</v>
       </c>
       <c r="G7" t="n">
-        <v>1645.531616210938</v>
+        <v>1645.531494140625</v>
       </c>
       <c r="I7" t="n">
         <v>2062.235595703125</v>
@@ -712,7 +710,7 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>2797.08203125</v>
+        <v>2797.082275390625</v>
       </c>
       <c r="C8" t="n">
         <v>2390.162109375</v>
@@ -727,7 +725,7 @@
         <v>365.3530883789062</v>
       </c>
       <c r="G8" t="n">
-        <v>1623.310668945312</v>
+        <v>1623.310546875</v>
       </c>
       <c r="I8" t="n">
         <v>2047.607177734375</v>
@@ -750,7 +748,7 @@
         <v>2366.44775390625</v>
       </c>
       <c r="D9" t="n">
-        <v>783.9375610351562</v>
+        <v>783.9376220703125</v>
       </c>
       <c r="E9" t="n">
         <v>501.7988586425781</v>
@@ -800,7 +798,7 @@
         <v>1726.83544921875</v>
       </c>
       <c r="K10" t="n">
-        <v>7034.2373046875</v>
+        <v>7034.23779296875</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +809,13 @@
         <v>2854.467529296875</v>
       </c>
       <c r="C11" t="n">
-        <v>2339.028076171875</v>
+        <v>2339.0283203125</v>
       </c>
       <c r="D11" t="n">
-        <v>782.1659545898438</v>
+        <v>782.1658935546875</v>
       </c>
       <c r="E11" t="n">
-        <v>512.2180786132812</v>
+        <v>512.218017578125</v>
       </c>
       <c r="F11" t="n">
         <v>369.2705993652344</v>
@@ -840,7 +838,7 @@
         <v>44942</v>
       </c>
       <c r="B12" t="n">
-        <v>2827.349609375</v>
+        <v>2827.349853515625</v>
       </c>
       <c r="C12" t="n">
         <v>2333.296875</v>
@@ -849,13 +847,13 @@
         <v>774.685302734375</v>
       </c>
       <c r="E12" t="n">
-        <v>510.5884704589844</v>
+        <v>510.5884399414062</v>
       </c>
       <c r="F12" t="n">
         <v>366.0386962890625</v>
       </c>
       <c r="G12" t="n">
-        <v>1620.852416992188</v>
+        <v>1620.8525390625</v>
       </c>
       <c r="I12" t="n">
         <v>2077.301025390625</v>
@@ -864,7 +862,7 @@
         <v>1705.056518554688</v>
       </c>
       <c r="K12" t="n">
-        <v>7163.54833984375</v>
+        <v>7163.5478515625</v>
       </c>
     </row>
     <row r="13">
@@ -904,7 +902,7 @@
         <v>44944</v>
       </c>
       <c r="B14" t="n">
-        <v>2874.5478515625</v>
+        <v>2874.548095703125</v>
       </c>
       <c r="C14" t="n">
         <v>2336.85400390625</v>
@@ -919,7 +917,7 @@
         <v>368.6339721679688</v>
       </c>
       <c r="G14" t="n">
-        <v>1648.382934570312</v>
+        <v>1648.3828125</v>
       </c>
       <c r="I14" t="n">
         <v>2202.97705078125</v>
@@ -936,7 +934,7 @@
         <v>44945</v>
       </c>
       <c r="B15" t="n">
-        <v>2872.87451171875</v>
+        <v>2872.8740234375</v>
       </c>
       <c r="C15" t="n">
         <v>2362.69287109375</v>
@@ -960,7 +958,7 @@
         <v>1765.266723632812</v>
       </c>
       <c r="K15" t="n">
-        <v>7092.25537109375</v>
+        <v>7092.2548828125</v>
       </c>
     </row>
     <row r="16">
@@ -968,7 +966,7 @@
         <v>44946</v>
       </c>
       <c r="B16" t="n">
-        <v>2887.737548828125</v>
+        <v>2887.73779296875</v>
       </c>
       <c r="C16" t="n">
         <v>2327.566162109375</v>
@@ -977,7 +975,7 @@
         <v>762.2832641601562</v>
       </c>
       <c r="E16" t="n">
-        <v>511.3291625976562</v>
+        <v>511.3291931152344</v>
       </c>
       <c r="F16" t="n">
         <v>361.6805114746094</v>
@@ -992,7 +990,7 @@
         <v>1772.941284179688</v>
       </c>
       <c r="K16" t="n">
-        <v>7057.64111328125</v>
+        <v>7057.640625</v>
       </c>
     </row>
     <row r="17">
@@ -1003,7 +1001,7 @@
         <v>2901.468994140625</v>
       </c>
       <c r="C17" t="n">
-        <v>2295.798583984375</v>
+        <v>2295.798828125</v>
       </c>
       <c r="D17" t="n">
         <v>756.9680786132812</v>
@@ -1024,7 +1022,7 @@
         <v>1771.551147460938</v>
       </c>
       <c r="K17" t="n">
-        <v>6735.69287109375</v>
+        <v>6735.693359375</v>
       </c>
     </row>
     <row r="18">
@@ -1032,7 +1030,7 @@
         <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>2898.860595703125</v>
+        <v>2898.8603515625</v>
       </c>
       <c r="C18" t="n">
         <v>2307.90283203125</v>
@@ -1056,7 +1054,7 @@
         <v>1759.67724609375</v>
       </c>
       <c r="K18" t="n">
-        <v>6696.3095703125</v>
+        <v>6696.31005859375</v>
       </c>
     </row>
     <row r="19">
@@ -1064,10 +1062,10 @@
         <v>44951</v>
       </c>
       <c r="B19" t="n">
-        <v>2828.28515625</v>
+        <v>2828.28466796875</v>
       </c>
       <c r="C19" t="n">
-        <v>2139.92578125</v>
+        <v>2139.926025390625</v>
       </c>
       <c r="D19" t="n">
         <v>701.9462890625</v>
@@ -1096,7 +1094,7 @@
         <v>44953</v>
       </c>
       <c r="B20" t="n">
-        <v>2759.2353515625</v>
+        <v>2759.235107421875</v>
       </c>
       <c r="C20" t="n">
         <v>1857.379150390625</v>
@@ -1120,7 +1118,7 @@
         <v>1713.281616210938</v>
       </c>
       <c r="K20" t="n">
-        <v>6603.7763671875</v>
+        <v>6603.77685546875</v>
       </c>
     </row>
     <row r="21">
@@ -1128,7 +1126,7 @@
         <v>44956</v>
       </c>
       <c r="B21" t="n">
-        <v>2770.7021484375</v>
+        <v>2770.70263671875</v>
       </c>
       <c r="C21" t="n">
         <v>1881.488891601562</v>
@@ -1137,13 +1135,13 @@
         <v>587.6210327148438</v>
       </c>
       <c r="E21" t="n">
-        <v>382.6944885253906</v>
+        <v>382.6944580078125</v>
       </c>
       <c r="F21" t="n">
         <v>345.8636779785156</v>
       </c>
       <c r="G21" t="n">
-        <v>1571.789306640625</v>
+        <v>1571.789428710938</v>
       </c>
       <c r="I21" t="n">
         <v>2053.68212890625</v>
@@ -1152,7 +1150,7 @@
         <v>1689.620361328125</v>
       </c>
       <c r="K21" t="n">
-        <v>6773.01123046875</v>
+        <v>6773.0107421875</v>
       </c>
     </row>
     <row r="22">
@@ -1160,7 +1158,7 @@
         <v>44957</v>
       </c>
       <c r="B22" t="n">
-        <v>2794.965576171875</v>
+        <v>2794.966064453125</v>
       </c>
       <c r="C22" t="n">
         <v>1944.87548828125</v>
@@ -1169,7 +1167,7 @@
         <v>603.025146484375</v>
       </c>
       <c r="E22" t="n">
-        <v>396.2245483398438</v>
+        <v>396.2245788574219</v>
       </c>
       <c r="F22" t="n">
         <v>348.703857421875</v>
@@ -1184,7 +1182,7 @@
         <v>1705.022338867188</v>
       </c>
       <c r="K22" t="n">
-        <v>6967.56640625</v>
+        <v>6967.56591796875</v>
       </c>
     </row>
     <row r="23">
@@ -1216,7 +1214,7 @@
         <v>1715.888427734375</v>
       </c>
       <c r="K23" t="n">
-        <v>7022.48681640625</v>
+        <v>7022.486328125</v>
       </c>
     </row>
     <row r="24">
@@ -1224,13 +1222,13 @@
         <v>44959</v>
       </c>
       <c r="B24" t="n">
-        <v>2787.18994140625</v>
+        <v>2787.189697265625</v>
       </c>
       <c r="C24" t="n">
         <v>1819.337280273438</v>
       </c>
       <c r="D24" t="n">
-        <v>455.1848754882812</v>
+        <v>455.184814453125</v>
       </c>
       <c r="E24" t="n">
         <v>348.1778869628906</v>
@@ -1256,10 +1254,10 @@
         <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>2761.84375</v>
+        <v>2761.843505859375</v>
       </c>
       <c r="C25" t="n">
-        <v>1903.81982421875</v>
+        <v>1903.819702148438</v>
       </c>
       <c r="D25" t="n">
         <v>491.0129699707031</v>
@@ -1280,7 +1278,7 @@
         <v>1764.013061523438</v>
       </c>
       <c r="K25" t="n">
-        <v>7069.49072265625</v>
+        <v>7069.4912109375</v>
       </c>
     </row>
     <row r="26">
@@ -1288,13 +1286,13 @@
         <v>44963</v>
       </c>
       <c r="B26" t="n">
-        <v>2886.015380859375</v>
+        <v>2886.01513671875</v>
       </c>
       <c r="C26" t="n">
         <v>1946.110595703125</v>
       </c>
       <c r="D26" t="n">
-        <v>536.880859375</v>
+        <v>536.8809204101562</v>
       </c>
       <c r="E26" t="n">
         <v>375.0405883789062</v>
@@ -1320,13 +1318,13 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>2976.07958984375</v>
+        <v>2976.079833984375</v>
       </c>
       <c r="C27" t="n">
         <v>1970.318969726562</v>
       </c>
       <c r="D27" t="n">
-        <v>544.4599609375</v>
+        <v>544.4598999023438</v>
       </c>
       <c r="E27" t="n">
         <v>379.2872314453125</v>
@@ -1335,7 +1333,7 @@
         <v>349.7811584472656</v>
       </c>
       <c r="G27" t="n">
-        <v>1589.192504882812</v>
+        <v>1589.1923828125</v>
       </c>
       <c r="I27" t="n">
         <v>2104.61328125</v>
@@ -1352,13 +1350,13 @@
         <v>44965</v>
       </c>
       <c r="B28" t="n">
-        <v>3031.152587890625</v>
+        <v>3031.15234375</v>
       </c>
       <c r="C28" t="n">
         <v>1950.260620117188</v>
       </c>
       <c r="D28" t="n">
-        <v>589.8356323242188</v>
+        <v>589.835693359375</v>
       </c>
       <c r="E28" t="n">
         <v>379.8797912597656</v>
@@ -1376,7 +1374,7 @@
         <v>1818.3720703125</v>
       </c>
       <c r="K28" t="n">
-        <v>7129.62255859375</v>
+        <v>7129.6220703125</v>
       </c>
     </row>
     <row r="29">
@@ -1384,7 +1382,7 @@
         <v>44966</v>
       </c>
       <c r="B29" t="n">
-        <v>3078.990478515625</v>
+        <v>3078.990234375</v>
       </c>
       <c r="C29" t="n">
         <v>1893.197875976562</v>
@@ -1399,7 +1397,7 @@
         <v>349.3404846191406</v>
       </c>
       <c r="G29" t="n">
-        <v>1615.887084960938</v>
+        <v>1615.88720703125</v>
       </c>
       <c r="I29" t="n">
         <v>2087.215087890625</v>
@@ -1408,7 +1406,7 @@
         <v>1808.292724609375</v>
       </c>
       <c r="K29" t="n">
-        <v>7060.1982421875</v>
+        <v>7060.19775390625</v>
       </c>
     </row>
     <row r="30">
@@ -1422,16 +1420,16 @@
         <v>1858.021484375</v>
       </c>
       <c r="D30" t="n">
-        <v>574.7760009765625</v>
+        <v>574.7760620117188</v>
       </c>
       <c r="E30" t="n">
-        <v>356.3255615234375</v>
+        <v>356.3255920410156</v>
       </c>
       <c r="F30" t="n">
         <v>354.0414123535156</v>
       </c>
       <c r="G30" t="n">
-        <v>1607.873779296875</v>
+        <v>1607.873901367188</v>
       </c>
       <c r="I30" t="n">
         <v>2103.2041015625</v>
@@ -1472,7 +1470,7 @@
         <v>1823.26611328125</v>
       </c>
       <c r="K31" t="n">
-        <v>7059.70654296875</v>
+        <v>7059.7060546875</v>
       </c>
     </row>
     <row r="32">
@@ -1480,7 +1478,7 @@
         <v>44971</v>
       </c>
       <c r="B32" t="n">
-        <v>3029.036376953125</v>
+        <v>3029.0361328125</v>
       </c>
       <c r="C32" t="n">
         <v>1808.517700195312</v>
@@ -1504,7 +1502,7 @@
         <v>1820.67333984375</v>
       </c>
       <c r="K32" t="n">
-        <v>7020.3232421875</v>
+        <v>7020.32373046875</v>
       </c>
     </row>
     <row r="33">
@@ -1512,16 +1510,16 @@
         <v>44972</v>
       </c>
       <c r="B33" t="n">
-        <v>3100.2021484375</v>
+        <v>3100.202392578125</v>
       </c>
       <c r="C33" t="n">
-        <v>1830.107788085938</v>
+        <v>1830.107666015625</v>
       </c>
       <c r="D33" t="n">
         <v>560.110107421875</v>
       </c>
       <c r="E33" t="n">
-        <v>340.5733947753906</v>
+        <v>340.5733642578125</v>
       </c>
       <c r="F33" t="n">
         <v>353.5517578125</v>
@@ -1559,7 +1557,7 @@
         <v>364.031005859375</v>
       </c>
       <c r="G34" t="n">
-        <v>1602.318481445312</v>
+        <v>1602.318603515625</v>
       </c>
       <c r="I34" t="n">
         <v>2117.2490234375</v>
@@ -1568,7 +1566,7 @@
         <v>1877.625</v>
       </c>
       <c r="K34" t="n">
-        <v>7052.33154296875</v>
+        <v>7052.3310546875</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1574,7 @@
         <v>44974</v>
       </c>
       <c r="B35" t="n">
-        <v>3086.963134765625</v>
+        <v>3086.962890625</v>
       </c>
       <c r="C35" t="n">
         <v>1817.509399414062</v>
@@ -1591,7 +1589,7 @@
         <v>357.0285034179688</v>
       </c>
       <c r="G35" t="n">
-        <v>1615.3955078125</v>
+        <v>1615.395385742188</v>
       </c>
       <c r="I35" t="n">
         <v>2163.95263671875</v>
@@ -1614,16 +1612,16 @@
         <v>1828.62548828125</v>
       </c>
       <c r="D36" t="n">
-        <v>570.5928344726562</v>
+        <v>570.5927734375</v>
       </c>
       <c r="E36" t="n">
-        <v>348.0791625976562</v>
+        <v>348.0791320800781</v>
       </c>
       <c r="F36" t="n">
         <v>357.0774536132812</v>
       </c>
       <c r="G36" t="n">
-        <v>1604.629272460938</v>
+        <v>1604.629150390625</v>
       </c>
       <c r="I36" t="n">
         <v>2163.126220703125</v>
@@ -1632,7 +1630,7 @@
         <v>1862.622436523438</v>
       </c>
       <c r="K36" t="n">
-        <v>7303.18359375</v>
+        <v>7303.18310546875</v>
       </c>
     </row>
     <row r="37">
@@ -1643,7 +1641,7 @@
         <v>3119.691650390625</v>
       </c>
       <c r="C37" t="n">
-        <v>1806.640258789062</v>
+        <v>1806.640380859375</v>
       </c>
       <c r="D37" t="n">
         <v>574.037841796875</v>
@@ -1672,13 +1670,13 @@
         <v>44979</v>
       </c>
       <c r="B38" t="n">
-        <v>3123.038330078125</v>
+        <v>3123.03857421875</v>
       </c>
       <c r="C38" t="n">
         <v>1731.34716796875</v>
       </c>
       <c r="D38" t="n">
-        <v>538.5050048828125</v>
+        <v>538.5049438476562</v>
       </c>
       <c r="E38" t="n">
         <v>331.2405700683594</v>
@@ -1696,7 +1694,7 @@
         <v>1894.404541015625</v>
       </c>
       <c r="K38" t="n">
-        <v>7085.765625</v>
+        <v>7085.76513671875</v>
       </c>
     </row>
     <row r="39">
@@ -1704,13 +1702,13 @@
         <v>44980</v>
       </c>
       <c r="B39" t="n">
-        <v>3089.12890625</v>
+        <v>3089.128662109375</v>
       </c>
       <c r="C39" t="n">
-        <v>1706.990478515625</v>
+        <v>1706.990600585938</v>
       </c>
       <c r="D39" t="n">
-        <v>543.1802978515625</v>
+        <v>543.1803588867188</v>
       </c>
       <c r="E39" t="n">
         <v>332.7219543457031</v>
@@ -1719,7 +1717,7 @@
         <v>335.8251953125</v>
       </c>
       <c r="G39" t="n">
-        <v>1553.845336914062</v>
+        <v>1553.845458984375</v>
       </c>
       <c r="I39" t="n">
         <v>2098.6357421875</v>
@@ -1736,16 +1734,16 @@
         <v>44981</v>
       </c>
       <c r="B40" t="n">
-        <v>3092.7216796875</v>
+        <v>3092.721435546875</v>
       </c>
       <c r="C40" t="n">
         <v>1709.411254882812</v>
       </c>
       <c r="D40" t="n">
-        <v>550.11962890625</v>
+        <v>550.1195678710938</v>
       </c>
       <c r="E40" t="n">
-        <v>340.9683837890625</v>
+        <v>340.9684143066406</v>
       </c>
       <c r="F40" t="n">
         <v>338.9101867675781</v>
@@ -1771,7 +1769,7 @@
         <v>3059.303955078125</v>
       </c>
       <c r="C41" t="n">
-        <v>1674.63037109375</v>
+        <v>1674.630249023438</v>
       </c>
       <c r="D41" t="n">
         <v>553.1708984375</v>
@@ -1783,7 +1781,7 @@
         <v>342.729736328125</v>
       </c>
       <c r="G41" t="n">
-        <v>1545.242065429688</v>
+        <v>1545.2421875</v>
       </c>
       <c r="I41" t="n">
         <v>2054.45947265625</v>
@@ -1800,13 +1798,13 @@
         <v>44985</v>
       </c>
       <c r="B42" t="n">
-        <v>3166.889892578125</v>
+        <v>3166.8896484375</v>
       </c>
       <c r="C42" t="n">
         <v>1711.091186523438</v>
       </c>
       <c r="D42" t="n">
-        <v>583.1425170898438</v>
+        <v>583.142578125</v>
       </c>
       <c r="E42" t="n">
         <v>337.8574829101562</v>
@@ -1815,7 +1813,7 @@
         <v>344.3946228027344</v>
       </c>
       <c r="G42" t="n">
-        <v>1552.075561523438</v>
+        <v>1552.07568359375</v>
       </c>
       <c r="I42" t="n">
         <v>2050.037353515625</v>
@@ -1832,22 +1830,22 @@
         <v>44986</v>
       </c>
       <c r="B43" t="n">
-        <v>3259.513916015625</v>
+        <v>3259.513427734375</v>
       </c>
       <c r="C43" t="n">
-        <v>1748.391723632812</v>
+        <v>1748.391845703125</v>
       </c>
       <c r="D43" t="n">
         <v>592.640869140625</v>
       </c>
       <c r="E43" t="n">
-        <v>349.2148742675781</v>
+        <v>349.21484375</v>
       </c>
       <c r="F43" t="n">
         <v>348.3121337890625</v>
       </c>
       <c r="G43" t="n">
-        <v>1566.922241210938</v>
+        <v>1566.92236328125</v>
       </c>
       <c r="I43" t="n">
         <v>2056.014892578125</v>
@@ -1864,7 +1862,7 @@
         <v>44987</v>
       </c>
       <c r="B44" t="n">
-        <v>3271.27587890625</v>
+        <v>3271.2763671875</v>
       </c>
       <c r="C44" t="n">
         <v>1779.912231445312</v>
@@ -1899,7 +1897,7 @@
         <v>3276.542724609375</v>
       </c>
       <c r="C45" t="n">
-        <v>1871.509033203125</v>
+        <v>1871.509155273438</v>
       </c>
       <c r="D45" t="n">
         <v>673.89404296875</v>
@@ -1911,7 +1909,7 @@
         <v>352.8171997070312</v>
       </c>
       <c r="G45" t="n">
-        <v>1569.478637695312</v>
+        <v>1569.478759765625</v>
       </c>
       <c r="I45" t="n">
         <v>2091.73486328125</v>
@@ -1928,7 +1926,7 @@
         <v>44991</v>
       </c>
       <c r="B46" t="n">
-        <v>3266.40380859375</v>
+        <v>3266.404052734375</v>
       </c>
       <c r="C46" t="n">
         <v>1843.59521484375</v>
@@ -1943,7 +1941,7 @@
         <v>352.4254455566406</v>
       </c>
       <c r="G46" t="n">
-        <v>1571.740234375</v>
+        <v>1571.740112304688</v>
       </c>
       <c r="I46" t="n">
         <v>2081.14013671875</v>
@@ -1952,7 +1950,7 @@
         <v>1877.304565429688</v>
       </c>
       <c r="K46" t="n">
-        <v>7080.701171875</v>
+        <v>7080.70068359375</v>
       </c>
     </row>
     <row r="47">
@@ -1960,16 +1958,16 @@
         <v>44993</v>
       </c>
       <c r="B47" t="n">
-        <v>3326.8408203125</v>
+        <v>3326.841064453125</v>
       </c>
       <c r="C47" t="n">
-        <v>1864.048950195312</v>
+        <v>1864.048828125</v>
       </c>
       <c r="D47" t="n">
-        <v>700.8635864257812</v>
+        <v>700.863525390625</v>
       </c>
       <c r="E47" t="n">
-        <v>387.2373962402344</v>
+        <v>387.2374267578125</v>
       </c>
       <c r="F47" t="n">
         <v>355.5594482421875</v>
@@ -1984,7 +1982,7 @@
         <v>1915.349975585938</v>
       </c>
       <c r="K47" t="n">
-        <v>7146.2412109375</v>
+        <v>7146.24072265625</v>
       </c>
     </row>
     <row r="48">
@@ -1992,7 +1990,7 @@
         <v>44994</v>
       </c>
       <c r="B48" t="n">
-        <v>3334.863037109375</v>
+        <v>3334.86328125</v>
       </c>
       <c r="C48" t="n">
         <v>1837.963012695312</v>
@@ -2016,7 +2014,7 @@
         <v>1922.254028320312</v>
       </c>
       <c r="K48" t="n">
-        <v>7122.34521484375</v>
+        <v>7122.34619140625</v>
       </c>
     </row>
     <row r="49">
@@ -2024,10 +2022,10 @@
         <v>44995</v>
       </c>
       <c r="B49" t="n">
-        <v>3324.42919921875</v>
+        <v>3324.429443359375</v>
       </c>
       <c r="C49" t="n">
-        <v>1824.920166015625</v>
+        <v>1824.920288085938</v>
       </c>
       <c r="D49" t="n">
         <v>686.83740234375</v>
@@ -2039,7 +2037,7 @@
         <v>342.8276672363281</v>
       </c>
       <c r="G49" t="n">
-        <v>1569.134521484375</v>
+        <v>1569.134643554688</v>
       </c>
       <c r="I49" t="n">
         <v>2097.3720703125</v>
@@ -2048,7 +2046,7 @@
         <v>1927.9345703125</v>
       </c>
       <c r="K49" t="n">
-        <v>7106.0712890625</v>
+        <v>7106.07080078125</v>
       </c>
     </row>
     <row r="50">
@@ -2056,7 +2054,7 @@
         <v>44998</v>
       </c>
       <c r="B50" t="n">
-        <v>3223.09423828125</v>
+        <v>3223.093994140625</v>
       </c>
       <c r="C50" t="n">
         <v>1748.935302734375</v>
@@ -2080,7 +2078,7 @@
         <v>1905.154052734375</v>
       </c>
       <c r="K50" t="n">
-        <v>6957.78271484375</v>
+        <v>6957.78173828125</v>
       </c>
     </row>
     <row r="51">
@@ -2103,7 +2101,7 @@
         <v>339.9385375976562</v>
       </c>
       <c r="G51" t="n">
-        <v>1535.0166015625</v>
+        <v>1535.016723632812</v>
       </c>
       <c r="I51" t="n">
         <v>2084.10498046875</v>
@@ -2112,7 +2110,7 @@
         <v>1895.220336914062</v>
       </c>
       <c r="K51" t="n">
-        <v>6946.32666015625</v>
+        <v>6946.326171875</v>
       </c>
     </row>
     <row r="52">
@@ -2126,7 +2124,7 @@
         <v>1719.292236328125</v>
       </c>
       <c r="D52" t="n">
-        <v>668.6773071289062</v>
+        <v>668.67724609375</v>
       </c>
       <c r="E52" t="n">
         <v>360.6216125488281</v>
@@ -2135,7 +2133,7 @@
         <v>338.3225708007812</v>
       </c>
       <c r="G52" t="n">
-        <v>1524.594360351562</v>
+        <v>1524.594482421875</v>
       </c>
       <c r="I52" t="n">
         <v>2115.645263671875</v>
@@ -2144,7 +2142,7 @@
         <v>1911.359008789062</v>
       </c>
       <c r="K52" t="n">
-        <v>6982.51318359375</v>
+        <v>6982.513671875</v>
       </c>
     </row>
     <row r="53">
@@ -2152,13 +2150,13 @@
         <v>45001</v>
       </c>
       <c r="B53" t="n">
-        <v>3275.7548828125</v>
+        <v>3275.754638671875</v>
       </c>
       <c r="C53" t="n">
         <v>1729.469848632812</v>
       </c>
       <c r="D53" t="n">
-        <v>668.92333984375</v>
+        <v>668.9234008789062</v>
       </c>
       <c r="E53" t="n">
         <v>374.1023254394531</v>
@@ -2176,7 +2174,7 @@
         <v>1901.57080078125</v>
       </c>
       <c r="K53" t="n">
-        <v>6986.2998046875</v>
+        <v>6986.29931640625</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2182,7 @@
         <v>45002</v>
       </c>
       <c r="B54" t="n">
-        <v>3260.5966796875</v>
+        <v>3260.596435546875</v>
       </c>
       <c r="C54" t="n">
         <v>1709.806640625</v>
@@ -2193,7 +2191,7 @@
         <v>669.6615600585938</v>
       </c>
       <c r="E54" t="n">
-        <v>373.7566833496094</v>
+        <v>373.7567138671875</v>
       </c>
       <c r="F54" t="n">
         <v>367.5077514648438</v>
@@ -2208,7 +2206,7 @@
         <v>1917.068725585938</v>
       </c>
       <c r="K54" t="n">
-        <v>7168.5634765625</v>
+        <v>7168.56298828125</v>
       </c>
     </row>
     <row r="55">
@@ -2222,7 +2220,7 @@
         <v>1675.420654296875</v>
       </c>
       <c r="D55" t="n">
-        <v>656.2752685546875</v>
+        <v>656.2752075195312</v>
       </c>
       <c r="E55" t="n">
         <v>360.8685302734375</v>
@@ -2240,7 +2238,7 @@
         <v>1918.146484375</v>
       </c>
       <c r="K55" t="n">
-        <v>7122.59130859375</v>
+        <v>7122.591796875</v>
       </c>
     </row>
     <row r="56">
@@ -2248,22 +2246,22 @@
         <v>45006</v>
       </c>
       <c r="B56" t="n">
-        <v>3358.83154296875</v>
+        <v>3358.831298828125</v>
       </c>
       <c r="C56" t="n">
-        <v>1704.07568359375</v>
+        <v>1704.075561523438</v>
       </c>
       <c r="D56" t="n">
-        <v>654.3558349609375</v>
+        <v>654.3558959960938</v>
       </c>
       <c r="E56" t="n">
-        <v>366.3003540039062</v>
+        <v>366.3003234863281</v>
       </c>
       <c r="F56" t="n">
         <v>359.86865234375</v>
       </c>
       <c r="G56" t="n">
-        <v>1579.261962890625</v>
+        <v>1579.261840820312</v>
       </c>
       <c r="I56" t="n">
         <v>2146.553955078125</v>
@@ -2272,7 +2270,7 @@
         <v>1930.323486328125</v>
       </c>
       <c r="K56" t="n">
-        <v>7230.3173828125</v>
+        <v>7230.31689453125</v>
       </c>
     </row>
     <row r="57">
@@ -2280,7 +2278,7 @@
         <v>45007</v>
       </c>
       <c r="B57" t="n">
-        <v>3257.98779296875</v>
+        <v>3257.988037109375</v>
       </c>
       <c r="C57" t="n">
         <v>1717.661987304688</v>
@@ -2295,7 +2293,7 @@
         <v>361.141845703125</v>
       </c>
       <c r="G57" t="n">
-        <v>1585.849487304688</v>
+        <v>1585.849609375</v>
       </c>
       <c r="I57" t="n">
         <v>2151.89990234375</v>
@@ -2318,10 +2316,10 @@
         <v>1717.612670898438</v>
       </c>
       <c r="D58" t="n">
-        <v>644.66064453125</v>
+        <v>644.6605834960938</v>
       </c>
       <c r="E58" t="n">
-        <v>367.5347900390625</v>
+        <v>367.5348205566406</v>
       </c>
       <c r="F58" t="n">
         <v>360.0645446777344</v>
@@ -2336,7 +2334,7 @@
         <v>1937.198364257812</v>
       </c>
       <c r="K58" t="n">
-        <v>7284.5986328125</v>
+        <v>7284.59814453125</v>
       </c>
     </row>
     <row r="59">
@@ -2350,7 +2348,7 @@
         <v>1680.608276367188</v>
       </c>
       <c r="D59" t="n">
-        <v>627.9769287109375</v>
+        <v>627.9768676757812</v>
       </c>
       <c r="E59" t="n">
         <v>367.1891479492188</v>
@@ -2368,7 +2366,7 @@
         <v>1942.150634765625</v>
       </c>
       <c r="K59" t="n">
-        <v>7282.33642578125</v>
+        <v>7282.3369140625</v>
       </c>
     </row>
     <row r="60">
@@ -2376,7 +2374,7 @@
         <v>45012</v>
       </c>
       <c r="B60" t="n">
-        <v>3272.457763671875</v>
+        <v>3272.45751953125</v>
       </c>
       <c r="C60" t="n">
         <v>1664.8974609375</v>
@@ -2400,7 +2398,7 @@
         <v>1916.68994140625</v>
       </c>
       <c r="K60" t="n">
-        <v>7326.14501953125</v>
+        <v>7326.14453125</v>
       </c>
     </row>
     <row r="61">
@@ -2408,7 +2406,7 @@
         <v>45013</v>
       </c>
       <c r="B61" t="n">
-        <v>3286.287109375</v>
+        <v>3286.286865234375</v>
       </c>
       <c r="C61" t="n">
         <v>1594.742431640625</v>
@@ -2423,7 +2421,7 @@
         <v>341.45654296875</v>
       </c>
       <c r="G61" t="n">
-        <v>1584.07958984375</v>
+        <v>1584.079711914062</v>
       </c>
       <c r="I61" t="n">
         <v>2073.8017578125</v>
@@ -2440,10 +2438,10 @@
         <v>45014</v>
       </c>
       <c r="B62" t="n">
-        <v>3338.259033203125</v>
+        <v>3338.25927734375</v>
       </c>
       <c r="C62" t="n">
-        <v>1606.550415039062</v>
+        <v>1606.55029296875</v>
       </c>
       <c r="D62" t="n">
         <v>626.6481323242188</v>
@@ -2455,7 +2453,7 @@
         <v>345.2760620117188</v>
       </c>
       <c r="G62" t="n">
-        <v>1604.334106445312</v>
+        <v>1604.334228515625</v>
       </c>
       <c r="I62" t="n">
         <v>2087.263671875</v>
@@ -2472,13 +2470,13 @@
         <v>45016</v>
       </c>
       <c r="B63" t="n">
-        <v>3312.371337890625</v>
+        <v>3312.371826171875</v>
       </c>
       <c r="C63" t="n">
-        <v>1647.358764648438</v>
+        <v>1647.358642578125</v>
       </c>
       <c r="D63" t="n">
-        <v>621.9727783203125</v>
+        <v>621.9727172851562</v>
       </c>
       <c r="E63" t="n">
         <v>361.0166625976562</v>
@@ -2513,7 +2511,7 @@
         <v>617.9371337890625</v>
       </c>
       <c r="E64" t="n">
-        <v>370.1519775390625</v>
+        <v>370.1519470214844</v>
       </c>
       <c r="F64" t="n">
         <v>354.0903930664062</v>
@@ -2536,13 +2534,13 @@
         <v>45021</v>
       </c>
       <c r="B65" t="n">
-        <v>3321.23046875</v>
+        <v>3321.230224609375</v>
       </c>
       <c r="C65" t="n">
         <v>1667.86181640625</v>
       </c>
       <c r="D65" t="n">
-        <v>626.7465209960938</v>
+        <v>626.74658203125</v>
       </c>
       <c r="E65" t="n">
         <v>375.2380981445312</v>
@@ -2571,10 +2569,10 @@
         <v>3343.82080078125</v>
       </c>
       <c r="C66" t="n">
-        <v>1691.625610351562</v>
+        <v>1691.62548828125</v>
       </c>
       <c r="D66" t="n">
-        <v>631.520263671875</v>
+        <v>631.5203247070312</v>
       </c>
       <c r="E66" t="n">
         <v>378.8428344726562</v>
@@ -2583,7 +2581,7 @@
         <v>374.9999084472656</v>
       </c>
       <c r="G66" t="n">
-        <v>1641.057861328125</v>
+        <v>1641.057739257812</v>
       </c>
       <c r="I66" t="n">
         <v>2210.510009765625</v>
@@ -2606,7 +2604,7 @@
         <v>1720.23095703125</v>
       </c>
       <c r="D67" t="n">
-        <v>641.7569580078125</v>
+        <v>641.7568969726562</v>
       </c>
       <c r="E67" t="n">
         <v>379.5835266113281</v>
@@ -2624,7 +2622,7 @@
         <v>1971.369384765625</v>
       </c>
       <c r="K67" t="n">
-        <v>7568.09716796875</v>
+        <v>7568.09765625</v>
       </c>
     </row>
     <row r="68">
@@ -2656,7 +2654,7 @@
         <v>1949.812255859375</v>
       </c>
       <c r="K68" t="n">
-        <v>7612.54541015625</v>
+        <v>7612.544921875</v>
       </c>
     </row>
     <row r="69">
@@ -2679,7 +2677,7 @@
         <v>398.1619567871094</v>
       </c>
       <c r="G69" t="n">
-        <v>1688.64599609375</v>
+        <v>1688.646118164062</v>
       </c>
       <c r="I69" t="n">
         <v>2224.36083984375</v>
@@ -2688,7 +2686,7 @@
         <v>1942.849853515625</v>
       </c>
       <c r="K69" t="n">
-        <v>7554.92041015625</v>
+        <v>7554.9208984375</v>
       </c>
     </row>
     <row r="70">
@@ -2696,13 +2694,13 @@
         <v>45029</v>
       </c>
       <c r="B70" t="n">
-        <v>3179.34130859375</v>
+        <v>3179.341064453125</v>
       </c>
       <c r="C70" t="n">
         <v>1746.514526367188</v>
       </c>
       <c r="D70" t="n">
-        <v>651.2554321289062</v>
+        <v>651.25537109375</v>
       </c>
       <c r="E70" t="n">
         <v>387.7805786132812</v>
@@ -2711,7 +2709,7 @@
         <v>404.6257629394531</v>
       </c>
       <c r="G70" t="n">
-        <v>1672.5703125</v>
+        <v>1672.570434570312</v>
       </c>
       <c r="I70" t="n">
         <v>2195.444580078125</v>
@@ -2720,7 +2718,7 @@
         <v>1938.101440429688</v>
       </c>
       <c r="K70" t="n">
-        <v>7527.7802734375</v>
+        <v>7527.78076171875</v>
       </c>
     </row>
     <row r="71">
@@ -2728,16 +2726,16 @@
         <v>45033</v>
       </c>
       <c r="B71" t="n">
-        <v>3178.357177734375</v>
+        <v>3178.356689453125</v>
       </c>
       <c r="C71" t="n">
         <v>1763.114501953125</v>
       </c>
       <c r="D71" t="n">
-        <v>654.2574462890625</v>
+        <v>654.2575073242188</v>
       </c>
       <c r="E71" t="n">
-        <v>386.6942443847656</v>
+        <v>386.6942138671875</v>
       </c>
       <c r="F71" t="n">
         <v>406.7803955078125</v>
@@ -2752,7 +2750,7 @@
         <v>1945.762817382812</v>
       </c>
       <c r="K71" t="n">
-        <v>7613.52880859375</v>
+        <v>7613.5283203125</v>
       </c>
     </row>
     <row r="72">
@@ -2760,22 +2758,22 @@
         <v>45034</v>
       </c>
       <c r="B72" t="n">
-        <v>3157.390869140625</v>
+        <v>3157.39111328125</v>
       </c>
       <c r="C72" t="n">
-        <v>1739.153076171875</v>
+        <v>1739.153198242188</v>
       </c>
       <c r="D72" t="n">
-        <v>648.2041015625</v>
+        <v>648.2040405273438</v>
       </c>
       <c r="E72" t="n">
-        <v>378.2996520996094</v>
+        <v>378.2996215820312</v>
       </c>
       <c r="F72" t="n">
         <v>415.1050109863281</v>
       </c>
       <c r="G72" t="n">
-        <v>1676.355712890625</v>
+        <v>1676.355834960938</v>
       </c>
       <c r="I72" t="n">
         <v>2154.475830078125</v>
@@ -2784,7 +2782,7 @@
         <v>1931.838134765625</v>
       </c>
       <c r="K72" t="n">
-        <v>7468.828125</v>
+        <v>7468.82861328125</v>
       </c>
     </row>
     <row r="73">
@@ -2792,22 +2790,22 @@
         <v>45035</v>
       </c>
       <c r="B73" t="n">
-        <v>3150.845458984375</v>
+        <v>3150.845703125</v>
       </c>
       <c r="C73" t="n">
         <v>1728.481811523438</v>
       </c>
       <c r="D73" t="n">
-        <v>648.056396484375</v>
+        <v>648.0564575195312</v>
       </c>
       <c r="E73" t="n">
-        <v>375.3368530273438</v>
+        <v>375.3368225097656</v>
       </c>
       <c r="F73" t="n">
         <v>412.9993591308594</v>
       </c>
       <c r="G73" t="n">
-        <v>1661.754638671875</v>
+        <v>1661.754760742188</v>
       </c>
       <c r="I73" t="n">
         <v>2157.3916015625</v>
@@ -2816,7 +2814,7 @@
         <v>1900.37646484375</v>
       </c>
       <c r="K73" t="n">
-        <v>7390.75048828125</v>
+        <v>7390.7509765625</v>
       </c>
     </row>
     <row r="74">
@@ -2830,7 +2828,7 @@
         <v>1717.4150390625</v>
       </c>
       <c r="D74" t="n">
-        <v>655.6353759765625</v>
+        <v>655.6354370117188</v>
       </c>
       <c r="E74" t="n">
         <v>375.9787902832031</v>
@@ -2839,7 +2837,7 @@
         <v>405.8989562988281</v>
       </c>
       <c r="G74" t="n">
-        <v>1659.149291992188</v>
+        <v>1659.149169921875</v>
       </c>
       <c r="I74" t="n">
         <v>2170.173095703125</v>
@@ -2848,7 +2846,7 @@
         <v>1905.940551757812</v>
       </c>
       <c r="K74" t="n">
-        <v>7351.31787109375</v>
+        <v>7351.318359375</v>
       </c>
     </row>
     <row r="75">
@@ -2859,13 +2857,13 @@
         <v>3103.843994140625</v>
       </c>
       <c r="C75" t="n">
-        <v>1697.504760742188</v>
+        <v>1697.504638671875</v>
       </c>
       <c r="D75" t="n">
         <v>651.2061157226562</v>
       </c>
       <c r="E75" t="n">
-        <v>370.4482421875</v>
+        <v>370.4482727050781</v>
       </c>
       <c r="F75" t="n">
         <v>397.6722106933594</v>
@@ -2891,10 +2889,10 @@
         <v>3166.938720703125</v>
       </c>
       <c r="C76" t="n">
-        <v>1714.006103515625</v>
+        <v>1714.005981445312</v>
       </c>
       <c r="D76" t="n">
-        <v>660.753662109375</v>
+        <v>660.7537841796875</v>
       </c>
       <c r="E76" t="n">
         <v>375.583740234375</v>
@@ -2903,7 +2901,7 @@
         <v>402.6670227050781</v>
       </c>
       <c r="G76" t="n">
-        <v>1660.96826171875</v>
+        <v>1660.968139648438</v>
       </c>
       <c r="I76" t="n">
         <v>2166.430908203125</v>
@@ -2920,7 +2918,7 @@
         <v>45041</v>
       </c>
       <c r="B77" t="n">
-        <v>3283.77734375</v>
+        <v>3283.777099609375</v>
       </c>
       <c r="C77" t="n">
         <v>1715.488159179688</v>
@@ -2929,13 +2927,13 @@
         <v>660.9014282226562</v>
       </c>
       <c r="E77" t="n">
-        <v>377.7564392089844</v>
+        <v>377.7564697265625</v>
       </c>
       <c r="F77" t="n">
         <v>401.6876525878906</v>
       </c>
       <c r="G77" t="n">
-        <v>1658.559204101562</v>
+        <v>1658.559326171875</v>
       </c>
       <c r="I77" t="n">
         <v>2184.947021484375</v>
@@ -2952,13 +2950,13 @@
         <v>45042</v>
       </c>
       <c r="B78" t="n">
-        <v>3346.82275390625</v>
+        <v>3346.822509765625</v>
       </c>
       <c r="C78" t="n">
         <v>1718.0078125</v>
       </c>
       <c r="D78" t="n">
-        <v>654.2574462890625</v>
+        <v>654.2575073242188</v>
       </c>
       <c r="E78" t="n">
         <v>381.657470703125</v>
@@ -2967,7 +2965,7 @@
         <v>408.0045776367188</v>
       </c>
       <c r="G78" t="n">
-        <v>1670.652954101562</v>
+        <v>1670.65283203125</v>
       </c>
       <c r="I78" t="n">
         <v>2212.3564453125</v>
@@ -2990,10 +2988,10 @@
         <v>1730.01318359375</v>
       </c>
       <c r="D79" t="n">
-        <v>649.38525390625</v>
+        <v>649.3851928710938</v>
       </c>
       <c r="E79" t="n">
-        <v>383.9783325195312</v>
+        <v>383.9783020019531</v>
       </c>
       <c r="F79" t="n">
         <v>412.9504089355469</v>
@@ -3016,13 +3014,13 @@
         <v>45044</v>
       </c>
       <c r="B80" t="n">
-        <v>3369.794189453125</v>
+        <v>3369.7939453125</v>
       </c>
       <c r="C80" t="n">
         <v>1741.870483398438</v>
       </c>
       <c r="D80" t="n">
-        <v>670.5966186523438</v>
+        <v>670.5966796875</v>
       </c>
       <c r="E80" t="n">
         <v>391.5828552246094</v>
@@ -3031,7 +3029,7 @@
         <v>417.406494140625</v>
       </c>
       <c r="G80" t="n">
-        <v>1691.4482421875</v>
+        <v>1691.448364257812</v>
       </c>
       <c r="I80" t="n">
         <v>2298.133056640625</v>
@@ -3040,7 +3038,7 @@
         <v>2009.822631835938</v>
       </c>
       <c r="K80" t="n">
-        <v>7430.37939453125</v>
+        <v>7430.3798828125</v>
       </c>
     </row>
     <row r="81">
@@ -3048,7 +3046,7 @@
         <v>45048</v>
       </c>
       <c r="B81" t="n">
-        <v>3393.6533203125</v>
+        <v>3393.653076171875</v>
       </c>
       <c r="C81" t="n">
         <v>1743.154907226562</v>
@@ -3127,7 +3125,7 @@
         <v>416.0353698730469</v>
       </c>
       <c r="G83" t="n">
-        <v>1730.334838867188</v>
+        <v>1730.3349609375</v>
       </c>
       <c r="I83" t="n">
         <v>2290.843505859375</v>
@@ -3150,7 +3148,7 @@
         <v>1743.649047851562</v>
       </c>
       <c r="D84" t="n">
-        <v>673.15576171875</v>
+        <v>673.1558227539062</v>
       </c>
       <c r="E84" t="n">
         <v>395.5826110839844</v>
@@ -3159,7 +3157,7 @@
         <v>418.3858947753906</v>
       </c>
       <c r="G84" t="n">
-        <v>1723.1083984375</v>
+        <v>1723.108276367188</v>
       </c>
       <c r="I84" t="n">
         <v>2310.865966796875</v>
@@ -3168,7 +3166,7 @@
         <v>2117.5205078125</v>
       </c>
       <c r="K84" t="n">
-        <v>7501.7705078125</v>
+        <v>7501.77001953125</v>
       </c>
     </row>
     <row r="85">
@@ -3176,13 +3174,13 @@
         <v>45054</v>
       </c>
       <c r="B85" t="n">
-        <v>3749.02490234375</v>
+        <v>3749.025146484375</v>
       </c>
       <c r="C85" t="n">
         <v>1745.625244140625</v>
       </c>
       <c r="D85" t="n">
-        <v>674.3368530273438</v>
+        <v>674.3369140625</v>
       </c>
       <c r="E85" t="n">
         <v>400.4712219238281</v>
@@ -3208,13 +3206,13 @@
         <v>45055</v>
       </c>
       <c r="B86" t="n">
-        <v>3753.412353515625</v>
+        <v>3753.412109375</v>
       </c>
       <c r="C86" t="n">
-        <v>1738.36279296875</v>
+        <v>1738.362670898438</v>
       </c>
       <c r="D86" t="n">
-        <v>679.652099609375</v>
+        <v>679.6521606445312</v>
       </c>
       <c r="E86" t="n">
         <v>400.6193542480469</v>
@@ -3240,10 +3238,10 @@
         <v>45056</v>
       </c>
       <c r="B87" t="n">
-        <v>3761.69384765625</v>
+        <v>3761.694091796875</v>
       </c>
       <c r="C87" t="n">
-        <v>1730.309692382812</v>
+        <v>1730.3095703125</v>
       </c>
       <c r="D87" t="n">
         <v>680.1442260742188</v>
@@ -3255,7 +3253,7 @@
         <v>425.2904052734375</v>
       </c>
       <c r="G87" t="n">
-        <v>1744.640869140625</v>
+        <v>1744.640991210938</v>
       </c>
       <c r="I87" t="n">
         <v>2298.181884765625</v>
@@ -3264,7 +3262,7 @@
         <v>2164.130615234375</v>
       </c>
       <c r="K87" t="n">
-        <v>7614.26611328125</v>
+        <v>7614.265625</v>
       </c>
     </row>
     <row r="88">
@@ -3272,10 +3270,10 @@
         <v>45057</v>
       </c>
       <c r="B88" t="n">
-        <v>3806.06005859375</v>
+        <v>3806.059814453125</v>
       </c>
       <c r="C88" t="n">
-        <v>1764.893188476562</v>
+        <v>1764.893310546875</v>
       </c>
       <c r="D88" t="n">
         <v>697.6646118164062</v>
@@ -3287,7 +3285,7 @@
         <v>423.8703308105469</v>
       </c>
       <c r="G88" t="n">
-        <v>1744.39501953125</v>
+        <v>1744.395141601562</v>
       </c>
       <c r="I88" t="n">
         <v>2179.3095703125</v>
@@ -3296,7 +3294,7 @@
         <v>2212.255615234375</v>
       </c>
       <c r="K88" t="n">
-        <v>7704.97998046875</v>
+        <v>7704.9794921875</v>
       </c>
     </row>
     <row r="89">
@@ -3304,7 +3302,7 @@
         <v>45058</v>
       </c>
       <c r="B89" t="n">
-        <v>3887.003173828125</v>
+        <v>3887.00341796875</v>
       </c>
       <c r="C89" t="n">
         <v>1776.60205078125</v>
@@ -3313,7 +3311,7 @@
         <v>689.0028686523438</v>
       </c>
       <c r="E89" t="n">
-        <v>404.9154663085938</v>
+        <v>404.9154357910156</v>
       </c>
       <c r="F89" t="n">
         <v>426.9553527832031</v>
@@ -3328,7 +3326,7 @@
         <v>2267.022216796875</v>
       </c>
       <c r="K89" t="n">
-        <v>7574.68603515625</v>
+        <v>7574.6865234375</v>
       </c>
     </row>
     <row r="90">
@@ -3345,13 +3343,13 @@
         <v>683.1463623046875</v>
       </c>
       <c r="E90" t="n">
-        <v>401.5576171875</v>
+        <v>401.5575866699219</v>
       </c>
       <c r="F90" t="n">
         <v>458.4909973144531</v>
       </c>
       <c r="G90" t="n">
-        <v>1704.279296875</v>
+        <v>1704.279418945312</v>
       </c>
       <c r="I90" t="n">
         <v>2183.8779296875</v>
@@ -3360,7 +3358,7 @@
         <v>2233.43408203125</v>
       </c>
       <c r="K90" t="n">
-        <v>7631.72021484375</v>
+        <v>7631.720703125</v>
       </c>
     </row>
     <row r="91">
@@ -3374,16 +3372,16 @@
         <v>1762.274658203125</v>
       </c>
       <c r="D91" t="n">
-        <v>676.20703125</v>
+        <v>676.2071533203125</v>
       </c>
       <c r="E91" t="n">
-        <v>395.9282836914062</v>
+        <v>395.9282531738281</v>
       </c>
       <c r="F91" t="n">
         <v>462.0167236328125</v>
       </c>
       <c r="G91" t="n">
-        <v>1698.183471679688</v>
+        <v>1698.183349609375</v>
       </c>
       <c r="I91" t="n">
         <v>2164.778564453125</v>
@@ -3392,7 +3390,7 @@
         <v>2255.92333984375</v>
       </c>
       <c r="K91" t="n">
-        <v>7570.5068359375</v>
+        <v>7570.50732421875</v>
       </c>
     </row>
     <row r="92">
@@ -3400,22 +3398,22 @@
         <v>45063</v>
       </c>
       <c r="B92" t="n">
-        <v>3863.68603515625</v>
+        <v>3863.686279296875</v>
       </c>
       <c r="C92" t="n">
-        <v>1737.226440429688</v>
+        <v>1737.226318359375</v>
       </c>
       <c r="D92" t="n">
         <v>673.8447875976562</v>
       </c>
       <c r="E92" t="n">
-        <v>401.2612915039062</v>
+        <v>401.2613220214844</v>
       </c>
       <c r="F92" t="n">
         <v>460.1559143066406</v>
       </c>
       <c r="G92" t="n">
-        <v>1695.921997070312</v>
+        <v>1695.921875</v>
       </c>
       <c r="I92" t="n">
         <v>2157.3916015625</v>
@@ -3435,10 +3433,10 @@
         <v>3842.587890625</v>
       </c>
       <c r="C93" t="n">
-        <v>1692.070190429688</v>
+        <v>1692.0703125</v>
       </c>
       <c r="D93" t="n">
-        <v>654.5035400390625</v>
+        <v>654.5034790039062</v>
       </c>
       <c r="E93" t="n">
         <v>394.1011962890625</v>
@@ -3456,7 +3454,7 @@
         <v>2232.763916015625</v>
       </c>
       <c r="K93" t="n">
-        <v>7477.53076171875</v>
+        <v>7477.53125</v>
       </c>
     </row>
     <row r="94">
@@ -3464,13 +3462,13 @@
         <v>45065</v>
       </c>
       <c r="B94" t="n">
-        <v>3839.87646484375</v>
+        <v>3839.876708984375</v>
       </c>
       <c r="C94" t="n">
-        <v>1708.47265625</v>
+        <v>1708.472778320312</v>
       </c>
       <c r="D94" t="n">
-        <v>677.289794921875</v>
+        <v>677.2898559570312</v>
       </c>
       <c r="E94" t="n">
         <v>398.1503601074219</v>
@@ -3479,7 +3477,7 @@
         <v>462.1636047363281</v>
       </c>
       <c r="G94" t="n">
-        <v>1687.318603515625</v>
+        <v>1687.318725585938</v>
       </c>
       <c r="I94" t="n">
         <v>2128.669921875</v>
@@ -3488,7 +3486,7 @@
         <v>2168.937255859375</v>
       </c>
       <c r="K94" t="n">
-        <v>7553.396484375</v>
+        <v>7553.39599609375</v>
       </c>
     </row>
     <row r="95">
@@ -3496,13 +3494,13 @@
         <v>45068</v>
       </c>
       <c r="B95" t="n">
-        <v>3838.3486328125</v>
+        <v>3838.34814453125</v>
       </c>
       <c r="C95" t="n">
-        <v>1791.81884765625</v>
+        <v>1791.818725585938</v>
       </c>
       <c r="D95" t="n">
-        <v>718.236328125</v>
+        <v>718.2362670898438</v>
       </c>
       <c r="E95" t="n">
         <v>418.6430358886719</v>
@@ -3511,7 +3509,7 @@
         <v>468.2846374511719</v>
       </c>
       <c r="G95" t="n">
-        <v>1689.530883789062</v>
+        <v>1689.531005859375</v>
       </c>
       <c r="I95" t="n">
         <v>2154.475830078125</v>
@@ -3528,22 +3526,22 @@
         <v>45069</v>
       </c>
       <c r="B96" t="n">
-        <v>3857.623291015625</v>
+        <v>3857.623046875</v>
       </c>
       <c r="C96" t="n">
-        <v>1797.796752929688</v>
+        <v>1797.796630859375</v>
       </c>
       <c r="D96" t="n">
         <v>722.5178833007812</v>
       </c>
       <c r="E96" t="n">
-        <v>422.0008850097656</v>
+        <v>422.0008544921875</v>
       </c>
       <c r="F96" t="n">
         <v>458.1971740722656</v>
       </c>
       <c r="G96" t="n">
-        <v>1669.473022460938</v>
+        <v>1669.473266601562</v>
       </c>
       <c r="I96" t="n">
         <v>2136.056640625</v>
@@ -3552,7 +3550,7 @@
         <v>1987.100219726562</v>
       </c>
       <c r="K96" t="n">
-        <v>7526.79736328125</v>
+        <v>7526.796875</v>
       </c>
     </row>
     <row r="97">
@@ -3566,7 +3564,7 @@
         <v>1759.211547851562</v>
       </c>
       <c r="D97" t="n">
-        <v>706.9661254882812</v>
+        <v>706.9661865234375</v>
       </c>
       <c r="E97" t="n">
         <v>417.0628967285156</v>
@@ -3607,7 +3605,7 @@
         <v>467.4032287597656</v>
       </c>
       <c r="G98" t="n">
-        <v>1672.816162109375</v>
+        <v>1672.816040039062</v>
       </c>
       <c r="I98" t="n">
         <v>2142.908935546875</v>
@@ -3624,10 +3622,10 @@
         <v>45072</v>
       </c>
       <c r="B99" t="n">
-        <v>3948.32666015625</v>
+        <v>3948.326904296875</v>
       </c>
       <c r="C99" t="n">
-        <v>1763.7568359375</v>
+        <v>1763.756713867188</v>
       </c>
       <c r="D99" t="n">
         <v>715.4310302734375</v>
@@ -3648,7 +3646,7 @@
         <v>2050.48974609375</v>
       </c>
       <c r="K99" t="n">
-        <v>7593.27099609375</v>
+        <v>7593.271484375</v>
       </c>
     </row>
     <row r="100">
@@ -3656,10 +3654,10 @@
         <v>45075</v>
       </c>
       <c r="B100" t="n">
-        <v>3974.354736328125</v>
+        <v>3974.35498046875</v>
       </c>
       <c r="C100" t="n">
-        <v>1773.045043945312</v>
+        <v>1773.044921875</v>
       </c>
       <c r="D100" t="n">
         <v>725.9137573242188</v>
@@ -3671,7 +3669,7 @@
         <v>472.6918029785156</v>
       </c>
       <c r="G100" t="n">
-        <v>1684.565551757812</v>
+        <v>1684.565673828125</v>
       </c>
       <c r="I100" t="n">
         <v>2162.202880859375</v>
@@ -3680,7 +3678,7 @@
         <v>2046.586181640625</v>
       </c>
       <c r="K100" t="n">
-        <v>7709.99462890625</v>
+        <v>7709.9951171875</v>
       </c>
     </row>
     <row r="101">
@@ -3712,7 +3710,7 @@
         <v>2073.969482421875</v>
       </c>
       <c r="K101" t="n">
-        <v>7770.373046875</v>
+        <v>7770.37255859375</v>
       </c>
     </row>
     <row r="102">
@@ -3720,10 +3718,10 @@
         <v>45077</v>
       </c>
       <c r="B102" t="n">
-        <v>4067.76953125</v>
+        <v>4067.769775390625</v>
       </c>
       <c r="C102" t="n">
-        <v>1756.049682617188</v>
+        <v>1756.049560546875</v>
       </c>
       <c r="D102" t="n">
         <v>727.2424926757812</v>
@@ -3735,7 +3733,7 @@
         <v>465.1016845703125</v>
       </c>
       <c r="G102" t="n">
-        <v>1689.530883789062</v>
+        <v>1689.531005859375</v>
       </c>
       <c r="I102" t="n">
         <v>2143.83251953125</v>
@@ -3758,16 +3756,16 @@
         <v>1778.874755859375</v>
       </c>
       <c r="D103" t="n">
-        <v>720.54931640625</v>
+        <v>720.5493774414062</v>
       </c>
       <c r="E103" t="n">
-        <v>423.9266967773438</v>
+        <v>423.9267272949219</v>
       </c>
       <c r="F103" t="n">
         <v>467.3542785644531</v>
       </c>
       <c r="G103" t="n">
-        <v>1673.897583007812</v>
+        <v>1673.897705078125</v>
       </c>
       <c r="I103" t="n">
         <v>2145.92236328125</v>
@@ -3776,7 +3774,7 @@
         <v>2059.1708984375</v>
       </c>
       <c r="K103" t="n">
-        <v>7712.20703125</v>
+        <v>7712.20751953125</v>
       </c>
     </row>
     <row r="104">
@@ -3790,7 +3788,7 @@
         <v>1793.992553710938</v>
       </c>
       <c r="D104" t="n">
-        <v>725.0278930664062</v>
+        <v>725.02783203125</v>
       </c>
       <c r="E104" t="n">
         <v>432.6175537109375</v>
@@ -3822,7 +3820,7 @@
         <v>1788.903930664062</v>
       </c>
       <c r="D105" t="n">
-        <v>727.193359375</v>
+        <v>727.1932983398438</v>
       </c>
       <c r="E105" t="n">
         <v>433.6051940917969</v>
@@ -3854,7 +3852,7 @@
         <v>1834.208251953125</v>
       </c>
       <c r="D106" t="n">
-        <v>733.689697265625</v>
+        <v>733.6896362304688</v>
       </c>
       <c r="E106" t="n">
         <v>453.4558715820312</v>
@@ -3863,7 +3861,7 @@
         <v>484.4442138671875</v>
       </c>
       <c r="G106" t="n">
-        <v>1736.775268554688</v>
+        <v>1736.775146484375</v>
       </c>
       <c r="I106" t="n">
         <v>2214.106201171875</v>
@@ -3872,7 +3870,7 @@
         <v>2089.438232421875</v>
       </c>
       <c r="K106" t="n">
-        <v>7974.51513671875</v>
+        <v>7974.515625</v>
       </c>
     </row>
     <row r="107">
@@ -3883,7 +3881,7 @@
         <v>4092.614990234375</v>
       </c>
       <c r="C107" t="n">
-        <v>1829.71240234375</v>
+        <v>1829.712524414062</v>
       </c>
       <c r="D107" t="n">
         <v>732.0655517578125</v>
@@ -3912,7 +3910,7 @@
         <v>45085</v>
       </c>
       <c r="B108" t="n">
-        <v>4054.361328125</v>
+        <v>4054.361572265625</v>
       </c>
       <c r="C108" t="n">
         <v>1811.729125976562</v>
@@ -3927,7 +3925,7 @@
         <v>474.7484741210938</v>
       </c>
       <c r="G108" t="n">
-        <v>1683.23828125</v>
+        <v>1683.238403320312</v>
       </c>
       <c r="I108" t="n">
         <v>2274.708984375</v>
@@ -3944,16 +3942,16 @@
         <v>45086</v>
       </c>
       <c r="B109" t="n">
-        <v>4092.713623046875</v>
+        <v>4092.7138671875</v>
       </c>
       <c r="C109" t="n">
-        <v>1815.434448242188</v>
+        <v>1815.434326171875</v>
       </c>
       <c r="D109" t="n">
         <v>723.40380859375</v>
       </c>
       <c r="E109" t="n">
-        <v>450.0487060546875</v>
+        <v>450.0487365722656</v>
       </c>
       <c r="F109" t="n">
         <v>475.189208984375</v>
@@ -3976,13 +3974,13 @@
         <v>45089</v>
       </c>
       <c r="B110" t="n">
-        <v>4092.959716796875</v>
+        <v>4092.960205078125</v>
       </c>
       <c r="C110" t="n">
         <v>1816.669555664062</v>
       </c>
       <c r="D110" t="n">
-        <v>730.4414672851562</v>
+        <v>730.44140625</v>
       </c>
       <c r="E110" t="n">
         <v>450.6412353515625</v>
@@ -4000,7 +3998,7 @@
         <v>2131.474609375</v>
       </c>
       <c r="K110" t="n">
-        <v>8062.08203125</v>
+        <v>8062.08251953125</v>
       </c>
     </row>
     <row r="111">
@@ -4014,16 +4012,16 @@
         <v>1824.969482421875</v>
       </c>
       <c r="D111" t="n">
-        <v>726.2582397460938</v>
+        <v>726.2581787109375</v>
       </c>
       <c r="E111" t="n">
-        <v>453.2583618164062</v>
+        <v>453.2583923339844</v>
       </c>
       <c r="F111" t="n">
         <v>493.2095947265625</v>
       </c>
       <c r="G111" t="n">
-        <v>1708.80224609375</v>
+        <v>1708.802368164062</v>
       </c>
       <c r="I111" t="n">
         <v>2288.413330078125</v>
@@ -4032,7 +4030,7 @@
         <v>2175.75390625</v>
       </c>
       <c r="K111" t="n">
-        <v>8138.4892578125</v>
+        <v>8138.48828125</v>
       </c>
     </row>
     <row r="112">
@@ -4040,13 +4038,13 @@
         <v>45091</v>
       </c>
       <c r="B112" t="n">
-        <v>4288.5654296875</v>
+        <v>4288.56494140625</v>
       </c>
       <c r="C112" t="n">
         <v>1832.775512695312</v>
       </c>
       <c r="D112" t="n">
-        <v>727.734619140625</v>
+        <v>727.7346801757812</v>
       </c>
       <c r="E112" t="n">
         <v>458.8383178710938</v>
@@ -4072,13 +4070,13 @@
         <v>45092</v>
       </c>
       <c r="B113" t="n">
-        <v>4252.87451171875</v>
+        <v>4252.875</v>
       </c>
       <c r="C113" t="n">
         <v>1827.983154296875</v>
       </c>
       <c r="D113" t="n">
-        <v>727.8823852539062</v>
+        <v>727.88232421875</v>
       </c>
       <c r="E113" t="n">
         <v>452.6658325195312</v>
@@ -4104,7 +4102,7 @@
         <v>45093</v>
       </c>
       <c r="B114" t="n">
-        <v>4275.796875</v>
+        <v>4275.79736328125</v>
       </c>
       <c r="C114" t="n">
         <v>1833.368286132812</v>
@@ -4113,13 +4111,13 @@
         <v>735.6582641601562</v>
       </c>
       <c r="E114" t="n">
-        <v>455.1841735839844</v>
+        <v>455.1842041015625</v>
       </c>
       <c r="F114" t="n">
         <v>485.7663879394531</v>
       </c>
       <c r="G114" t="n">
-        <v>1750.884399414062</v>
+        <v>1750.884521484375</v>
       </c>
       <c r="I114" t="n">
         <v>2300.466064453125</v>
@@ -4128,7 +4126,7 @@
         <v>2209.954345703125</v>
       </c>
       <c r="K114" t="n">
-        <v>8194.4912109375</v>
+        <v>8194.490234375</v>
       </c>
     </row>
     <row r="115">
@@ -4136,7 +4134,7 @@
         <v>45096</v>
       </c>
       <c r="B115" t="n">
-        <v>4266.67724609375</v>
+        <v>4266.677734375</v>
       </c>
       <c r="C115" t="n">
         <v>1803.676025390625</v>
@@ -4145,7 +4143,7 @@
         <v>724.0928344726562</v>
       </c>
       <c r="E115" t="n">
-        <v>447.2340087890625</v>
+        <v>447.2340393066406</v>
       </c>
       <c r="F115" t="n">
         <v>475.3361206054688</v>
@@ -4168,7 +4166,7 @@
         <v>45097</v>
       </c>
       <c r="B116" t="n">
-        <v>4314.34619140625</v>
+        <v>4314.345703125</v>
       </c>
       <c r="C116" t="n">
         <v>1816.323608398438</v>
@@ -4183,7 +4181,7 @@
         <v>479.106689453125</v>
       </c>
       <c r="G116" t="n">
-        <v>1739.429809570312</v>
+        <v>1739.4296875</v>
       </c>
       <c r="I116" t="n">
         <v>2315.240234375</v>
@@ -4215,7 +4213,7 @@
         <v>472.8877258300781</v>
       </c>
       <c r="G117" t="n">
-        <v>1748.082275390625</v>
+        <v>1748.082153320312</v>
       </c>
       <c r="I117" t="n">
         <v>2327.34130859375</v>
@@ -4241,13 +4239,13 @@
         <v>733.886474609375</v>
       </c>
       <c r="E118" t="n">
-        <v>439.3332214355469</v>
+        <v>439.333251953125</v>
       </c>
       <c r="F118" t="n">
         <v>471.3207092285156</v>
       </c>
       <c r="G118" t="n">
-        <v>1720.945190429688</v>
+        <v>1720.945068359375</v>
       </c>
       <c r="I118" t="n">
         <v>2348.5302734375</v>
@@ -4279,7 +4277,7 @@
         <v>467.8439636230469</v>
       </c>
       <c r="G119" t="n">
-        <v>1687.318603515625</v>
+        <v>1687.318725585938</v>
       </c>
       <c r="I119" t="n">
         <v>2322.578369140625</v>
@@ -4288,7 +4286,7 @@
         <v>2141.553955078125</v>
       </c>
       <c r="K119" t="n">
-        <v>7945.65478515625</v>
+        <v>7945.654296875</v>
       </c>
     </row>
     <row r="120">
@@ -4296,10 +4294,10 @@
         <v>45103</v>
       </c>
       <c r="B120" t="n">
-        <v>4224.9736328125</v>
+        <v>4224.97314453125</v>
       </c>
       <c r="C120" t="n">
-        <v>1770.970092773438</v>
+        <v>1770.969970703125</v>
       </c>
       <c r="D120" t="n">
         <v>713.0195922851562</v>
@@ -4331,7 +4329,7 @@
         <v>4233.99462890625</v>
       </c>
       <c r="C121" t="n">
-        <v>1767.313842773438</v>
+        <v>1767.31396484375</v>
       </c>
       <c r="D121" t="n">
         <v>708.9347534179688</v>
@@ -4366,16 +4364,16 @@
         <v>1790.78125</v>
       </c>
       <c r="D122" t="n">
-        <v>744.6152954101562</v>
+        <v>744.615234375</v>
       </c>
       <c r="E122" t="n">
-        <v>428.8647155761719</v>
+        <v>428.8646850585938</v>
       </c>
       <c r="F122" t="n">
         <v>475.874755859375</v>
       </c>
       <c r="G122" t="n">
-        <v>1713.865966796875</v>
+        <v>1713.865844726562</v>
       </c>
       <c r="I122" t="n">
         <v>2353.58447265625</v>
@@ -4384,7 +4382,7 @@
         <v>2193.436767578125</v>
       </c>
       <c r="K122" t="n">
-        <v>8123.10009765625</v>
+        <v>8123.099609375</v>
       </c>
     </row>
     <row r="123">
@@ -4392,13 +4390,13 @@
         <v>45107</v>
       </c>
       <c r="B123" t="n">
-        <v>4360.68408203125</v>
+        <v>4360.68359375</v>
       </c>
       <c r="C123" t="n">
         <v>1792.115112304688</v>
       </c>
       <c r="D123" t="n">
-        <v>727.63623046875</v>
+        <v>727.6361694335938</v>
       </c>
       <c r="E123" t="n">
         <v>420.6182250976562</v>
@@ -4424,7 +4422,7 @@
         <v>45110</v>
       </c>
       <c r="B124" t="n">
-        <v>4349.10009765625</v>
+        <v>4349.099609375</v>
       </c>
       <c r="C124" t="n">
         <v>1803.379638671875</v>
@@ -4456,13 +4454,13 @@
         <v>45111</v>
       </c>
       <c r="B125" t="n">
-        <v>4299.26171875</v>
+        <v>4299.26220703125</v>
       </c>
       <c r="C125" t="n">
         <v>1798.784912109375</v>
       </c>
       <c r="D125" t="n">
-        <v>730.0477905273438</v>
+        <v>730.0477294921875</v>
       </c>
       <c r="E125" t="n">
         <v>427.3339538574219</v>
@@ -4491,19 +4489,19 @@
         <v>4328.740234375</v>
       </c>
       <c r="C126" t="n">
-        <v>1799.130859375</v>
+        <v>1799.130737304688</v>
       </c>
       <c r="D126" t="n">
         <v>731.0812377929688</v>
       </c>
       <c r="E126" t="n">
-        <v>427.03759765625</v>
+        <v>427.0376281738281</v>
       </c>
       <c r="F126" t="n">
         <v>489.3900756835938</v>
       </c>
       <c r="G126" t="n">
-        <v>1748.082275390625</v>
+        <v>1748.082153320312</v>
       </c>
       <c r="I126" t="n">
         <v>2401.55126953125</v>
@@ -4544,7 +4542,7 @@
         <v>2173.62744140625</v>
       </c>
       <c r="K127" t="n">
-        <v>8270.1591796875</v>
+        <v>8270.16015625</v>
       </c>
     </row>
     <row r="128">
@@ -4558,7 +4556,7 @@
         <v>1779.220458984375</v>
       </c>
       <c r="D128" t="n">
-        <v>707.4091796875</v>
+        <v>707.4091186523438</v>
       </c>
       <c r="E128" t="n">
         <v>415.12255859375</v>
@@ -4576,7 +4574,7 @@
         <v>2150.147705078125</v>
       </c>
       <c r="K128" t="n">
-        <v>8197.63671875</v>
+        <v>8197.6376953125</v>
       </c>
     </row>
     <row r="129">
@@ -4584,13 +4582,13 @@
         <v>45117</v>
       </c>
       <c r="B129" t="n">
-        <v>4308.0859375</v>
+        <v>4308.08544921875</v>
       </c>
       <c r="C129" t="n">
         <v>1782.3984375</v>
       </c>
       <c r="D129" t="n">
-        <v>708.787109375</v>
+        <v>708.7870483398438</v>
       </c>
       <c r="E129" t="n">
         <v>416.7119445800781</v>
@@ -4608,7 +4606,7 @@
         <v>2125.094970703125</v>
       </c>
       <c r="K129" t="n">
-        <v>8212.2900390625</v>
+        <v>8212.2890625</v>
       </c>
     </row>
     <row r="130">
@@ -4622,7 +4620,7 @@
         <v>1771.026977539062</v>
       </c>
       <c r="D130" t="n">
-        <v>718.4331665039062</v>
+        <v>718.43310546875</v>
       </c>
       <c r="E130" t="n">
         <v>416.9602661132812</v>
@@ -4631,7 +4629,7 @@
         <v>489.341064453125</v>
       </c>
       <c r="G130" t="n">
-        <v>1738.05322265625</v>
+        <v>1738.053344726562</v>
       </c>
       <c r="I130" t="n">
         <v>2405.1962890625</v>
@@ -4640,7 +4638,7 @@
         <v>2194.514404296875</v>
       </c>
       <c r="K130" t="n">
-        <v>8187.26318359375</v>
+        <v>8187.263671875</v>
       </c>
     </row>
     <row r="131">
@@ -4648,7 +4646,7 @@
         <v>45119</v>
       </c>
       <c r="B131" t="n">
-        <v>4464.6484375</v>
+        <v>4464.64892578125</v>
       </c>
       <c r="C131" t="n">
         <v>1777.383056640625</v>
@@ -4663,7 +4661,7 @@
         <v>482.2406616210938</v>
       </c>
       <c r="G131" t="n">
-        <v>1748.032958984375</v>
+        <v>1748.033081054688</v>
       </c>
       <c r="I131" t="n">
         <v>2386.1455078125</v>
@@ -4672,7 +4670,7 @@
         <v>2230.782958984375</v>
       </c>
       <c r="K131" t="n">
-        <v>8083.61865234375</v>
+        <v>8083.6181640625</v>
       </c>
     </row>
     <row r="132">
@@ -4704,7 +4702,7 @@
         <v>2172.229248046875</v>
       </c>
       <c r="K132" t="n">
-        <v>8096.89306640625</v>
+        <v>8096.8935546875</v>
       </c>
     </row>
     <row r="133">
@@ -4727,7 +4725,7 @@
         <v>482.9751892089844</v>
       </c>
       <c r="G133" t="n">
-        <v>1723.79638671875</v>
+        <v>1723.796508789062</v>
       </c>
       <c r="I133" t="n">
         <v>2402.960693359375</v>
@@ -4759,7 +4757,7 @@
         <v>487.7740783691406</v>
       </c>
       <c r="G134" t="n">
-        <v>1762.978271484375</v>
+        <v>1762.978149414062</v>
       </c>
       <c r="I134" t="n">
         <v>2399.607421875</v>
@@ -4768,7 +4766,7 @@
         <v>2156.935546875</v>
       </c>
       <c r="K134" t="n">
-        <v>8113.60986328125</v>
+        <v>8113.6103515625</v>
       </c>
     </row>
     <row r="135">
@@ -4776,13 +4774,13 @@
         <v>45125</v>
       </c>
       <c r="B135" t="n">
-        <v>4427.57861328125</v>
+        <v>4427.57763671875</v>
       </c>
       <c r="C135" t="n">
         <v>1782.795776367188</v>
       </c>
       <c r="D135" t="n">
-        <v>716.7106323242188</v>
+        <v>716.710693359375</v>
       </c>
       <c r="E135" t="n">
         <v>413.4338989257812</v>
@@ -4808,7 +4806,7 @@
         <v>45126</v>
       </c>
       <c r="B136" t="n">
-        <v>4430.1904296875</v>
+        <v>4430.19091796875</v>
       </c>
       <c r="C136" t="n">
         <v>1787.7119140625</v>
@@ -4855,7 +4853,7 @@
         <v>494.4827270507812</v>
       </c>
       <c r="G137" t="n">
-        <v>1788.935424804688</v>
+        <v>1788.935302734375</v>
       </c>
       <c r="I137" t="n">
         <v>2419.921630859375</v>
@@ -4864,7 +4862,7 @@
         <v>2118.07421875</v>
       </c>
       <c r="K137" t="n">
-        <v>8087.2080078125</v>
+        <v>8087.20751953125</v>
       </c>
     </row>
     <row r="138">
@@ -4887,7 +4885,7 @@
         <v>490.271484375</v>
       </c>
       <c r="G138" t="n">
-        <v>1774.33447265625</v>
+        <v>1774.334350585938</v>
       </c>
       <c r="I138" t="n">
         <v>2513.765380859375</v>
@@ -4904,7 +4902,7 @@
         <v>45131</v>
       </c>
       <c r="B139" t="n">
-        <v>4261.15625</v>
+        <v>4261.15673828125</v>
       </c>
       <c r="C139" t="n">
         <v>1792.230712890625</v>
@@ -4919,7 +4917,7 @@
         <v>483.6117553710938</v>
       </c>
       <c r="G139" t="n">
-        <v>1782.642822265625</v>
+        <v>1782.642700195312</v>
       </c>
       <c r="I139" t="n">
         <v>2532.233154296875</v>
@@ -4942,7 +4940,7 @@
         <v>1878.783203125</v>
       </c>
       <c r="D140" t="n">
-        <v>737.4791870117188</v>
+        <v>737.4791259765625</v>
       </c>
       <c r="E140" t="n">
         <v>437.1750183105469</v>
@@ -4951,7 +4949,7 @@
         <v>470.0964660644531</v>
       </c>
       <c r="G140" t="n">
-        <v>1798.37451171875</v>
+        <v>1798.374389648438</v>
       </c>
       <c r="I140" t="n">
         <v>2489.1259765625</v>
@@ -4983,7 +4981,7 @@
         <v>477.5886535644531</v>
       </c>
       <c r="G141" t="n">
-        <v>1808.255737304688</v>
+        <v>1808.255859375</v>
       </c>
       <c r="I141" t="n">
         <v>2572.084228515625</v>
@@ -5015,7 +5013,7 @@
         <v>500.2610168457031</v>
       </c>
       <c r="G142" t="n">
-        <v>1791.934326171875</v>
+        <v>1791.934204101562</v>
       </c>
       <c r="I142" t="n">
         <v>2585.64306640625</v>
@@ -5079,7 +5077,7 @@
         <v>512.0568237304688</v>
       </c>
       <c r="G144" t="n">
-        <v>1818.432250976562</v>
+        <v>1818.432373046875</v>
       </c>
       <c r="I144" t="n">
         <v>2606.2001953125</v>
@@ -5088,7 +5086,7 @@
         <v>2320.5947265625</v>
       </c>
       <c r="K144" t="n">
-        <v>8217.02734375</v>
+        <v>8217.0263671875</v>
       </c>
     </row>
     <row r="145">
@@ -5096,7 +5094,7 @@
         <v>45139</v>
       </c>
       <c r="B145" t="n">
-        <v>4455.97265625</v>
+        <v>4455.97216796875</v>
       </c>
       <c r="C145" t="n">
         <v>1996.818603515625</v>
@@ -5111,7 +5109,7 @@
         <v>493.2526550292969</v>
       </c>
       <c r="G145" t="n">
-        <v>1806.879272460938</v>
+        <v>1806.87939453125</v>
       </c>
       <c r="I145" t="n">
         <v>2591.912109375</v>
@@ -5120,7 +5118,7 @@
         <v>2266.9638671875</v>
       </c>
       <c r="K145" t="n">
-        <v>8181.11767578125</v>
+        <v>8181.11865234375</v>
       </c>
     </row>
     <row r="146">
@@ -5128,7 +5126,7 @@
         <v>45140</v>
       </c>
       <c r="B146" t="n">
-        <v>4345.89501953125</v>
+        <v>4345.89599609375</v>
       </c>
       <c r="C146" t="n">
         <v>1957.73828125</v>
@@ -5143,7 +5141,7 @@
         <v>487.2313537597656</v>
       </c>
       <c r="G146" t="n">
-        <v>1790.45947265625</v>
+        <v>1790.459350585938</v>
       </c>
       <c r="I146" t="n">
         <v>2577.658203125</v>
@@ -5192,7 +5190,7 @@
         <v>45142</v>
       </c>
       <c r="B148" t="n">
-        <v>4375.52197265625</v>
+        <v>4375.5224609375</v>
       </c>
       <c r="C148" t="n">
         <v>2028.748168945312</v>
@@ -5207,7 +5205,7 @@
         <v>483.3323059082031</v>
       </c>
       <c r="G148" t="n">
-        <v>1794.834594726562</v>
+        <v>1794.834838867188</v>
       </c>
       <c r="I148" t="n">
         <v>2582.32763671875</v>
@@ -5320,7 +5318,7 @@
         <v>45148</v>
       </c>
       <c r="B152" t="n">
-        <v>4441.62744140625</v>
+        <v>4441.626953125</v>
       </c>
       <c r="C152" t="n">
         <v>1947.508911132812</v>
@@ -5344,7 +5342,7 @@
         <v>2137.330078125</v>
       </c>
       <c r="K152" t="n">
-        <v>8003.7021484375</v>
+        <v>8003.70166015625</v>
       </c>
     </row>
     <row r="153">
@@ -5352,13 +5350,13 @@
         <v>45149</v>
       </c>
       <c r="B153" t="n">
-        <v>4462.8740234375</v>
+        <v>4462.87353515625</v>
       </c>
       <c r="C153" t="n">
         <v>1940.259033203125</v>
       </c>
       <c r="D153" t="n">
-        <v>793.7659301757812</v>
+        <v>793.7659912109375</v>
       </c>
       <c r="E153" t="n">
         <v>453.36669921875</v>
@@ -5408,7 +5406,7 @@
         <v>2098.964111328125</v>
       </c>
       <c r="K154" t="n">
-        <v>7956.38427734375</v>
+        <v>7956.3837890625</v>
       </c>
     </row>
     <row r="155">
@@ -5431,7 +5429,7 @@
         <v>471.8819580078125</v>
       </c>
       <c r="G155" t="n">
-        <v>1796.242065429688</v>
+        <v>1796.2421875</v>
       </c>
       <c r="I155" t="n">
         <v>2645.38916015625</v>
@@ -5512,7 +5510,7 @@
         <v>45159</v>
       </c>
       <c r="B158" t="n">
-        <v>4256.375</v>
+        <v>4256.37451171875</v>
       </c>
       <c r="C158" t="n">
         <v>1958.43359375</v>
@@ -5544,13 +5542,13 @@
         <v>45160</v>
       </c>
       <c r="B159" t="n">
-        <v>4263.37451171875</v>
+        <v>4263.3740234375</v>
       </c>
       <c r="C159" t="n">
         <v>1965.534545898438</v>
       </c>
       <c r="D159" t="n">
-        <v>846.7299194335938</v>
+        <v>846.72998046875</v>
       </c>
       <c r="E159" t="n">
         <v>460.717529296875</v>
@@ -5614,7 +5612,7 @@
         <v>1976.707397460938</v>
       </c>
       <c r="D161" t="n">
-        <v>814.872314453125</v>
+        <v>814.8722534179688</v>
       </c>
       <c r="E161" t="n">
         <v>445.9662170410156</v>
@@ -5623,7 +5621,7 @@
         <v>477.3109741210938</v>
       </c>
       <c r="G161" t="n">
-        <v>1757.833740234375</v>
+        <v>1757.833862304688</v>
       </c>
       <c r="I161" t="n">
         <v>2642.538330078125</v>
@@ -5640,13 +5638,13 @@
         <v>45163</v>
       </c>
       <c r="B162" t="n">
-        <v>4190.01220703125</v>
+        <v>4190.0126953125</v>
       </c>
       <c r="C162" t="n">
         <v>1949.098022460938</v>
       </c>
       <c r="D162" t="n">
-        <v>799.2655029296875</v>
+        <v>799.2654418945312</v>
       </c>
       <c r="E162" t="n">
         <v>431.7116088867188</v>
@@ -5672,7 +5670,7 @@
         <v>45166</v>
       </c>
       <c r="B163" t="n">
-        <v>4209.361328125</v>
+        <v>4209.36083984375</v>
       </c>
       <c r="C163" t="n">
         <v>1971.642456054688</v>
@@ -5687,7 +5685,7 @@
         <v>476.1758422851562</v>
       </c>
       <c r="G163" t="n">
-        <v>1764.358764648438</v>
+        <v>1764.358642578125</v>
       </c>
       <c r="I163" t="n">
         <v>2649.6162109375</v>
@@ -5728,7 +5726,7 @@
         <v>2252.048828125</v>
       </c>
       <c r="K164" t="n">
-        <v>8100.0166015625</v>
+        <v>8100.01708984375</v>
       </c>
     </row>
     <row r="165">
@@ -5736,13 +5734,13 @@
         <v>45168</v>
       </c>
       <c r="B165" t="n">
-        <v>4290.16064453125</v>
+        <v>4290.16015625</v>
       </c>
       <c r="C165" t="n">
         <v>1986.837524414062</v>
       </c>
       <c r="D165" t="n">
-        <v>811.2554931640625</v>
+        <v>811.2554321289062</v>
       </c>
       <c r="E165" t="n">
         <v>441.0987548828125</v>
@@ -5751,7 +5749,7 @@
         <v>493.5980834960938</v>
       </c>
       <c r="G165" t="n">
-        <v>1786.108642578125</v>
+        <v>1786.108764648438</v>
       </c>
       <c r="I165" t="n">
         <v>2663.03466796875</v>
@@ -5800,13 +5798,13 @@
         <v>45170</v>
       </c>
       <c r="B167" t="n">
-        <v>4236.35986328125</v>
+        <v>4236.3603515625</v>
       </c>
       <c r="C167" t="n">
         <v>1997.464233398438</v>
       </c>
       <c r="D167" t="n">
-        <v>792.2300415039062</v>
+        <v>792.2301025390625</v>
       </c>
       <c r="E167" t="n">
         <v>431.0162353515625</v>
@@ -5824,7 +5822,7 @@
         <v>2264.691650390625</v>
       </c>
       <c r="K167" t="n">
-        <v>8161.955078125</v>
+        <v>8161.95458984375</v>
       </c>
     </row>
     <row r="168">
@@ -5832,13 +5830,13 @@
         <v>45173</v>
       </c>
       <c r="B168" t="n">
-        <v>4253.98046875</v>
+        <v>4253.98095703125</v>
       </c>
       <c r="C168" t="n">
         <v>2044.539184570312</v>
       </c>
       <c r="D168" t="n">
-        <v>793.7659301757812</v>
+        <v>793.7659912109375</v>
       </c>
       <c r="E168" t="n">
         <v>438.2180480957031</v>
@@ -5847,7 +5845,7 @@
         <v>507.2694396972656</v>
       </c>
       <c r="G168" t="n">
-        <v>1820.117553710938</v>
+        <v>1820.117431640625</v>
       </c>
       <c r="I168" t="n">
         <v>2665.09912109375</v>
@@ -5864,7 +5862,7 @@
         <v>45174</v>
       </c>
       <c r="B169" t="n">
-        <v>4383.7919921875</v>
+        <v>4383.79296875</v>
       </c>
       <c r="C169" t="n">
         <v>2070.311279296875</v>
@@ -5902,7 +5900,7 @@
         <v>2029.4931640625</v>
       </c>
       <c r="D170" t="n">
-        <v>799.7113647460938</v>
+        <v>799.71142578125</v>
       </c>
       <c r="E170" t="n">
         <v>434.8406372070312</v>
@@ -5960,13 +5958,13 @@
         <v>45177</v>
       </c>
       <c r="B172" t="n">
-        <v>4401.314453125</v>
+        <v>4401.31494140625</v>
       </c>
       <c r="C172" t="n">
         <v>2010.375122070312</v>
       </c>
       <c r="D172" t="n">
-        <v>817.4981689453125</v>
+        <v>817.4982299804688</v>
       </c>
       <c r="E172" t="n">
         <v>436.2810363769531</v>
@@ -5975,7 +5973,7 @@
         <v>533.0326538085938</v>
       </c>
       <c r="G172" t="n">
-        <v>1828.718627929688</v>
+        <v>1828.718505859375</v>
       </c>
       <c r="I172" t="n">
         <v>2852.36669921875</v>
@@ -5998,7 +5996,7 @@
         <v>2036.991455078125</v>
       </c>
       <c r="D173" t="n">
-        <v>874.4258422851562</v>
+        <v>874.42578125</v>
       </c>
       <c r="E173" t="n">
         <v>447.9032287597656</v>
@@ -6024,13 +6022,13 @@
         <v>45181</v>
       </c>
       <c r="B174" t="n">
-        <v>4345.3916015625</v>
+        <v>4345.39111328125</v>
       </c>
       <c r="C174" t="n">
         <v>1997.166259765625</v>
       </c>
       <c r="D174" t="n">
-        <v>850.9413452148438</v>
+        <v>850.9412841796875</v>
       </c>
       <c r="E174" t="n">
         <v>442.04248046875</v>
@@ -6039,7 +6037,7 @@
         <v>517.732666015625</v>
       </c>
       <c r="G174" t="n">
-        <v>1849.677612304688</v>
+        <v>1849.677490234375</v>
       </c>
       <c r="I174" t="n">
         <v>2894.145751953125</v>
@@ -6120,7 +6118,7 @@
         <v>45184</v>
       </c>
       <c r="B177" t="n">
-        <v>4323.18115234375</v>
+        <v>4323.18017578125</v>
       </c>
       <c r="C177" t="n">
         <v>2012.957275390625</v>
@@ -6135,7 +6133,7 @@
         <v>525.53076171875</v>
       </c>
       <c r="G177" t="n">
-        <v>1950.419067382812</v>
+        <v>1950.4189453125</v>
       </c>
       <c r="I177" t="n">
         <v>2859.19873046875</v>
@@ -6144,7 +6142,7 @@
         <v>2220.2958984375</v>
       </c>
       <c r="K177" t="n">
-        <v>8622.2392578125</v>
+        <v>8622.240234375</v>
       </c>
     </row>
     <row r="178">
@@ -6158,7 +6156,7 @@
         <v>1992.9453125</v>
       </c>
       <c r="D178" t="n">
-        <v>823.69140625</v>
+        <v>823.6913452148438</v>
       </c>
       <c r="E178" t="n">
         <v>433.7479553222656</v>
@@ -6176,7 +6174,7 @@
         <v>2201.593505859375</v>
       </c>
       <c r="K178" t="n">
-        <v>8523.109375</v>
+        <v>8523.1103515625</v>
       </c>
     </row>
     <row r="179">
@@ -6190,7 +6188,7 @@
         <v>1966.229858398438</v>
       </c>
       <c r="D179" t="n">
-        <v>810.611328125</v>
+        <v>810.6113891601562</v>
       </c>
       <c r="E179" t="n">
         <v>425.304443359375</v>
@@ -6208,7 +6206,7 @@
         <v>2198.88427734375</v>
       </c>
       <c r="K179" t="n">
-        <v>8355.3251953125</v>
+        <v>8355.32421875</v>
       </c>
     </row>
     <row r="180">
@@ -6222,7 +6220,7 @@
         <v>1980.1337890625</v>
       </c>
       <c r="D180" t="n">
-        <v>823.5426635742188</v>
+        <v>823.542724609375</v>
       </c>
       <c r="E180" t="n">
         <v>423.26806640625</v>
@@ -6248,7 +6246,7 @@
         <v>45191</v>
       </c>
       <c r="B181" t="n">
-        <v>4133.25048828125</v>
+        <v>4133.2509765625</v>
       </c>
       <c r="C181" t="n">
         <v>1964.938598632812</v>
@@ -6272,7 +6270,7 @@
         <v>2149.33203125</v>
       </c>
       <c r="K181" t="n">
-        <v>8087.8662109375</v>
+        <v>8087.86572265625</v>
       </c>
     </row>
     <row r="182">
@@ -6280,13 +6278,13 @@
         <v>45194</v>
       </c>
       <c r="B182" t="n">
-        <v>4123.2802734375</v>
+        <v>4123.27978515625</v>
       </c>
       <c r="C182" t="n">
         <v>1986.390625</v>
       </c>
       <c r="D182" t="n">
-        <v>818.142333984375</v>
+        <v>818.1422729492188</v>
       </c>
       <c r="E182" t="n">
         <v>420.08935546875</v>
@@ -6312,13 +6310,13 @@
         <v>45195</v>
       </c>
       <c r="B183" t="n">
-        <v>4151.216796875</v>
+        <v>4151.21728515625</v>
       </c>
       <c r="C183" t="n">
         <v>2001.238159179688</v>
       </c>
       <c r="D183" t="n">
-        <v>813.8814086914062</v>
+        <v>813.88134765625</v>
       </c>
       <c r="E183" t="n">
         <v>426.893798828125</v>
@@ -6344,13 +6342,13 @@
         <v>45196</v>
       </c>
       <c r="B184" t="n">
-        <v>4179.00537109375</v>
+        <v>4179.005859375</v>
       </c>
       <c r="C184" t="n">
         <v>2005.905883789062</v>
       </c>
       <c r="D184" t="n">
-        <v>823.1463623046875</v>
+        <v>823.1464233398438</v>
       </c>
       <c r="E184" t="n">
         <v>427.5891723632812</v>
@@ -6359,7 +6357,7 @@
         <v>521.8784790039062</v>
       </c>
       <c r="G184" t="n">
-        <v>1909.143676757812</v>
+        <v>1909.1435546875</v>
       </c>
       <c r="I184" t="n">
         <v>2914.740234375</v>
@@ -6432,7 +6430,7 @@
         <v>2139.689453125</v>
       </c>
       <c r="K186" t="n">
-        <v>8154.49560546875</v>
+        <v>8154.49609375</v>
       </c>
     </row>
     <row r="187">
@@ -6455,7 +6453,7 @@
         <v>531.798828125</v>
       </c>
       <c r="G187" t="n">
-        <v>1899.603393554688</v>
+        <v>1899.603515625</v>
       </c>
       <c r="H187" t="n">
         <v>156.6413269042969</v>
@@ -6481,7 +6479,7 @@
         <v>1992.895751953125</v>
       </c>
       <c r="D188" t="n">
-        <v>817.101806640625</v>
+        <v>817.1017456054688</v>
       </c>
       <c r="E188" t="n">
         <v>426.7944641113281</v>
@@ -6490,7 +6488,7 @@
         <v>518.9664916992188</v>
       </c>
       <c r="G188" t="n">
-        <v>1874.29443359375</v>
+        <v>1874.294555664062</v>
       </c>
       <c r="H188" t="n">
         <v>164.2592926025391</v>
@@ -6502,7 +6500,7 @@
         <v>2040.002563476562</v>
       </c>
       <c r="K188" t="n">
-        <v>8022.125</v>
+        <v>8022.12548828125</v>
       </c>
     </row>
     <row r="189">
@@ -6545,7 +6543,7 @@
         <v>45205</v>
       </c>
       <c r="B190" t="n">
-        <v>4080.04248046875</v>
+        <v>4080.04296875</v>
       </c>
       <c r="C190" t="n">
         <v>1996.173095703125</v>
@@ -6607,7 +6605,7 @@
         <v>2063.6279296875</v>
       </c>
       <c r="K191" t="n">
-        <v>8011.505859375</v>
+        <v>8011.50634765625</v>
       </c>
     </row>
     <row r="192">
@@ -6615,7 +6613,7 @@
         <v>45209</v>
       </c>
       <c r="B192" t="n">
-        <v>4138.8779296875</v>
+        <v>4138.87744140625</v>
       </c>
       <c r="C192" t="n">
         <v>1972.635498046875</v>
@@ -6633,7 +6631,7 @@
         <v>1897.082397460938</v>
       </c>
       <c r="H192" t="n">
-        <v>169.0391845703125</v>
+        <v>169.0391998291016</v>
       </c>
       <c r="I192" t="n">
         <v>3023.8076171875</v>
@@ -6650,13 +6648,13 @@
         <v>45210</v>
       </c>
       <c r="B193" t="n">
-        <v>4131.67138671875</v>
+        <v>4131.6708984375</v>
       </c>
       <c r="C193" t="n">
         <v>2024.725952148438</v>
       </c>
       <c r="D193" t="n">
-        <v>807.4404296875</v>
+        <v>807.4404907226562</v>
       </c>
       <c r="E193" t="n">
         <v>442.1418151855469</v>
@@ -6685,13 +6683,13 @@
         <v>45211</v>
       </c>
       <c r="B194" t="n">
-        <v>4161.92724609375</v>
+        <v>4161.927734375</v>
       </c>
       <c r="C194" t="n">
         <v>2015.638793945312</v>
       </c>
       <c r="D194" t="n">
-        <v>807.53955078125</v>
+        <v>807.5396118164062</v>
       </c>
       <c r="E194" t="n">
         <v>442.6384887695312</v>
@@ -6712,7 +6710,7 @@
         <v>2098.031982421875</v>
       </c>
       <c r="K194" t="n">
-        <v>8250.2177734375</v>
+        <v>8250.21875</v>
       </c>
     </row>
     <row r="195">
@@ -6738,7 +6736,7 @@
         <v>1960.05810546875</v>
       </c>
       <c r="H195" t="n">
-        <v>169.537109375</v>
+        <v>169.5370941162109</v>
       </c>
       <c r="I195" t="n">
         <v>3037.177001953125</v>
@@ -6747,7 +6745,7 @@
         <v>2092.905029296875</v>
       </c>
       <c r="K195" t="n">
-        <v>8267.2587890625</v>
+        <v>8267.2578125</v>
       </c>
     </row>
     <row r="196">
@@ -6755,7 +6753,7 @@
         <v>45215</v>
       </c>
       <c r="B196" t="n">
-        <v>4226.48828125</v>
+        <v>4226.48876953125</v>
       </c>
       <c r="C196" t="n">
         <v>2016.929809570312</v>
@@ -6790,7 +6788,7 @@
         <v>45216</v>
       </c>
       <c r="B197" t="n">
-        <v>4228.61083984375</v>
+        <v>4228.6103515625</v>
       </c>
       <c r="C197" t="n">
         <v>2025.619873046875</v>
@@ -6805,7 +6803,7 @@
         <v>559.8323974609375</v>
       </c>
       <c r="G197" t="n">
-        <v>1952.000854492188</v>
+        <v>1952.000732421875</v>
       </c>
       <c r="H197" t="n">
         <v>176.2588348388672</v>
@@ -6825,7 +6823,7 @@
         <v>45217</v>
       </c>
       <c r="B198" t="n">
-        <v>4045.689453125</v>
+        <v>4045.68896484375</v>
       </c>
       <c r="C198" t="n">
         <v>2000.244995117188</v>
@@ -6840,7 +6838,7 @@
         <v>560.0297241210938</v>
       </c>
       <c r="G198" t="n">
-        <v>1933.4638671875</v>
+        <v>1933.463989257812</v>
       </c>
       <c r="H198" t="n">
         <v>174.3668060302734</v>
@@ -6852,7 +6850,7 @@
         <v>2034.729614257812</v>
       </c>
       <c r="K198" t="n">
-        <v>8177.6611328125</v>
+        <v>8177.66064453125</v>
       </c>
     </row>
     <row r="199">
@@ -6875,7 +6873,7 @@
         <v>552.873291015625</v>
       </c>
       <c r="G199" t="n">
-        <v>1953.236694335938</v>
+        <v>1953.236572265625</v>
       </c>
       <c r="H199" t="n">
         <v>178.15087890625</v>
@@ -6922,7 +6920,7 @@
         <v>2005.278076171875</v>
       </c>
       <c r="K200" t="n">
-        <v>8358.1884765625</v>
+        <v>8358.189453125</v>
       </c>
     </row>
     <row r="201">
@@ -6930,13 +6928,13 @@
         <v>45222</v>
       </c>
       <c r="B201" t="n">
-        <v>3892.086669921875</v>
+        <v>3892.08642578125</v>
       </c>
       <c r="C201" t="n">
         <v>1884.344848632812</v>
       </c>
       <c r="D201" t="n">
-        <v>764.4351196289062</v>
+        <v>764.4351806640625</v>
       </c>
       <c r="E201" t="n">
         <v>413.185546875</v>
@@ -6945,7 +6943,7 @@
         <v>526.0736694335938</v>
       </c>
       <c r="G201" t="n">
-        <v>1881.115966796875</v>
+        <v>1881.116088867188</v>
       </c>
       <c r="H201" t="n">
         <v>166.6492462158203</v>
@@ -6957,7 +6955,7 @@
         <v>1989.51806640625</v>
       </c>
       <c r="K201" t="n">
-        <v>8224.0400390625</v>
+        <v>8224.041015625</v>
       </c>
     </row>
     <row r="202">
@@ -6971,7 +6969,7 @@
         <v>1878.1376953125</v>
       </c>
       <c r="D202" t="n">
-        <v>762.1065063476562</v>
+        <v>762.1064453125</v>
       </c>
       <c r="E202" t="n">
         <v>415.1722412109375</v>
@@ -7035,7 +7033,7 @@
         <v>45226</v>
       </c>
       <c r="B204" t="n">
-        <v>3957.042236328125</v>
+        <v>3957.0419921875</v>
       </c>
       <c r="C204" t="n">
         <v>1865.127563476562</v>
@@ -7088,7 +7086,7 @@
         <v>1857.438354492188</v>
       </c>
       <c r="H205" t="n">
-        <v>169.0391845703125</v>
+        <v>169.0391998291016</v>
       </c>
       <c r="I205" t="n">
         <v>2876.697021484375</v>
@@ -7105,13 +7103,13 @@
         <v>45230</v>
       </c>
       <c r="B206" t="n">
-        <v>4056.548095703125</v>
+        <v>4056.5478515625</v>
       </c>
       <c r="C206" t="n">
         <v>1875.257568359375</v>
       </c>
       <c r="D206" t="n">
-        <v>777.6141357421875</v>
+        <v>777.6141967773438</v>
       </c>
       <c r="E206" t="n">
         <v>421.6290588378906</v>
@@ -7120,10 +7118,10 @@
         <v>556.2294311523438</v>
       </c>
       <c r="G206" t="n">
-        <v>1865.24853515625</v>
+        <v>1865.248413085938</v>
       </c>
       <c r="H206" t="n">
-        <v>168.8400421142578</v>
+        <v>168.8400268554688</v>
       </c>
       <c r="I206" t="n">
         <v>2879.350830078125</v>
@@ -7140,13 +7138,13 @@
         <v>45231</v>
       </c>
       <c r="B207" t="n">
-        <v>4002.9453125</v>
+        <v>4002.945068359375</v>
       </c>
       <c r="C207" t="n">
         <v>1831.1123046875</v>
       </c>
       <c r="D207" t="n">
-        <v>762.1065063476562</v>
+        <v>762.1064453125</v>
       </c>
       <c r="E207" t="n">
         <v>403.9473266601562</v>
@@ -7155,7 +7153,7 @@
         <v>567.4329833984375</v>
       </c>
       <c r="G207" t="n">
-        <v>1847.304931640625</v>
+        <v>1847.304809570312</v>
       </c>
       <c r="H207" t="n">
         <v>167.4458923339844</v>
@@ -7193,7 +7191,7 @@
         <v>1876.1728515625</v>
       </c>
       <c r="H208" t="n">
-        <v>171.0308380126953</v>
+        <v>171.0308227539062</v>
       </c>
       <c r="I208" t="n">
         <v>2868.5869140625</v>
@@ -7202,7 +7200,7 @@
         <v>1963.969970703125</v>
       </c>
       <c r="K208" t="n">
-        <v>8356.1650390625</v>
+        <v>8356.1640625</v>
       </c>
     </row>
     <row r="209">
@@ -7210,7 +7208,7 @@
         <v>45233</v>
       </c>
       <c r="B209" t="n">
-        <v>4114.00048828125</v>
+        <v>4114.00146484375</v>
       </c>
       <c r="C209" t="n">
         <v>1847.101928710938</v>
@@ -7251,7 +7249,7 @@
         <v>1851.521484375</v>
       </c>
       <c r="D210" t="n">
-        <v>795.2027587890625</v>
+        <v>795.2028198242188</v>
       </c>
       <c r="E210" t="n">
         <v>418.4503173828125</v>
@@ -7263,7 +7261,7 @@
         <v>1896.884643554688</v>
       </c>
       <c r="H210" t="n">
-        <v>187.5115203857422</v>
+        <v>187.5115356445312</v>
       </c>
       <c r="I210" t="n">
         <v>2924.963623046875</v>
@@ -7280,13 +7278,13 @@
         <v>45237</v>
       </c>
       <c r="B211" t="n">
-        <v>4154.7705078125</v>
+        <v>4154.77099609375</v>
       </c>
       <c r="C211" t="n">
         <v>1847.8466796875</v>
       </c>
       <c r="D211" t="n">
-        <v>790.2977294921875</v>
+        <v>790.2977905273438</v>
       </c>
       <c r="E211" t="n">
         <v>416.7615966796875</v>
@@ -7295,10 +7293,10 @@
         <v>584.805908203125</v>
       </c>
       <c r="G211" t="n">
-        <v>1899.702270507812</v>
+        <v>1899.702392578125</v>
       </c>
       <c r="H211" t="n">
-        <v>205.0378112792969</v>
+        <v>205.0378265380859</v>
       </c>
       <c r="I211" t="n">
         <v>2911.0537109375</v>
@@ -7307,7 +7305,7 @@
         <v>1950.394775390625</v>
       </c>
       <c r="K211" t="n">
-        <v>8580.158203125</v>
+        <v>8580.1572265625</v>
       </c>
     </row>
     <row r="212">
@@ -7315,13 +7313,13 @@
         <v>45238</v>
       </c>
       <c r="B212" t="n">
-        <v>4220.66357421875</v>
+        <v>4220.6640625</v>
       </c>
       <c r="C212" t="n">
         <v>1841.441040039062</v>
       </c>
       <c r="D212" t="n">
-        <v>811.2554931640625</v>
+        <v>811.2554321289062</v>
       </c>
       <c r="E212" t="n">
         <v>418.2019653320312</v>
@@ -7368,7 +7366,7 @@
         <v>1912.999389648438</v>
       </c>
       <c r="H213" t="n">
-        <v>198.5650482177734</v>
+        <v>198.5650329589844</v>
       </c>
       <c r="I213" t="n">
         <v>2973.525634765625</v>
@@ -7385,7 +7383,7 @@
         <v>45240</v>
       </c>
       <c r="B214" t="n">
-        <v>4184.87939453125</v>
+        <v>4184.87890625</v>
       </c>
       <c r="C214" t="n">
         <v>1812.788818359375</v>
@@ -7403,7 +7401,7 @@
         <v>1920.908325195312</v>
       </c>
       <c r="H214" t="n">
-        <v>196.1751098632812</v>
+        <v>196.1750946044922</v>
       </c>
       <c r="I214" t="n">
         <v>2981.782958984375</v>
@@ -7420,7 +7418,7 @@
         <v>45243</v>
       </c>
       <c r="B215" t="n">
-        <v>4208.0283203125</v>
+        <v>4208.02783203125</v>
       </c>
       <c r="C215" t="n">
         <v>1822.273193359375</v>
@@ -7470,10 +7468,10 @@
         <v>614.0733642578125</v>
       </c>
       <c r="G216" t="n">
-        <v>1921.847534179688</v>
+        <v>1921.84765625</v>
       </c>
       <c r="H216" t="n">
-        <v>197.0215454101562</v>
+        <v>197.0215301513672</v>
       </c>
       <c r="I216" t="n">
         <v>3012.945068359375</v>
@@ -7517,7 +7515,7 @@
         <v>2053.75244140625</v>
       </c>
       <c r="K217" t="n">
-        <v>8668.3720703125</v>
+        <v>8668.37109375</v>
       </c>
     </row>
     <row r="218">
@@ -7531,7 +7529,7 @@
         <v>1835.581420898438</v>
       </c>
       <c r="D218" t="n">
-        <v>802.68408203125</v>
+        <v>802.6841430664062</v>
       </c>
       <c r="E218" t="n">
         <v>418.3013000488281</v>
@@ -7540,10 +7538,10 @@
         <v>623.0066528320312</v>
       </c>
       <c r="G218" t="n">
-        <v>1948.145263671875</v>
+        <v>1948.145141601562</v>
       </c>
       <c r="H218" t="n">
-        <v>208.4235992431641</v>
+        <v>208.423583984375</v>
       </c>
       <c r="I218" t="n">
         <v>3056.24755859375</v>
@@ -7566,7 +7564,7 @@
         <v>1815.917114257812</v>
       </c>
       <c r="D219" t="n">
-        <v>796.2927856445312</v>
+        <v>796.292724609375</v>
       </c>
       <c r="E219" t="n">
         <v>418.6986389160156</v>
@@ -7587,7 +7585,7 @@
         <v>2089.4091796875</v>
       </c>
       <c r="K219" t="n">
-        <v>8556.2021484375</v>
+        <v>8556.203125</v>
       </c>
     </row>
     <row r="220">
@@ -7595,13 +7593,13 @@
         <v>45251</v>
       </c>
       <c r="B220" t="n">
-        <v>4289.51806640625</v>
+        <v>4289.5185546875</v>
       </c>
       <c r="C220" t="n">
         <v>1826.941162109375</v>
       </c>
       <c r="D220" t="n">
-        <v>794.0631713867188</v>
+        <v>794.063232421875</v>
       </c>
       <c r="E220" t="n">
         <v>417.3576354980469</v>
@@ -7622,7 +7620,7 @@
         <v>2091.069580078125</v>
       </c>
       <c r="K220" t="n">
-        <v>8602.482421875</v>
+        <v>8602.4833984375</v>
       </c>
     </row>
     <row r="221">
@@ -7630,13 +7628,13 @@
         <v>45252</v>
       </c>
       <c r="B221" t="n">
-        <v>4180.04248046875</v>
+        <v>4180.0419921875</v>
       </c>
       <c r="C221" t="n">
         <v>1802.8076171875</v>
       </c>
       <c r="D221" t="n">
-        <v>784.69921875</v>
+        <v>784.6991577148438</v>
       </c>
       <c r="E221" t="n">
         <v>411.4968566894531</v>
@@ -7645,7 +7643,7 @@
         <v>624.3884887695312</v>
       </c>
       <c r="G221" t="n">
-        <v>1951.65478515625</v>
+        <v>1951.654663085938</v>
       </c>
       <c r="H221" t="n">
         <v>207.3281860351562</v>
@@ -7665,7 +7663,7 @@
         <v>45253</v>
       </c>
       <c r="B222" t="n">
-        <v>4205.8564453125</v>
+        <v>4205.85595703125</v>
       </c>
       <c r="C222" t="n">
         <v>1807.227172851562</v>
@@ -7680,10 +7678,10 @@
         <v>627.9420776367188</v>
       </c>
       <c r="G222" t="n">
-        <v>1934.650390625</v>
+        <v>1934.650268554688</v>
       </c>
       <c r="H222" t="n">
-        <v>205.0378112792969</v>
+        <v>205.0378265380859</v>
       </c>
       <c r="I222" t="n">
         <v>2993.972412109375</v>
@@ -7706,7 +7704,7 @@
         <v>1808.021606445312</v>
       </c>
       <c r="D223" t="n">
-        <v>788.31591796875</v>
+        <v>788.3159790039062</v>
       </c>
       <c r="E223" t="n">
         <v>411.5465087890625</v>
@@ -7762,7 +7760,7 @@
         <v>2124.54150390625</v>
       </c>
       <c r="K224" t="n">
-        <v>8620.412109375</v>
+        <v>8620.4130859375</v>
       </c>
     </row>
     <row r="225">
@@ -7823,7 +7821,7 @@
         <v>1982.648193359375</v>
       </c>
       <c r="H226" t="n">
-        <v>209.6185607910156</v>
+        <v>209.6185760498047</v>
       </c>
       <c r="I226" t="n">
         <v>3056.444091796875</v>
@@ -7846,7 +7844,7 @@
         <v>1887.224975585938</v>
       </c>
       <c r="D227" t="n">
-        <v>820.272705078125</v>
+        <v>820.2727661132812</v>
       </c>
       <c r="E227" t="n">
         <v>439.0624084472656</v>
@@ -7855,10 +7853,10 @@
         <v>621.131103515625</v>
       </c>
       <c r="G227" t="n">
-        <v>1993.127807617188</v>
+        <v>1993.1279296875</v>
       </c>
       <c r="H227" t="n">
-        <v>218.9294128417969</v>
+        <v>218.9294281005859</v>
       </c>
       <c r="I227" t="n">
         <v>3136.511962890625</v>
@@ -7875,7 +7873,7 @@
         <v>45264</v>
       </c>
       <c r="B228" t="n">
-        <v>4571.3046875</v>
+        <v>4571.30419921875</v>
       </c>
       <c r="C228" t="n">
         <v>2005.657592773438</v>
@@ -7890,7 +7888,7 @@
         <v>640.8731079101562</v>
       </c>
       <c r="G228" t="n">
-        <v>2029.608276367188</v>
+        <v>2029.608154296875</v>
       </c>
       <c r="H228" t="n">
         <v>216.6888427734375</v>
@@ -7925,7 +7923,7 @@
         <v>641.7120361328125</v>
       </c>
       <c r="G229" t="n">
-        <v>2048.78759765625</v>
+        <v>2048.787841796875</v>
       </c>
       <c r="H229" t="n">
         <v>226.0992736816406</v>
@@ -7937,7 +7935,7 @@
         <v>2239.318359375</v>
       </c>
       <c r="K229" t="n">
-        <v>9216.328125</v>
+        <v>9216.3291015625</v>
       </c>
     </row>
     <row r="230">
@@ -7980,7 +7978,7 @@
         <v>45267</v>
       </c>
       <c r="B231" t="n">
-        <v>4683.8896484375</v>
+        <v>4683.89013671875</v>
       </c>
       <c r="C231" t="n">
         <v>2126.87109375</v>
@@ -7995,7 +7993,7 @@
         <v>640.2314453125</v>
       </c>
       <c r="G231" t="n">
-        <v>2058.0810546875</v>
+        <v>2058.080810546875</v>
       </c>
       <c r="H231" t="n">
         <v>235.2109375</v>
@@ -8007,7 +8005,7 @@
         <v>2232.763916015625</v>
       </c>
       <c r="K231" t="n">
-        <v>9240.826171875</v>
+        <v>9240.8271484375</v>
       </c>
     </row>
     <row r="232">
@@ -8030,10 +8028,10 @@
         <v>641.5147094726562</v>
       </c>
       <c r="G232" t="n">
-        <v>2046.513671875</v>
+        <v>2046.513793945312</v>
       </c>
       <c r="H232" t="n">
-        <v>227.4436187744141</v>
+        <v>227.443603515625</v>
       </c>
       <c r="I232" t="n">
         <v>3321.125732421875</v>
@@ -8077,7 +8075,7 @@
         <v>2264.225830078125</v>
       </c>
       <c r="K233" t="n">
-        <v>9553.33203125</v>
+        <v>9553.3310546875</v>
       </c>
     </row>
     <row r="234">
@@ -8085,13 +8083,13 @@
         <v>45272</v>
       </c>
       <c r="B234" t="n">
-        <v>4660.69189453125</v>
+        <v>4660.69140625</v>
       </c>
       <c r="C234" t="n">
         <v>2160.538818359375</v>
       </c>
       <c r="D234" t="n">
-        <v>1032.475341796875</v>
+        <v>1032.475463867188</v>
       </c>
       <c r="E234" t="n">
         <v>498.0179748535156</v>
@@ -8100,10 +8098,10 @@
         <v>654.05078125</v>
       </c>
       <c r="G234" t="n">
-        <v>2057.092041015625</v>
+        <v>2057.09228515625</v>
       </c>
       <c r="H234" t="n">
-        <v>236.95361328125</v>
+        <v>236.9536285400391</v>
       </c>
       <c r="I234" t="n">
         <v>3285.687255859375</v>
@@ -8138,7 +8136,7 @@
         <v>2060.255615234375</v>
       </c>
       <c r="H235" t="n">
-        <v>237.8498687744141</v>
+        <v>237.849853515625</v>
       </c>
       <c r="I235" t="n">
         <v>3342.113525390625</v>
@@ -8155,7 +8153,7 @@
         <v>45274</v>
       </c>
       <c r="B236" t="n">
-        <v>4730.87939453125</v>
+        <v>4730.87890625</v>
       </c>
       <c r="C236" t="n">
         <v>2218.9853515625</v>
@@ -8182,7 +8180,7 @@
         <v>2282.753173828125</v>
       </c>
       <c r="K236" t="n">
-        <v>9842.1767578125</v>
+        <v>9842.17578125</v>
       </c>
     </row>
     <row r="237">
@@ -8190,7 +8188,7 @@
         <v>45275</v>
       </c>
       <c r="B237" t="n">
-        <v>4773.03125</v>
+        <v>4773.03076171875</v>
       </c>
       <c r="C237" t="n">
         <v>2197.18603515625</v>
@@ -8205,7 +8203,7 @@
         <v>696.1998291015625</v>
       </c>
       <c r="G237" t="n">
-        <v>2103.508544921875</v>
+        <v>2103.50830078125</v>
       </c>
       <c r="H237" t="n">
         <v>230.6302185058594</v>
@@ -8217,7 +8215,7 @@
         <v>2276.48974609375</v>
       </c>
       <c r="K237" t="n">
-        <v>9907.5224609375</v>
+        <v>9907.5234375</v>
       </c>
     </row>
     <row r="238">
@@ -8225,7 +8223,7 @@
         <v>45278</v>
       </c>
       <c r="B238" t="n">
-        <v>4825.64599609375</v>
+        <v>4825.64697265625</v>
       </c>
       <c r="C238" t="n">
         <v>2221.9150390625</v>
@@ -8240,7 +8238,7 @@
         <v>688.1056518554688</v>
       </c>
       <c r="G238" t="n">
-        <v>2085.762451171875</v>
+        <v>2085.7626953125</v>
       </c>
       <c r="H238" t="n">
         <v>231.0285339355469</v>
@@ -8260,7 +8258,7 @@
         <v>45279</v>
       </c>
       <c r="B239" t="n">
-        <v>4776.83203125</v>
+        <v>4776.83154296875</v>
       </c>
       <c r="C239" t="n">
         <v>2187.6513671875</v>
@@ -8275,7 +8273,7 @@
         <v>689.0433959960938</v>
       </c>
       <c r="G239" t="n">
-        <v>2094.166015625</v>
+        <v>2094.165771484375</v>
       </c>
       <c r="H239" t="n">
         <v>223.8586883544922</v>
@@ -8295,7 +8293,7 @@
         <v>45280</v>
       </c>
       <c r="B240" t="n">
-        <v>4555.11474609375</v>
+        <v>4555.115234375</v>
       </c>
       <c r="C240" t="n">
         <v>2072.347412109375</v>
@@ -8310,7 +8308,7 @@
         <v>666.63623046875</v>
       </c>
       <c r="G240" t="n">
-        <v>2040.087890625</v>
+        <v>2040.087768554688</v>
       </c>
       <c r="H240" t="n">
         <v>209.9671020507812</v>
@@ -8330,13 +8328,13 @@
         <v>45281</v>
       </c>
       <c r="B241" t="n">
-        <v>4624.36376953125</v>
+        <v>4624.3642578125</v>
       </c>
       <c r="C241" t="n">
         <v>2092.955078125</v>
       </c>
       <c r="D241" t="n">
-        <v>1009.6845703125</v>
+        <v>1009.684631347656</v>
       </c>
       <c r="E241" t="n">
         <v>500.5509948730469</v>
@@ -8345,10 +8343,10 @@
         <v>683.9598999023438</v>
       </c>
       <c r="G241" t="n">
-        <v>2061.886962890625</v>
+        <v>2061.88720703125</v>
       </c>
       <c r="H241" t="n">
-        <v>213.4026641845703</v>
+        <v>213.4026489257812</v>
       </c>
       <c r="I241" t="n">
         <v>3366.050048828125</v>
@@ -8357,7 +8355,7 @@
         <v>2311.24365234375</v>
       </c>
       <c r="K241" t="n">
-        <v>9833.4345703125</v>
+        <v>9833.43359375</v>
       </c>
     </row>
     <row r="242">
@@ -8371,7 +8369,7 @@
         <v>2076.419189453125</v>
       </c>
       <c r="D242" t="n">
-        <v>1018.156860351562</v>
+        <v>1018.156799316406</v>
       </c>
       <c r="E242" t="n">
         <v>500.45166015625</v>
@@ -8380,7 +8378,7 @@
         <v>706.7124633789062</v>
       </c>
       <c r="G242" t="n">
-        <v>2022.93505859375</v>
+        <v>2022.934936523438</v>
       </c>
       <c r="H242" t="n">
         <v>219.5766906738281</v>
@@ -8392,7 +8390,7 @@
         <v>2304.6015625</v>
       </c>
       <c r="K242" t="n">
-        <v>9847.8076171875</v>
+        <v>9847.806640625</v>
       </c>
     </row>
     <row r="243">
@@ -8400,7 +8398,7 @@
         <v>45286</v>
       </c>
       <c r="B243" t="n">
-        <v>4710.099609375</v>
+        <v>4710.09912109375</v>
       </c>
       <c r="C243" t="n">
         <v>2099.06298828125</v>
@@ -8453,7 +8451,7 @@
         <v>2100.641357421875</v>
       </c>
       <c r="H244" t="n">
-        <v>211.3114471435547</v>
+        <v>211.3114318847656</v>
       </c>
       <c r="I244" t="n">
         <v>3483.86669921875</v>
@@ -8462,7 +8460,7 @@
         <v>2317.4775390625</v>
       </c>
       <c r="K244" t="n">
-        <v>10309.2275390625</v>
+        <v>10309.228515625</v>
       </c>
     </row>
     <row r="245">
@@ -8497,7 +8495,7 @@
         <v>2307.106689453125</v>
       </c>
       <c r="K245" t="n">
-        <v>10299.546875</v>
+        <v>10299.5478515625</v>
       </c>
     </row>
     <row r="246">
@@ -8532,7 +8530,7 @@
         <v>2344.889892578125</v>
       </c>
       <c r="K246" t="n">
-        <v>10375.3642578125</v>
+        <v>10375.365234375</v>
       </c>
     </row>
     <row r="247">
@@ -8540,7 +8538,7 @@
         <v>45292</v>
       </c>
       <c r="B247" t="n">
-        <v>4622.09375</v>
+        <v>4622.09423828125</v>
       </c>
       <c r="C247" t="n">
         <v>2227.923828125</v>
@@ -8558,7 +8556,7 @@
         <v>2103.113037109375</v>
       </c>
       <c r="H247" t="n">
-        <v>209.7679290771484</v>
+        <v>209.7679443359375</v>
       </c>
       <c r="I247" t="n">
         <v>3465.63134765625</v>
@@ -8581,7 +8579,7 @@
         <v>2251.759033203125</v>
       </c>
       <c r="D248" t="n">
-        <v>1068.594116210938</v>
+        <v>1068.593994140625</v>
       </c>
       <c r="E248" t="n">
         <v>527.37158203125</v>
@@ -8590,7 +8588,7 @@
         <v>704.6395263671875</v>
       </c>
       <c r="G248" t="n">
-        <v>2077.556640625</v>
+        <v>2077.556884765625</v>
       </c>
       <c r="H248" t="n">
         <v>209.3696136474609</v>
@@ -8616,7 +8614,7 @@
         <v>2264.57080078125</v>
       </c>
       <c r="D249" t="n">
-        <v>1084.299926757812</v>
+        <v>1084.2998046875</v>
       </c>
       <c r="E249" t="n">
         <v>532.5369873046875</v>
@@ -8628,7 +8626,7 @@
         <v>2048.639404296875</v>
       </c>
       <c r="H249" t="n">
-        <v>212.7553558349609</v>
+        <v>212.75537109375</v>
       </c>
       <c r="I249" t="n">
         <v>3381.9755859375</v>
@@ -8645,7 +8643,7 @@
         <v>45295</v>
       </c>
       <c r="B250" t="n">
-        <v>4762.81396484375</v>
+        <v>4762.8134765625</v>
       </c>
       <c r="C250" t="n">
         <v>2342.0361328125</v>
@@ -8663,7 +8661,7 @@
         <v>2046.662109375</v>
       </c>
       <c r="H250" t="n">
-        <v>213.4026641845703</v>
+        <v>213.4026489257812</v>
       </c>
       <c r="I250" t="n">
         <v>3400.013916015625</v>
@@ -8672,7 +8670,7 @@
         <v>2382.14892578125</v>
       </c>
       <c r="K250" t="n">
-        <v>9893.05078125</v>
+        <v>9893.0498046875</v>
       </c>
     </row>
     <row r="251">
@@ -8695,7 +8693,7 @@
         <v>743.2350463867188</v>
       </c>
       <c r="G251" t="n">
-        <v>2055.8564453125</v>
+        <v>2055.856201171875</v>
       </c>
       <c r="H251" t="n">
         <v>217.9833831787109</v>
@@ -8715,7 +8713,7 @@
         <v>45299</v>
       </c>
       <c r="B252" t="n">
-        <v>4691.93603515625</v>
+        <v>4691.935546875</v>
       </c>
       <c r="C252" t="n">
         <v>2338.609619140625</v>
@@ -8730,7 +8728,7 @@
         <v>749.5031127929688</v>
       </c>
       <c r="G252" t="n">
-        <v>2044.190551757812</v>
+        <v>2044.190673828125</v>
       </c>
       <c r="H252" t="n">
         <v>215.394287109375</v>
@@ -8765,10 +8763,10 @@
         <v>779.4121704101562</v>
       </c>
       <c r="G253" t="n">
-        <v>2040.582153320312</v>
+        <v>2040.582275390625</v>
       </c>
       <c r="H253" t="n">
-        <v>216.5892639160156</v>
+        <v>216.5892486572266</v>
       </c>
       <c r="I253" t="n">
         <v>3495.614013671875</v>
@@ -8777,7 +8775,7 @@
         <v>2443.178955078125</v>
       </c>
       <c r="K253" t="n">
-        <v>9778.7568359375</v>
+        <v>9778.755859375</v>
       </c>
     </row>
     <row r="254">
@@ -8785,7 +8783,7 @@
         <v>45301</v>
       </c>
       <c r="B254" t="n">
-        <v>4872.33935546875</v>
+        <v>4872.33984375</v>
       </c>
       <c r="C254" t="n">
         <v>2290.789794921875</v>
@@ -8835,7 +8833,7 @@
         <v>787.160888671875</v>
       </c>
       <c r="G255" t="n">
-        <v>2068.19970703125</v>
+        <v>2068.199462890625</v>
       </c>
       <c r="H255" t="n">
         <v>211.3612365722656</v>
@@ -8890,7 +8888,7 @@
         <v>45306</v>
       </c>
       <c r="B257" t="n">
-        <v>4691.8857421875</v>
+        <v>4691.88623046875</v>
       </c>
       <c r="C257" t="n">
         <v>2304.494873046875</v>
@@ -8905,7 +8903,7 @@
         <v>795.0083618164062</v>
       </c>
       <c r="G257" t="n">
-        <v>2085.370849609375</v>
+        <v>2085.37109375</v>
       </c>
       <c r="H257" t="n">
         <v>209.9173126220703</v>
@@ -8917,7 +8915,7 @@
         <v>2425.787353515625</v>
       </c>
       <c r="K257" t="n">
-        <v>9833.5322265625</v>
+        <v>9833.533203125</v>
       </c>
     </row>
     <row r="258">
@@ -8925,7 +8923,7 @@
         <v>45307</v>
       </c>
       <c r="B258" t="n">
-        <v>4747.56201171875</v>
+        <v>4747.5625</v>
       </c>
       <c r="C258" t="n">
         <v>2278.72314453125</v>
@@ -8952,7 +8950,7 @@
         <v>2390.77197265625</v>
       </c>
       <c r="K258" t="n">
-        <v>9848.3994140625</v>
+        <v>9848.400390625</v>
       </c>
     </row>
     <row r="259">
@@ -8966,7 +8964,7 @@
         <v>2236.365478515625</v>
       </c>
       <c r="D259" t="n">
-        <v>1156.239624023438</v>
+        <v>1156.23974609375</v>
       </c>
       <c r="E259" t="n">
         <v>517.09033203125</v>
@@ -8975,7 +8973,7 @@
         <v>765.2966918945312</v>
       </c>
       <c r="G259" t="n">
-        <v>2052.467529296875</v>
+        <v>2052.4677734375</v>
       </c>
       <c r="H259" t="n">
         <v>207.0792388916016</v>
@@ -9010,7 +9008,7 @@
         <v>765.44482421875</v>
       </c>
       <c r="G260" t="n">
-        <v>2038.373168945312</v>
+        <v>2038.373046875</v>
       </c>
       <c r="H260" t="n">
         <v>207.0792388916016</v>
@@ -9030,7 +9028,7 @@
         <v>45310</v>
       </c>
       <c r="B261" t="n">
-        <v>4758.5693359375</v>
+        <v>4758.56884765625</v>
       </c>
       <c r="C261" t="n">
         <v>2261.491943359375</v>
@@ -9065,13 +9063,13 @@
         <v>45314</v>
       </c>
       <c r="B262" t="n">
-        <v>4709.3095703125</v>
+        <v>4709.30908203125</v>
       </c>
       <c r="C262" t="n">
         <v>2192.81591796875</v>
       </c>
       <c r="D262" t="n">
-        <v>1126.760131835938</v>
+        <v>1126.76025390625</v>
       </c>
       <c r="E262" t="n">
         <v>521.5604248046875</v>
@@ -9083,7 +9081,7 @@
         <v>2034.353393554688</v>
       </c>
       <c r="H262" t="n">
-        <v>205.1871948242188</v>
+        <v>205.1872100830078</v>
       </c>
       <c r="I262" t="n">
         <v>3490.747802734375</v>
@@ -9092,7 +9090,7 @@
         <v>2379.381591796875</v>
       </c>
       <c r="K262" t="n">
-        <v>9711.484375</v>
+        <v>9711.4853515625</v>
       </c>
     </row>
     <row r="263">
@@ -9115,7 +9113,7 @@
         <v>737.7567138671875</v>
       </c>
       <c r="G263" t="n">
-        <v>2055.891845703125</v>
+        <v>2055.89208984375</v>
       </c>
       <c r="H263" t="n">
         <v>206.8302917480469</v>
@@ -9141,7 +9139,7 @@
         <v>2450.73583984375</v>
       </c>
       <c r="D264" t="n">
-        <v>1135.876586914062</v>
+        <v>1135.876708984375</v>
       </c>
       <c r="E264" t="n">
         <v>556.4271850585938</v>
@@ -9197,7 +9195,7 @@
         <v>2508.520263671875</v>
       </c>
       <c r="K265" t="n">
-        <v>10149.1494140625</v>
+        <v>10149.1484375</v>
       </c>
     </row>
     <row r="266">
@@ -9223,7 +9221,7 @@
         <v>2110.333740234375</v>
       </c>
       <c r="H266" t="n">
-        <v>212.5064086914062</v>
+        <v>212.5064239501953</v>
       </c>
       <c r="I266" t="n">
         <v>3571.6513671875</v>
@@ -9240,7 +9238,7 @@
         <v>45322</v>
       </c>
       <c r="B267" t="n">
-        <v>4611.62939453125</v>
+        <v>4611.6298828125</v>
       </c>
       <c r="C267" t="n">
         <v>2526.860595703125</v>
@@ -9267,7 +9265,7 @@
         <v>2421.88232421875</v>
       </c>
       <c r="K267" t="n">
-        <v>10043.74609375</v>
+        <v>10043.7451171875</v>
       </c>
     </row>
     <row r="268">
@@ -9316,7 +9314,7 @@
         <v>2482.317626953125</v>
       </c>
       <c r="D269" t="n">
-        <v>1249.979370117188</v>
+        <v>1249.9794921875</v>
       </c>
       <c r="E269" t="n">
         <v>553.6954345703125</v>
@@ -9328,7 +9326,7 @@
         <v>2123.534912109375</v>
       </c>
       <c r="H269" t="n">
-        <v>223.5599517822266</v>
+        <v>223.5599365234375</v>
       </c>
       <c r="I269" t="n">
         <v>3318.766357421875</v>
@@ -9360,7 +9358,7 @@
         <v>776.4508666992188</v>
       </c>
       <c r="G270" t="n">
-        <v>2074.20458984375</v>
+        <v>2074.204833984375</v>
       </c>
       <c r="H270" t="n">
         <v>220.8214569091797</v>
@@ -9380,7 +9378,7 @@
         <v>45328</v>
       </c>
       <c r="B271" t="n">
-        <v>4346.47802734375</v>
+        <v>4346.4775390625</v>
       </c>
       <c r="C271" t="n">
         <v>2510.92041015625</v>
@@ -9415,13 +9413,13 @@
         <v>45329</v>
       </c>
       <c r="B272" t="n">
-        <v>4516.36865234375</v>
+        <v>4516.369140625</v>
       </c>
       <c r="C272" t="n">
         <v>2488.3759765625</v>
       </c>
       <c r="D272" t="n">
-        <v>1244.232177734375</v>
+        <v>1244.232299804688</v>
       </c>
       <c r="E272" t="n">
         <v>564.4237060546875</v>
@@ -9433,7 +9431,7 @@
         <v>2095.79296875</v>
       </c>
       <c r="H272" t="n">
-        <v>217.1867370605469</v>
+        <v>217.1867523193359</v>
       </c>
       <c r="I272" t="n">
         <v>3337.10009765625</v>
@@ -9450,7 +9448,7 @@
         <v>45330</v>
       </c>
       <c r="B273" t="n">
-        <v>4393.26953125</v>
+        <v>4393.26904296875</v>
       </c>
       <c r="C273" t="n">
         <v>2493.639892578125</v>
@@ -9465,7 +9463,7 @@
         <v>820.1299438476562</v>
       </c>
       <c r="G273" t="n">
-        <v>2041.996215820312</v>
+        <v>2041.995971679688</v>
       </c>
       <c r="H273" t="n">
         <v>210.7637329101562</v>
@@ -9485,7 +9483,7 @@
         <v>45331</v>
       </c>
       <c r="B274" t="n">
-        <v>4431.81787109375</v>
+        <v>4431.818359375</v>
       </c>
       <c r="C274" t="n">
         <v>2610.03662109375</v>
@@ -9570,7 +9568,7 @@
         <v>818.6492919921875</v>
       </c>
       <c r="G276" t="n">
-        <v>2048.794921875</v>
+        <v>2048.795166015625</v>
       </c>
       <c r="H276" t="n">
         <v>215.5934448242188</v>
@@ -9590,7 +9588,7 @@
         <v>45336</v>
       </c>
       <c r="B277" t="n">
-        <v>4499.88232421875</v>
+        <v>4499.88330078125</v>
       </c>
       <c r="C277" t="n">
         <v>2601.644287109375</v>
@@ -9605,7 +9603,7 @@
         <v>832.912841796875</v>
       </c>
       <c r="G277" t="n">
-        <v>2064.328857421875</v>
+        <v>2064.32861328125</v>
       </c>
       <c r="H277" t="n">
         <v>216.4896697998047</v>
@@ -9625,13 +9623,13 @@
         <v>45337</v>
       </c>
       <c r="B278" t="n">
-        <v>4411.2353515625</v>
+        <v>4411.23583984375</v>
       </c>
       <c r="C278" t="n">
         <v>2619.570556640625</v>
       </c>
       <c r="D278" t="n">
-        <v>1255.528564453125</v>
+        <v>1255.528686523438</v>
       </c>
       <c r="E278" t="n">
         <v>568.44677734375</v>
@@ -9643,7 +9641,7 @@
         <v>2069.29150390625</v>
       </c>
       <c r="H278" t="n">
-        <v>221.0206298828125</v>
+        <v>221.0206146240234</v>
       </c>
       <c r="I278" t="n">
         <v>3244.301513671875</v>
@@ -9660,13 +9658,13 @@
         <v>45338</v>
       </c>
       <c r="B279" t="n">
-        <v>4466.072265625</v>
+        <v>4466.07275390625</v>
       </c>
       <c r="C279" t="n">
         <v>2701.753173828125</v>
       </c>
       <c r="D279" t="n">
-        <v>1294.966552734375</v>
+        <v>1294.966674804688</v>
       </c>
       <c r="E279" t="n">
         <v>581.2113037109375</v>
@@ -9695,13 +9693,13 @@
         <v>45341</v>
       </c>
       <c r="B280" t="n">
-        <v>4431.2255859375</v>
+        <v>4431.22607421875</v>
       </c>
       <c r="C280" t="n">
         <v>2652.195556640625</v>
       </c>
       <c r="D280" t="n">
-        <v>1295.115234375</v>
+        <v>1295.115356445312</v>
       </c>
       <c r="E280" t="n">
         <v>580.9630126953125</v>
@@ -9710,10 +9708,10 @@
         <v>837.6509399414062</v>
       </c>
       <c r="G280" t="n">
-        <v>2152.468017578125</v>
+        <v>2152.46826171875</v>
       </c>
       <c r="H280" t="n">
-        <v>232.1239471435547</v>
+        <v>232.1239318847656</v>
       </c>
       <c r="I280" t="n">
         <v>3283.180908203125</v>
@@ -9748,7 +9746,7 @@
         <v>2175.942138671875</v>
       </c>
       <c r="H281" t="n">
-        <v>237.8498687744141</v>
+        <v>237.849853515625</v>
       </c>
       <c r="I281" t="n">
         <v>3299.7939453125</v>
@@ -9757,7 +9755,7 @@
         <v>2594.64404296875</v>
       </c>
       <c r="K281" t="n">
-        <v>9857.63671875</v>
+        <v>9857.6357421875</v>
       </c>
     </row>
     <row r="282">
@@ -9771,7 +9769,7 @@
         <v>2648.47119140625</v>
       </c>
       <c r="D282" t="n">
-        <v>1279.2607421875</v>
+        <v>1279.260864257812</v>
       </c>
       <c r="E282" t="n">
         <v>583.8933715820312</v>
@@ -9783,7 +9781,7 @@
         <v>2177.67919921875</v>
       </c>
       <c r="H282" t="n">
-        <v>232.1239471435547</v>
+        <v>232.1239318847656</v>
       </c>
       <c r="I282" t="n">
         <v>3240.4677734375</v>
@@ -9800,7 +9798,7 @@
         <v>45344</v>
       </c>
       <c r="B283" t="n">
-        <v>5355.35888671875</v>
+        <v>5355.3583984375</v>
       </c>
       <c r="C283" t="n">
         <v>2661.729736328125</v>
@@ -9835,13 +9833,13 @@
         <v>45345</v>
       </c>
       <c r="B284" t="n">
-        <v>5322.8310546875</v>
+        <v>5322.83154296875</v>
       </c>
       <c r="C284" t="n">
         <v>2661.183349609375</v>
       </c>
       <c r="D284" t="n">
-        <v>1308.690673828125</v>
+        <v>1308.690795898438</v>
       </c>
       <c r="E284" t="n">
         <v>598.9426879882812</v>
@@ -9885,7 +9883,7 @@
         <v>891.2503662109375</v>
       </c>
       <c r="G285" t="n">
-        <v>2170.632080078125</v>
+        <v>2170.6318359375</v>
       </c>
       <c r="H285" t="n">
         <v>254.2309722900391</v>
@@ -9897,7 +9895,7 @@
         <v>2670.686279296875</v>
       </c>
       <c r="K285" t="n">
-        <v>9809.330078125</v>
+        <v>9809.3310546875</v>
       </c>
     </row>
     <row r="286">
@@ -9905,13 +9903,13 @@
         <v>45349</v>
       </c>
       <c r="B286" t="n">
-        <v>5380.53076171875</v>
+        <v>5380.53125</v>
       </c>
       <c r="C286" t="n">
         <v>2651.10302734375</v>
       </c>
       <c r="D286" t="n">
-        <v>1317.361083984375</v>
+        <v>1317.361206054688</v>
       </c>
       <c r="E286" t="n">
         <v>599.3400268554688</v>
@@ -9923,7 +9921,7 @@
         <v>2188.39892578125</v>
       </c>
       <c r="H286" t="n">
-        <v>248.7539978027344</v>
+        <v>248.7540130615234</v>
       </c>
       <c r="I286" t="n">
         <v>3446.95361328125</v>
@@ -9932,7 +9930,7 @@
         <v>2682.121826171875</v>
       </c>
       <c r="K286" t="n">
-        <v>9830.1240234375</v>
+        <v>9830.125</v>
       </c>
     </row>
     <row r="287">
@@ -9940,13 +9938,13 @@
         <v>45350</v>
       </c>
       <c r="B287" t="n">
-        <v>5358.91259765625</v>
+        <v>5358.91162109375</v>
       </c>
       <c r="C287" t="n">
         <v>2555.612060546875</v>
       </c>
       <c r="D287" t="n">
-        <v>1287.68359375</v>
+        <v>1287.683471679688</v>
       </c>
       <c r="E287" t="n">
         <v>585.3338012695312</v>
@@ -9958,7 +9956,7 @@
         <v>2169.73876953125</v>
       </c>
       <c r="H287" t="n">
-        <v>245.8661499023438</v>
+        <v>245.8661346435547</v>
       </c>
       <c r="I287" t="n">
         <v>3411.31884765625</v>
@@ -9967,7 +9965,7 @@
         <v>2677.14990234375</v>
       </c>
       <c r="K287" t="n">
-        <v>9685.7509765625</v>
+        <v>9685.751953125</v>
       </c>
     </row>
     <row r="288">
@@ -9990,10 +9988,10 @@
         <v>889.572265625</v>
       </c>
       <c r="G288" t="n">
-        <v>2175.098388671875</v>
+        <v>2175.0986328125</v>
       </c>
       <c r="H288" t="n">
-        <v>255.4259490966797</v>
+        <v>255.4259643554688</v>
       </c>
       <c r="I288" t="n">
         <v>3418.544189453125</v>
@@ -10010,7 +10008,7 @@
         <v>45352</v>
       </c>
       <c r="B289" t="n">
-        <v>5419.37548828125</v>
+        <v>5419.3759765625</v>
       </c>
       <c r="C289" t="n">
         <v>2676.974365234375</v>
@@ -10028,7 +10026,7 @@
         <v>2238.1259765625</v>
       </c>
       <c r="H289" t="n">
-        <v>256.1728210449219</v>
+        <v>256.1727905273438</v>
       </c>
       <c r="I289" t="n">
         <v>3571.84814453125</v>
@@ -10045,13 +10043,13 @@
         <v>45355</v>
       </c>
       <c r="B290" t="n">
-        <v>5559.25634765625</v>
+        <v>5559.2568359375</v>
       </c>
       <c r="C290" t="n">
         <v>2677.173095703125</v>
       </c>
       <c r="D290" t="n">
-        <v>1330.391479492188</v>
+        <v>1330.3916015625</v>
       </c>
       <c r="E290" t="n">
         <v>613.04833984375</v>
@@ -10072,7 +10070,7 @@
         <v>2742.897216796875</v>
       </c>
       <c r="K290" t="n">
-        <v>9857.0927734375</v>
+        <v>9857.09375</v>
       </c>
     </row>
     <row r="291">
@@ -10080,13 +10078,13 @@
         <v>45356</v>
       </c>
       <c r="B291" t="n">
-        <v>5607.92431640625</v>
+        <v>5607.923828125</v>
       </c>
       <c r="C291" t="n">
         <v>2650.457275390625</v>
       </c>
       <c r="D291" t="n">
-        <v>1326.130737304688</v>
+        <v>1326.130859375</v>
       </c>
       <c r="E291" t="n">
         <v>609.0252075195312</v>
@@ -10121,7 +10119,7 @@
         <v>2623.890869140625</v>
       </c>
       <c r="D292" t="n">
-        <v>1312.75341796875</v>
+        <v>1312.753540039062</v>
       </c>
       <c r="E292" t="n">
         <v>594.3236083984375</v>
@@ -10150,7 +10148,7 @@
         <v>45358</v>
       </c>
       <c r="B293" t="n">
-        <v>5696.66943359375</v>
+        <v>5696.669921875</v>
       </c>
       <c r="C293" t="n">
         <v>2620.712646484375</v>
@@ -10177,7 +10175,7 @@
         <v>2730.87646484375</v>
       </c>
       <c r="K293" t="n">
-        <v>9555.5537109375</v>
+        <v>9555.5546875</v>
       </c>
     </row>
     <row r="294">
@@ -10200,10 +10198,10 @@
         <v>899.4926147460938</v>
       </c>
       <c r="G294" t="n">
-        <v>2220.160888671875</v>
+        <v>2220.16064453125</v>
       </c>
       <c r="H294" t="n">
-        <v>252.1397705078125</v>
+        <v>252.1397552490234</v>
       </c>
       <c r="I294" t="n">
         <v>3578.82763671875</v>
@@ -10212,7 +10210,7 @@
         <v>2767.259765625</v>
       </c>
       <c r="K294" t="n">
-        <v>9580.00390625</v>
+        <v>9580.0029296875</v>
       </c>
     </row>
     <row r="295">
@@ -10220,13 +10218,13 @@
         <v>45363</v>
       </c>
       <c r="B295" t="n">
-        <v>5644.5966796875</v>
+        <v>5644.59716796875</v>
       </c>
       <c r="C295" t="n">
         <v>2544.0419921875</v>
       </c>
       <c r="D295" t="n">
-        <v>1289.46728515625</v>
+        <v>1289.467163085938</v>
       </c>
       <c r="E295" t="n">
         <v>583.64501953125</v>
@@ -10235,7 +10233,7 @@
         <v>853.2470703125</v>
       </c>
       <c r="G295" t="n">
-        <v>2167.753662109375</v>
+        <v>2167.75341796875</v>
       </c>
       <c r="H295" t="n">
         <v>236.7046661376953</v>
@@ -10273,7 +10271,7 @@
         <v>2133.11328125</v>
       </c>
       <c r="H296" t="n">
-        <v>214.5976409912109</v>
+        <v>214.5976257324219</v>
       </c>
       <c r="I296" t="n">
         <v>3478.509033203125</v>
@@ -10282,7 +10280,7 @@
         <v>2720.02587890625</v>
       </c>
       <c r="K296" t="n">
-        <v>9476.921875</v>
+        <v>9476.9208984375</v>
       </c>
     </row>
     <row r="297">
@@ -10290,7 +10288,7 @@
         <v>45365</v>
       </c>
       <c r="B297" t="n">
-        <v>5553.185546875</v>
+        <v>5553.18603515625</v>
       </c>
       <c r="C297" t="n">
         <v>2465.0869140625</v>
@@ -10331,7 +10329,7 @@
         <v>2485.7939453125</v>
       </c>
       <c r="D298" t="n">
-        <v>1271.33349609375</v>
+        <v>1271.333618164062</v>
       </c>
       <c r="E298" t="n">
         <v>596.75732421875</v>
@@ -10340,7 +10338,7 @@
         <v>813.0722045898438</v>
       </c>
       <c r="G298" t="n">
-        <v>2180.75634765625</v>
+        <v>2180.756103515625</v>
       </c>
       <c r="H298" t="n">
         <v>230.7297973632812</v>
@@ -10378,7 +10376,7 @@
         <v>2186.711669921875</v>
       </c>
       <c r="H299" t="n">
-        <v>245.9159240722656</v>
+        <v>245.9159393310547</v>
       </c>
       <c r="I299" t="n">
         <v>3500.77490234375</v>
@@ -10410,7 +10408,7 @@
         <v>812.4306030273438</v>
       </c>
       <c r="G300" t="n">
-        <v>2157.62939453125</v>
+        <v>2157.629638671875</v>
       </c>
       <c r="H300" t="n">
         <v>239.7916870117188</v>
@@ -10445,7 +10443,7 @@
         <v>815.293212890625</v>
       </c>
       <c r="G301" t="n">
-        <v>2151.37646484375</v>
+        <v>2151.376220703125</v>
       </c>
       <c r="H301" t="n">
         <v>232.9703674316406</v>
@@ -10457,7 +10455,7 @@
         <v>2754.800537109375</v>
       </c>
       <c r="K301" t="n">
-        <v>9369.2470703125</v>
+        <v>9369.24609375</v>
       </c>
     </row>
     <row r="302">
@@ -10465,7 +10463,7 @@
         <v>45372</v>
       </c>
       <c r="B302" t="n">
-        <v>5789.611328125</v>
+        <v>5789.61083984375</v>
       </c>
       <c r="C302" t="n">
         <v>2422.13330078125</v>
@@ -10480,7 +10478,7 @@
         <v>846.6336059570312</v>
       </c>
       <c r="G302" t="n">
-        <v>2189.143310546875</v>
+        <v>2189.14306640625</v>
       </c>
       <c r="H302" t="n">
         <v>235.4598999023438</v>
@@ -10506,7 +10504,7 @@
         <v>2426.5029296875</v>
       </c>
       <c r="D303" t="n">
-        <v>1269.9462890625</v>
+        <v>1269.946166992188</v>
       </c>
       <c r="E303" t="n">
         <v>585.43310546875</v>
@@ -10515,10 +10513,10 @@
         <v>854.727783203125</v>
       </c>
       <c r="G303" t="n">
-        <v>2207.009521484375</v>
+        <v>2207.00927734375</v>
       </c>
       <c r="H303" t="n">
-        <v>238.0490112304688</v>
+        <v>238.0490264892578</v>
       </c>
       <c r="I303" t="n">
         <v>3556.41455078125</v>
@@ -10535,7 +10533,7 @@
         <v>45377</v>
       </c>
       <c r="B304" t="n">
-        <v>5853.677734375</v>
+        <v>5853.67822265625</v>
       </c>
       <c r="C304" t="n">
         <v>2433.206787109375</v>
@@ -10550,10 +10548,10 @@
         <v>862.1310424804688</v>
       </c>
       <c r="G304" t="n">
-        <v>2223.38671875</v>
+        <v>2223.386474609375</v>
       </c>
       <c r="H304" t="n">
-        <v>238.3477630615234</v>
+        <v>238.3477783203125</v>
       </c>
       <c r="I304" t="n">
         <v>3607.8271484375</v>
@@ -10562,7 +10560,7 @@
         <v>2982.400390625</v>
       </c>
       <c r="K304" t="n">
-        <v>9483.984375</v>
+        <v>9483.9853515625</v>
       </c>
     </row>
     <row r="305">
@@ -10605,7 +10603,7 @@
         <v>45379</v>
       </c>
       <c r="B306" t="n">
-        <v>6279.1943359375</v>
+        <v>6279.1953125</v>
       </c>
       <c r="C306" t="n">
         <v>2474.62109375</v>
@@ -10623,7 +10621,7 @@
         <v>2270.28515625</v>
       </c>
       <c r="H306" t="n">
-        <v>244.3226318359375</v>
+        <v>244.3226470947266</v>
       </c>
       <c r="I306" t="n">
         <v>3700.035400390625</v>
@@ -10640,7 +10638,7 @@
         <v>45383</v>
       </c>
       <c r="B307" t="n">
-        <v>6421.14794921875</v>
+        <v>6421.14892578125</v>
       </c>
       <c r="C307" t="n">
         <v>2527.10888671875</v>
@@ -10658,7 +10656,7 @@
         <v>2275.49609375</v>
       </c>
       <c r="H307" t="n">
-        <v>246.0155334472656</v>
+        <v>246.0155181884766</v>
       </c>
       <c r="I307" t="n">
         <v>3772.878173828125</v>
@@ -10667,7 +10665,7 @@
         <v>3195.46435546875</v>
       </c>
       <c r="K307" t="n">
-        <v>9833.384765625</v>
+        <v>9833.3857421875</v>
       </c>
     </row>
     <row r="308">
@@ -10675,7 +10673,7 @@
         <v>45384</v>
       </c>
       <c r="B308" t="n">
-        <v>6347.30908203125</v>
+        <v>6347.30859375</v>
       </c>
       <c r="C308" t="n">
         <v>2630.4951171875</v>
@@ -10702,7 +10700,7 @@
         <v>3262.118408203125</v>
       </c>
       <c r="K308" t="n">
-        <v>9916.1171875</v>
+        <v>9916.1162109375</v>
       </c>
     </row>
     <row r="309">
@@ -10710,7 +10708,7 @@
         <v>45385</v>
       </c>
       <c r="B309" t="n">
-        <v>6420.55615234375</v>
+        <v>6420.5556640625</v>
       </c>
       <c r="C309" t="n">
         <v>2615.89599609375</v>
@@ -10745,13 +10743,13 @@
         <v>45386</v>
       </c>
       <c r="B310" t="n">
-        <v>6418.33447265625</v>
+        <v>6418.3349609375</v>
       </c>
       <c r="C310" t="n">
         <v>2598.317138671875</v>
       </c>
       <c r="D310" t="n">
-        <v>1354.421142578125</v>
+        <v>1354.421020507812</v>
       </c>
       <c r="E310" t="n">
         <v>620.5481567382812</v>
@@ -10772,7 +10770,7 @@
         <v>3291.482177734375</v>
       </c>
       <c r="K310" t="n">
-        <v>9883.4677734375</v>
+        <v>9883.46875</v>
       </c>
     </row>
     <row r="311">
@@ -10780,7 +10778,7 @@
         <v>45387</v>
       </c>
       <c r="B311" t="n">
-        <v>6584.2275390625</v>
+        <v>6584.22802734375</v>
       </c>
       <c r="C311" t="n">
         <v>2557.449462890625</v>
@@ -10807,7 +10805,7 @@
         <v>3295.693603515625</v>
       </c>
       <c r="K311" t="n">
-        <v>9704.1748046875</v>
+        <v>9704.173828125</v>
       </c>
     </row>
     <row r="312">
@@ -10821,7 +10819,7 @@
         <v>2564.748779296875</v>
       </c>
       <c r="D312" t="n">
-        <v>1336.38671875</v>
+        <v>1336.386596679688</v>
       </c>
       <c r="E312" t="n">
         <v>626.3592529296875</v>
@@ -10842,7 +10840,7 @@
         <v>3315.435546875</v>
       </c>
       <c r="K312" t="n">
-        <v>9743.8359375</v>
+        <v>9743.8369140625</v>
       </c>
     </row>
     <row r="313">
@@ -10850,7 +10848,7 @@
         <v>45391</v>
       </c>
       <c r="B313" t="n">
-        <v>6445.97607421875</v>
+        <v>6445.9755859375</v>
       </c>
       <c r="C313" t="n">
         <v>2506.99755859375</v>
@@ -10877,7 +10875,7 @@
         <v>3278.73046875</v>
       </c>
       <c r="K313" t="n">
-        <v>9650.3876953125</v>
+        <v>9650.38671875</v>
       </c>
     </row>
     <row r="314">
@@ -10903,7 +10901,7 @@
         <v>2289.193603515625</v>
       </c>
       <c r="H314" t="n">
-        <v>241.3849792480469</v>
+        <v>241.3849945068359</v>
       </c>
       <c r="I314" t="n">
         <v>3689.516845703125</v>
@@ -10912,7 +10910,7 @@
         <v>3265.598876953125</v>
       </c>
       <c r="K314" t="n">
-        <v>9698.4951171875</v>
+        <v>9698.494140625</v>
       </c>
     </row>
     <row r="315">
@@ -10920,13 +10918,13 @@
         <v>45394</v>
       </c>
       <c r="B315" t="n">
-        <v>6666.26123046875</v>
+        <v>6666.26171875</v>
       </c>
       <c r="C315" t="n">
         <v>2451.38134765625</v>
       </c>
       <c r="D315" t="n">
-        <v>1331.976928710938</v>
+        <v>1331.97705078125</v>
       </c>
       <c r="E315" t="n">
         <v>604.803466796875</v>
@@ -10973,7 +10971,7 @@
         <v>2220.75634765625</v>
       </c>
       <c r="H316" t="n">
-        <v>234.4640808105469</v>
+        <v>234.4640960693359</v>
       </c>
       <c r="I316" t="n">
         <v>3539.702880859375</v>
@@ -10982,7 +10980,7 @@
         <v>3182.566650390625</v>
       </c>
       <c r="K316" t="n">
-        <v>9390.68359375</v>
+        <v>9390.6826171875</v>
       </c>
     </row>
     <row r="317">
@@ -10990,7 +10988,7 @@
         <v>45398</v>
       </c>
       <c r="B317" t="n">
-        <v>6559.548828125</v>
+        <v>6559.54931640625</v>
       </c>
       <c r="C317" t="n">
         <v>2425.906982421875</v>
@@ -11005,7 +11003,7 @@
         <v>864.3025512695312</v>
       </c>
       <c r="G317" t="n">
-        <v>2226.26513671875</v>
+        <v>2226.264892578125</v>
       </c>
       <c r="H317" t="n">
         <v>236.1071929931641</v>
@@ -11031,7 +11029,7 @@
         <v>2395.46728515625</v>
       </c>
       <c r="D318" t="n">
-        <v>1283.76953125</v>
+        <v>1283.769409179688</v>
       </c>
       <c r="E318" t="n">
         <v>611.1609497070312</v>
@@ -11040,10 +11038,10 @@
         <v>845.0048217773438</v>
       </c>
       <c r="G318" t="n">
-        <v>2209.490966796875</v>
+        <v>2209.49072265625</v>
       </c>
       <c r="H318" t="n">
-        <v>238.6464996337891</v>
+        <v>238.646484375</v>
       </c>
       <c r="I318" t="n">
         <v>3490.69873046875</v>
@@ -11052,7 +11050,7 @@
         <v>3263.697509765625</v>
       </c>
       <c r="K318" t="n">
-        <v>9268.68359375</v>
+        <v>9268.6845703125</v>
       </c>
     </row>
     <row r="319">
@@ -11060,7 +11058,7 @@
         <v>45401</v>
       </c>
       <c r="B319" t="n">
-        <v>6211.8203125</v>
+        <v>6211.82080078125</v>
       </c>
       <c r="C319" t="n">
         <v>2388.6640625</v>
@@ -11078,7 +11076,7 @@
         <v>2256.240234375</v>
       </c>
       <c r="H319" t="n">
-        <v>238.1983795166016</v>
+        <v>238.1983947753906</v>
       </c>
       <c r="I319" t="n">
         <v>3458.652099609375</v>
@@ -11095,7 +11093,7 @@
         <v>45404</v>
       </c>
       <c r="B320" t="n">
-        <v>6441.53271484375</v>
+        <v>6441.533203125</v>
       </c>
       <c r="C320" t="n">
         <v>2387.0751953125</v>
@@ -11122,7 +11120,7 @@
         <v>3374.163330078125</v>
       </c>
       <c r="K320" t="n">
-        <v>9448.96484375</v>
+        <v>9448.9658203125</v>
       </c>
     </row>
     <row r="321">
@@ -11130,7 +11128,7 @@
         <v>45405</v>
       </c>
       <c r="B321" t="n">
-        <v>6226.47998046875</v>
+        <v>6226.48046875</v>
       </c>
       <c r="C321" t="n">
         <v>2435.7890625</v>
@@ -11145,7 +11143,7 @@
         <v>873.8280639648438</v>
       </c>
       <c r="G321" t="n">
-        <v>2352.5185546875</v>
+        <v>2352.518798828125</v>
       </c>
       <c r="H321" t="n">
         <v>247.1109008789062</v>
@@ -11157,7 +11155,7 @@
         <v>3331.638427734375</v>
       </c>
       <c r="K321" t="n">
-        <v>9417.6513671875</v>
+        <v>9417.650390625</v>
       </c>
     </row>
     <row r="322">
@@ -11165,7 +11163,7 @@
         <v>45406</v>
       </c>
       <c r="B322" t="n">
-        <v>6262.41259765625</v>
+        <v>6262.4130859375</v>
       </c>
       <c r="C322" t="n">
         <v>2538.87744140625</v>
@@ -11183,7 +11181,7 @@
         <v>2320.35986328125</v>
       </c>
       <c r="H322" t="n">
-        <v>248.0071563720703</v>
+        <v>248.0071411132812</v>
       </c>
       <c r="I322" t="n">
         <v>3573.175048828125</v>
@@ -11192,7 +11190,7 @@
         <v>3315.9912109375</v>
       </c>
       <c r="K322" t="n">
-        <v>9541.4267578125</v>
+        <v>9541.427734375</v>
       </c>
     </row>
     <row r="323">
@@ -11227,7 +11225,7 @@
         <v>3351.4384765625</v>
       </c>
       <c r="K323" t="n">
-        <v>9566.025390625</v>
+        <v>9566.0244140625</v>
       </c>
     </row>
     <row r="324">
@@ -11235,13 +11233,13 @@
         <v>45408</v>
       </c>
       <c r="B324" t="n">
-        <v>6328.15771484375</v>
+        <v>6328.158203125</v>
       </c>
       <c r="C324" t="n">
         <v>2515.687744140625</v>
       </c>
       <c r="D324" t="n">
-        <v>1312.55517578125</v>
+        <v>1312.555297851562</v>
       </c>
       <c r="E324" t="n">
         <v>628.1472778320312</v>
@@ -11253,7 +11251,7 @@
         <v>2325.02490234375</v>
       </c>
       <c r="H324" t="n">
-        <v>251.4427032470703</v>
+        <v>251.4426879882812</v>
       </c>
       <c r="I324" t="n">
         <v>3544.0283203125</v>
@@ -11262,7 +11260,7 @@
         <v>3362.52294921875</v>
       </c>
       <c r="K324" t="n">
-        <v>9582.9677734375</v>
+        <v>9582.966796875</v>
       </c>
     </row>
     <row r="325">
@@ -11288,7 +11286,7 @@
         <v>2368.846435546875</v>
       </c>
       <c r="H325" t="n">
-        <v>246.0155334472656</v>
+        <v>246.0155181884766</v>
       </c>
       <c r="I325" t="n">
         <v>3572.634521484375</v>
@@ -11297,7 +11295,7 @@
         <v>3378.9892578125</v>
       </c>
       <c r="K325" t="n">
-        <v>9843.3134765625</v>
+        <v>9843.3125</v>
       </c>
     </row>
     <row r="326">
@@ -11311,7 +11309,7 @@
         <v>2514.446044921875</v>
       </c>
       <c r="D326" t="n">
-        <v>1312.852661132812</v>
+        <v>1312.8525390625</v>
       </c>
       <c r="E326" t="n">
         <v>615.7800903320312</v>
@@ -11320,10 +11318,10 @@
         <v>880.3428955078125</v>
       </c>
       <c r="G326" t="n">
-        <v>2393.7099609375</v>
+        <v>2393.710205078125</v>
       </c>
       <c r="H326" t="n">
-        <v>248.9531707763672</v>
+        <v>248.9531555175781</v>
       </c>
       <c r="I326" t="n">
         <v>3533.313232421875</v>
@@ -11355,7 +11353,7 @@
         <v>884.883544921875</v>
       </c>
       <c r="G327" t="n">
-        <v>2419.21923828125</v>
+        <v>2419.218994140625</v>
       </c>
       <c r="H327" t="n">
         <v>256.2225952148438</v>
@@ -11367,7 +11365,7 @@
         <v>3434.470458984375</v>
       </c>
       <c r="K327" t="n">
-        <v>9862.08203125</v>
+        <v>9862.0810546875</v>
       </c>
     </row>
     <row r="328">
@@ -11381,7 +11379,7 @@
         <v>2514.048828125</v>
       </c>
       <c r="D328" t="n">
-        <v>1308.29443359375</v>
+        <v>1308.294311523438</v>
       </c>
       <c r="E328" t="n">
         <v>618.3131103515625</v>
@@ -11402,7 +11400,7 @@
         <v>3467.548828125</v>
       </c>
       <c r="K328" t="n">
-        <v>9696.9638671875</v>
+        <v>9696.962890625</v>
       </c>
     </row>
     <row r="329">
@@ -11410,13 +11408,13 @@
         <v>45418</v>
       </c>
       <c r="B329" t="n">
-        <v>6875.744140625</v>
+        <v>6875.74365234375</v>
       </c>
       <c r="C329" t="n">
         <v>2472.43603515625</v>
       </c>
       <c r="D329" t="n">
-        <v>1278.220336914062</v>
+        <v>1278.22021484375</v>
       </c>
       <c r="E329" t="n">
         <v>603.4127807617188</v>
@@ -11463,7 +11461,7 @@
         <v>2402.990478515625</v>
       </c>
       <c r="H330" t="n">
-        <v>241.7833099365234</v>
+        <v>241.7833251953125</v>
       </c>
       <c r="I330" t="n">
         <v>3369.589111328125</v>
@@ -11486,7 +11484,7 @@
         <v>2422.878173828125</v>
       </c>
       <c r="D331" t="n">
-        <v>1265.6357421875</v>
+        <v>1265.635864257812</v>
       </c>
       <c r="E331" t="n">
         <v>590.5985107421875</v>
@@ -11550,13 +11548,13 @@
         <v>45422</v>
       </c>
       <c r="B333" t="n">
-        <v>7111.52880859375</v>
+        <v>7111.5283203125</v>
       </c>
       <c r="C333" t="n">
         <v>2343.97265625</v>
       </c>
       <c r="D333" t="n">
-        <v>1255.231323242188</v>
+        <v>1255.231201171875</v>
       </c>
       <c r="E333" t="n">
         <v>577.9332885742188</v>
@@ -11565,10 +11563,10 @@
         <v>815.1944580078125</v>
       </c>
       <c r="G333" t="n">
-        <v>2359.466552734375</v>
+        <v>2359.466796875</v>
       </c>
       <c r="H333" t="n">
-        <v>244.4222259521484</v>
+        <v>244.4222106933594</v>
       </c>
       <c r="I333" t="n">
         <v>3215.941162109375</v>
@@ -11591,7 +11589,7 @@
         <v>2347.548095703125</v>
       </c>
       <c r="D334" t="n">
-        <v>1294.520751953125</v>
+        <v>1294.520874023438</v>
       </c>
       <c r="E334" t="n">
         <v>584.2907104492188</v>
@@ -11612,7 +11610,7 @@
         <v>3872.356201171875</v>
       </c>
       <c r="K334" t="n">
-        <v>9435.3818359375</v>
+        <v>9435.3828125</v>
       </c>
     </row>
     <row r="335">
@@ -11620,13 +11618,13 @@
         <v>45426</v>
       </c>
       <c r="B335" t="n">
-        <v>8005.62744140625</v>
+        <v>8005.626953125</v>
       </c>
       <c r="C335" t="n">
         <v>2446.6142578125</v>
       </c>
       <c r="D335" t="n">
-        <v>1319.144897460938</v>
+        <v>1319.144775390625</v>
       </c>
       <c r="E335" t="n">
         <v>606.14453125</v>
@@ -11635,10 +11633,10 @@
         <v>828.22412109375</v>
       </c>
       <c r="G335" t="n">
-        <v>2354.404541015625</v>
+        <v>2354.40478515625</v>
       </c>
       <c r="H335" t="n">
-        <v>257.9154663085938</v>
+        <v>257.9154968261719</v>
       </c>
       <c r="I335" t="n">
         <v>3322.108642578125</v>
@@ -11647,7 +11645,7 @@
         <v>3895.95849609375</v>
       </c>
       <c r="K335" t="n">
-        <v>9543.20703125</v>
+        <v>9543.2060546875</v>
       </c>
     </row>
     <row r="336">
@@ -11661,7 +11659,7 @@
         <v>2472.088134765625</v>
       </c>
       <c r="D336" t="n">
-        <v>1325.684814453125</v>
+        <v>1325.684692382812</v>
       </c>
       <c r="E336" t="n">
         <v>609.1742553710938</v>
@@ -11673,7 +11671,7 @@
         <v>2352.072021484375</v>
       </c>
       <c r="H336" t="n">
-        <v>256.5711059570312</v>
+        <v>256.5711364746094</v>
       </c>
       <c r="I336" t="n">
         <v>3353.418212890625</v>
@@ -11690,13 +11688,13 @@
         <v>45428</v>
       </c>
       <c r="B337" t="n">
-        <v>8227.8388671875</v>
+        <v>8227.83984375</v>
       </c>
       <c r="C337" t="n">
         <v>2469.0595703125</v>
       </c>
       <c r="D337" t="n">
-        <v>1332.819458007812</v>
+        <v>1332.8193359375</v>
       </c>
       <c r="E337" t="n">
         <v>611.3099975585938</v>
@@ -11708,7 +11706,7 @@
         <v>2354.95068359375</v>
       </c>
       <c r="H337" t="n">
-        <v>257.9652404785156</v>
+        <v>257.9652709960938</v>
       </c>
       <c r="I337" t="n">
         <v>3401.8818359375</v>
@@ -11725,7 +11723,7 @@
         <v>45429</v>
       </c>
       <c r="B338" t="n">
-        <v>8293.4228515625</v>
+        <v>8293.421875</v>
       </c>
       <c r="C338" t="n">
         <v>2504.66357421875</v>
@@ -11743,7 +11741,7 @@
         <v>2405.62060546875</v>
       </c>
       <c r="H338" t="n">
-        <v>270.5125122070312</v>
+        <v>270.5124816894531</v>
       </c>
       <c r="I338" t="n">
         <v>3392.19873046875</v>
@@ -11787,7 +11785,7 @@
         <v>4260.84375</v>
       </c>
       <c r="K339" t="n">
-        <v>9670.390625</v>
+        <v>9670.3916015625</v>
       </c>
     </row>
     <row r="340">
@@ -11830,7 +11828,7 @@
         <v>45435</v>
       </c>
       <c r="B341" t="n">
-        <v>8345.1357421875</v>
+        <v>8345.13671875</v>
       </c>
       <c r="C341" t="n">
         <v>2598.466064453125</v>
@@ -11900,13 +11898,13 @@
         <v>45439</v>
       </c>
       <c r="B343" t="n">
-        <v>8320.1708984375</v>
+        <v>8320.171875</v>
       </c>
       <c r="C343" t="n">
         <v>2567.380859375</v>
       </c>
       <c r="D343" t="n">
-        <v>1418.631958007812</v>
+        <v>1418.6318359375</v>
       </c>
       <c r="E343" t="n">
         <v>628.2963256835938</v>
@@ -11927,7 +11925,7 @@
         <v>4220.42431640625</v>
       </c>
       <c r="K343" t="n">
-        <v>10101.189453125</v>
+        <v>10101.1884765625</v>
       </c>
     </row>
     <row r="344">
@@ -11935,7 +11933,7 @@
         <v>45440</v>
       </c>
       <c r="B344" t="n">
-        <v>8157.0048828125</v>
+        <v>8157.00537109375</v>
       </c>
       <c r="C344" t="n">
         <v>2552.9306640625</v>
@@ -11953,7 +11951,7 @@
         <v>2422.196533203125</v>
       </c>
       <c r="H344" t="n">
-        <v>286.4953002929688</v>
+        <v>286.4953308105469</v>
       </c>
       <c r="I344" t="n">
         <v>3596.12890625</v>
@@ -11970,7 +11968,7 @@
         <v>45441</v>
       </c>
       <c r="B345" t="n">
-        <v>8122.03271484375</v>
+        <v>8122.033203125</v>
       </c>
       <c r="C345" t="n">
         <v>2519.114013671875</v>
@@ -12020,7 +12018,7 @@
         <v>791.7015380859375</v>
       </c>
       <c r="G346" t="n">
-        <v>2327.754150390625</v>
+        <v>2327.75439453125</v>
       </c>
       <c r="H346" t="n">
         <v>279.2756652832031</v>
@@ -12032,7 +12030,7 @@
         <v>4085.595703125</v>
       </c>
       <c r="K346" t="n">
-        <v>9748.875</v>
+        <v>9748.8740234375</v>
       </c>
     </row>
     <row r="347">
@@ -12046,7 +12044,7 @@
         <v>2528.94580078125</v>
       </c>
       <c r="D347" t="n">
-        <v>1424.329711914062</v>
+        <v>1424.32958984375</v>
       </c>
       <c r="E347" t="n">
         <v>629.8359985351562</v>
@@ -12075,13 +12073,13 @@
         <v>45446</v>
       </c>
       <c r="B348" t="n">
-        <v>8646.751953125</v>
+        <v>8646.7529296875</v>
       </c>
       <c r="C348" t="n">
         <v>2664.411376953125</v>
       </c>
       <c r="D348" t="n">
-        <v>1569.546997070312</v>
+        <v>1569.546875</v>
       </c>
       <c r="E348" t="n">
         <v>666.3417358398438</v>
@@ -12090,7 +12088,7 @@
         <v>857.935791015625</v>
       </c>
       <c r="G348" t="n">
-        <v>2351.1787109375</v>
+        <v>2351.178955078125</v>
       </c>
       <c r="H348" t="n">
         <v>294.4618225097656</v>
@@ -12116,7 +12114,7 @@
         <v>2266.407958984375</v>
       </c>
       <c r="D349" t="n">
-        <v>1237.593139648438</v>
+        <v>1237.593017578125</v>
       </c>
       <c r="E349" t="n">
         <v>552.9007568359375</v>
@@ -12128,7 +12126,7 @@
         <v>2239.614990234375</v>
       </c>
       <c r="H349" t="n">
-        <v>265.0355529785156</v>
+        <v>265.0355224609375</v>
       </c>
       <c r="I349" t="n">
         <v>3345.455810546875</v>
@@ -12137,7 +12135,7 @@
         <v>3727.3203125</v>
       </c>
       <c r="K349" t="n">
-        <v>9797.7236328125</v>
+        <v>9797.72265625</v>
       </c>
     </row>
     <row r="350">
@@ -12145,7 +12143,7 @@
         <v>45448</v>
       </c>
       <c r="B350" t="n">
-        <v>7739.9736328125</v>
+        <v>7739.97314453125</v>
       </c>
       <c r="C350" t="n">
         <v>2385.138671875</v>
@@ -12172,7 +12170,7 @@
         <v>3818.600341796875</v>
       </c>
       <c r="K350" t="n">
-        <v>9916.06640625</v>
+        <v>9916.0673828125</v>
       </c>
     </row>
     <row r="351">
@@ -12180,13 +12178,13 @@
         <v>45449</v>
       </c>
       <c r="B351" t="n">
-        <v>7913.1455078125</v>
+        <v>7913.14599609375</v>
       </c>
       <c r="C351" t="n">
         <v>2436.732421875</v>
       </c>
       <c r="D351" t="n">
-        <v>1340.6474609375</v>
+        <v>1340.647338867188</v>
       </c>
       <c r="E351" t="n">
         <v>605.9955444335938</v>
@@ -12207,7 +12205,7 @@
         <v>3974.0478515625</v>
       </c>
       <c r="K351" t="n">
-        <v>9932.7119140625</v>
+        <v>9932.712890625</v>
       </c>
     </row>
     <row r="352">
@@ -12221,7 +12219,7 @@
         <v>2481.970458984375</v>
       </c>
       <c r="D352" t="n">
-        <v>1366.31201171875</v>
+        <v>1366.311889648438</v>
       </c>
       <c r="E352" t="n">
         <v>617.1707153320312</v>
@@ -12250,7 +12248,7 @@
         <v>45453</v>
       </c>
       <c r="B353" t="n">
-        <v>7986.90283203125</v>
+        <v>7986.9033203125</v>
       </c>
       <c r="C353" t="n">
         <v>2525.6689453125</v>
@@ -12300,10 +12298,10 @@
         <v>844.9555053710938</v>
       </c>
       <c r="G354" t="n">
-        <v>2438.623291015625</v>
+        <v>2438.62353515625</v>
       </c>
       <c r="H354" t="n">
-        <v>282.1137084960938</v>
+        <v>282.1137390136719</v>
       </c>
       <c r="I354" t="n">
         <v>3537.638671875</v>
@@ -12320,13 +12318,13 @@
         <v>45455</v>
       </c>
       <c r="B355" t="n">
-        <v>8203.9140625</v>
+        <v>8203.9130859375</v>
       </c>
       <c r="C355" t="n">
         <v>2606.411376953125</v>
       </c>
       <c r="D355" t="n">
-        <v>1381.274658203125</v>
+        <v>1381.274536132812</v>
       </c>
       <c r="E355" t="n">
         <v>664.2557373046875</v>
@@ -12370,7 +12368,7 @@
         <v>862.7725219726562</v>
       </c>
       <c r="G356" t="n">
-        <v>2439.764892578125</v>
+        <v>2439.76513671875</v>
       </c>
       <c r="H356" t="n">
         <v>289.2337951660156</v>
@@ -12382,7 +12380,7 @@
         <v>4326.5615234375</v>
       </c>
       <c r="K356" t="n">
-        <v>11037.9599609375</v>
+        <v>11037.9609375</v>
       </c>
     </row>
     <row r="357">
@@ -12405,7 +12403,7 @@
         <v>867.2638549804688</v>
       </c>
       <c r="G357" t="n">
-        <v>2452.817138671875</v>
+        <v>2452.81689453125</v>
       </c>
       <c r="H357" t="n">
         <v>299.1421203613281</v>
@@ -12425,7 +12423,7 @@
         <v>45461</v>
       </c>
       <c r="B358" t="n">
-        <v>8784.4599609375</v>
+        <v>8784.458984375</v>
       </c>
       <c r="C358" t="n">
         <v>2641.337890625</v>
@@ -12440,7 +12438,7 @@
         <v>867.4612426757812</v>
       </c>
       <c r="G358" t="n">
-        <v>2439.268798828125</v>
+        <v>2439.2685546875</v>
       </c>
       <c r="H358" t="n">
         <v>304.0714111328125</v>
@@ -12452,7 +12450,7 @@
         <v>4520.32275390625</v>
       </c>
       <c r="K358" t="n">
-        <v>10983.875</v>
+        <v>10983.8759765625</v>
       </c>
     </row>
     <row r="359">
@@ -12530,7 +12528,7 @@
         <v>45464</v>
       </c>
       <c r="B361" t="n">
-        <v>8321.212890625</v>
+        <v>8321.2119140625</v>
       </c>
       <c r="C361" t="n">
         <v>2579.786376953125</v>
@@ -12545,10 +12543,10 @@
         <v>845.05419921875</v>
       </c>
       <c r="G361" t="n">
-        <v>2447.8046875</v>
+        <v>2447.804443359375</v>
       </c>
       <c r="H361" t="n">
-        <v>308.6023559570312</v>
+        <v>308.6023254394531</v>
       </c>
       <c r="I361" t="n">
         <v>3502.336181640625</v>
@@ -12557,7 +12555,7 @@
         <v>4349.78369140625</v>
       </c>
       <c r="K361" t="n">
-        <v>10532.77734375</v>
+        <v>10532.7783203125</v>
       </c>
     </row>
     <row r="362">
@@ -12565,7 +12563,7 @@
         <v>45467</v>
       </c>
       <c r="B362" t="n">
-        <v>8386.498046875</v>
+        <v>8386.4990234375</v>
       </c>
       <c r="C362" t="n">
         <v>2577.84423828125</v>
@@ -12583,7 +12581,7 @@
         <v>2496.390625</v>
       </c>
       <c r="H362" t="n">
-        <v>322.593505859375</v>
+        <v>322.5935363769531</v>
       </c>
       <c r="I362" t="n">
         <v>3498.967529296875</v>
@@ -12600,7 +12598,7 @@
         <v>45468</v>
       </c>
       <c r="B363" t="n">
-        <v>8321.458984375</v>
+        <v>8321.4599609375</v>
       </c>
       <c r="C363" t="n">
         <v>2559.36865234375</v>
@@ -12618,7 +12616,7 @@
         <v>2498.2265625</v>
       </c>
       <c r="H363" t="n">
-        <v>316.8177795410156</v>
+        <v>316.8178100585938</v>
       </c>
       <c r="I363" t="n">
         <v>3554.648193359375</v>
@@ -12635,7 +12633,7 @@
         <v>45469</v>
       </c>
       <c r="B364" t="n">
-        <v>8312.7412109375</v>
+        <v>8312.740234375</v>
       </c>
       <c r="C364" t="n">
         <v>2580.4833984375</v>
@@ -12662,7 +12660,7 @@
         <v>4443.841796875</v>
       </c>
       <c r="K364" t="n">
-        <v>11007.6328125</v>
+        <v>11007.6337890625</v>
       </c>
     </row>
     <row r="365">
@@ -12670,7 +12668,7 @@
         <v>45470</v>
       </c>
       <c r="B365" t="n">
-        <v>8562.5927734375</v>
+        <v>8562.59375</v>
       </c>
       <c r="C365" t="n">
         <v>2626.398193359375</v>
@@ -12720,7 +12718,7 @@
         <v>814.1087036132812</v>
       </c>
       <c r="G366" t="n">
-        <v>2650.5849609375</v>
+        <v>2650.584716796875</v>
       </c>
       <c r="H366" t="n">
         <v>327.0248718261719</v>
@@ -12732,7 +12730,7 @@
         <v>4506.66455078125</v>
       </c>
       <c r="K366" t="n">
-        <v>11526.0537109375</v>
+        <v>11526.0546875</v>
       </c>
     </row>
     <row r="367">
@@ -12767,7 +12765,7 @@
         <v>4604.37841796875</v>
       </c>
       <c r="K367" t="n">
-        <v>11759.92578125</v>
+        <v>11759.9267578125</v>
       </c>
     </row>
     <row r="368">
@@ -12802,7 +12800,7 @@
         <v>4546.2939453125</v>
       </c>
       <c r="K368" t="n">
-        <v>11709.841796875</v>
+        <v>11709.8427734375</v>
       </c>
     </row>
     <row r="369">
@@ -12828,7 +12826,7 @@
         <v>2721.9501953125</v>
       </c>
       <c r="H369" t="n">
-        <v>346.791748046875</v>
+        <v>346.7917785644531</v>
       </c>
       <c r="I369" t="n">
         <v>3580.952880859375</v>
@@ -12837,7 +12835,7 @@
         <v>4564.31005859375</v>
       </c>
       <c r="K369" t="n">
-        <v>11727.7705078125</v>
+        <v>11727.771484375</v>
       </c>
     </row>
     <row r="370">
@@ -12860,10 +12858,10 @@
         <v>827.7799682617188</v>
       </c>
       <c r="G370" t="n">
-        <v>2714.506103515625</v>
+        <v>2714.505859375</v>
       </c>
       <c r="H370" t="n">
-        <v>353.2645568847656</v>
+        <v>353.2645263671875</v>
       </c>
       <c r="I370" t="n">
         <v>3540.2822265625</v>
@@ -12898,7 +12896,7 @@
         <v>2727.55810546875</v>
       </c>
       <c r="H371" t="n">
-        <v>355.1565856933594</v>
+        <v>355.1565551757812</v>
       </c>
       <c r="I371" t="n">
         <v>3593.634521484375</v>
@@ -12907,7 +12905,7 @@
         <v>4612.56787109375</v>
       </c>
       <c r="K371" t="n">
-        <v>11548.0341796875</v>
+        <v>11548.033203125</v>
       </c>
     </row>
     <row r="372">
@@ -12942,7 +12940,7 @@
         <v>4528.21923828125</v>
       </c>
       <c r="K372" t="n">
-        <v>11442.0869140625</v>
+        <v>11442.087890625</v>
       </c>
     </row>
     <row r="373">
@@ -12950,7 +12948,7 @@
         <v>45482</v>
       </c>
       <c r="B373" t="n">
-        <v>8511.0283203125</v>
+        <v>8511.02734375</v>
       </c>
       <c r="C373" t="n">
         <v>2675.002197265625</v>
@@ -13000,7 +12998,7 @@
         <v>825.904541015625</v>
       </c>
       <c r="G374" t="n">
-        <v>2781.304931640625</v>
+        <v>2781.30517578125</v>
       </c>
       <c r="H374" t="n">
         <v>342.8085021972656</v>
@@ -13012,7 +13010,7 @@
         <v>4589.8134765625</v>
       </c>
       <c r="K374" t="n">
-        <v>11492.8125</v>
+        <v>11492.8134765625</v>
       </c>
     </row>
     <row r="375">
@@ -13047,7 +13045,7 @@
         <v>4548.4873046875</v>
       </c>
       <c r="K375" t="n">
-        <v>11414.4775390625</v>
+        <v>11414.4765625</v>
       </c>
     </row>
     <row r="376">
@@ -13073,7 +13071,7 @@
         <v>2822.595703125</v>
       </c>
       <c r="H376" t="n">
-        <v>337.7796936035156</v>
+        <v>337.7796630859375</v>
       </c>
       <c r="I376" t="n">
         <v>3615.629638671875</v>
@@ -13117,7 +13115,7 @@
         <v>4468.818359375</v>
       </c>
       <c r="K377" t="n">
-        <v>11689.7890625</v>
+        <v>11689.7900390625</v>
       </c>
     </row>
     <row r="378">
@@ -13125,7 +13123,7 @@
         <v>45489</v>
       </c>
       <c r="B378" t="n">
-        <v>8155.66650390625</v>
+        <v>8155.6669921875</v>
       </c>
       <c r="C378" t="n">
         <v>2704.931396484375</v>
@@ -13230,7 +13228,7 @@
         <v>45495</v>
       </c>
       <c r="B381" t="n">
-        <v>7645.1142578125</v>
+        <v>7645.11474609375</v>
       </c>
       <c r="C381" t="n">
         <v>2624.4560546875</v>
@@ -13245,7 +13243,7 @@
         <v>821.1664428710938</v>
       </c>
       <c r="G381" t="n">
-        <v>2790.63525390625</v>
+        <v>2790.635498046875</v>
       </c>
       <c r="H381" t="n">
         <v>316.638916015625</v>
@@ -13265,7 +13263,7 @@
         <v>45496</v>
       </c>
       <c r="B382" t="n">
-        <v>7433.205078125</v>
+        <v>7433.20556640625</v>
       </c>
       <c r="C382" t="n">
         <v>2635.909912109375</v>
@@ -13300,7 +13298,7 @@
         <v>45497</v>
       </c>
       <c r="B383" t="n">
-        <v>7452.57373046875</v>
+        <v>7452.57421875</v>
       </c>
       <c r="C383" t="n">
         <v>2608.8193359375</v>
@@ -13315,7 +13313,7 @@
         <v>808.8277587890625</v>
       </c>
       <c r="G383" t="n">
-        <v>2786.019775390625</v>
+        <v>2786.02001953125</v>
       </c>
       <c r="H383" t="n">
         <v>337.934326171875</v>
@@ -13432,7 +13430,7 @@
         <v>4150.93359375</v>
       </c>
       <c r="K386" t="n">
-        <v>11729.4501953125</v>
+        <v>11729.451171875</v>
       </c>
     </row>
     <row r="387">
@@ -13455,7 +13453,7 @@
         <v>868.547119140625</v>
       </c>
       <c r="G387" t="n">
-        <v>2770.138916015625</v>
+        <v>2770.138671875</v>
       </c>
       <c r="H387" t="n">
         <v>336.5379028320312</v>
@@ -13545,7 +13543,7 @@
         <v>45506</v>
       </c>
       <c r="B390" t="n">
-        <v>7508.25</v>
+        <v>7508.25048828125</v>
       </c>
       <c r="C390" t="n">
         <v>2425.50927734375</v>
@@ -13560,7 +13558,7 @@
         <v>838.3182373046875</v>
       </c>
       <c r="G390" t="n">
-        <v>2686.664794921875</v>
+        <v>2686.66455078125</v>
       </c>
       <c r="H390" t="n">
         <v>325.0672912597656</v>
@@ -13685,7 +13683,7 @@
         <v>45512</v>
       </c>
       <c r="B394" t="n">
-        <v>7868.36669921875</v>
+        <v>7868.3662109375</v>
       </c>
       <c r="C394" t="n">
         <v>2347.72314453125</v>
@@ -27934,7 +27932,7 @@
         <v>8.424545841740482</v>
       </c>
       <c r="G21" t="n">
-        <v>3.980603485595569</v>
+        <v>3.980613063063276</v>
       </c>
       <c r="H21" t="n">
         <v>3.381734388296476</v>
@@ -27946,7 +27944,7 @@
         <v>-7.419047029849136</v>
       </c>
       <c r="K21" t="n">
-        <v>2.48369035538456</v>
+        <v>2.483681672298155</v>
       </c>
     </row>
     <row r="22">
@@ -27962,7 +27960,7 @@
         <v>3.14655644287305</v>
       </c>
       <c r="D22" t="n">
-        <v>3.272689687763464</v>
+        <v>3.272698538614827</v>
       </c>
       <c r="E22" t="n">
         <v>6.028451920796818</v>
@@ -27971,7 +27969,7 @@
         <v>1.115676785999375</v>
       </c>
       <c r="G22" t="n">
-        <v>15.29196004793567</v>
+        <v>15.29194942860011</v>
       </c>
       <c r="H22" t="n">
         <v>16.02190091212297</v>
@@ -27983,7 +27981,7 @@
         <v>10.57054474356931</v>
       </c>
       <c r="K22" t="n">
-        <v>17.67333460484741</v>
+        <v>17.67334457490037</v>
       </c>
     </row>
     <row r="23">
@@ -27999,7 +27997,7 @@
         <v>0.5766580630615747</v>
       </c>
       <c r="D23" t="n">
-        <v>8.491208045010978</v>
+        <v>8.491208834531804</v>
       </c>
       <c r="E23" t="n">
         <v>2.282618165771799</v>
@@ -28008,10 +28006,10 @@
         <v>-8.544034064319028</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.955791933530217</v>
+        <v>-3.955801729324604</v>
       </c>
       <c r="H23" t="n">
-        <v>13.21999865770949</v>
+        <v>13.22000559716792</v>
       </c>
       <c r="I23" t="n">
         <v>2.086640334798862</v>
@@ -28030,13 +28028,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.828242140812565</v>
+        <v>2.828226148603341</v>
       </c>
       <c r="C24" t="n">
         <v>1.609335314907745</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.263174226622399</v>
+        <v>-1.263183407268131</v>
       </c>
       <c r="E24" t="n">
         <v>1.232964310982188</v>
@@ -28045,10 +28043,10 @@
         <v>-0.5741365772129248</v>
       </c>
       <c r="G24" t="n">
-        <v>5.436533130990906</v>
+        <v>5.436543884733647</v>
       </c>
       <c r="H24" t="n">
-        <v>1.895255836773679</v>
+        <v>1.895243227721033</v>
       </c>
       <c r="I24" t="n">
         <v>-4.505961428129812</v>
@@ -28067,7 +28065,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.82108467877357</v>
+        <v>16.82110284720162</v>
       </c>
       <c r="C25" t="n">
         <v>-5.233328166193174</v>
@@ -28082,10 +28080,10 @@
         <v>-0.466045665819903</v>
       </c>
       <c r="G25" t="n">
-        <v>4.376205144276102</v>
+        <v>4.376193428728303</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.346980915607579</v>
+        <v>-4.346980655925026</v>
       </c>
       <c r="I25" t="n">
         <v>8.234242277925063</v>
@@ -28104,7 +28102,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.55429754324607</v>
+        <v>16.55428520242956</v>
       </c>
       <c r="C26" t="n">
         <v>3.340795153942189</v>
@@ -28119,10 +28117,10 @@
         <v>12.28507442874429</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7540150560999104</v>
+        <v>0.7540263650817502</v>
       </c>
       <c r="H26" t="n">
-        <v>19.30232960895328</v>
+        <v>19.30233673590764</v>
       </c>
       <c r="I26" t="n">
         <v>-0.06322791683462947</v>
@@ -28131,7 +28129,7 @@
         <v>13.01444652889154</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.704234483600843</v>
+        <v>-2.704225023444806</v>
       </c>
     </row>
     <row r="27">
@@ -28141,7 +28139,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.06952565116681297</v>
+        <v>-0.06951507048638117</v>
       </c>
       <c r="C27" t="n">
         <v>15.06162510263809</v>
@@ -28168,7 +28166,7 @@
         <v>3.283413514822842</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.196207437370657</v>
+        <v>-3.196225961171928</v>
       </c>
     </row>
     <row r="28">
@@ -28196,7 +28194,7 @@
         <v>6.449928684249961</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.045127221263864</v>
+        <v>-1.045134424497274</v>
       </c>
       <c r="I28" t="n">
         <v>13.40538269433458</v>
@@ -28205,7 +28203,7 @@
         <v>10.03662552953728</v>
       </c>
       <c r="K28" t="n">
-        <v>16.65323474080154</v>
+        <v>16.65324572057745</v>
       </c>
     </row>
     <row r="29">
@@ -28215,13 +28213,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.554812426210256</v>
+        <v>7.554818899324856</v>
       </c>
       <c r="C29" t="n">
         <v>-0.669947032015783</v>
       </c>
       <c r="D29" t="n">
-        <v>5.192744671883132</v>
+        <v>5.192736415275112</v>
       </c>
       <c r="E29" t="n">
         <v>3.486863471695489</v>
@@ -28230,10 +28228,10 @@
         <v>11.06476352103522</v>
       </c>
       <c r="G29" t="n">
-        <v>6.294049076590791</v>
+        <v>6.294056032955253</v>
       </c>
       <c r="H29" t="n">
-        <v>24.15216092469468</v>
+        <v>24.1521811822758</v>
       </c>
       <c r="I29" t="n">
         <v>6.15045793894955</v>
@@ -28252,13 +28250,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2696286227800826</v>
+        <v>0.2696225881197778</v>
       </c>
       <c r="C30" t="n">
         <v>-6.164740600079577</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.896088673864762</v>
+        <v>-4.89608120913152</v>
       </c>
       <c r="E30" t="n">
         <v>-0.08238754357040579</v>
@@ -28267,7 +28265,7 @@
         <v>6.140516997599366</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.867583967729903</v>
+        <v>-2.867590324515157</v>
       </c>
       <c r="I30" t="n">
         <v>-3.125470765280969</v>
@@ -28276,7 +28274,7 @@
         <v>-9.300198261831582</v>
       </c>
       <c r="K30" t="n">
-        <v>2.027908661148192</v>
+        <v>2.027902551841843</v>
       </c>
     </row>
     <row r="31">
@@ -28310,7 +28308,7 @@
         <v>-6.363945810080573</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.5134157070118772</v>
+        <v>-0.51340974987657</v>
       </c>
     </row>
     <row r="32">
@@ -28335,7 +28333,7 @@
         <v>-2.82408842726638</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.631117697551999</v>
+        <v>-2.631124233868698</v>
       </c>
       <c r="I32" t="n">
         <v>1.943110798355341</v>
@@ -28344,7 +28342,7 @@
         <v>-1.529001733375024</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.2488639491452393</v>
+        <v>-0.2488520941000605</v>
       </c>
     </row>
     <row r="33">
@@ -28354,13 +28352,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.934658622337993</v>
+        <v>2.93467014829778</v>
       </c>
       <c r="C33" t="n">
         <v>11.82700205782887</v>
       </c>
       <c r="D33" t="n">
-        <v>5.928880974957029</v>
+        <v>5.928889860422148</v>
       </c>
       <c r="E33" t="n">
         <v>9.344482383791174</v>
@@ -28369,7 +28367,7 @@
         <v>6.583289985174701</v>
       </c>
       <c r="G33" t="n">
-        <v>6.618048704516655</v>
+        <v>6.618055861725014</v>
       </c>
       <c r="I33" t="n">
         <v>8.313300015777724</v>
@@ -28378,7 +28376,7 @@
         <v>5.749437467840401</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7404466577294988</v>
+        <v>0.7404346851099364</v>
       </c>
     </row>
     <row r="34">
@@ -28388,13 +28386,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.200863975477967</v>
+        <v>7.200845537804468</v>
       </c>
       <c r="C34" t="n">
-        <v>2.053781851647196</v>
+        <v>2.053788945830259</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05414119732196632</v>
+        <v>0.05413280463906212</v>
       </c>
       <c r="E34" t="n">
         <v>0.5429595764986805</v>
@@ -28403,7 +28401,7 @@
         <v>3.295433757476474</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9485907332155374</v>
+        <v>0.9485834395784432</v>
       </c>
       <c r="I34" t="n">
         <v>12.23676247884955</v>
@@ -28422,13 +28420,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.71269942779941</v>
+        <v>20.7127154183725</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8140214415417457</v>
+        <v>0.8140144335400779</v>
       </c>
       <c r="D35" t="n">
-        <v>8.447086139097326</v>
+        <v>8.447076268656506</v>
       </c>
       <c r="E35" t="n">
         <v>6.834802815938756</v>
@@ -28437,7 +28435,7 @@
         <v>11.42655686943359</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.113356019452171</v>
+        <v>-0.1133560112713705</v>
       </c>
       <c r="I35" t="n">
         <v>-6.71416899310996</v>
@@ -28446,7 +28444,7 @@
         <v>2.958304086005326</v>
       </c>
       <c r="K35" t="n">
-        <v>4.153543272159799</v>
+        <v>4.153536427796101</v>
       </c>
     </row>
     <row r="36">
@@ -28456,13 +28454,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.733587382116042</v>
+        <v>1.733565014860905</v>
       </c>
       <c r="C36" t="n">
-        <v>5.737166716696929</v>
+        <v>5.737174551887558</v>
       </c>
       <c r="D36" t="n">
-        <v>7.817679812827794</v>
+        <v>7.817700206301992</v>
       </c>
       <c r="E36" t="n">
         <v>8.466698574801889</v>
@@ -28471,7 +28469,7 @@
         <v>19.48414584576179</v>
       </c>
       <c r="G36" t="n">
-        <v>5.365347706140167</v>
+        <v>5.365355310263431</v>
       </c>
       <c r="I36" t="n">
         <v>9.2505243371231</v>
@@ -28480,7 +28478,7 @@
         <v>3.680333329366081</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.8652441389492838</v>
+        <v>-0.8652376243906135</v>
       </c>
     </row>
     <row r="37">
@@ -28490,13 +28488,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.593827074741319</v>
+        <v>4.59385055637016</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.724665428526364</v>
+        <v>-3.724672562588738</v>
       </c>
       <c r="D37" t="n">
-        <v>6.658794392878442</v>
+        <v>6.658772762744958</v>
       </c>
       <c r="E37" t="n">
         <v>6.854718589630449</v>
@@ -28505,7 +28503,7 @@
         <v>1.436103088996021</v>
       </c>
       <c r="G37" t="n">
-        <v>3.430362709712598</v>
+        <v>3.430354574943895</v>
       </c>
       <c r="I37" t="n">
         <v>2.610041999758717</v>
@@ -28524,22 +28522,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.30693728670735</v>
+        <v>13.30690875694576</v>
       </c>
       <c r="C38" t="n">
         <v>-12.02052795494972</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.297147641428655</v>
+        <v>-3.297137519934279</v>
       </c>
       <c r="E38" t="n">
-        <v>-14.73080496255012</v>
+        <v>-14.73081153006123</v>
       </c>
       <c r="F38" t="n">
         <v>-1.235786334857536</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7326107420271954</v>
+        <v>-0.7326029346745533</v>
       </c>
       <c r="I38" t="n">
         <v>-0.7178340594005572</v>
@@ -28548,7 +28546,7 @@
         <v>10.93987682729882</v>
       </c>
       <c r="K38" t="n">
-        <v>2.480396053814071</v>
+        <v>2.480403235555362</v>
       </c>
     </row>
     <row r="39">
@@ -28903,7 +28901,7 @@
         <v>9.156195174563099</v>
       </c>
       <c r="G8" t="n">
-        <v>5.08688751266948</v>
+        <v>5.086897192035034</v>
       </c>
       <c r="H8" t="n">
         <v>5.257517508245413</v>
@@ -28915,7 +28913,7 @@
         <v>-5.899162579205342</v>
       </c>
       <c r="K8" t="n">
-        <v>1.749153730267516</v>
+        <v>1.749145109415817</v>
       </c>
     </row>
     <row r="9">
@@ -28925,7 +28923,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33.9640071882978</v>
+        <v>33.96398635374507</v>
       </c>
       <c r="C9" t="n">
         <v>5.410905709996627</v>
@@ -28940,10 +28938,10 @@
         <v>-8.054621455125922</v>
       </c>
       <c r="G9" t="n">
-        <v>16.75119108454506</v>
+        <v>16.75118033080234</v>
       </c>
       <c r="H9" t="n">
-        <v>33.84960262124586</v>
+        <v>33.84959426187812</v>
       </c>
       <c r="I9" t="n">
         <v>-4.983027440153953</v>
@@ -28952,7 +28950,7 @@
         <v>43.3648815377377</v>
       </c>
       <c r="K9" t="n">
-        <v>19.68120311120778</v>
+        <v>19.68121325138046</v>
       </c>
     </row>
     <row r="10">
@@ -28962,7 +28960,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.06532850685014</v>
+        <v>36.06534966821102</v>
       </c>
       <c r="C10" t="n">
         <v>12.68287813119844</v>
@@ -28980,7 +28978,7 @@
         <v>7.569556033098124</v>
       </c>
       <c r="H10" t="n">
-        <v>17.78684207951649</v>
+        <v>17.78684943571007</v>
       </c>
       <c r="I10" t="n">
         <v>6.747018705694918</v>
@@ -28989,7 +28987,7 @@
         <v>34.05715491080432</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.177910639997299</v>
+        <v>-7.177919376708686</v>
       </c>
     </row>
     <row r="11">
@@ -29023,7 +29021,7 @@
         <v>9.590197266871204</v>
       </c>
       <c r="K11" t="n">
-        <v>27.23489912551234</v>
+        <v>27.23490348259756</v>
       </c>
     </row>
     <row r="12">
@@ -29033,13 +29031,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.224650617349337</v>
+        <v>-7.22464022896353</v>
       </c>
       <c r="C12" t="n">
         <v>11.51389002130441</v>
       </c>
       <c r="D12" t="n">
-        <v>12.37027739248249</v>
+        <v>12.37028681826109</v>
       </c>
       <c r="E12" t="n">
         <v>0.3229745905372949</v>
@@ -29057,7 +29055,7 @@
         <v>-2.494410836219008</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.02619010532433075</v>
+        <v>-0.02618411901453843</v>
       </c>
     </row>
     <row r="13">
@@ -29067,13 +29065,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.64840644974933</v>
+        <v>31.6483723021417</v>
       </c>
       <c r="C13" t="n">
-        <v>8.787178042977327</v>
+        <v>8.787186104175703</v>
       </c>
       <c r="D13" t="n">
-        <v>16.98843676628263</v>
+        <v>16.98843843338451</v>
       </c>
       <c r="E13" t="n">
         <v>16.50936609716112</v>
@@ -29116,349 +29114,4 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Start Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Latest Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Return %</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ABB.NS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2637.91796875</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5987</v>
-      </c>
-      <c r="D2" t="n">
-        <v>126.9592940692159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ACC.NS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2410.714599609375</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1612.599975585938</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-33.10697268572405</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ADANIPORTS.NS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>809.3815307617188</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1511.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.74752790288025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>AMBUJACEM.NS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>519.970703125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>512</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.53291388862804</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>DLF.NS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>372.306640625</v>
-      </c>
-      <c r="C6" t="n">
-        <v>629.2999877929688</v>
-      </c>
-      <c r="D6" t="n">
-        <v>69.02733368831346</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>GRASIM.NS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1702.263793945312</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2832.800048828125</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66.41369327738474</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>JSWINFRA.NS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LT.NS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2030.88916015625</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4380.60009765625</v>
-      </c>
-      <c r="D9" t="n">
-        <v>115.6986301172252</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>SIEMENS.NS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1638.243286132812</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3206.199951171875</v>
-      </c>
-      <c r="D10" t="n">
-        <v>95.70963472344414</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>ULTRACEMCO.NS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6901.09228515625</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12766</v>
-      </c>
-      <c r="D11" t="n">
-        <v>84.98520918867789</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:Z100">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-15"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="15"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFFFFF"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CAGR %</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ABB.NS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29.88106727253072</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ACC.NS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-12.03756280495335</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ADANIPORTS.NS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>22.04756420446912</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>AMBUJACEM.NS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.4915673372064222</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>DLF.NS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>18.22716309722154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>GRASIM.NS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>17.6409015182448</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>JSWINFRA.NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LT.NS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>27.78970235381482</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>SIEMENS.NS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>23.88622524963908</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>ULTRACEMCO.NS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21.67897371632923</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>